--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B508D61-A2C2-4145-B61E-7ACFC6694632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0775AC1A-73C2-4AEA-A723-E18F15EAAF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="980">
   <si>
     <t>VJDBv0.2</t>
   </si>
@@ -3172,9 +3172,6 @@
   </si>
   <si>
     <t>submission requiredness</t>
-  </si>
-  <si>
-    <t>publice</t>
   </si>
 </sst>
 </file>
@@ -4471,7 +4468,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>980</v>
+        <v>672</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>
@@ -11853,7 +11850,7 @@
       </c>
       <c r="S101" s="3"/>
       <c r="T101" s="3" t="str">
-        <f t="shared" ref="T101:T132" si="5">"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
+        <f t="shared" ref="T101:T109" si="5">"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
     IF(H101&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
     IF(I101&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
     IF(J101&lt;&gt;"", """" &amp; J$1 &amp; """", ""),

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0775AC1A-73C2-4AEA-A723-E18F15EAAF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99257C4-A000-4AB8-9C5D-CF9F79AADFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="981">
   <si>
     <t>VJDBv0.2</t>
   </si>
@@ -3172,6 +3172,9 @@
   </si>
   <si>
     <t>submission requiredness</t>
+  </si>
+  <si>
+    <t>publice</t>
   </si>
 </sst>
 </file>
@@ -4468,7 +4471,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>672</v>
+        <v>980</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99257C4-A000-4AB8-9C5D-CF9F79AADFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16367782-FC88-480D-A5D4-9ADBEFDD6376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="980">
   <si>
     <t>VJDBv0.2</t>
   </si>
@@ -3172,9 +3172,6 @@
   </si>
   <si>
     <t>submission requiredness</t>
-  </si>
-  <si>
-    <t>publice</t>
   </si>
 </sst>
 </file>
@@ -4471,7 +4468,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>980</v>
+        <v>672</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16367782-FC88-480D-A5D4-9ADBEFDD6376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD5E4C7-DF1E-49A3-AEEF-005D224999EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="981">
   <si>
     <t>VJDBv0.2</t>
   </si>
@@ -3172,6 +3172,9 @@
   </si>
   <si>
     <t>submission requiredness</t>
+  </si>
+  <si>
+    <t>publice</t>
   </si>
 </sst>
 </file>
@@ -4468,7 +4471,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>672</v>
+        <v>980</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD5E4C7-DF1E-49A3-AEEF-005D224999EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E23E9A-2649-4064-8524-D73025074686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="980">
   <si>
     <t>VJDBv0.2</t>
   </si>
@@ -3172,9 +3172,6 @@
   </si>
   <si>
     <t>submission requiredness</t>
-  </si>
-  <si>
-    <t>publice</t>
   </si>
 </sst>
 </file>
@@ -4471,7 +4468,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>980</v>
+        <v>672</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E23E9A-2649-4064-8524-D73025074686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52DC0BA-422C-44EC-8400-2BC14513C7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="981">
   <si>
     <t>VJDBv0.2</t>
   </si>
@@ -3172,6 +3172,9 @@
   </si>
   <si>
     <t>submission requiredness</t>
+  </si>
+  <si>
+    <t>publice</t>
   </si>
 </sst>
 </file>
@@ -4468,7 +4471,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>672</v>
+        <v>980</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52DC0BA-422C-44EC-8400-2BC14513C7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9D38AC-EDE4-45CB-9600-6E011A4DF4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="980">
   <si>
     <t>VJDBv0.2</t>
   </si>
@@ -3172,9 +3172,6 @@
   </si>
   <si>
     <t>submission requiredness</t>
-  </si>
-  <si>
-    <t>publice</t>
   </si>
 </sst>
 </file>
@@ -4471,7 +4468,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>980</v>
+        <v>672</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9D38AC-EDE4-45CB-9600-6E011A4DF4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8ECD967-0685-4058-A16F-B689CD2B63CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="981">
   <si>
     <t>VJDBv0.2</t>
   </si>
@@ -3172,6 +3172,9 @@
   </si>
   <si>
     <t>submission requiredness</t>
+  </si>
+  <si>
+    <t>publice</t>
   </si>
 </sst>
 </file>
@@ -4468,7 +4471,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>672</v>
+        <v>980</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8ECD967-0685-4058-A16F-B689CD2B63CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B125673C-3D3D-439A-B54C-BFFF8F1D0208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="980">
   <si>
     <t>VJDBv0.2</t>
   </si>
@@ -3172,9 +3172,6 @@
   </si>
   <si>
     <t>submission requiredness</t>
-  </si>
-  <si>
-    <t>publice</t>
   </si>
 </sst>
 </file>
@@ -4471,7 +4468,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>980</v>
+        <v>672</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B125673C-3D3D-439A-B54C-BFFF8F1D0208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CB1BC7-FB78-4A9D-B216-876EC16118B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="981">
   <si>
     <t>VJDBv0.2</t>
   </si>
@@ -3172,6 +3172,9 @@
   </si>
   <si>
     <t>submission requiredness</t>
+  </si>
+  <si>
+    <t>publice</t>
   </si>
 </sst>
 </file>
@@ -4468,7 +4471,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>672</v>
+        <v>980</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CB1BC7-FB78-4A9D-B216-876EC16118B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62190EA-BA88-4C30-8FD7-801841F9FD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="980">
   <si>
     <t>VJDBv0.2</t>
   </si>
@@ -3172,9 +3172,6 @@
   </si>
   <si>
     <t>submission requiredness</t>
-  </si>
-  <si>
-    <t>publice</t>
   </si>
 </sst>
 </file>
@@ -4471,7 +4468,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>980</v>
+        <v>672</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62190EA-BA88-4C30-8FD7-801841F9FD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D28B66B-79AF-437C-9781-6B581B602F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="981">
   <si>
     <t>VJDBv0.2</t>
   </si>
@@ -3172,6 +3172,9 @@
   </si>
   <si>
     <t>submission requiredness</t>
+  </si>
+  <si>
+    <t>publice</t>
   </si>
 </sst>
 </file>
@@ -4468,7 +4471,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>672</v>
+        <v>980</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D28B66B-79AF-437C-9781-6B581B602F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF65DCF-3A50-4409-BDFF-2780AF6040A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="980">
   <si>
     <t>VJDBv0.2</t>
   </si>
@@ -3172,9 +3172,6 @@
   </si>
   <si>
     <t>submission requiredness</t>
-  </si>
-  <si>
-    <t>publice</t>
   </si>
 </sst>
 </file>
@@ -4471,7 +4468,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>980</v>
+        <v>672</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF65DCF-3A50-4409-BDFF-2780AF6040A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624701A1-E0C1-47D7-9978-DD4128E3E803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EC34AF-D47A-4457-A51B-411FA01841AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490FCF53-1440-4797-8944-BFD00B4CB9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3081" uniqueCount="988">
   <si>
     <t>VJDBv0.2</t>
   </si>
@@ -3184,6 +3184,18 @@
   </si>
   <si>
     <t>Object Name</t>
+  </si>
+  <si>
+    <t>ENA Analysis</t>
+  </si>
+  <si>
+    <t>ENA Study</t>
+  </si>
+  <si>
+    <t>ENA Sample</t>
+  </si>
+  <si>
+    <t>ENA Experiment</t>
   </si>
 </sst>
 </file>
@@ -3449,7 +3461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3536,23 +3548,22 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3909,14 +3920,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E033465-2455-477E-A700-6BF7A0771C26}">
   <dimension ref="A1:AO109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T51" sqref="T51"/>
+    <sheetView tabSelected="1" topLeftCell="H34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.5703125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="17" max="17" width="23.5703125" style="33"/>
-    <col min="21" max="21" width="23.5703125" customWidth="1"/>
+    <col min="21" max="21" width="100.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3968,7 +3978,7 @@
       <c r="P1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="33" t="s">
         <v>982</v>
       </c>
       <c r="R1" s="22" t="s">
@@ -4093,7 +4103,7 @@
       <c r="P2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="34" t="s">
         <v>983</v>
       </c>
       <c r="R2" s="22" t="s">
@@ -4171,333 +4181,333 @@
     </row>
     <row r="3" spans="1:41" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(A1), LOWER(A2))</f>
+        <f t="shared" ref="A3:AO3" si="0">_xlfn.TEXTJOIN(" ", TRUE, LOWER(A1), LOWER(A2))</f>
         <v>vjdbv0.3 field id</v>
       </c>
       <c r="B3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(B1), LOWER(B2))</f>
+        <f t="shared" si="0"/>
         <v>vjdbv0.3 name</v>
       </c>
       <c r="C3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(C1), LOWER(C2))</f>
+        <f t="shared" si="0"/>
         <v>vjdbv0.3 description</v>
       </c>
       <c r="D3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(D1), LOWER(D2))</f>
+        <f t="shared" si="0"/>
         <v>vjdbv0.3 fields type</v>
       </c>
       <c r="E3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(E1), LOWER(E2))</f>
+        <f t="shared" si="0"/>
         <v>vjdbv0.3 privacy</v>
       </c>
       <c r="F3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(F1), LOWER(F2))</f>
+        <f t="shared" si="0"/>
         <v>vjdbv0.2  field id</v>
       </c>
       <c r="G3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(G1), LOWER(G2))</f>
+        <f t="shared" si="0"/>
         <v>vjdbv0.1 field id</v>
       </c>
       <c r="H3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(H1), LOWER(H2))</f>
+        <f t="shared" si="0"/>
         <v>ena field id</v>
       </c>
       <c r="I3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(I1), LOWER(I2))</f>
+        <f t="shared" si="0"/>
         <v>rki field id</v>
       </c>
       <c r="J3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(J1), LOWER(J2))</f>
+        <f t="shared" si="0"/>
         <v>migs-vi field id</v>
       </c>
       <c r="K3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(K1), LOWER(K2))</f>
+        <f t="shared" si="0"/>
         <v>migs-uvig field id</v>
       </c>
       <c r="L3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(L1), LOWER(L2))</f>
+        <f t="shared" si="0"/>
         <v>env-o field id</v>
       </c>
       <c r="M3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(M1), LOWER(M2))</f>
+        <f t="shared" si="0"/>
         <v>ncbi virus n nucleotide field id</v>
       </c>
       <c r="N3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(N1), LOWER(N2))</f>
+        <f t="shared" si="0"/>
         <v>bv-brc b field name</v>
       </c>
       <c r="O3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(O1), LOWER(O2))</f>
+        <f t="shared" si="0"/>
         <v>ena erc32 field name</v>
       </c>
       <c r="P3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(P1), LOWER(P2))</f>
+        <f t="shared" si="0"/>
         <v>ena erc33 field name</v>
       </c>
       <c r="Q3" s="21" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(Q1), LOWER(Q2))</f>
+        <f t="shared" si="0"/>
         <v>ena submission object object name</v>
       </c>
       <c r="R3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(R1), LOWER(R2))</f>
+        <f t="shared" si="0"/>
         <v>vjdbv0.3 group1</v>
       </c>
       <c r="S3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(S1), LOWER(S2))</f>
+        <f t="shared" si="0"/>
         <v>vjdbv0.3 group2</v>
       </c>
       <c r="T3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(T1), LOWER(T2))</f>
+        <f t="shared" si="0"/>
         <v>vjdbv0.3 group3</v>
       </c>
       <c r="U3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(U1), LOWER(U2))</f>
+        <f t="shared" si="0"/>
         <v>vjdbv0.3 tags</v>
       </c>
       <c r="V3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(V1), LOWER(V2))</f>
+        <f t="shared" si="0"/>
         <v>vjdbv0.3 input source</v>
       </c>
       <c r="W3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(W1), LOWER(W2))</f>
+        <f t="shared" si="0"/>
         <v>vjdbv0.3 changes</v>
       </c>
       <c r="X3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(X1), LOWER(X2))</f>
+        <f t="shared" si="0"/>
         <v>vjdbv0.2 previous changes</v>
       </c>
       <c r="Y3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(Y1), LOWER(Y2))</f>
+        <f t="shared" si="0"/>
         <v>ncbi virus n field name</v>
       </c>
       <c r="Z3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(Z1), LOWER(Z2))</f>
+        <f t="shared" si="0"/>
         <v>ncbi virus n field description</v>
       </c>
       <c r="AA3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(AA1), LOWER(AA2))</f>
+        <f t="shared" si="0"/>
         <v>ncbi virus n type</v>
       </c>
       <c r="AB3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(AB1), LOWER(AB2))</f>
+        <f t="shared" si="0"/>
         <v>ncbi virus n curation notes</v>
       </c>
       <c r="AC3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(AC1), LOWER(AC2))</f>
+        <f t="shared" si="0"/>
         <v>bv-brc b category</v>
       </c>
       <c r="AD3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(AD1), LOWER(AD2))</f>
+        <f t="shared" si="0"/>
         <v>bv-brc b schema category</v>
       </c>
       <c r="AE3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(AE1), LOWER(AE2))</f>
+        <f t="shared" si="0"/>
         <v>bv-brc b field id</v>
       </c>
       <c r="AF3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(AF1), LOWER(AF2))</f>
+        <f t="shared" si="0"/>
         <v>bv-brc b field type</v>
       </c>
       <c r="AG3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(AG1), LOWER(AG2))</f>
+        <f t="shared" si="0"/>
         <v>bv-brc b type</v>
       </c>
       <c r="AH3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(AH1), LOWER(AH2))</f>
+        <f t="shared" si="0"/>
         <v>bv-brc b curation notes</v>
       </c>
       <c r="AI3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(AI1), LOWER(AI2))</f>
+        <f t="shared" si="0"/>
         <v>ena erc32 field description</v>
       </c>
       <c r="AJ3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(AJ1), LOWER(AJ2))</f>
+        <f t="shared" si="0"/>
         <v>ena erc32 controlled vocabulary</v>
       </c>
       <c r="AK3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(AK1), LOWER(AK2))</f>
+        <f t="shared" si="0"/>
         <v>ena erc32 field type</v>
       </c>
       <c r="AL3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(AL1), LOWER(AL2))</f>
+        <f t="shared" si="0"/>
         <v>ena erc33 field description</v>
       </c>
       <c r="AM3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(AM1), LOWER(AM2))</f>
+        <f t="shared" si="0"/>
         <v>ena erc33 controlled vocabulary</v>
       </c>
       <c r="AN3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(AN1), LOWER(AN2))</f>
+        <f t="shared" si="0"/>
         <v>ena erc33 field type</v>
       </c>
       <c r="AO3" s="19" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, LOWER(AO1), LOWER(AO2))</f>
+        <f t="shared" si="0"/>
         <v>ena submission requiredness</v>
       </c>
     </row>
     <row r="4" spans="1:41" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="str">
-        <f>SUBSTITUTE(A3, " ", "_")</f>
+        <f t="shared" ref="A4:AO4" si="1">SUBSTITUTE(A3, " ", "_")</f>
         <v>vjdbv0.3_field_id</v>
       </c>
       <c r="B4" s="19" t="str">
-        <f>SUBSTITUTE(B3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>vjdbv0.3_name</v>
       </c>
       <c r="C4" s="19" t="str">
-        <f>SUBSTITUTE(C3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>vjdbv0.3_description</v>
       </c>
       <c r="D4" s="19" t="str">
-        <f>SUBSTITUTE(D3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>vjdbv0.3_fields_type</v>
       </c>
       <c r="E4" s="19" t="str">
-        <f>SUBSTITUTE(E3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>vjdbv0.3_privacy</v>
       </c>
       <c r="F4" s="19" t="str">
-        <f>SUBSTITUTE(F3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>vjdbv0.2__field_id</v>
       </c>
       <c r="G4" s="19" t="str">
-        <f>SUBSTITUTE(G3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>vjdbv0.1_field_id</v>
       </c>
       <c r="H4" s="19" t="str">
-        <f>SUBSTITUTE(H3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>ena_field_id</v>
       </c>
       <c r="I4" s="19" t="str">
-        <f>SUBSTITUTE(I3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>rki_field_id</v>
       </c>
       <c r="J4" s="19" t="str">
-        <f>SUBSTITUTE(J3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>migs-vi_field_id</v>
       </c>
       <c r="K4" s="19" t="str">
-        <f>SUBSTITUTE(K3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>migs-uvig_field_id</v>
       </c>
       <c r="L4" s="19" t="str">
-        <f>SUBSTITUTE(L3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>env-o_field_id</v>
       </c>
       <c r="M4" s="19" t="str">
-        <f>SUBSTITUTE(M3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>ncbi_virus_n_nucleotide_field_id</v>
       </c>
       <c r="N4" s="19" t="str">
-        <f>SUBSTITUTE(N3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>bv-brc_b_field_name</v>
       </c>
       <c r="O4" s="19" t="str">
-        <f>SUBSTITUTE(O3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>ena_erc32_field_name</v>
       </c>
       <c r="P4" s="19" t="str">
-        <f>SUBSTITUTE(P3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>ena_erc33_field_name</v>
       </c>
       <c r="Q4" s="24" t="str">
-        <f>SUBSTITUTE(Q3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>ena_submission_object_object_name</v>
       </c>
       <c r="R4" s="19" t="str">
-        <f>SUBSTITUTE(R3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>vjdbv0.3_group1</v>
       </c>
       <c r="S4" s="19" t="str">
-        <f>SUBSTITUTE(S3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>vjdbv0.3_group2</v>
       </c>
       <c r="T4" s="19" t="str">
-        <f>SUBSTITUTE(T3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>vjdbv0.3_group3</v>
       </c>
       <c r="U4" s="19" t="str">
-        <f>SUBSTITUTE(U3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>vjdbv0.3_tags</v>
       </c>
       <c r="V4" s="19" t="str">
-        <f>SUBSTITUTE(V3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>vjdbv0.3_input_source</v>
       </c>
       <c r="W4" s="19" t="str">
-        <f>SUBSTITUTE(W3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>vjdbv0.3_changes</v>
       </c>
       <c r="X4" s="19" t="str">
-        <f>SUBSTITUTE(X3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>vjdbv0.2_previous_changes</v>
       </c>
       <c r="Y4" s="19" t="str">
-        <f>SUBSTITUTE(Y3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>ncbi_virus_n_field_name</v>
       </c>
       <c r="Z4" s="19" t="str">
-        <f>SUBSTITUTE(Z3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>ncbi_virus_n_field_description</v>
       </c>
       <c r="AA4" s="19" t="str">
-        <f>SUBSTITUTE(AA3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>ncbi_virus_n_type</v>
       </c>
       <c r="AB4" s="19" t="str">
-        <f>SUBSTITUTE(AB3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>ncbi_virus_n_curation_notes</v>
       </c>
       <c r="AC4" s="19" t="str">
-        <f>SUBSTITUTE(AC3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>bv-brc_b_category</v>
       </c>
       <c r="AD4" s="19" t="str">
-        <f>SUBSTITUTE(AD3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>bv-brc_b_schema_category</v>
       </c>
       <c r="AE4" s="19" t="str">
-        <f>SUBSTITUTE(AE3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>bv-brc_b_field_id</v>
       </c>
       <c r="AF4" s="19" t="str">
-        <f>SUBSTITUTE(AF3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>bv-brc_b_field_type</v>
       </c>
       <c r="AG4" s="19" t="str">
-        <f>SUBSTITUTE(AG3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>bv-brc_b_type</v>
       </c>
       <c r="AH4" s="19" t="str">
-        <f>SUBSTITUTE(AH3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>bv-brc_b_curation_notes</v>
       </c>
       <c r="AI4" s="19" t="str">
-        <f>SUBSTITUTE(AI3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>ena_erc32_field_description</v>
       </c>
       <c r="AJ4" s="19" t="str">
-        <f>SUBSTITUTE(AJ3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>ena_erc32_controlled_vocabulary</v>
       </c>
       <c r="AK4" s="19" t="str">
-        <f>SUBSTITUTE(AK3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>ena_erc32_field_type</v>
       </c>
       <c r="AL4" s="19" t="str">
-        <f>SUBSTITUTE(AL3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>ena_erc33_field_description</v>
       </c>
       <c r="AM4" s="19" t="str">
-        <f>SUBSTITUTE(AM3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>ena_erc33_controlled_vocabulary</v>
       </c>
       <c r="AN4" s="19" t="str">
-        <f>SUBSTITUTE(AN3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>ena_erc33_field_type</v>
       </c>
       <c r="AO4" s="19" t="str">
-        <f>SUBSTITUTE(AO3, " ", "_")</f>
+        <f t="shared" si="1"/>
         <v>ena_submission_requiredness</v>
       </c>
     </row>
@@ -4536,7 +4546,7 @@
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="36"/>
+      <c r="Q5" s="35"/>
       <c r="R5" s="3" t="s">
         <v>26</v>
       </c>
@@ -4550,7 +4560,7 @@
     IF(I5&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
     IF(J5&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
     IF(K5&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L5&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M5&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N5&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O5&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(O5&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P5&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
+    IF(L5&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M5&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N5&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O5&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P5&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
     IF(R5&lt;&gt;"", """" &amp; R5 &amp; """", ""), IF(Q5&lt;&gt;"", """" &amp; Q5 &amp; """", ""),
     IF(S5&lt;&gt;"", """" &amp; S5 &amp; """", ""),
     IF(T5&lt;&gt;"", """" &amp; T5 &amp; """", "")
@@ -4625,8 +4635,8 @@
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="37" t="s">
-        <v>150</v>
+      <c r="Q6" s="36" t="s">
+        <v>984</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>26</v>
@@ -4636,17 +4646,17 @@
       </c>
       <c r="T6" s="3"/>
       <c r="U6" s="3" t="str">
-        <f t="shared" ref="U6:U69" si="0">"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
+        <f t="shared" ref="U6:U69" si="2">"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
     IF(H6&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
     IF(I6&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
     IF(J6&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
     IF(K6&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L6&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M6&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N6&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O6&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(O6&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P6&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
+    IF(L6&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M6&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N6&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O6&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P6&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
     IF(R6&lt;&gt;"", """" &amp; R6 &amp; """", ""), IF(Q6&lt;&gt;"", """" &amp; Q6 &amp; """", ""),
     IF(S6&lt;&gt;"", """" &amp; S6 &amp; """", ""),
     IF(T6&lt;&gt;"", """" &amp; T6 &amp; """", "")
 ) &amp; "]"</f>
-        <v>["NCBI Virus", "BV-BRC", "Organizational", "Analysis", "Identifiers"]</v>
+        <v>["NCBI Virus", "BV-BRC", "Organizational", "ENA Analysis", "Identifiers"]</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>939</v>
@@ -4720,8 +4730,8 @@
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="37" t="s">
-        <v>979</v>
+      <c r="Q7" s="36" t="s">
+        <v>985</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>26</v>
@@ -4731,8 +4741,8 @@
       </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>["ENA", "NCBI Virus", "BV-BRC", "Organizational", "Study", "Identifiers"]</v>
+        <f t="shared" si="2"/>
+        <v>["ENA", "NCBI Virus", "BV-BRC", "Organizational", "ENA Study", "Identifiers"]</v>
       </c>
       <c r="V7" s="3" t="s">
         <v>939</v>
@@ -4808,8 +4818,8 @@
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="37" t="s">
-        <v>49</v>
+      <c r="Q8" s="36" t="s">
+        <v>986</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>26</v>
@@ -4817,12 +4827,10 @@
       <c r="S8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="T8" s="3"/>
       <c r="U8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>["ENA", "MIGS-VI", "NCBI Virus", "BV-BRC", "Organizational", "Sample", "Identifiers", "Sample"]</v>
+        <f t="shared" si="2"/>
+        <v>["ENA", "MIGS-VI", "NCBI Virus", "BV-BRC", "Organizational", "ENA Sample", "Identifiers"]</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>939</v>
@@ -4904,8 +4912,8 @@
       <c r="P9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q9" s="37" t="s">
-        <v>49</v>
+      <c r="Q9" s="36" t="s">
+        <v>986</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>49</v>
@@ -4915,8 +4923,8 @@
       </c>
       <c r="T9" s="3"/>
       <c r="U9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>["ENA", "RKI", "MIGS-VI", "NCBI Virus", "BV-BRC", "ENA ERC32", "ENA ERC32", "ENA ERC33", "Sample", "Sample", "Collection"]</v>
+        <f t="shared" si="2"/>
+        <v>["ENA", "RKI", "MIGS-VI", "NCBI Virus", "BV-BRC", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Collection"]</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>939</v>
@@ -5006,8 +5014,8 @@
       <c r="P10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q10" s="37" t="s">
-        <v>49</v>
+      <c r="Q10" s="36" t="s">
+        <v>986</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>49</v>
@@ -5015,8 +5023,8 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>["ENA", "MIGS-VI", "NCBI Virus", "BV-BRC", "ENA ERC32", "ENA ERC32", "ENA ERC33", "Sample", "Sample"]</v>
+        <f t="shared" si="2"/>
+        <v>["ENA", "MIGS-VI", "NCBI Virus", "BV-BRC", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample"]</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>939</v>
@@ -5098,7 +5106,7 @@
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="36"/>
+      <c r="Q11" s="35"/>
       <c r="R11" s="3" t="s">
         <v>49</v>
       </c>
@@ -5109,7 +5117,7 @@
         <v>72</v>
       </c>
       <c r="U11" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>["NCBI Virus", "BV-BRC", "Sample", "Virus", "NCBI Taxonomy"]</v>
       </c>
       <c r="V11" s="3" t="s">
@@ -5178,7 +5186,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="36"/>
+      <c r="Q12" s="35"/>
       <c r="R12" s="3" t="s">
         <v>49</v>
       </c>
@@ -5187,7 +5195,7 @@
       </c>
       <c r="T12" s="3"/>
       <c r="U12" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>["NCBI Virus", "Sample", "Sequence"]</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5248,7 +5256,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="36"/>
+      <c r="Q13" s="35"/>
       <c r="R13" s="3" t="s">
         <v>49</v>
       </c>
@@ -5257,7 +5265,7 @@
       </c>
       <c r="T13" s="3"/>
       <c r="U13" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>["NCBI Virus", "Sample", "Sequence"]</v>
       </c>
       <c r="V13" s="3" t="s">
@@ -5324,7 +5332,7 @@
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="36"/>
+      <c r="Q14" s="35"/>
       <c r="R14" s="3" t="s">
         <v>49</v>
       </c>
@@ -5333,7 +5341,7 @@
       </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>["NCBI Virus", "BV-BRC", "Sample", "Sequence"]</v>
       </c>
       <c r="V14" s="3" t="s">
@@ -5408,7 +5416,7 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="36"/>
+      <c r="Q15" s="35"/>
       <c r="R15" s="3" t="s">
         <v>49</v>
       </c>
@@ -5417,7 +5425,7 @@
       </c>
       <c r="T15" s="3"/>
       <c r="U15" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>["MIGS-VI", "NCBI Virus", "Sample", "Sequence"]</v>
       </c>
       <c r="V15" s="3" t="s">
@@ -5480,7 +5488,7 @@
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="36"/>
+      <c r="Q16" s="35"/>
       <c r="R16" s="3" t="s">
         <v>49</v>
       </c>
@@ -5491,7 +5499,7 @@
         <v>72</v>
       </c>
       <c r="U16" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>["NCBI Virus", "BV-BRC", "Sample", "Virus", "NCBI Taxonomy"]</v>
       </c>
       <c r="V16" s="3" t="s">
@@ -5562,14 +5570,14 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="36"/>
+      <c r="Q17" s="35"/>
       <c r="R17" s="3" t="s">
         <v>49</v>
       </c>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>["ENA", "NCBI Virus", "Sample"]</v>
       </c>
       <c r="V17" s="3" t="s">
@@ -5642,8 +5650,8 @@
       <c r="P18" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="Q18" s="37" t="s">
-        <v>49</v>
+      <c r="Q18" s="36" t="s">
+        <v>986</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>49</v>
@@ -5651,8 +5659,8 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>["NCBI Virus", "BV-BRC", "ENA ERC32", "ENA ERC32", "ENA ERC33", "Sample", "Sample"]</v>
+        <f t="shared" si="2"/>
+        <v>["NCBI Virus", "BV-BRC", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample"]</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>939</v>
@@ -5736,8 +5744,8 @@
       <c r="P19" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Q19" s="37" t="s">
-        <v>49</v>
+      <c r="Q19" s="36" t="s">
+        <v>986</v>
       </c>
       <c r="R19" s="3" t="s">
         <v>49</v>
@@ -5747,8 +5755,8 @@
       </c>
       <c r="T19" s="3"/>
       <c r="U19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>["ENA", "NCBI Virus", "BV-BRC", "ENA ERC32", "ENA ERC32", "ENA ERC33", "Sample", "Sample", "Host"]</v>
+        <f t="shared" si="2"/>
+        <v>["ENA", "NCBI Virus", "BV-BRC", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Host"]</v>
       </c>
       <c r="V19" s="3" t="s">
         <v>939</v>
@@ -5812,12 +5820,12 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-      <c r="Q20" s="38"/>
+      <c r="Q20" s="37"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>[]</v>
       </c>
       <c r="V20" s="3" t="s">
@@ -5884,8 +5892,8 @@
       <c r="P21" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="Q21" s="37" t="s">
-        <v>49</v>
+      <c r="Q21" s="36" t="s">
+        <v>986</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>49</v>
@@ -5895,8 +5903,8 @@
       </c>
       <c r="T21" s="3"/>
       <c r="U21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>["ENA", "NCBI Virus", "ENA ERC33", "Sample", "Sample", "Virus"]</v>
+        <f t="shared" si="2"/>
+        <v>["ENA", "NCBI Virus", "ENA ERC33", "Sample", "ENA Sample", "Virus"]</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>6</v>
@@ -5968,7 +5976,7 @@
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
-      <c r="Q22" s="36"/>
+      <c r="Q22" s="35"/>
       <c r="R22" s="3" t="s">
         <v>49</v>
       </c>
@@ -5977,7 +5985,7 @@
       </c>
       <c r="T22" s="3"/>
       <c r="U22" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>["NCBI Virus", "BV-BRC", "Sample", "Sequence"]</v>
       </c>
       <c r="V22" s="3" t="s">
@@ -6052,7 +6060,7 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="36"/>
+      <c r="Q23" s="35"/>
       <c r="R23" s="3" t="s">
         <v>49</v>
       </c>
@@ -6061,7 +6069,7 @@
       </c>
       <c r="T23" s="3"/>
       <c r="U23" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>["ENA", "NCBI Virus", "Sample", "Virus"]</v>
       </c>
       <c r="V23" s="3" t="s">
@@ -6126,7 +6134,7 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-      <c r="Q24" s="36"/>
+      <c r="Q24" s="35"/>
       <c r="R24" s="3" t="s">
         <v>49</v>
       </c>
@@ -6135,7 +6143,7 @@
       </c>
       <c r="T24" s="3"/>
       <c r="U24" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>["NCBI Virus", "Sample", "Sequence"]</v>
       </c>
       <c r="V24" s="3" t="s">
@@ -6194,7 +6202,7 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
-      <c r="Q25" s="36"/>
+      <c r="Q25" s="35"/>
       <c r="R25" s="3" t="s">
         <v>49</v>
       </c>
@@ -6203,7 +6211,7 @@
       </c>
       <c r="T25" s="3"/>
       <c r="U25" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>["NCBI Virus", "Sample", "Virus"]</v>
       </c>
       <c r="V25" s="3" t="s">
@@ -6268,7 +6276,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="36"/>
+      <c r="Q26" s="35"/>
       <c r="R26" s="3" t="s">
         <v>26</v>
       </c>
@@ -6277,7 +6285,7 @@
       </c>
       <c r="T26" s="3"/>
       <c r="U26" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>["NCBI Virus", "Organizational", "Submission"]</v>
       </c>
       <c r="V26" s="3" t="s">
@@ -6332,14 +6340,14 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="38"/>
+      <c r="Q27" s="37"/>
       <c r="R27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>["NCBI Virus", "Organizational"]</v>
       </c>
       <c r="V27" s="3" t="s">
@@ -6406,14 +6414,14 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-      <c r="Q28" s="36"/>
+      <c r="Q28" s="35"/>
       <c r="R28" s="3" t="s">
         <v>26</v>
       </c>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>["RKI", "NCBI Virus", "Organizational"]</v>
       </c>
       <c r="V28" s="3" t="s">
@@ -6466,14 +6474,14 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="38"/>
+      <c r="Q29" s="37"/>
       <c r="R29" s="3" t="s">
         <v>150</v>
       </c>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>["Analysis"]</v>
       </c>
       <c r="V29" s="3" t="s">
@@ -6538,7 +6546,7 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
-      <c r="Q30" s="36"/>
+      <c r="Q30" s="35"/>
       <c r="R30" s="3" t="s">
         <v>49</v>
       </c>
@@ -6549,7 +6557,7 @@
         <v>77</v>
       </c>
       <c r="U30" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>["NCBI Virus", "Sample", "Virus", "Sequence"]</v>
       </c>
       <c r="V30" s="3" t="s">
@@ -6616,7 +6624,7 @@
       </c>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
-      <c r="Q31" s="36"/>
+      <c r="Q31" s="35"/>
       <c r="R31" s="3" t="s">
         <v>49</v>
       </c>
@@ -6627,7 +6635,7 @@
         <v>72</v>
       </c>
       <c r="U31" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>["ENA", "NCBI Virus", "BV-BRC", "Sample", "Virus", "NCBI Taxonomy"]</v>
       </c>
       <c r="V31" s="3" t="s">
@@ -6704,7 +6712,7 @@
       </c>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="36"/>
+      <c r="Q32" s="35"/>
       <c r="R32" s="3" t="s">
         <v>26</v>
       </c>
@@ -6713,7 +6721,7 @@
       </c>
       <c r="T32" s="3"/>
       <c r="U32" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>["NCBI Virus", "BV-BRC", "Organizational", "Identifiers"]</v>
       </c>
       <c r="V32" s="3" t="s">
@@ -6782,7 +6790,7 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="36"/>
+      <c r="Q33" s="35"/>
       <c r="R33" s="3" t="s">
         <v>26</v>
       </c>
@@ -6791,7 +6799,7 @@
       </c>
       <c r="T33" s="3"/>
       <c r="U33" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>["NCBI Virus", "Organizational", "Submission"]</v>
       </c>
       <c r="V33" s="3" t="s">
@@ -6864,8 +6872,8 @@
       <c r="P34" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="Q34" s="37" t="s">
-        <v>49</v>
+      <c r="Q34" s="36" t="s">
+        <v>986</v>
       </c>
       <c r="R34" s="3" t="s">
         <v>49</v>
@@ -6875,8 +6883,8 @@
       </c>
       <c r="T34" s="3"/>
       <c r="U34" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>["ENA", "RKI", "MIGS-VI", "NCBI Virus", "ENA ERC32", "ENA ERC32", "ENA ERC33", "Sample", "Sample", "Collection"]</v>
+        <f t="shared" si="2"/>
+        <v>["ENA", "RKI", "MIGS-VI", "NCBI Virus", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Collection"]</v>
       </c>
       <c r="V34" s="3" t="s">
         <v>6</v>
@@ -6946,7 +6954,7 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
-      <c r="Q35" s="36"/>
+      <c r="Q35" s="35"/>
       <c r="R35" s="3" t="s">
         <v>49</v>
       </c>
@@ -6955,7 +6963,7 @@
       </c>
       <c r="T35" s="3"/>
       <c r="U35" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>["NCBI Virus", "Sample", "Collection"]</v>
       </c>
       <c r="V35" s="3" t="s">
@@ -7020,8 +7028,8 @@
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
-      <c r="Q36" s="37" t="s">
-        <v>150</v>
+      <c r="Q36" s="36" t="s">
+        <v>984</v>
       </c>
       <c r="R36" s="3" t="s">
         <v>26</v>
@@ -7031,8 +7039,8 @@
       </c>
       <c r="T36" s="3"/>
       <c r="U36" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>["ENA", "Organizational", "Analysis", "Identifiers"]</v>
+        <f t="shared" si="2"/>
+        <v>["ENA", "Organizational", "ENA Analysis", "Identifiers"]</v>
       </c>
       <c r="V36" s="3"/>
       <c r="W36" s="3" t="s">
@@ -7092,8 +7100,8 @@
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
-      <c r="Q37" s="37" t="s">
-        <v>150</v>
+      <c r="Q37" s="36" t="s">
+        <v>984</v>
       </c>
       <c r="R37" s="3" t="s">
         <v>150</v>
@@ -7103,8 +7111,8 @@
       </c>
       <c r="T37" s="3"/>
       <c r="U37" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>["ENA", "Analysis", "Analysis", "Sequence"]</v>
+        <f t="shared" si="2"/>
+        <v>["ENA", "Analysis", "ENA Analysis", "Sequence"]</v>
       </c>
       <c r="V37" s="3"/>
       <c r="W37" s="3" t="s">
@@ -7166,8 +7174,8 @@
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
-      <c r="Q38" s="37" t="s">
-        <v>150</v>
+      <c r="Q38" s="36" t="s">
+        <v>984</v>
       </c>
       <c r="R38" s="3" t="s">
         <v>150</v>
@@ -7177,8 +7185,8 @@
       </c>
       <c r="T38" s="3"/>
       <c r="U38" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>["ENA", "Analysis", "Analysis", "Sequence"]</v>
+        <f t="shared" si="2"/>
+        <v>["ENA", "Analysis", "ENA Analysis", "Sequence"]</v>
       </c>
       <c r="V38" s="3"/>
       <c r="W38" s="3" t="s">
@@ -7238,8 +7246,8 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-      <c r="Q39" s="37" t="s">
-        <v>150</v>
+      <c r="Q39" s="36" t="s">
+        <v>984</v>
       </c>
       <c r="R39" s="3" t="s">
         <v>150</v>
@@ -7249,8 +7257,8 @@
       </c>
       <c r="T39" s="3"/>
       <c r="U39" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>["ENA", "Analysis", "Analysis", "Sequence"]</v>
+        <f t="shared" si="2"/>
+        <v>["ENA", "Analysis", "ENA Analysis", "Sequence"]</v>
       </c>
       <c r="V39" s="3"/>
       <c r="W39" s="3" t="s">
@@ -7316,8 +7324,8 @@
       </c>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-      <c r="Q40" s="37" t="s">
-        <v>150</v>
+      <c r="Q40" s="36" t="s">
+        <v>984</v>
       </c>
       <c r="R40" s="3" t="s">
         <v>150</v>
@@ -7327,8 +7335,8 @@
       </c>
       <c r="T40" s="3"/>
       <c r="U40" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>["ENA", "MIGS-VI", "BV-BRC", "Analysis", "Analysis", "Sequence"]</v>
+        <f t="shared" si="2"/>
+        <v>["ENA", "MIGS-VI", "BV-BRC", "Analysis", "ENA Analysis", "Sequence"]</v>
       </c>
       <c r="V40" s="3" t="s">
         <v>944</v>
@@ -7398,8 +7406,8 @@
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
-      <c r="Q41" s="37" t="s">
-        <v>150</v>
+      <c r="Q41" s="36" t="s">
+        <v>984</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>150</v>
@@ -7409,8 +7417,8 @@
       </c>
       <c r="T41" s="3"/>
       <c r="U41" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>["ENA", "Analysis", "Analysis", "Sequence"]</v>
+        <f t="shared" si="2"/>
+        <v>["ENA", "Analysis", "ENA Analysis", "Sequence"]</v>
       </c>
       <c r="V41" s="3"/>
       <c r="W41" s="3" t="s">
@@ -7472,7 +7480,7 @@
       </c>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
-      <c r="Q42" s="36"/>
+      <c r="Q42" s="35"/>
       <c r="R42" s="3" t="s">
         <v>26</v>
       </c>
@@ -7483,7 +7491,7 @@
         <v>77</v>
       </c>
       <c r="U42" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>["BV-BRC", "Organizational", "Identifiers", "Sequence"]</v>
       </c>
       <c r="V42" s="3" t="s">
@@ -7552,8 +7560,8 @@
       <c r="P43" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="Q43" s="37" t="s">
-        <v>49</v>
+      <c r="Q43" s="36" t="s">
+        <v>986</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>49</v>
@@ -7563,8 +7571,8 @@
       </c>
       <c r="T43" s="3"/>
       <c r="U43" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>["ENA", "ENA ERC32", "ENA ERC32", "ENA ERC33", "Sample", "Sample", "Collection"]</v>
+        <f t="shared" si="2"/>
+        <v>["ENA", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Collection"]</v>
       </c>
       <c r="V43" s="3"/>
       <c r="W43" s="3" t="s">
@@ -7634,8 +7642,8 @@
       <c r="P44" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="Q44" s="37" t="s">
-        <v>49</v>
+      <c r="Q44" s="36" t="s">
+        <v>986</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>49</v>
@@ -7647,8 +7655,8 @@
         <v>111</v>
       </c>
       <c r="U44" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>["ENA", "ENA ERC32", "ENA ERC32", "ENA ERC33", "Sample", "Sample", "Collection", "Host"]</v>
+        <f t="shared" si="2"/>
+        <v>["ENA", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Collection", "Host"]</v>
       </c>
       <c r="V44" s="3"/>
       <c r="W44" s="3" t="s">
@@ -7720,8 +7728,8 @@
       <c r="P45" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="Q45" s="37" t="s">
-        <v>49</v>
+      <c r="Q45" s="36" t="s">
+        <v>986</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>49</v>
@@ -7731,8 +7739,8 @@
       </c>
       <c r="T45" s="3"/>
       <c r="U45" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>["ENA", "MIGS-VI", "ENA ERC32", "ENA ERC32", "ENA ERC33", "Sample", "Sample", "Collection"]</v>
+        <f t="shared" si="2"/>
+        <v>["ENA", "MIGS-VI", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Collection"]</v>
       </c>
       <c r="V45" s="3"/>
       <c r="W45" s="3" t="s">
@@ -7804,8 +7812,8 @@
       <c r="P46" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="Q46" s="37" t="s">
-        <v>49</v>
+      <c r="Q46" s="36" t="s">
+        <v>986</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>49</v>
@@ -7815,8 +7823,8 @@
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>["ENA", "MIGS-VI", "ENA ERC32", "ENA ERC32", "ENA ERC33", "Sample", "Sample", "Collection"]</v>
+        <f t="shared" si="2"/>
+        <v>["ENA", "MIGS-VI", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Collection"]</v>
       </c>
       <c r="V46" s="3"/>
       <c r="W46" s="3" t="s">
@@ -7880,7 +7888,7 @@
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
-      <c r="Q47" s="36"/>
+      <c r="Q47" s="35"/>
       <c r="R47" s="3" t="s">
         <v>49</v>
       </c>
@@ -7889,7 +7897,7 @@
       </c>
       <c r="T47" s="3"/>
       <c r="U47" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>["Sample", "Collection"]</v>
       </c>
       <c r="V47" s="3" t="s">
@@ -7958,8 +7966,8 @@
       <c r="P48" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="Q48" s="37" t="s">
-        <v>49</v>
+      <c r="Q48" s="36" t="s">
+        <v>986</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>49</v>
@@ -7969,8 +7977,8 @@
       </c>
       <c r="T48" s="3"/>
       <c r="U48" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>["ENA", "MIGS-VI", "ENA ERC32", "ENA ERC32", "ENA ERC33", "Sample", "Sample", "Collection"]</v>
+        <f t="shared" si="2"/>
+        <v>["ENA", "MIGS-VI", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Collection"]</v>
       </c>
       <c r="V48" s="3"/>
       <c r="W48" s="3" t="s">
@@ -8040,8 +8048,8 @@
       <c r="P49" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="Q49" s="37" t="s">
-        <v>49</v>
+      <c r="Q49" s="36" t="s">
+        <v>986</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>49</v>
@@ -8051,8 +8059,8 @@
       </c>
       <c r="T49" s="3"/>
       <c r="U49" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>["ENA", "ENA ERC32", "ENA ERC32", "ENA ERC33", "Sample", "Sample", "Collection"]</v>
+        <f t="shared" si="2"/>
+        <v>["ENA", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Collection"]</v>
       </c>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
@@ -8122,8 +8130,8 @@
       <c r="P50" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="Q50" s="37" t="s">
-        <v>49</v>
+      <c r="Q50" s="36" t="s">
+        <v>986</v>
       </c>
       <c r="R50" s="3" t="s">
         <v>49</v>
@@ -8133,8 +8141,8 @@
       </c>
       <c r="T50" s="3"/>
       <c r="U50" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>["ENA", "ENA ERC32", "ENA ERC32", "ENA ERC33", "Sample", "Sample", "Clinical"]</v>
+        <f t="shared" si="2"/>
+        <v>["ENA", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Clinical"]</v>
       </c>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
@@ -8200,7 +8208,7 @@
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
-      <c r="Q51" s="36"/>
+      <c r="Q51" s="35"/>
       <c r="R51" s="3" t="s">
         <v>26</v>
       </c>
@@ -8209,7 +8217,7 @@
       </c>
       <c r="T51" s="3"/>
       <c r="U51" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>["ENA", "Organizational", "Identifiers"]</v>
       </c>
       <c r="V51" s="3"/>
@@ -8278,8 +8286,8 @@
       <c r="P52" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="Q52" s="37" t="s">
-        <v>49</v>
+      <c r="Q52" s="36" t="s">
+        <v>986</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>49</v>
@@ -8291,17 +8299,8 @@
         <v>111</v>
       </c>
       <c r="U52" s="3" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H52&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I52&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J52&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K52&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L52&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M52&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N52&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O52&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(O52&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P52&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(R52&lt;&gt;"", """" &amp; R52 &amp; """", ""), IF(Q52&lt;&gt;"", """" &amp; Q52 &amp; """", ""),
-    IF(S52&lt;&gt;"", """" &amp; S52 &amp; """", ""),
-    IF(T52&lt;&gt;"", """" &amp; T52 &amp; """", "")
-) &amp; "]"</f>
-        <v>["ENA", "BV-BRC", "ENA ERC32", "ENA ERC32", "ENA ERC33", "Sample", "Sample", "Clinical", "Host"]</v>
+        <f t="shared" si="2"/>
+        <v>["ENA", "BV-BRC", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Clinical", "Host"]</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>944</v>
@@ -8371,7 +8370,7 @@
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
-      <c r="Q53" s="36"/>
+      <c r="Q53" s="35"/>
       <c r="R53" s="3" t="s">
         <v>49</v>
       </c>
@@ -8382,16 +8381,7 @@
         <v>111</v>
       </c>
       <c r="U53" s="3" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H53&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I53&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J53&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K53&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L53&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M53&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N53&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O53&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(O53&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P53&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(R53&lt;&gt;"", """" &amp; R53 &amp; """", ""), IF(Q53&lt;&gt;"", """" &amp; Q53 &amp; """", ""),
-    IF(S53&lt;&gt;"", """" &amp; S53 &amp; """", ""),
-    IF(T53&lt;&gt;"", """" &amp; T53 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["Sample", "Clinical", "Host"]</v>
       </c>
       <c r="V53" s="3" t="s">
@@ -8454,8 +8444,8 @@
       <c r="P54" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="Q54" s="37" t="s">
-        <v>49</v>
+      <c r="Q54" s="36" t="s">
+        <v>986</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>49</v>
@@ -8467,17 +8457,8 @@
         <v>111</v>
       </c>
       <c r="U54" s="3" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H54&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I54&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J54&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K54&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L54&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M54&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N54&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O54&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(O54&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P54&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(R54&lt;&gt;"", """" &amp; R54 &amp; """", ""), IF(Q54&lt;&gt;"", """" &amp; Q54 &amp; """", ""),
-    IF(S54&lt;&gt;"", """" &amp; S54 &amp; """", ""),
-    IF(T54&lt;&gt;"", """" &amp; T54 &amp; """", "")
-) &amp; "]"</f>
-        <v>["ENA", "ENA ERC32", "ENA ERC32", "ENA ERC33", "Sample", "Sample", "Clinical", "Host"]</v>
+        <f t="shared" si="2"/>
+        <v>["ENA", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Clinical", "Host"]</v>
       </c>
       <c r="V54" s="3"/>
       <c r="W54" s="3" t="s">
@@ -8543,7 +8524,7 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-      <c r="Q55" s="36"/>
+      <c r="Q55" s="35"/>
       <c r="R55" s="3" t="s">
         <v>49</v>
       </c>
@@ -8554,16 +8535,7 @@
         <v>111</v>
       </c>
       <c r="U55" s="3" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H55&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I55&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J55&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K55&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L55&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M55&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N55&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O55&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(O55&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P55&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(R55&lt;&gt;"", """" &amp; R55 &amp; """", ""), IF(Q55&lt;&gt;"", """" &amp; Q55 &amp; """", ""),
-    IF(S55&lt;&gt;"", """" &amp; S55 &amp; """", ""),
-    IF(T55&lt;&gt;"", """" &amp; T55 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["Sample", "Clinical", "Host"]</v>
       </c>
       <c r="V55" s="3"/>
@@ -8626,8 +8598,8 @@
       <c r="P56" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="Q56" s="37" t="s">
-        <v>49</v>
+      <c r="Q56" s="36" t="s">
+        <v>986</v>
       </c>
       <c r="R56" s="3" t="s">
         <v>49</v>
@@ -8639,17 +8611,8 @@
         <v>111</v>
       </c>
       <c r="U56" s="3" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H56&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I56&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J56&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K56&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L56&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M56&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N56&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O56&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(O56&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P56&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(R56&lt;&gt;"", """" &amp; R56 &amp; """", ""), IF(Q56&lt;&gt;"", """" &amp; Q56 &amp; """", ""),
-    IF(S56&lt;&gt;"", """" &amp; S56 &amp; """", ""),
-    IF(T56&lt;&gt;"", """" &amp; T56 &amp; """", "")
-) &amp; "]"</f>
-        <v>["ENA", "ENA ERC32", "ENA ERC32", "ENA ERC33", "Sample", "Sample", "Clinical", "Host"]</v>
+        <f t="shared" si="2"/>
+        <v>["ENA", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Clinical", "Host"]</v>
       </c>
       <c r="V56" s="3"/>
       <c r="W56" s="3" t="s">
@@ -8715,7 +8678,7 @@
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
-      <c r="Q57" s="36"/>
+      <c r="Q57" s="35"/>
       <c r="R57" s="3" t="s">
         <v>49</v>
       </c>
@@ -8726,16 +8689,7 @@
         <v>111</v>
       </c>
       <c r="U57" s="3" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H57&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I57&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J57&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K57&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L57&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M57&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N57&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O57&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(O57&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P57&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(R57&lt;&gt;"", """" &amp; R57 &amp; """", ""), IF(Q57&lt;&gt;"", """" &amp; Q57 &amp; """", ""),
-    IF(S57&lt;&gt;"", """" &amp; S57 &amp; """", ""),
-    IF(T57&lt;&gt;"", """" &amp; T57 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "Sample", "Clinical", "Host"]</v>
       </c>
       <c r="V57" s="3"/>
@@ -8798,7 +8752,7 @@
       </c>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
-      <c r="Q58" s="36"/>
+      <c r="Q58" s="35"/>
       <c r="R58" s="3" t="s">
         <v>49</v>
       </c>
@@ -8807,7 +8761,7 @@
       </c>
       <c r="T58" s="3"/>
       <c r="U58" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>["BV-BRC", "Sample", "Host"]</v>
       </c>
       <c r="V58" s="3" t="s">
@@ -8874,8 +8828,8 @@
       <c r="P59" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="Q59" s="37" t="s">
-        <v>49</v>
+      <c r="Q59" s="36" t="s">
+        <v>986</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>49</v>
@@ -8885,8 +8839,8 @@
       </c>
       <c r="T59" s="3"/>
       <c r="U59" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>["ENA", "ENA ERC32", "ENA ERC32", "ENA ERC33", "Sample", "Sample", "Host"]</v>
+        <f t="shared" si="2"/>
+        <v>["ENA", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Host"]</v>
       </c>
       <c r="V59" s="3"/>
       <c r="W59" s="3" t="s">
@@ -8950,7 +8904,7 @@
       </c>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
-      <c r="Q60" s="36"/>
+      <c r="Q60" s="35"/>
       <c r="R60" s="3" t="s">
         <v>49</v>
       </c>
@@ -8959,7 +8913,7 @@
       </c>
       <c r="T60" s="3"/>
       <c r="U60" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>["BV-BRC", "Sample", "Host"]</v>
       </c>
       <c r="V60" s="3" t="s">
@@ -9026,7 +8980,7 @@
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
-      <c r="Q61" s="36"/>
+      <c r="Q61" s="35"/>
       <c r="R61" s="3" t="s">
         <v>49</v>
       </c>
@@ -9035,7 +8989,7 @@
       </c>
       <c r="T61" s="3"/>
       <c r="U61" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>["MIGS-VI", "Sample", "Host"]</v>
       </c>
       <c r="V61" s="3"/>
@@ -9096,7 +9050,7 @@
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
-      <c r="Q62" s="36"/>
+      <c r="Q62" s="35"/>
       <c r="R62" s="3" t="s">
         <v>49</v>
       </c>
@@ -9105,7 +9059,7 @@
       </c>
       <c r="T62" s="3"/>
       <c r="U62" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>["ENA", "MIGS-VI", "Sample", "Host"]</v>
       </c>
       <c r="V62" s="3"/>
@@ -9176,8 +9130,8 @@
       <c r="P63" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="Q63" s="37" t="s">
-        <v>49</v>
+      <c r="Q63" s="36" t="s">
+        <v>986</v>
       </c>
       <c r="R63" s="3" t="s">
         <v>49</v>
@@ -9187,8 +9141,8 @@
       </c>
       <c r="T63" s="3"/>
       <c r="U63" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>["ENA", "MIGS-VI", "BV-BRC", "ENA ERC32", "ENA ERC32", "ENA ERC33", "Sample", "Sample", "Host"]</v>
+        <f t="shared" si="2"/>
+        <v>["ENA", "MIGS-VI", "BV-BRC", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Host"]</v>
       </c>
       <c r="V63" s="3" t="s">
         <v>944</v>
@@ -9264,8 +9218,8 @@
       <c r="P64" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="Q64" s="37" t="s">
-        <v>49</v>
+      <c r="Q64" s="36" t="s">
+        <v>986</v>
       </c>
       <c r="R64" s="3" t="s">
         <v>49</v>
@@ -9277,8 +9231,8 @@
         <v>72</v>
       </c>
       <c r="U64" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>["MIGS-VI", "ENA ERC33", "Sample", "Sample", "Host", "NCBI Taxonomy"]</v>
+        <f t="shared" si="2"/>
+        <v>["MIGS-VI", "ENA ERC33", "Sample", "ENA Sample", "Host", "NCBI Taxonomy"]</v>
       </c>
       <c r="V64" s="3"/>
       <c r="W64" s="3" t="s">
@@ -9348,8 +9302,8 @@
       <c r="P65" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="Q65" s="37" t="s">
-        <v>49</v>
+      <c r="Q65" s="36" t="s">
+        <v>986</v>
       </c>
       <c r="R65" s="3" t="s">
         <v>49</v>
@@ -9361,8 +9315,8 @@
         <v>111</v>
       </c>
       <c r="U65" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>["ENA", "BV-BRC", "ENA ERC32", "ENA ERC32", "ENA ERC33", "Sample", "Sample", "Clinical", "Host"]</v>
+        <f t="shared" si="2"/>
+        <v>["ENA", "BV-BRC", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Clinical", "Host"]</v>
       </c>
       <c r="V65" s="3" t="s">
         <v>944</v>
@@ -9436,8 +9390,8 @@
       <c r="P66" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="Q66" s="37" t="s">
-        <v>49</v>
+      <c r="Q66" s="36" t="s">
+        <v>986</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>49</v>
@@ -9449,8 +9403,8 @@
         <v>111</v>
       </c>
       <c r="U66" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>["ENA", "ENA ERC32", "ENA ERC32", "ENA ERC33", "Sample", "Sample", "Clinical ", "Host"]</v>
+        <f t="shared" si="2"/>
+        <v>["ENA", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Clinical ", "Host"]</v>
       </c>
       <c r="V66" s="3"/>
       <c r="W66" s="3" t="s">
@@ -9518,8 +9472,8 @@
         <v>318</v>
       </c>
       <c r="P67" s="3"/>
-      <c r="Q67" s="37" t="s">
-        <v>49</v>
+      <c r="Q67" s="36" t="s">
+        <v>986</v>
       </c>
       <c r="R67" s="3" t="s">
         <v>49</v>
@@ -9531,8 +9485,8 @@
         <v>111</v>
       </c>
       <c r="U67" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>["ENA", "ENA ERC32", "ENA ERC32", "Sample", "Sample", "Clinical ", "Host"]</v>
+        <f t="shared" si="2"/>
+        <v>["ENA", "ENA ERC32", "Sample", "ENA Sample", "Clinical ", "Host"]</v>
       </c>
       <c r="V67" s="3"/>
       <c r="W67" s="3" t="s">
@@ -9596,8 +9550,8 @@
         <v>322</v>
       </c>
       <c r="P68" s="3"/>
-      <c r="Q68" s="37" t="s">
-        <v>49</v>
+      <c r="Q68" s="36" t="s">
+        <v>986</v>
       </c>
       <c r="R68" s="3" t="s">
         <v>49</v>
@@ -9609,8 +9563,8 @@
         <v>111</v>
       </c>
       <c r="U68" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>["ENA", "ENA ERC32", "ENA ERC32", "Sample", "Sample", "Clinical ", "Host"]</v>
+        <f t="shared" si="2"/>
+        <v>["ENA", "ENA ERC32", "Sample", "ENA Sample", "Clinical ", "Host"]</v>
       </c>
       <c r="V68" s="3"/>
       <c r="W68" s="3" t="s">
@@ -9676,8 +9630,8 @@
         <v>326</v>
       </c>
       <c r="P69" s="3"/>
-      <c r="Q69" s="37" t="s">
-        <v>49</v>
+      <c r="Q69" s="36" t="s">
+        <v>986</v>
       </c>
       <c r="R69" s="3" t="s">
         <v>49</v>
@@ -9689,8 +9643,8 @@
         <v>111</v>
       </c>
       <c r="U69" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>["ENA", "ENA ERC32", "ENA ERC32", "Sample", "Sample", "Clinical ", "Host"]</v>
+        <f t="shared" si="2"/>
+        <v>["ENA", "ENA ERC32", "Sample", "ENA Sample", "Clinical ", "Host"]</v>
       </c>
       <c r="V69" s="3"/>
       <c r="W69" s="3" t="s">
@@ -9748,7 +9702,7 @@
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
-      <c r="Q70" s="36"/>
+      <c r="Q70" s="35"/>
       <c r="R70" s="3" t="s">
         <v>26</v>
       </c>
@@ -9757,12 +9711,12 @@
       </c>
       <c r="T70" s="3"/>
       <c r="U70" s="3" t="str">
-        <f t="shared" ref="U70:U109" si="1">"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
+        <f t="shared" ref="U70:U109" si="3">"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
     IF(H70&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
     IF(I70&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
     IF(J70&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
     IF(K70&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L70&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M70&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N70&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O70&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(O70&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P70&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
+    IF(L70&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M70&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N70&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O70&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P70&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
     IF(R70&lt;&gt;"", """" &amp; R70 &amp; """", ""), IF(Q70&lt;&gt;"", """" &amp; Q70 &amp; """", ""),
     IF(S70&lt;&gt;"", """" &amp; S70 &amp; """", ""),
     IF(T70&lt;&gt;"", """" &amp; T70 &amp; """", "")
@@ -9827,8 +9781,8 @@
         <v>333</v>
       </c>
       <c r="P71" s="3"/>
-      <c r="Q71" s="37" t="s">
-        <v>49</v>
+      <c r="Q71" s="36" t="s">
+        <v>986</v>
       </c>
       <c r="R71" s="3" t="s">
         <v>49</v>
@@ -9840,8 +9794,8 @@
         <v>111</v>
       </c>
       <c r="U71" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>["ENA", "ENA ERC32", "ENA ERC32", "Sample", "Sample", "Clinical ", "Host"]</v>
+        <f t="shared" si="3"/>
+        <v>["ENA", "ENA ERC32", "Sample", "ENA Sample", "Clinical ", "Host"]</v>
       </c>
       <c r="V71" s="3"/>
       <c r="W71" s="3" t="s">
@@ -9905,8 +9859,8 @@
         <v>337</v>
       </c>
       <c r="P72" s="3"/>
-      <c r="Q72" s="37" t="s">
-        <v>49</v>
+      <c r="Q72" s="36" t="s">
+        <v>986</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>49</v>
@@ -9918,8 +9872,8 @@
         <v>111</v>
       </c>
       <c r="U72" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>["ENA", "ENA ERC32", "ENA ERC32", "Sample", "Sample", "Clinical ", "Host"]</v>
+        <f t="shared" si="3"/>
+        <v>["ENA", "ENA ERC32", "Sample", "ENA Sample", "Clinical ", "Host"]</v>
       </c>
       <c r="V72" s="3"/>
       <c r="W72" s="3" t="s">
@@ -9983,7 +9937,7 @@
       </c>
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
-      <c r="Q73" s="36"/>
+      <c r="Q73" s="35"/>
       <c r="R73" s="3" t="s">
         <v>150</v>
       </c>
@@ -9992,7 +9946,7 @@
       </c>
       <c r="T73" s="3"/>
       <c r="U73" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>["RKI", "BV-BRC", "Analysis", "Sequence"]</v>
       </c>
       <c r="V73" s="3" t="s">
@@ -10057,7 +10011,7 @@
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
-      <c r="Q74" s="36"/>
+      <c r="Q74" s="35"/>
       <c r="R74" s="3" t="s">
         <v>150</v>
       </c>
@@ -10066,7 +10020,7 @@
       </c>
       <c r="T74" s="3"/>
       <c r="U74" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>["RKI", "Analysis", "Sequence"]</v>
       </c>
       <c r="V74" s="3"/>
@@ -10129,8 +10083,8 @@
       <c r="P75" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="Q75" s="37" t="s">
-        <v>49</v>
+      <c r="Q75" s="36" t="s">
+        <v>986</v>
       </c>
       <c r="R75" s="3" t="s">
         <v>49</v>
@@ -10138,8 +10092,8 @@
       <c r="S75" s="3"/>
       <c r="T75" s="3"/>
       <c r="U75" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>["ENA", "ENA ERC32", "ENA ERC32", "ENA ERC33", "Sample", "Sample"]</v>
+        <f t="shared" si="3"/>
+        <v>["ENA", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample"]</v>
       </c>
       <c r="V75" s="3"/>
       <c r="W75" s="3" t="s">
@@ -10205,7 +10159,7 @@
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
-      <c r="Q76" s="36"/>
+      <c r="Q76" s="35"/>
       <c r="R76" s="3" t="s">
         <v>26</v>
       </c>
@@ -10214,7 +10168,7 @@
       </c>
       <c r="T76" s="3"/>
       <c r="U76" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>["RKI", "Organizational", "Identifiers"]</v>
       </c>
       <c r="V76" s="3"/>
@@ -10273,7 +10227,7 @@
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
-      <c r="Q77" s="36"/>
+      <c r="Q77" s="35"/>
       <c r="R77" s="3" t="s">
         <v>26</v>
       </c>
@@ -10282,7 +10236,7 @@
       </c>
       <c r="T77" s="3"/>
       <c r="U77" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>["ENA", "Organizational", "Identifiers"]</v>
       </c>
       <c r="V77" s="3"/>
@@ -10343,7 +10297,7 @@
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
-      <c r="Q78" s="36"/>
+      <c r="Q78" s="35"/>
       <c r="R78" s="3" t="s">
         <v>49</v>
       </c>
@@ -10354,7 +10308,7 @@
         <v>362</v>
       </c>
       <c r="U78" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>["Sample", "Virus", "ICTV Taxonomy"]</v>
       </c>
       <c r="V78" s="3" t="s">
@@ -10423,8 +10377,8 @@
       <c r="P79" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="Q79" s="37" t="s">
-        <v>49</v>
+      <c r="Q79" s="36" t="s">
+        <v>986</v>
       </c>
       <c r="R79" s="3" t="s">
         <v>49</v>
@@ -10436,8 +10390,8 @@
         <v>72</v>
       </c>
       <c r="U79" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>["ENA", "MIGS-VI", "BV-BRC", "ENA ERC32", "ENA ERC32", "ENA ERC33", "Sample", "Sample", "Virus ", "NCBI Taxonomy"]</v>
+        <f t="shared" si="3"/>
+        <v>["ENA", "MIGS-VI", "BV-BRC", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Virus ", "NCBI Taxonomy"]</v>
       </c>
       <c r="V79" s="3" t="s">
         <v>944</v>
@@ -10517,8 +10471,8 @@
       <c r="P80" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="Q80" s="37" t="s">
-        <v>49</v>
+      <c r="Q80" s="36" t="s">
+        <v>986</v>
       </c>
       <c r="R80" s="3" t="s">
         <v>49</v>
@@ -10528,8 +10482,8 @@
       </c>
       <c r="T80" s="3"/>
       <c r="U80" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>["ENA", "MIGS-VI", "ENA ERC32", "ENA ERC32", "ENA ERC33", "Sample", "Sample", "Clinical"]</v>
+        <f t="shared" si="3"/>
+        <v>["ENA", "MIGS-VI", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Clinical"]</v>
       </c>
       <c r="V80" s="3"/>
       <c r="W80" s="3" t="s">
@@ -10595,7 +10549,7 @@
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
-      <c r="Q81" s="36"/>
+      <c r="Q81" s="35"/>
       <c r="R81" s="3" t="s">
         <v>49</v>
       </c>
@@ -10604,7 +10558,7 @@
       </c>
       <c r="T81" s="3"/>
       <c r="U81" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>["Sample", "Virus"]</v>
       </c>
       <c r="V81" s="3" t="s">
@@ -10663,7 +10617,7 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-      <c r="Q82" s="36"/>
+      <c r="Q82" s="35"/>
       <c r="R82" s="3" t="s">
         <v>49</v>
       </c>
@@ -10674,7 +10628,7 @@
         <v>72</v>
       </c>
       <c r="U82" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>["Sample", "Virus", "NCBI Taxonomy"]</v>
       </c>
       <c r="V82" s="3" t="s">
@@ -10735,7 +10689,7 @@
       </c>
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
-      <c r="Q83" s="36"/>
+      <c r="Q83" s="35"/>
       <c r="R83" s="3" t="s">
         <v>150</v>
       </c>
@@ -10744,7 +10698,7 @@
       </c>
       <c r="T83" s="3"/>
       <c r="U83" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>["ENA", "BV-BRC", "Analysis", "Sequence"]</v>
       </c>
       <c r="V83" s="3" t="s">
@@ -10815,7 +10769,7 @@
       </c>
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
-      <c r="Q84" s="36"/>
+      <c r="Q84" s="35"/>
       <c r="R84" s="3" t="s">
         <v>150</v>
       </c>
@@ -10824,7 +10778,7 @@
       </c>
       <c r="T84" s="3"/>
       <c r="U84" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>["BV-BRC", "Analysis", "Sequence"]</v>
       </c>
       <c r="V84" s="3" t="s">
@@ -10889,7 +10843,7 @@
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
-      <c r="Q85" s="36"/>
+      <c r="Q85" s="35"/>
       <c r="R85" s="3" t="s">
         <v>150</v>
       </c>
@@ -10898,7 +10852,7 @@
       </c>
       <c r="T85" s="3"/>
       <c r="U85" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>["MIGS-VI", "Analysis", "Sequence"]</v>
       </c>
       <c r="V85" s="3" t="s">
@@ -10961,7 +10915,7 @@
       </c>
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
-      <c r="Q86" s="36"/>
+      <c r="Q86" s="35"/>
       <c r="R86" s="3" t="s">
         <v>150</v>
       </c>
@@ -10970,7 +10924,7 @@
       </c>
       <c r="T86" s="3"/>
       <c r="U86" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>["MIGS-VI", "BV-BRC", "Analysis", "Sequence"]</v>
       </c>
       <c r="V86" s="3" t="s">
@@ -11039,7 +10993,7 @@
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
-      <c r="Q87" s="36"/>
+      <c r="Q87" s="35"/>
       <c r="R87" s="3" t="s">
         <v>150</v>
       </c>
@@ -11048,7 +11002,7 @@
       </c>
       <c r="T87" s="3"/>
       <c r="U87" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>["MIGS-VI", "Analysis", "Sequence"]</v>
       </c>
       <c r="V87" s="3" t="s">
@@ -11109,14 +11063,14 @@
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
-      <c r="Q88" s="36"/>
+      <c r="Q88" s="35"/>
       <c r="R88" s="3" t="s">
         <v>26</v>
       </c>
       <c r="S88" s="3"/>
       <c r="T88" s="3"/>
       <c r="U88" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>["MIGS-VI", "Organizational"]</v>
       </c>
       <c r="V88" s="3" t="s">
@@ -11181,7 +11135,7 @@
       </c>
       <c r="O89" s="3"/>
       <c r="P89" s="3"/>
-      <c r="Q89" s="36"/>
+      <c r="Q89" s="35"/>
       <c r="R89" s="3" t="s">
         <v>26</v>
       </c>
@@ -11190,7 +11144,7 @@
       </c>
       <c r="T89" s="3"/>
       <c r="U89" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>["MIGS-VI", "BV-BRC", "Organizational", "Identifiers"]</v>
       </c>
       <c r="V89" s="3" t="s">
@@ -11255,7 +11209,7 @@
       </c>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-      <c r="Q90" s="36"/>
+      <c r="Q90" s="35"/>
       <c r="R90" s="3" t="s">
         <v>26</v>
       </c>
@@ -11264,7 +11218,7 @@
       </c>
       <c r="T90" s="3"/>
       <c r="U90" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>["BV-BRC", "Organizational", "Sequence"]</v>
       </c>
       <c r="V90" s="3" t="s">
@@ -11331,7 +11285,7 @@
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
       <c r="P91" s="3"/>
-      <c r="Q91" s="36"/>
+      <c r="Q91" s="35"/>
       <c r="R91" s="3" t="s">
         <v>26</v>
       </c>
@@ -11340,7 +11294,7 @@
       </c>
       <c r="T91" s="3"/>
       <c r="U91" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>["RKI", "Organizational", "Sequence"]</v>
       </c>
       <c r="V91" s="3" t="s">
@@ -11401,7 +11355,7 @@
       </c>
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
-      <c r="Q92" s="36"/>
+      <c r="Q92" s="35"/>
       <c r="R92" s="3" t="s">
         <v>26</v>
       </c>
@@ -11410,7 +11364,7 @@
       </c>
       <c r="T92" s="3"/>
       <c r="U92" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>["BV-BRC", "Organizational", "Sequence"]</v>
       </c>
       <c r="V92" s="3" t="s">
@@ -11475,8 +11429,8 @@
       <c r="P93" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="Q93" s="37" t="s">
-        <v>980</v>
+      <c r="Q93" s="36" t="s">
+        <v>987</v>
       </c>
       <c r="R93" s="3" t="s">
         <v>150</v>
@@ -11486,8 +11440,8 @@
       </c>
       <c r="T93" s="3"/>
       <c r="U93" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>["ENA", "ENA ERC32", "ENA ERC32", "ENA ERC33", "Analysis", "Experiment", "Sequencing"]</v>
+        <f t="shared" si="3"/>
+        <v>["ENA", "ENA ERC32", "ENA ERC33", "Analysis", "ENA Experiment", "Sequencing"]</v>
       </c>
       <c r="V93" s="3"/>
       <c r="W93" s="3" t="s">
@@ -11557,8 +11511,8 @@
       <c r="P94" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="Q94" s="37" t="s">
-        <v>980</v>
+      <c r="Q94" s="36" t="s">
+        <v>987</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>150</v>
@@ -11568,8 +11522,8 @@
       </c>
       <c r="T94" s="3"/>
       <c r="U94" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>["ENA", "MIGS-VI", "ENA ERC32", "ENA ERC32", "ENA ERC33", "Analysis", "Experiment", "Sequencing"]</v>
+        <f t="shared" si="3"/>
+        <v>["ENA", "MIGS-VI", "ENA ERC32", "ENA ERC33", "Analysis", "ENA Experiment", "Sequencing"]</v>
       </c>
       <c r="V94" s="3"/>
       <c r="W94" s="3" t="s">
@@ -11637,8 +11591,8 @@
       <c r="P95" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="Q95" s="37" t="s">
-        <v>980</v>
+      <c r="Q95" s="36" t="s">
+        <v>987</v>
       </c>
       <c r="R95" s="3" t="s">
         <v>150</v>
@@ -11648,8 +11602,8 @@
       </c>
       <c r="T95" s="3"/>
       <c r="U95" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>["ENA", "ENA ERC32", "ENA ERC32", "ENA ERC33", "Analysis", "Experiment", "Sequencing"]</v>
+        <f t="shared" si="3"/>
+        <v>["ENA", "ENA ERC32", "ENA ERC33", "Analysis", "ENA Experiment", "Sequencing"]</v>
       </c>
       <c r="V95" s="3"/>
       <c r="W95" s="3" t="s">
@@ -11717,8 +11671,8 @@
       <c r="P96" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="Q96" s="37" t="s">
-        <v>980</v>
+      <c r="Q96" s="36" t="s">
+        <v>987</v>
       </c>
       <c r="R96" s="3" t="s">
         <v>150</v>
@@ -11728,8 +11682,8 @@
       </c>
       <c r="T96" s="3"/>
       <c r="U96" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>["ENA", "ENA ERC32", "ENA ERC32", "ENA ERC33", "Analysis", "Experiment", "Sequencing"]</v>
+        <f t="shared" si="3"/>
+        <v>["ENA", "ENA ERC32", "ENA ERC33", "Analysis", "ENA Experiment", "Sequencing"]</v>
       </c>
       <c r="V96" s="3"/>
       <c r="W96" s="3" t="s">
@@ -11799,8 +11753,8 @@
       <c r="P97" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="Q97" s="37" t="s">
-        <v>980</v>
+      <c r="Q97" s="36" t="s">
+        <v>987</v>
       </c>
       <c r="R97" s="3" t="s">
         <v>150</v>
@@ -11810,8 +11764,8 @@
       </c>
       <c r="T97" s="3"/>
       <c r="U97" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>["ENA", "MIGS-VI", "ENA ERC32", "ENA ERC32", "ENA ERC33", "Analysis", "Experiment", "Sequencing"]</v>
+        <f t="shared" si="3"/>
+        <v>["ENA", "MIGS-VI", "ENA ERC32", "ENA ERC33", "Analysis", "ENA Experiment", "Sequencing"]</v>
       </c>
       <c r="V97" s="3"/>
       <c r="W97" s="3" t="s">
@@ -11879,8 +11833,8 @@
       <c r="P98" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="Q98" s="37" t="s">
-        <v>980</v>
+      <c r="Q98" s="36" t="s">
+        <v>987</v>
       </c>
       <c r="R98" s="3" t="s">
         <v>150</v>
@@ -11890,8 +11844,8 @@
       </c>
       <c r="T98" s="3"/>
       <c r="U98" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>["ENA", "ENA ERC32", "ENA ERC32", "ENA ERC33", "Analysis", "Experiment", "Sequencing"]</v>
+        <f t="shared" si="3"/>
+        <v>["ENA", "ENA ERC32", "ENA ERC33", "Analysis", "ENA Experiment", "Sequencing"]</v>
       </c>
       <c r="V98" s="3"/>
       <c r="W98" s="3" t="s">
@@ -11961,8 +11915,8 @@
       <c r="P99" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="Q99" s="37" t="s">
-        <v>980</v>
+      <c r="Q99" s="36" t="s">
+        <v>987</v>
       </c>
       <c r="R99" s="3" t="s">
         <v>150</v>
@@ -11972,8 +11926,8 @@
       </c>
       <c r="T99" s="3"/>
       <c r="U99" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>["ENA", "MIGS-VI", "ENA ERC32", "ENA ERC32", "ENA ERC33", "Analysis", "Experiment", "Sequencing"]</v>
+        <f t="shared" si="3"/>
+        <v>["ENA", "MIGS-VI", "ENA ERC32", "ENA ERC33", "Analysis", "ENA Experiment", "Sequencing"]</v>
       </c>
       <c r="V99" s="3"/>
       <c r="W99" s="3" t="s">
@@ -12041,8 +11995,8 @@
       <c r="P100" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="Q100" s="37" t="s">
-        <v>980</v>
+      <c r="Q100" s="36" t="s">
+        <v>987</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>150</v>
@@ -12052,8 +12006,8 @@
       </c>
       <c r="T100" s="3"/>
       <c r="U100" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>["ENA", "ENA ERC32", "ENA ERC32", "ENA ERC33", "Analysis", "Experiment", "Sequencing"]</v>
+        <f t="shared" si="3"/>
+        <v>["ENA", "ENA ERC32", "ENA ERC33", "Analysis", "ENA Experiment", "Sequencing"]</v>
       </c>
       <c r="V100" s="3"/>
       <c r="W100" s="3" t="s">
@@ -12123,8 +12077,8 @@
       <c r="P101" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="Q101" s="37" t="s">
-        <v>980</v>
+      <c r="Q101" s="36" t="s">
+        <v>987</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>150</v>
@@ -12134,8 +12088,8 @@
       </c>
       <c r="T101" s="3"/>
       <c r="U101" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>["ENA", "ENA ERC32", "ENA ERC32", "ENA ERC33", "Analysis", "Experiment", "Sequencing"]</v>
+        <f t="shared" si="3"/>
+        <v>["ENA", "ENA ERC32", "ENA ERC33", "Analysis", "ENA Experiment", "Sequencing"]</v>
       </c>
       <c r="V101" s="3"/>
       <c r="W101" s="3" t="s">
@@ -12207,8 +12161,8 @@
       <c r="P102" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="Q102" s="37" t="s">
-        <v>980</v>
+      <c r="Q102" s="36" t="s">
+        <v>987</v>
       </c>
       <c r="R102" s="3" t="s">
         <v>150</v>
@@ -12218,8 +12172,8 @@
       </c>
       <c r="T102" s="3"/>
       <c r="U102" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>["ENA", "RKI", "BV-BRC", "ENA ERC32", "ENA ERC32", "ENA ERC33", "Analysis", "Experiment", "Sequencing"]</v>
+        <f t="shared" si="3"/>
+        <v>["ENA", "RKI", "BV-BRC", "ENA ERC32", "ENA ERC33", "Analysis", "ENA Experiment", "Sequencing"]</v>
       </c>
       <c r="V102" s="3" t="s">
         <v>944</v>
@@ -12291,7 +12245,7 @@
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
       <c r="P103" s="3"/>
-      <c r="Q103" s="36"/>
+      <c r="Q103" s="35"/>
       <c r="R103" s="3" t="s">
         <v>150</v>
       </c>
@@ -12300,7 +12254,7 @@
       </c>
       <c r="T103" s="3"/>
       <c r="U103" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>["ENA", "RKI", "Analysis", "Sequencing"]</v>
       </c>
       <c r="V103" s="3" t="s">
@@ -12361,7 +12315,7 @@
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
       <c r="P104" s="3"/>
-      <c r="Q104" s="36"/>
+      <c r="Q104" s="35"/>
       <c r="R104" s="3" t="s">
         <v>26</v>
       </c>
@@ -12370,7 +12324,7 @@
       </c>
       <c r="T104" s="3"/>
       <c r="U104" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>["Organizational", "Source"]</v>
       </c>
       <c r="V104" s="3" t="s">
@@ -12427,7 +12381,7 @@
       <c r="N105" s="3"/>
       <c r="O105" s="3"/>
       <c r="P105" s="3"/>
-      <c r="Q105" s="36"/>
+      <c r="Q105" s="35"/>
       <c r="R105" s="3" t="s">
         <v>49</v>
       </c>
@@ -12436,7 +12390,7 @@
       </c>
       <c r="T105" s="3"/>
       <c r="U105" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>["NCBI Virus", "Sample", "Submission"]</v>
       </c>
       <c r="V105" s="3" t="s">
@@ -12487,7 +12441,7 @@
       <c r="N106" s="3"/>
       <c r="O106" s="3"/>
       <c r="P106" s="3"/>
-      <c r="Q106" s="36"/>
+      <c r="Q106" s="35"/>
       <c r="R106" s="3" t="s">
         <v>49</v>
       </c>
@@ -12496,7 +12450,7 @@
       </c>
       <c r="T106" s="3"/>
       <c r="U106" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>["Sample", "Submission"]</v>
       </c>
       <c r="V106" s="3" t="s">
@@ -12553,7 +12507,7 @@
       </c>
       <c r="O107" s="3"/>
       <c r="P107" s="3"/>
-      <c r="Q107" s="36"/>
+      <c r="Q107" s="35"/>
       <c r="R107" s="3" t="s">
         <v>26</v>
       </c>
@@ -12562,7 +12516,7 @@
       </c>
       <c r="T107" s="3"/>
       <c r="U107" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>["BV-BRC", "Organizational", "Submission"]</v>
       </c>
       <c r="V107" s="3" t="s">
@@ -12629,7 +12583,7 @@
       <c r="N108" s="3"/>
       <c r="O108" s="3"/>
       <c r="P108" s="3"/>
-      <c r="Q108" s="36"/>
+      <c r="Q108" s="35"/>
       <c r="R108" s="3" t="s">
         <v>26</v>
       </c>
@@ -12638,7 +12592,7 @@
       </c>
       <c r="T108" s="3"/>
       <c r="U108" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>["Organizational", "Sequence"]</v>
       </c>
       <c r="V108" s="3" t="s">
@@ -12701,8 +12655,8 @@
       <c r="P109" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="Q109" s="37" t="s">
-        <v>49</v>
+      <c r="Q109" s="36" t="s">
+        <v>986</v>
       </c>
       <c r="R109" s="3" t="s">
         <v>26</v>
@@ -12712,8 +12666,8 @@
       </c>
       <c r="T109" s="3"/>
       <c r="U109" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>["ENA", "RKI", "ENA ERC32", "ENA ERC32", "ENA ERC33", "Organizational", "Sample", "Virus"]</v>
+        <f t="shared" si="3"/>
+        <v>["ENA", "RKI", "ENA ERC32", "ENA ERC33", "Organizational", "ENA Sample", "Virus"]</v>
       </c>
       <c r="V109" s="3"/>
       <c r="W109" s="3" t="s">
@@ -12827,7 +12781,7 @@
       <c r="P1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="33" t="s">
         <v>982</v>
       </c>
       <c r="R1" s="22" t="s">
@@ -13083,7 +13037,7 @@
       <c r="P2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="34" t="s">
         <v>983</v>
       </c>
       <c r="R2" s="22" t="s">

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490FCF53-1440-4797-8944-BFD00B4CB9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C6695B-CA97-48DA-977E-3A46DB34060C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3081" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3081" uniqueCount="989">
   <si>
     <t>VJDBv0.2</t>
   </si>
@@ -3196,6 +3196,9 @@
   </si>
   <si>
     <t>ENA Experiment</t>
+  </si>
+  <si>
+    <t>publice</t>
   </si>
 </sst>
 </file>
@@ -3920,8 +3923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E033465-2455-477E-A700-6BF7A0771C26}">
   <dimension ref="A1:AO109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.5703125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4525,7 +4528,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>671</v>
+        <v>988</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C6695B-CA97-48DA-977E-3A46DB34060C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815D063E-EAC0-4DFA-BEB2-9440D2B6B925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3081" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3081" uniqueCount="988">
   <si>
     <t>VJDBv0.2</t>
   </si>
@@ -3196,9 +3196,6 @@
   </si>
   <si>
     <t>ENA Experiment</t>
-  </si>
-  <si>
-    <t>publice</t>
   </si>
 </sst>
 </file>
@@ -4528,7 +4525,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>988</v>
+        <v>671</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815D063E-EAC0-4DFA-BEB2-9440D2B6B925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A1C8DC-51B9-4DBC-A24E-E29DD0DEFC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3081" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3081" uniqueCount="989">
   <si>
     <t>VJDBv0.2</t>
   </si>
@@ -3196,6 +3196,9 @@
   </si>
   <si>
     <t>ENA Experiment</t>
+  </si>
+  <si>
+    <t>publice</t>
   </si>
 </sst>
 </file>
@@ -4525,7 +4528,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>671</v>
+        <v>988</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A1C8DC-51B9-4DBC-A24E-E29DD0DEFC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285DCF91-BDCE-4F36-906D-70B4A8B3AF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3081" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3175" uniqueCount="982">
   <si>
     <t>VJDBv0.2</t>
   </si>
@@ -3135,39 +3135,9 @@
     <t>recommended</t>
   </si>
   <si>
-    <t>base_count</t>
-  </si>
-  <si>
     <t>optional</t>
   </si>
   <si>
-    <t>center_name</t>
-  </si>
-  <si>
-    <t>? last updated(?)</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>provided</t>
-  </si>
-  <si>
-    <t>host_tax_id</t>
-  </si>
-  <si>
-    <t>mandatory (IVRSC)</t>
-  </si>
-  <si>
-    <t>recommended (IVRSC)</t>
-  </si>
-  <si>
-    <t>partially mandatory</t>
-  </si>
-  <si>
     <t>submission requiredness</t>
   </si>
   <si>
@@ -3199,6 +3169,15 @@
   </si>
   <si>
     <t>publice</t>
+  </si>
+  <si>
+    <t>submission fieldtype</t>
+  </si>
+  <si>
+    <t>combo</t>
+  </si>
+  <si>
+    <t>suggestion</t>
   </si>
 </sst>
 </file>
@@ -3921,10 +3900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E033465-2455-477E-A700-6BF7A0771C26}">
-  <dimension ref="A1:AO109"/>
+  <dimension ref="A1:AP109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AR8" sqref="AR8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.5703125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3932,7 +3911,7 @@
     <col min="21" max="21" width="100.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>666</v>
       </c>
@@ -3982,7 +3961,7 @@
         <v>9</v>
       </c>
       <c r="Q1" s="33" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="R1" s="22" t="s">
         <v>666</v>
@@ -4056,8 +4035,11 @@
       <c r="AO1" s="21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:41" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP1" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>11</v>
       </c>
@@ -4107,7 +4089,7 @@
         <v>18</v>
       </c>
       <c r="Q2" s="34" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
       <c r="R2" s="22" t="s">
         <v>667</v>
@@ -4179,10 +4161,13 @@
         <v>880</v>
       </c>
       <c r="AO2" s="21" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>968</v>
+      </c>
+      <c r="AP2" s="21" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="str">
         <f t="shared" ref="A3:AO3" si="0">_xlfn.TEXTJOIN(" ", TRUE, LOWER(A1), LOWER(A2))</f>
         <v>vjdbv0.3 field id</v>
@@ -4347,174 +4332,182 @@
         <f t="shared" si="0"/>
         <v>ena submission requiredness</v>
       </c>
-    </row>
-    <row r="4" spans="1:41" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP3" s="19" t="str">
+        <f t="shared" ref="AP3" si="1">_xlfn.TEXTJOIN(" ", TRUE, LOWER(AP1), LOWER(AP2))</f>
+        <v>ena submission fieldtype</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="str">
-        <f t="shared" ref="A4:AO4" si="1">SUBSTITUTE(A3, " ", "_")</f>
+        <f t="shared" ref="A4:AO4" si="2">SUBSTITUTE(A3, " ", "_")</f>
         <v>vjdbv0.3_field_id</v>
       </c>
       <c r="B4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>vjdbv0.3_name</v>
       </c>
       <c r="C4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>vjdbv0.3_description</v>
       </c>
       <c r="D4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>vjdbv0.3_fields_type</v>
       </c>
       <c r="E4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>vjdbv0.3_privacy</v>
       </c>
       <c r="F4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>vjdbv0.2__field_id</v>
       </c>
       <c r="G4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>vjdbv0.1_field_id</v>
       </c>
       <c r="H4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ena_field_id</v>
       </c>
       <c r="I4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>rki_field_id</v>
       </c>
       <c r="J4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>migs-vi_field_id</v>
       </c>
       <c r="K4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>migs-uvig_field_id</v>
       </c>
       <c r="L4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>env-o_field_id</v>
       </c>
       <c r="M4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ncbi_virus_n_nucleotide_field_id</v>
       </c>
       <c r="N4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>bv-brc_b_field_name</v>
       </c>
       <c r="O4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ena_erc32_field_name</v>
       </c>
       <c r="P4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ena_erc33_field_name</v>
       </c>
       <c r="Q4" s="24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ena_submission_object_object_name</v>
       </c>
       <c r="R4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>vjdbv0.3_group1</v>
       </c>
       <c r="S4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>vjdbv0.3_group2</v>
       </c>
       <c r="T4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>vjdbv0.3_group3</v>
       </c>
       <c r="U4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>vjdbv0.3_tags</v>
       </c>
       <c r="V4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>vjdbv0.3_input_source</v>
       </c>
       <c r="W4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>vjdbv0.3_changes</v>
       </c>
       <c r="X4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>vjdbv0.2_previous_changes</v>
       </c>
       <c r="Y4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ncbi_virus_n_field_name</v>
       </c>
       <c r="Z4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ncbi_virus_n_field_description</v>
       </c>
       <c r="AA4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ncbi_virus_n_type</v>
       </c>
       <c r="AB4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ncbi_virus_n_curation_notes</v>
       </c>
       <c r="AC4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>bv-brc_b_category</v>
       </c>
       <c r="AD4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>bv-brc_b_schema_category</v>
       </c>
       <c r="AE4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>bv-brc_b_field_id</v>
       </c>
       <c r="AF4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>bv-brc_b_field_type</v>
       </c>
       <c r="AG4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>bv-brc_b_type</v>
       </c>
       <c r="AH4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>bv-brc_b_curation_notes</v>
       </c>
       <c r="AI4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ena_erc32_field_description</v>
       </c>
       <c r="AJ4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ena_erc32_controlled_vocabulary</v>
       </c>
       <c r="AK4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ena_erc32_field_type</v>
       </c>
       <c r="AL4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ena_erc33_field_description</v>
       </c>
       <c r="AM4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ena_erc33_controlled_vocabulary</v>
       </c>
       <c r="AN4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ena_erc33_field_type</v>
       </c>
       <c r="AO4" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ena_submission_requiredness</v>
       </c>
-    </row>
-    <row r="5" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP4" s="19" t="str">
+        <f t="shared" ref="AP4" si="3">SUBSTITUTE(AP3, " ", "_")</f>
+        <v>ena_submission_fieldtype</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -4528,7 +4521,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>
@@ -4602,8 +4595,11 @@
       <c r="AM5" s="3"/>
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
-    </row>
-    <row r="6" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP5" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -4639,7 +4635,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="36" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>26</v>
@@ -4649,7 +4645,7 @@
       </c>
       <c r="T6" s="3"/>
       <c r="U6" s="3" t="str">
-        <f t="shared" ref="U6:U69" si="2">"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
+        <f t="shared" ref="U6:U69" si="4">"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
     IF(H6&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
     IF(I6&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
     IF(J6&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
@@ -4695,8 +4691,11 @@
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
       <c r="AO6" s="3"/>
-    </row>
-    <row r="7" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP6" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -4734,7 +4733,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="36" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>26</v>
@@ -4744,7 +4743,7 @@
       </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "NCBI Virus", "BV-BRC", "Organizational", "ENA Study", "Identifiers"]</v>
       </c>
       <c r="V7" s="3" t="s">
@@ -4781,8 +4780,11 @@
       <c r="AO7" s="3" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="8" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP7" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
@@ -4822,7 +4824,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="36" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>26</v>
@@ -4832,7 +4834,7 @@
       </c>
       <c r="T8" s="3"/>
       <c r="U8" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "MIGS-VI", "NCBI Virus", "BV-BRC", "Organizational", "ENA Sample", "Identifiers"]</v>
       </c>
       <c r="V8" s="3" t="s">
@@ -4869,8 +4871,11 @@
       <c r="AO8" s="3" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="9" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP8" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>50</v>
       </c>
@@ -4916,7 +4921,7 @@
         <v>54</v>
       </c>
       <c r="Q9" s="36" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>49</v>
@@ -4926,7 +4931,7 @@
       </c>
       <c r="T9" s="3"/>
       <c r="U9" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "RKI", "MIGS-VI", "NCBI Virus", "BV-BRC", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Collection"]</v>
       </c>
       <c r="V9" s="3" t="s">
@@ -4973,8 +4978,11 @@
       <c r="AO9" s="3" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="10" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP9" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>59</v>
       </c>
@@ -5018,7 +5026,7 @@
         <v>63</v>
       </c>
       <c r="Q10" s="36" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>49</v>
@@ -5026,7 +5034,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "MIGS-VI", "NCBI Virus", "BV-BRC", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample"]</v>
       </c>
       <c r="V10" s="3" t="s">
@@ -5075,8 +5083,11 @@
       <c r="AO10" s="3" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="11" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP10" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -5120,7 +5131,7 @@
         <v>72</v>
       </c>
       <c r="U11" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["NCBI Virus", "BV-BRC", "Sample", "Virus", "NCBI Taxonomy"]</v>
       </c>
       <c r="V11" s="3" t="s">
@@ -5157,8 +5168,11 @@
       <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
       <c r="AO11" s="3"/>
-    </row>
-    <row r="12" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP11" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>73</v>
       </c>
@@ -5198,7 +5212,7 @@
       </c>
       <c r="T12" s="3"/>
       <c r="U12" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["NCBI Virus", "Sample", "Sequence"]</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5227,8 +5241,11 @@
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
-    </row>
-    <row r="13" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP12" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>78</v>
       </c>
@@ -5268,7 +5285,7 @@
       </c>
       <c r="T13" s="3"/>
       <c r="U13" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["NCBI Virus", "Sample", "Sequence"]</v>
       </c>
       <c r="V13" s="3" t="s">
@@ -5300,7 +5317,7 @@
       <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
     </row>
-    <row r="14" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>83</v>
       </c>
@@ -5344,7 +5361,7 @@
       </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["NCBI Virus", "BV-BRC", "Sample", "Sequence"]</v>
       </c>
       <c r="V14" s="3" t="s">
@@ -5384,7 +5401,7 @@
       <c r="AN14" s="3"/>
       <c r="AO14" s="3"/>
     </row>
-    <row r="15" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>88</v>
       </c>
@@ -5428,7 +5445,7 @@
       </c>
       <c r="T15" s="3"/>
       <c r="U15" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["MIGS-VI", "NCBI Virus", "Sample", "Sequence"]</v>
       </c>
       <c r="V15" s="3" t="s">
@@ -5457,8 +5474,11 @@
       <c r="AM15" s="3"/>
       <c r="AN15" s="3"/>
       <c r="AO15" s="3"/>
-    </row>
-    <row r="16" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP15" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>94</v>
       </c>
@@ -5502,7 +5522,7 @@
         <v>72</v>
       </c>
       <c r="U16" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["NCBI Virus", "BV-BRC", "Sample", "Virus", "NCBI Taxonomy"]</v>
       </c>
       <c r="V16" s="3" t="s">
@@ -5539,8 +5559,11 @@
       <c r="AM16" s="3"/>
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
-    </row>
-    <row r="17" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP16" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>98</v>
       </c>
@@ -5580,7 +5603,7 @@
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "NCBI Virus", "Sample"]</v>
       </c>
       <c r="V17" s="3" t="s">
@@ -5615,8 +5638,11 @@
       <c r="AO17" s="3" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="18" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP17" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>103</v>
       </c>
@@ -5654,7 +5680,7 @@
         <v>101</v>
       </c>
       <c r="Q18" s="36" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>49</v>
@@ -5662,7 +5688,7 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["NCBI Virus", "BV-BRC", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample"]</v>
       </c>
       <c r="V18" s="3" t="s">
@@ -5707,8 +5733,11 @@
         <v>924</v>
       </c>
       <c r="AO18" s="3"/>
-    </row>
-    <row r="19" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP18" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>107</v>
       </c>
@@ -5748,7 +5777,7 @@
         <v>110</v>
       </c>
       <c r="Q19" s="36" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="R19" s="3" t="s">
         <v>49</v>
@@ -5758,7 +5787,7 @@
       </c>
       <c r="T19" s="3"/>
       <c r="U19" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "NCBI Virus", "BV-BRC", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Host"]</v>
       </c>
       <c r="V19" s="3" t="s">
@@ -5803,8 +5832,11 @@
       <c r="AO19" s="3" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="20" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AP19" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5828,7 +5860,7 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[]</v>
       </c>
       <c r="V20" s="3" t="s">
@@ -5860,7 +5892,7 @@
       <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
     </row>
-    <row r="21" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>113</v>
       </c>
@@ -5896,7 +5928,7 @@
         <v>116</v>
       </c>
       <c r="Q21" s="36" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>49</v>
@@ -5906,7 +5938,7 @@
       </c>
       <c r="T21" s="3"/>
       <c r="U21" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "NCBI Virus", "ENA ERC33", "Sample", "ENA Sample", "Virus"]</v>
       </c>
       <c r="V21" s="3" t="s">
@@ -5943,8 +5975,11 @@
       <c r="AO21" s="3" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="22" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP21" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>118</v>
       </c>
@@ -5988,7 +6023,7 @@
       </c>
       <c r="T22" s="3"/>
       <c r="U22" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["NCBI Virus", "BV-BRC", "Sample", "Sequence"]</v>
       </c>
       <c r="V22" s="3" t="s">
@@ -6024,11 +6059,12 @@
       <c r="AL22" s="3"/>
       <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
-      <c r="AO22" s="3" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="23" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>123</v>
       </c>
@@ -6072,7 +6108,7 @@
       </c>
       <c r="T23" s="3"/>
       <c r="U23" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "NCBI Virus", "Sample", "Virus"]</v>
       </c>
       <c r="V23" s="3" t="s">
@@ -6101,10 +6137,13 @@
       <c r="AM23" s="3"/>
       <c r="AN23" s="3"/>
       <c r="AO23" s="3" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="24" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>967</v>
+      </c>
+      <c r="AP23" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>128</v>
       </c>
@@ -6146,7 +6185,7 @@
       </c>
       <c r="T24" s="3"/>
       <c r="U24" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["NCBI Virus", "Sample", "Sequence"]</v>
       </c>
       <c r="V24" s="3" t="s">
@@ -6175,8 +6214,11 @@
       <c r="AM24" s="3"/>
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
-    </row>
-    <row r="25" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP24" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>133</v>
       </c>
@@ -6214,7 +6256,7 @@
       </c>
       <c r="T25" s="3"/>
       <c r="U25" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["NCBI Virus", "Sample", "Virus"]</v>
       </c>
       <c r="V25" s="3" t="s">
@@ -6245,8 +6287,11 @@
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
-    </row>
-    <row r="26" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP25" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>137</v>
       </c>
@@ -6288,7 +6333,7 @@
       </c>
       <c r="T26" s="3"/>
       <c r="U26" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["NCBI Virus", "Organizational", "Submission"]</v>
       </c>
       <c r="V26" s="3" t="s">
@@ -6318,11 +6363,12 @@
       <c r="AL26" s="3"/>
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
-      <c r="AO26" s="3" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="27" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6350,7 +6396,7 @@
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["NCBI Virus", "Organizational"]</v>
       </c>
       <c r="V27" s="3" t="s">
@@ -6382,7 +6428,7 @@
       <c r="AN27" s="3"/>
       <c r="AO27" s="3"/>
     </row>
-    <row r="28" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>144</v>
       </c>
@@ -6424,7 +6470,7 @@
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["RKI", "NCBI Virus", "Organizational"]</v>
       </c>
       <c r="V28" s="3" t="s">
@@ -6454,11 +6500,12 @@
       <c r="AL28" s="3"/>
       <c r="AM28" s="3"/>
       <c r="AN28" s="3"/>
-      <c r="AO28" s="3" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="29" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6484,7 +6531,7 @@
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["Analysis"]</v>
       </c>
       <c r="V29" s="3" t="s">
@@ -6516,7 +6563,7 @@
       <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
     </row>
-    <row r="30" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>151</v>
       </c>
@@ -6560,7 +6607,7 @@
         <v>77</v>
       </c>
       <c r="U30" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["NCBI Virus", "Sample", "Virus", "Sequence"]</v>
       </c>
       <c r="V30" s="3" t="s">
@@ -6589,8 +6636,11 @@
       <c r="AM30" s="3"/>
       <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
-    </row>
-    <row r="31" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP30" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>156</v>
       </c>
@@ -6638,7 +6688,7 @@
         <v>72</v>
       </c>
       <c r="U31" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "NCBI Virus", "BV-BRC", "Sample", "Virus", "NCBI Taxonomy"]</v>
       </c>
       <c r="V31" s="3" t="s">
@@ -6679,8 +6729,11 @@
       <c r="AO31" s="3" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="32" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP31" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>162</v>
       </c>
@@ -6724,7 +6777,7 @@
       </c>
       <c r="T32" s="3"/>
       <c r="U32" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["NCBI Virus", "BV-BRC", "Organizational", "Identifiers"]</v>
       </c>
       <c r="V32" s="3" t="s">
@@ -6759,8 +6812,11 @@
       <c r="AM32" s="3"/>
       <c r="AN32" s="3"/>
       <c r="AO32" s="3"/>
-    </row>
-    <row r="33" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP32" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>168</v>
       </c>
@@ -6802,7 +6858,7 @@
       </c>
       <c r="T33" s="3"/>
       <c r="U33" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["NCBI Virus", "Organizational", "Submission"]</v>
       </c>
       <c r="V33" s="3" t="s">
@@ -6831,8 +6887,11 @@
       <c r="AM33" s="3"/>
       <c r="AN33" s="3"/>
       <c r="AO33" s="3"/>
-    </row>
-    <row r="34" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP33" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>172</v>
       </c>
@@ -6876,7 +6935,7 @@
         <v>176</v>
       </c>
       <c r="Q34" s="36" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="R34" s="3" t="s">
         <v>49</v>
@@ -6886,7 +6945,7 @@
       </c>
       <c r="T34" s="3"/>
       <c r="U34" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "RKI", "MIGS-VI", "NCBI Virus", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Collection"]</v>
       </c>
       <c r="V34" s="3" t="s">
@@ -6927,8 +6986,11 @@
       <c r="AO34" s="3" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="35" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP34" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>180</v>
       </c>
@@ -6966,7 +7028,7 @@
       </c>
       <c r="T35" s="3"/>
       <c r="U35" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["NCBI Virus", "Sample", "Collection"]</v>
       </c>
       <c r="V35" s="3" t="s">
@@ -6999,8 +7061,11 @@
       <c r="AM35" s="3"/>
       <c r="AN35" s="3"/>
       <c r="AO35" s="3"/>
-    </row>
-    <row r="36" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP35" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>184</v>
       </c>
@@ -7032,7 +7097,7 @@
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="36" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="R36" s="3" t="s">
         <v>26</v>
@@ -7042,7 +7107,7 @@
       </c>
       <c r="T36" s="3"/>
       <c r="U36" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "Organizational", "ENA Analysis", "Identifiers"]</v>
       </c>
       <c r="V36" s="3"/>
@@ -7068,11 +7133,12 @@
       <c r="AL36" s="3"/>
       <c r="AM36" s="3"/>
       <c r="AN36" s="3"/>
-      <c r="AO36" s="3" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="37" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO36" s="3"/>
+      <c r="AP36" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>188</v>
       </c>
@@ -7104,7 +7170,7 @@
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="36" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="R37" s="3" t="s">
         <v>150</v>
@@ -7114,7 +7180,7 @@
       </c>
       <c r="T37" s="3"/>
       <c r="U37" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "Analysis", "ENA Analysis", "Sequence"]</v>
       </c>
       <c r="V37" s="3"/>
@@ -7141,10 +7207,13 @@
       <c r="AM37" s="3"/>
       <c r="AN37" s="3"/>
       <c r="AO37" s="3" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="38" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>967</v>
+      </c>
+      <c r="AP37" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>192</v>
       </c>
@@ -7178,7 +7247,7 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="36" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="R38" s="3" t="s">
         <v>150</v>
@@ -7188,7 +7257,7 @@
       </c>
       <c r="T38" s="3"/>
       <c r="U38" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "Analysis", "ENA Analysis", "Sequence"]</v>
       </c>
       <c r="V38" s="3"/>
@@ -7217,8 +7286,11 @@
       <c r="AO38" s="3" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="39" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP38" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>196</v>
       </c>
@@ -7250,7 +7322,7 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="36" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="R39" s="3" t="s">
         <v>150</v>
@@ -7260,7 +7332,7 @@
       </c>
       <c r="T39" s="3"/>
       <c r="U39" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "Analysis", "ENA Analysis", "Sequence"]</v>
       </c>
       <c r="V39" s="3"/>
@@ -7287,10 +7359,13 @@
       <c r="AM39" s="3"/>
       <c r="AN39" s="3"/>
       <c r="AO39" s="3" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="40" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>967</v>
+      </c>
+      <c r="AP39" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>200</v>
       </c>
@@ -7328,7 +7403,7 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="36" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="R40" s="3" t="s">
         <v>150</v>
@@ -7338,7 +7413,7 @@
       </c>
       <c r="T40" s="3"/>
       <c r="U40" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "MIGS-VI", "BV-BRC", "Analysis", "ENA Analysis", "Sequence"]</v>
       </c>
       <c r="V40" s="3" t="s">
@@ -7377,8 +7452,11 @@
       <c r="AO40" s="3" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="41" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP40" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>207</v>
       </c>
@@ -7410,7 +7488,7 @@
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="36" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>150</v>
@@ -7420,7 +7498,7 @@
       </c>
       <c r="T41" s="3"/>
       <c r="U41" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "Analysis", "ENA Analysis", "Sequence"]</v>
       </c>
       <c r="V41" s="3"/>
@@ -7449,8 +7527,11 @@
       <c r="AO41" s="3" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="42" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP41" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>210</v>
       </c>
@@ -7494,7 +7575,7 @@
         <v>77</v>
       </c>
       <c r="U42" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["BV-BRC", "Organizational", "Identifiers", "Sequence"]</v>
       </c>
       <c r="V42" s="3" t="s">
@@ -7527,8 +7608,11 @@
       <c r="AM42" s="3"/>
       <c r="AN42" s="3"/>
       <c r="AO42" s="3"/>
-    </row>
-    <row r="43" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP42" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>215</v>
       </c>
@@ -7564,7 +7648,7 @@
         <v>218</v>
       </c>
       <c r="Q43" s="36" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>49</v>
@@ -7574,7 +7658,7 @@
       </c>
       <c r="T43" s="3"/>
       <c r="U43" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Collection"]</v>
       </c>
       <c r="V43" s="3"/>
@@ -7609,8 +7693,11 @@
       <c r="AO43" s="3" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="44" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP43" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="44" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>219</v>
       </c>
@@ -7646,7 +7733,7 @@
         <v>222</v>
       </c>
       <c r="Q44" s="36" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>49</v>
@@ -7658,7 +7745,7 @@
         <v>111</v>
       </c>
       <c r="U44" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Collection", "Host"]</v>
       </c>
       <c r="V44" s="3"/>
@@ -7693,8 +7780,11 @@
       <c r="AO44" s="3" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="45" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP44" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="45" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>223</v>
       </c>
@@ -7732,7 +7822,7 @@
         <v>227</v>
       </c>
       <c r="Q45" s="36" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>49</v>
@@ -7742,7 +7832,7 @@
       </c>
       <c r="T45" s="3"/>
       <c r="U45" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "MIGS-VI", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Collection"]</v>
       </c>
       <c r="V45" s="3"/>
@@ -7777,8 +7867,11 @@
       <c r="AO45" s="3" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="46" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP45" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="46" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>229</v>
       </c>
@@ -7816,7 +7909,7 @@
         <v>232</v>
       </c>
       <c r="Q46" s="36" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>49</v>
@@ -7826,7 +7919,7 @@
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "MIGS-VI", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Collection"]</v>
       </c>
       <c r="V46" s="3"/>
@@ -7861,8 +7954,11 @@
       <c r="AO46" s="3" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="47" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP46" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="47" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>180</v>
       </c>
@@ -7900,7 +7996,7 @@
       </c>
       <c r="T47" s="3"/>
       <c r="U47" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["Sample", "Collection"]</v>
       </c>
       <c r="V47" s="3" t="s">
@@ -7926,11 +8022,12 @@
       <c r="AL47" s="3"/>
       <c r="AM47" s="3"/>
       <c r="AN47" s="3"/>
-      <c r="AO47" s="3" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="48" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO47" s="3"/>
+      <c r="AP47" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="48" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>234</v>
       </c>
@@ -7970,7 +8067,7 @@
         <v>237</v>
       </c>
       <c r="Q48" s="36" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>49</v>
@@ -7980,7 +8077,7 @@
       </c>
       <c r="T48" s="3"/>
       <c r="U48" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "MIGS-VI", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Collection"]</v>
       </c>
       <c r="V48" s="3"/>
@@ -8015,8 +8112,11 @@
       <c r="AO48" s="3" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="49" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP48" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="49" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>238</v>
       </c>
@@ -8052,7 +8152,7 @@
         <v>241</v>
       </c>
       <c r="Q49" s="36" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>49</v>
@@ -8062,7 +8162,7 @@
       </c>
       <c r="T49" s="3"/>
       <c r="U49" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Collection"]</v>
       </c>
       <c r="V49" s="3"/>
@@ -8097,8 +8197,11 @@
       <c r="AO49" s="3" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="50" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP49" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="50" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>242</v>
       </c>
@@ -8134,7 +8237,7 @@
         <v>246</v>
       </c>
       <c r="Q50" s="36" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="R50" s="3" t="s">
         <v>49</v>
@@ -8144,7 +8247,7 @@
       </c>
       <c r="T50" s="3"/>
       <c r="U50" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Clinical"]</v>
       </c>
       <c r="V50" s="3"/>
@@ -8179,8 +8282,11 @@
       <c r="AO50" s="3" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="51" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP50" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="51" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>248</v>
       </c>
@@ -8220,7 +8326,7 @@
       </c>
       <c r="T51" s="3"/>
       <c r="U51" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "Organizational", "Identifiers"]</v>
       </c>
       <c r="V51" s="3"/>
@@ -8246,11 +8352,12 @@
       <c r="AL51" s="3"/>
       <c r="AM51" s="3"/>
       <c r="AN51" s="3"/>
-      <c r="AO51" s="3" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="52" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO51" s="3"/>
+      <c r="AP51" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="52" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>252</v>
       </c>
@@ -8290,7 +8397,7 @@
         <v>255</v>
       </c>
       <c r="Q52" s="36" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>49</v>
@@ -8302,7 +8409,7 @@
         <v>111</v>
       </c>
       <c r="U52" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "BV-BRC", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Clinical", "Host"]</v>
       </c>
       <c r="V52" s="3" t="s">
@@ -8341,8 +8448,11 @@
       <c r="AO52" s="3" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="53" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP52" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="53" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>256</v>
       </c>
@@ -8384,7 +8494,7 @@
         <v>111</v>
       </c>
       <c r="U53" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["Sample", "Clinical", "Host"]</v>
       </c>
       <c r="V53" s="3" t="s">
@@ -8411,8 +8521,11 @@
       <c r="AM53" s="3"/>
       <c r="AN53" s="3"/>
       <c r="AO53" s="3"/>
-    </row>
-    <row r="54" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP53" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="54" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>259</v>
       </c>
@@ -8448,7 +8561,7 @@
         <v>262</v>
       </c>
       <c r="Q54" s="36" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>49</v>
@@ -8460,7 +8573,7 @@
         <v>111</v>
       </c>
       <c r="U54" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Clinical", "Host"]</v>
       </c>
       <c r="V54" s="3"/>
@@ -8495,8 +8608,11 @@
       <c r="AO54" s="3" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="55" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP54" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="55" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>263</v>
       </c>
@@ -8538,7 +8654,7 @@
         <v>111</v>
       </c>
       <c r="U55" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["Sample", "Clinical", "Host"]</v>
       </c>
       <c r="V55" s="3"/>
@@ -8565,8 +8681,11 @@
       <c r="AM55" s="3"/>
       <c r="AN55" s="3"/>
       <c r="AO55" s="3"/>
-    </row>
-    <row r="56" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP55" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="56" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>267</v>
       </c>
@@ -8602,7 +8721,7 @@
         <v>270</v>
       </c>
       <c r="Q56" s="36" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="R56" s="3" t="s">
         <v>49</v>
@@ -8614,7 +8733,7 @@
         <v>111</v>
       </c>
       <c r="U56" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Clinical", "Host"]</v>
       </c>
       <c r="V56" s="3"/>
@@ -8649,8 +8768,11 @@
       <c r="AO56" s="3" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="57" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP56" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="57" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>271</v>
       </c>
@@ -8692,7 +8814,7 @@
         <v>111</v>
       </c>
       <c r="U57" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "Sample", "Clinical", "Host"]</v>
       </c>
       <c r="V57" s="3"/>
@@ -8719,10 +8841,13 @@
       <c r="AM57" s="3"/>
       <c r="AN57" s="3"/>
       <c r="AO57" s="3" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="58" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>967</v>
+      </c>
+      <c r="AP57" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="58" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>275</v>
       </c>
@@ -8764,7 +8889,7 @@
       </c>
       <c r="T58" s="3"/>
       <c r="U58" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["BV-BRC", "Sample", "Host"]</v>
       </c>
       <c r="V58" s="3" t="s">
@@ -8795,8 +8920,11 @@
       <c r="AM58" s="3"/>
       <c r="AN58" s="3"/>
       <c r="AO58" s="3"/>
-    </row>
-    <row r="59" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP58" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="59" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>279</v>
       </c>
@@ -8832,7 +8960,7 @@
         <v>282</v>
       </c>
       <c r="Q59" s="36" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>49</v>
@@ -8842,7 +8970,7 @@
       </c>
       <c r="T59" s="3"/>
       <c r="U59" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Host"]</v>
       </c>
       <c r="V59" s="3"/>
@@ -8877,8 +9005,11 @@
       <c r="AO59" s="3" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="60" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP59" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="60" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>283</v>
       </c>
@@ -8916,7 +9047,7 @@
       </c>
       <c r="T60" s="3"/>
       <c r="U60" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["BV-BRC", "Sample", "Host"]</v>
       </c>
       <c r="V60" s="3" t="s">
@@ -8951,8 +9082,11 @@
       <c r="AM60" s="3"/>
       <c r="AN60" s="3"/>
       <c r="AO60" s="3"/>
-    </row>
-    <row r="61" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP60" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="61" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>287</v>
       </c>
@@ -8992,7 +9126,7 @@
       </c>
       <c r="T61" s="3"/>
       <c r="U61" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["MIGS-VI", "Sample", "Host"]</v>
       </c>
       <c r="V61" s="3"/>
@@ -9019,8 +9153,11 @@
       <c r="AM61" s="3"/>
       <c r="AN61" s="3"/>
       <c r="AO61" s="3"/>
-    </row>
-    <row r="62" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP61" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="62" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>291</v>
       </c>
@@ -9062,7 +9199,7 @@
       </c>
       <c r="T62" s="3"/>
       <c r="U62" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "MIGS-VI", "Sample", "Host"]</v>
       </c>
       <c r="V62" s="3"/>
@@ -9089,10 +9226,13 @@
       <c r="AM62" s="3"/>
       <c r="AN62" s="3"/>
       <c r="AO62" s="3" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="63" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>967</v>
+      </c>
+      <c r="AP62" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="63" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>295</v>
       </c>
@@ -9134,7 +9274,7 @@
         <v>299</v>
       </c>
       <c r="Q63" s="36" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="R63" s="3" t="s">
         <v>49</v>
@@ -9144,7 +9284,7 @@
       </c>
       <c r="T63" s="3"/>
       <c r="U63" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "MIGS-VI", "BV-BRC", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Host"]</v>
       </c>
       <c r="V63" s="3" t="s">
@@ -9185,8 +9325,11 @@
       <c r="AO63" s="3" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="64" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP63" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="64" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>301</v>
       </c>
@@ -9222,7 +9365,7 @@
         <v>294</v>
       </c>
       <c r="Q64" s="36" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="R64" s="3" t="s">
         <v>49</v>
@@ -9234,7 +9377,7 @@
         <v>72</v>
       </c>
       <c r="U64" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["MIGS-VI", "ENA ERC33", "Sample", "ENA Sample", "Host", "NCBI Taxonomy"]</v>
       </c>
       <c r="V64" s="3"/>
@@ -9262,11 +9405,12 @@
       <c r="AN64" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="AO64" s="3" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="65" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AO64" s="3"/>
+      <c r="AP64" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="65" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>304</v>
       </c>
@@ -9306,7 +9450,7 @@
         <v>308</v>
       </c>
       <c r="Q65" s="36" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="R65" s="3" t="s">
         <v>49</v>
@@ -9318,7 +9462,7 @@
         <v>111</v>
       </c>
       <c r="U65" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "BV-BRC", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Clinical", "Host"]</v>
       </c>
       <c r="V65" s="3" t="s">
@@ -9357,8 +9501,11 @@
       <c r="AO65" s="3" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="66" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP65" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="66" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>310</v>
       </c>
@@ -9394,7 +9541,7 @@
         <v>313</v>
       </c>
       <c r="Q66" s="36" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>49</v>
@@ -9406,7 +9553,7 @@
         <v>111</v>
       </c>
       <c r="U66" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Clinical ", "Host"]</v>
       </c>
       <c r="V66" s="3"/>
@@ -9441,8 +9588,11 @@
       <c r="AO66" s="3" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="67" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP66" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="67" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>315</v>
       </c>
@@ -9476,7 +9626,7 @@
       </c>
       <c r="P67" s="3"/>
       <c r="Q67" s="36" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="R67" s="3" t="s">
         <v>49</v>
@@ -9488,7 +9638,7 @@
         <v>111</v>
       </c>
       <c r="U67" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "ENA ERC32", "Sample", "ENA Sample", "Clinical ", "Host"]</v>
       </c>
       <c r="V67" s="3"/>
@@ -9517,10 +9667,13 @@
       <c r="AM67" s="3"/>
       <c r="AN67" s="3"/>
       <c r="AO67" s="3" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="68" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>965</v>
+      </c>
+      <c r="AP67" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="68" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>319</v>
       </c>
@@ -9554,7 +9707,7 @@
       </c>
       <c r="P68" s="3"/>
       <c r="Q68" s="36" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="R68" s="3" t="s">
         <v>49</v>
@@ -9566,7 +9719,7 @@
         <v>111</v>
       </c>
       <c r="U68" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "ENA ERC32", "Sample", "ENA Sample", "Clinical ", "Host"]</v>
       </c>
       <c r="V68" s="3"/>
@@ -9595,10 +9748,13 @@
       <c r="AM68" s="3"/>
       <c r="AN68" s="3"/>
       <c r="AO68" s="3" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="69" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>965</v>
+      </c>
+      <c r="AP68" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="69" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>323</v>
       </c>
@@ -9634,7 +9790,7 @@
       </c>
       <c r="P69" s="3"/>
       <c r="Q69" s="36" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="R69" s="3" t="s">
         <v>49</v>
@@ -9646,7 +9802,7 @@
         <v>111</v>
       </c>
       <c r="U69" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>["ENA", "ENA ERC32", "Sample", "ENA Sample", "Clinical ", "Host"]</v>
       </c>
       <c r="V69" s="3"/>
@@ -9675,10 +9831,13 @@
       <c r="AM69" s="3"/>
       <c r="AN69" s="3"/>
       <c r="AO69" s="3" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="70" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>966</v>
+      </c>
+      <c r="AP69" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="70" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>327</v>
       </c>
@@ -9714,7 +9873,7 @@
       </c>
       <c r="T70" s="3"/>
       <c r="U70" s="3" t="str">
-        <f t="shared" ref="U70:U109" si="3">"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
+        <f t="shared" ref="U70:U109" si="5">"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
     IF(H70&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
     IF(I70&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
     IF(J70&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
@@ -9751,7 +9910,7 @@
       <c r="AN70" s="3"/>
       <c r="AO70" s="3"/>
     </row>
-    <row r="71" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>330</v>
       </c>
@@ -9785,7 +9944,7 @@
       </c>
       <c r="P71" s="3"/>
       <c r="Q71" s="36" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="R71" s="3" t="s">
         <v>49</v>
@@ -9797,7 +9956,7 @@
         <v>111</v>
       </c>
       <c r="U71" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["ENA", "ENA ERC32", "Sample", "ENA Sample", "Clinical ", "Host"]</v>
       </c>
       <c r="V71" s="3"/>
@@ -9826,10 +9985,13 @@
       <c r="AM71" s="3"/>
       <c r="AN71" s="3"/>
       <c r="AO71" s="3" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="72" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>965</v>
+      </c>
+      <c r="AP71" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="72" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>334</v>
       </c>
@@ -9863,7 +10025,7 @@
       </c>
       <c r="P72" s="3"/>
       <c r="Q72" s="36" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>49</v>
@@ -9875,7 +10037,7 @@
         <v>111</v>
       </c>
       <c r="U72" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["ENA", "ENA ERC32", "Sample", "ENA Sample", "Clinical ", "Host"]</v>
       </c>
       <c r="V72" s="3"/>
@@ -9904,10 +10066,13 @@
       <c r="AM72" s="3"/>
       <c r="AN72" s="3"/>
       <c r="AO72" s="3" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="73" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>965</v>
+      </c>
+      <c r="AP72" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="73" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>338</v>
       </c>
@@ -9949,7 +10114,7 @@
       </c>
       <c r="T73" s="3"/>
       <c r="U73" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["RKI", "BV-BRC", "Analysis", "Sequence"]</v>
       </c>
       <c r="V73" s="3" t="s">
@@ -9982,8 +10147,11 @@
       <c r="AM73" s="3"/>
       <c r="AN73" s="3"/>
       <c r="AO73" s="3"/>
-    </row>
-    <row r="74" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP73" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="74" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>343</v>
       </c>
@@ -10023,7 +10191,7 @@
       </c>
       <c r="T74" s="3"/>
       <c r="U74" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["RKI", "Analysis", "Sequence"]</v>
       </c>
       <c r="V74" s="3"/>
@@ -10050,8 +10218,11 @@
       <c r="AM74" s="3"/>
       <c r="AN74" s="3"/>
       <c r="AO74" s="3"/>
-    </row>
-    <row r="75" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP74" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="75" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>347</v>
       </c>
@@ -10087,7 +10258,7 @@
         <v>350</v>
       </c>
       <c r="Q75" s="36" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="R75" s="3" t="s">
         <v>49</v>
@@ -10095,7 +10266,7 @@
       <c r="S75" s="3"/>
       <c r="T75" s="3"/>
       <c r="U75" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["ENA", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample"]</v>
       </c>
       <c r="V75" s="3"/>
@@ -10130,8 +10301,11 @@
       <c r="AO75" s="3" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="76" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP75" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>351</v>
       </c>
@@ -10171,7 +10345,7 @@
       </c>
       <c r="T76" s="3"/>
       <c r="U76" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["RKI", "Organizational", "Identifiers"]</v>
       </c>
       <c r="V76" s="3"/>
@@ -10198,8 +10372,11 @@
       <c r="AM76" s="3"/>
       <c r="AN76" s="3"/>
       <c r="AO76" s="3"/>
-    </row>
-    <row r="77" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP76" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="77" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>355</v>
       </c>
@@ -10239,7 +10416,7 @@
       </c>
       <c r="T77" s="3"/>
       <c r="U77" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["ENA", "Organizational", "Identifiers"]</v>
       </c>
       <c r="V77" s="3"/>
@@ -10268,8 +10445,11 @@
       <c r="AO77" s="3" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="78" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP77" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="78" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>359</v>
       </c>
@@ -10311,7 +10491,7 @@
         <v>362</v>
       </c>
       <c r="U78" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["Sample", "Virus", "ICTV Taxonomy"]</v>
       </c>
       <c r="V78" s="3" t="s">
@@ -10338,8 +10518,11 @@
       <c r="AM78" s="3"/>
       <c r="AN78" s="3"/>
       <c r="AO78" s="3"/>
-    </row>
-    <row r="79" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP78" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="79" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>363</v>
       </c>
@@ -10381,7 +10564,7 @@
         <v>370</v>
       </c>
       <c r="Q79" s="36" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="R79" s="3" t="s">
         <v>49</v>
@@ -10393,7 +10576,7 @@
         <v>72</v>
       </c>
       <c r="U79" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["ENA", "MIGS-VI", "BV-BRC", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Virus ", "NCBI Taxonomy"]</v>
       </c>
       <c r="V79" s="3" t="s">
@@ -10434,8 +10617,11 @@
       <c r="AO79" s="3" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="80" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP79" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="80" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>372</v>
       </c>
@@ -10475,7 +10661,7 @@
         <v>376</v>
       </c>
       <c r="Q80" s="36" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="R80" s="3" t="s">
         <v>49</v>
@@ -10485,7 +10671,7 @@
       </c>
       <c r="T80" s="3"/>
       <c r="U80" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["ENA", "MIGS-VI", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "Clinical"]</v>
       </c>
       <c r="V80" s="3"/>
@@ -10520,8 +10706,11 @@
       <c r="AO80" s="3" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="81" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP80" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="81" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>377</v>
       </c>
@@ -10561,7 +10750,7 @@
       </c>
       <c r="T81" s="3"/>
       <c r="U81" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["Sample", "Virus"]</v>
       </c>
       <c r="V81" s="3" t="s">
@@ -10588,8 +10777,11 @@
       <c r="AM81" s="3"/>
       <c r="AN81" s="3"/>
       <c r="AO81" s="3"/>
-    </row>
-    <row r="82" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP81" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="82" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>381</v>
       </c>
@@ -10631,7 +10823,7 @@
         <v>72</v>
       </c>
       <c r="U82" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["Sample", "Virus", "NCBI Taxonomy"]</v>
       </c>
       <c r="V82" s="3" t="s">
@@ -10658,8 +10850,11 @@
       <c r="AM82" s="3"/>
       <c r="AN82" s="3"/>
       <c r="AO82" s="3"/>
-    </row>
-    <row r="83" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP82" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="83" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>385</v>
       </c>
@@ -10701,7 +10896,7 @@
       </c>
       <c r="T83" s="3"/>
       <c r="U83" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["ENA", "BV-BRC", "Analysis", "Sequence"]</v>
       </c>
       <c r="V83" s="3" t="s">
@@ -10738,8 +10933,11 @@
       <c r="AO83" s="3" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="84" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP83" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="84" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>390</v>
       </c>
@@ -10781,7 +10979,7 @@
       </c>
       <c r="T84" s="3"/>
       <c r="U84" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["BV-BRC", "Analysis", "Sequence"]</v>
       </c>
       <c r="V84" s="3" t="s">
@@ -10814,8 +11012,11 @@
       <c r="AM84" s="3"/>
       <c r="AN84" s="3"/>
       <c r="AO84" s="3"/>
-    </row>
-    <row r="85" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP84" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="85" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>394</v>
       </c>
@@ -10855,7 +11056,7 @@
       </c>
       <c r="T85" s="3"/>
       <c r="U85" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["MIGS-VI", "Analysis", "Sequence"]</v>
       </c>
       <c r="V85" s="3" t="s">
@@ -10882,8 +11083,11 @@
       <c r="AM85" s="3"/>
       <c r="AN85" s="3"/>
       <c r="AO85" s="3"/>
-    </row>
-    <row r="86" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP85" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="86" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>398</v>
       </c>
@@ -10927,7 +11131,7 @@
       </c>
       <c r="T86" s="3"/>
       <c r="U86" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["MIGS-VI", "BV-BRC", "Analysis", "Sequence"]</v>
       </c>
       <c r="V86" s="3" t="s">
@@ -10962,8 +11166,11 @@
       <c r="AM86" s="3"/>
       <c r="AN86" s="3"/>
       <c r="AO86" s="3"/>
-    </row>
-    <row r="87" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP86" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="87" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>404</v>
       </c>
@@ -11005,7 +11212,7 @@
       </c>
       <c r="T87" s="3"/>
       <c r="U87" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["MIGS-VI", "Analysis", "Sequence"]</v>
       </c>
       <c r="V87" s="3" t="s">
@@ -11032,8 +11239,11 @@
       <c r="AM87" s="3"/>
       <c r="AN87" s="3"/>
       <c r="AO87" s="3"/>
-    </row>
-    <row r="88" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP87" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="88" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>409</v>
       </c>
@@ -11073,7 +11283,7 @@
       <c r="S88" s="3"/>
       <c r="T88" s="3"/>
       <c r="U88" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["MIGS-VI", "Organizational"]</v>
       </c>
       <c r="V88" s="3" t="s">
@@ -11102,8 +11312,11 @@
       <c r="AM88" s="3"/>
       <c r="AN88" s="3"/>
       <c r="AO88" s="3"/>
-    </row>
-    <row r="89" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP88" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="89" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>414</v>
       </c>
@@ -11147,7 +11360,7 @@
       </c>
       <c r="T89" s="3"/>
       <c r="U89" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["MIGS-VI", "BV-BRC", "Organizational", "Identifiers"]</v>
       </c>
       <c r="V89" s="3" t="s">
@@ -11180,8 +11393,11 @@
       <c r="AM89" s="3"/>
       <c r="AN89" s="3"/>
       <c r="AO89" s="3"/>
-    </row>
-    <row r="90" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP89" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="90" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>419</v>
       </c>
@@ -11221,7 +11437,7 @@
       </c>
       <c r="T90" s="3"/>
       <c r="U90" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["BV-BRC", "Organizational", "Sequence"]</v>
       </c>
       <c r="V90" s="3" t="s">
@@ -11256,8 +11472,11 @@
       <c r="AM90" s="3"/>
       <c r="AN90" s="3"/>
       <c r="AO90" s="3"/>
-    </row>
-    <row r="91" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP90" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="91" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>424</v>
       </c>
@@ -11297,7 +11516,7 @@
       </c>
       <c r="T91" s="3"/>
       <c r="U91" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["RKI", "Organizational", "Sequence"]</v>
       </c>
       <c r="V91" s="3" t="s">
@@ -11326,8 +11545,11 @@
       <c r="AM91" s="3"/>
       <c r="AN91" s="3"/>
       <c r="AO91" s="3"/>
-    </row>
-    <row r="92" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP91" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="92" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>429</v>
       </c>
@@ -11367,7 +11589,7 @@
       </c>
       <c r="T92" s="3"/>
       <c r="U92" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["BV-BRC", "Organizational", "Sequence"]</v>
       </c>
       <c r="V92" s="3" t="s">
@@ -11398,8 +11620,11 @@
       <c r="AM92" s="3"/>
       <c r="AN92" s="3"/>
       <c r="AO92" s="3"/>
-    </row>
-    <row r="93" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP92" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="93" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>432</v>
       </c>
@@ -11433,7 +11658,7 @@
         <v>436</v>
       </c>
       <c r="Q93" s="36" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="R93" s="3" t="s">
         <v>150</v>
@@ -11443,7 +11668,7 @@
       </c>
       <c r="T93" s="3"/>
       <c r="U93" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["ENA", "ENA ERC32", "ENA ERC33", "Analysis", "ENA Experiment", "Sequencing"]</v>
       </c>
       <c r="V93" s="3"/>
@@ -11476,10 +11701,13 @@
         <v>924</v>
       </c>
       <c r="AO93" s="3" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="94" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>967</v>
+      </c>
+      <c r="AP93" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="94" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>438</v>
       </c>
@@ -11515,7 +11743,7 @@
         <v>443</v>
       </c>
       <c r="Q94" s="36" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>150</v>
@@ -11525,7 +11753,7 @@
       </c>
       <c r="T94" s="3"/>
       <c r="U94" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["ENA", "MIGS-VI", "ENA ERC32", "ENA ERC33", "Analysis", "ENA Experiment", "Sequencing"]</v>
       </c>
       <c r="V94" s="3"/>
@@ -11560,8 +11788,11 @@
       <c r="AO94" s="3" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="95" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP94" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="95" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>444</v>
       </c>
@@ -11595,7 +11826,7 @@
         <v>448</v>
       </c>
       <c r="Q95" s="36" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="R95" s="3" t="s">
         <v>150</v>
@@ -11605,7 +11836,7 @@
       </c>
       <c r="T95" s="3"/>
       <c r="U95" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["ENA", "ENA ERC32", "ENA ERC33", "Analysis", "ENA Experiment", "Sequencing"]</v>
       </c>
       <c r="V95" s="3"/>
@@ -11638,10 +11869,13 @@
         <v>924</v>
       </c>
       <c r="AO95" s="3" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="96" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>967</v>
+      </c>
+      <c r="AP95" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="96" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>449</v>
       </c>
@@ -11675,7 +11909,7 @@
         <v>452</v>
       </c>
       <c r="Q96" s="36" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="R96" s="3" t="s">
         <v>150</v>
@@ -11685,7 +11919,7 @@
       </c>
       <c r="T96" s="3"/>
       <c r="U96" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["ENA", "ENA ERC32", "ENA ERC33", "Analysis", "ENA Experiment", "Sequencing"]</v>
       </c>
       <c r="V96" s="3"/>
@@ -11718,10 +11952,13 @@
         <v>928</v>
       </c>
       <c r="AO96" s="3" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="97" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>967</v>
+      </c>
+      <c r="AP96" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="97" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>453</v>
       </c>
@@ -11757,7 +11994,7 @@
         <v>456</v>
       </c>
       <c r="Q97" s="36" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="R97" s="3" t="s">
         <v>150</v>
@@ -11767,7 +12004,7 @@
       </c>
       <c r="T97" s="3"/>
       <c r="U97" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["ENA", "MIGS-VI", "ENA ERC32", "ENA ERC33", "Analysis", "ENA Experiment", "Sequencing"]</v>
       </c>
       <c r="V97" s="3"/>
@@ -11800,10 +12037,13 @@
         <v>924</v>
       </c>
       <c r="AO97" s="3" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="98" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>965</v>
+      </c>
+      <c r="AP97" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="98" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>458</v>
       </c>
@@ -11837,7 +12077,7 @@
         <v>462</v>
       </c>
       <c r="Q98" s="36" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="R98" s="3" t="s">
         <v>150</v>
@@ -11847,7 +12087,7 @@
       </c>
       <c r="T98" s="3"/>
       <c r="U98" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["ENA", "ENA ERC32", "ENA ERC33", "Analysis", "ENA Experiment", "Sequencing"]</v>
       </c>
       <c r="V98" s="3"/>
@@ -11882,8 +12122,11 @@
       <c r="AO98" s="3" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="99" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP98" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="99" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>463</v>
       </c>
@@ -11919,7 +12162,7 @@
         <v>468</v>
       </c>
       <c r="Q99" s="36" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="R99" s="3" t="s">
         <v>150</v>
@@ -11929,7 +12172,7 @@
       </c>
       <c r="T99" s="3"/>
       <c r="U99" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["ENA", "MIGS-VI", "ENA ERC32", "ENA ERC33", "Analysis", "ENA Experiment", "Sequencing"]</v>
       </c>
       <c r="V99" s="3"/>
@@ -11964,8 +12207,11 @@
       <c r="AO99" s="3" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="100" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP99" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="100" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>469</v>
       </c>
@@ -11999,7 +12245,7 @@
         <v>473</v>
       </c>
       <c r="Q100" s="36" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>150</v>
@@ -12009,7 +12255,7 @@
       </c>
       <c r="T100" s="3"/>
       <c r="U100" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["ENA", "ENA ERC32", "ENA ERC33", "Analysis", "ENA Experiment", "Sequencing"]</v>
       </c>
       <c r="V100" s="3"/>
@@ -12044,8 +12290,11 @@
       <c r="AO100" s="3" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="101" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP100" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="101" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>474</v>
       </c>
@@ -12081,7 +12330,7 @@
         <v>479</v>
       </c>
       <c r="Q101" s="36" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>150</v>
@@ -12091,7 +12340,7 @@
       </c>
       <c r="T101" s="3"/>
       <c r="U101" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["ENA", "ENA ERC32", "ENA ERC33", "Analysis", "ENA Experiment", "Sequencing"]</v>
       </c>
       <c r="V101" s="3"/>
@@ -12126,8 +12375,11 @@
       <c r="AO101" s="3" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="102" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP101" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="102" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>480</v>
       </c>
@@ -12165,7 +12417,7 @@
         <v>485</v>
       </c>
       <c r="Q102" s="36" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="R102" s="3" t="s">
         <v>150</v>
@@ -12175,7 +12427,7 @@
       </c>
       <c r="T102" s="3"/>
       <c r="U102" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["ENA", "RKI", "BV-BRC", "ENA ERC32", "ENA ERC33", "Analysis", "ENA Experiment", "Sequencing"]</v>
       </c>
       <c r="V102" s="3" t="s">
@@ -12216,8 +12468,11 @@
       <c r="AO102" s="3" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="103" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP102" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="103" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>486</v>
       </c>
@@ -12257,7 +12512,7 @@
       </c>
       <c r="T103" s="3"/>
       <c r="U103" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["ENA", "RKI", "Analysis", "Sequencing"]</v>
       </c>
       <c r="V103" s="3" t="s">
@@ -12288,8 +12543,11 @@
       <c r="AO103" s="3" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="104" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP103" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="104" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>491</v>
       </c>
@@ -12327,7 +12585,7 @@
       </c>
       <c r="T104" s="3"/>
       <c r="U104" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["Organizational", "Source"]</v>
       </c>
       <c r="V104" s="3" t="s">
@@ -12354,8 +12612,11 @@
       <c r="AM104" s="3"/>
       <c r="AN104" s="3"/>
       <c r="AO104" s="3"/>
-    </row>
-    <row r="105" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP104" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="105" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>497</v>
       </c>
@@ -12393,7 +12654,7 @@
       </c>
       <c r="T105" s="3"/>
       <c r="U105" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["NCBI Virus", "Sample", "Submission"]</v>
       </c>
       <c r="V105" s="3" t="s">
@@ -12418,8 +12679,11 @@
       <c r="AM105" s="3"/>
       <c r="AN105" s="3"/>
       <c r="AO105" s="3"/>
-    </row>
-    <row r="106" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP105" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="106" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>501</v>
       </c>
@@ -12453,7 +12717,7 @@
       </c>
       <c r="T106" s="3"/>
       <c r="U106" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["Sample", "Submission"]</v>
       </c>
       <c r="V106" s="3" t="s">
@@ -12482,8 +12746,11 @@
       <c r="AM106" s="3"/>
       <c r="AN106" s="3"/>
       <c r="AO106" s="3"/>
-    </row>
-    <row r="107" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP106" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="107" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>504</v>
       </c>
@@ -12519,7 +12786,7 @@
       </c>
       <c r="T107" s="3"/>
       <c r="U107" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["BV-BRC", "Organizational", "Submission"]</v>
       </c>
       <c r="V107" s="3" t="s">
@@ -12556,8 +12823,11 @@
       <c r="AM107" s="3"/>
       <c r="AN107" s="3"/>
       <c r="AO107" s="3"/>
-    </row>
-    <row r="108" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP107" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="108" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>507</v>
       </c>
@@ -12595,7 +12865,7 @@
       </c>
       <c r="T108" s="3"/>
       <c r="U108" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["Organizational", "Sequence"]</v>
       </c>
       <c r="V108" s="3" t="s">
@@ -12620,8 +12890,11 @@
       <c r="AM108" s="3"/>
       <c r="AN108" s="3"/>
       <c r="AO108" s="3"/>
-    </row>
-    <row r="109" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP108" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="109" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>511</v>
       </c>
@@ -12659,7 +12932,7 @@
         <v>515</v>
       </c>
       <c r="Q109" s="36" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="R109" s="3" t="s">
         <v>26</v>
@@ -12669,7 +12942,7 @@
       </c>
       <c r="T109" s="3"/>
       <c r="U109" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>["ENA", "RKI", "ENA ERC32", "ENA ERC33", "Organizational", "ENA Sample", "Virus"]</v>
       </c>
       <c r="V109" s="3"/>
@@ -12703,6 +12976,9 @@
       </c>
       <c r="AO109" s="3" t="s">
         <v>966</v>
+      </c>
+      <c r="AP109" s="4" t="s">
+        <v>872</v>
       </c>
     </row>
   </sheetData>
@@ -12785,7 +13061,7 @@
         <v>9</v>
       </c>
       <c r="Q1" s="33" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="R1" s="22" t="s">
         <v>666</v>
@@ -13041,7 +13317,7 @@
         <v>18</v>
       </c>
       <c r="Q2" s="34" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
       <c r="R2" s="22" t="s">
         <v>667</v>
@@ -13113,7 +13389,7 @@
         <v>880</v>
       </c>
       <c r="AO2" s="26" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="AP2" s="31"/>
       <c r="AQ2" s="31"/>
@@ -13869,7 +14145,7 @@
         <v>517</v>
       </c>
       <c r="Q5" s="32" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
@@ -13944,7 +14220,7 @@
         <v>517</v>
       </c>
       <c r="Q6" s="32" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
@@ -14019,7 +14295,7 @@
         <v>517</v>
       </c>
       <c r="Q7" s="32" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -14094,7 +14370,7 @@
         <v>517</v>
       </c>
       <c r="Q8" s="32" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -14445,7 +14721,7 @@
         <v>530</v>
       </c>
       <c r="Q13" s="32" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
@@ -14520,7 +14796,7 @@
         <v>532</v>
       </c>
       <c r="Q14" s="32" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -14595,7 +14871,7 @@
         <v>534</v>
       </c>
       <c r="Q15" s="32" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -15735,7 +16011,7 @@
         <v>565</v>
       </c>
       <c r="Q31" s="32" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
@@ -16104,7 +16380,7 @@
         <v>574</v>
       </c>
       <c r="Q36" s="32" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
@@ -16398,7 +16674,7 @@
         <v>582</v>
       </c>
       <c r="Q40" s="32" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
@@ -16473,7 +16749,7 @@
         <v>584</v>
       </c>
       <c r="Q41" s="32" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
@@ -16548,7 +16824,7 @@
         <v>586</v>
       </c>
       <c r="Q42" s="32" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
@@ -16773,7 +17049,7 @@
         <v>592</v>
       </c>
       <c r="Q45" s="32" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
@@ -16848,7 +17124,7 @@
         <v>592</v>
       </c>
       <c r="Q46" s="32" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285DCF91-BDCE-4F36-906D-70B4A8B3AF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4367A1A7-1F66-4317-AD0F-236FB3A74C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3175" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3176" uniqueCount="982">
   <si>
     <t>VJDBv0.2</t>
   </si>
@@ -3903,7 +3903,7 @@
   <dimension ref="A1:AP109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AR8" sqref="AR8"/>
+      <selection activeCell="AO6" sqref="AO6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.5703125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4690,7 +4690,9 @@
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
+      <c r="AO6" s="3" t="s">
+        <v>965</v>
+      </c>
       <c r="AP6" s="4" t="s">
         <v>872</v>
       </c>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4367A1A7-1F66-4317-AD0F-236FB3A74C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A53E1D4-2DB6-48EB-8545-2587A151EE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3176" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3175" uniqueCount="982">
   <si>
     <t>VJDBv0.2</t>
   </si>
@@ -4690,9 +4690,7 @@
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
-      <c r="AO6" s="3" t="s">
-        <v>965</v>
-      </c>
+      <c r="AO6" s="3"/>
       <c r="AP6" s="4" t="s">
         <v>872</v>
       </c>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A53E1D4-2DB6-48EB-8545-2587A151EE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FD4724-28CF-40E5-A5DE-20EED008F295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3175" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3472" uniqueCount="1033">
   <si>
     <t>VJDBv0.2</t>
   </si>
@@ -3141,15 +3141,6 @@
     <t>submission requiredness</t>
   </si>
   <si>
-    <t>Study</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
     <t>ENA Submission Object</t>
   </si>
   <si>
@@ -3168,9 +3159,6 @@
     <t>ENA Experiment</t>
   </si>
   <si>
-    <t>publice</t>
-  </si>
-  <si>
     <t>submission fieldtype</t>
   </si>
   <si>
@@ -3178,6 +3166,171 @@
   </si>
   <si>
     <t>suggestion</t>
+  </si>
+  <si>
+    <t>submission validation</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>freetext</t>
+  </si>
+  <si>
+    <t>controlled_vocabulary</t>
+  </si>
+  <si>
+    <t>textarea</t>
+  </si>
+  <si>
+    <t>ENA Run</t>
+  </si>
+  <si>
+    <t>Antiviral Treatment</t>
+  </si>
+  <si>
+    <t>Antiviral Treatment Dosage</t>
+  </si>
+  <si>
+    <t>Antiviral Treatment Duration</t>
+  </si>
+  <si>
+    <t>Antiviral Treatment Initiation</t>
+  </si>
+  <si>
+    <t>Experiment Alias</t>
+  </si>
+  <si>
+    <t>File Format</t>
+  </si>
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>Gravidity</t>
+  </si>
+  <si>
+    <t>Hospitalisation</t>
+  </si>
+  <si>
+    <t>Host Description</t>
+  </si>
+  <si>
+    <t>Illness Duration</t>
+  </si>
+  <si>
+    <t>Illness Onset Date</t>
+  </si>
+  <si>
+    <t>Illness Symptoms</t>
+  </si>
+  <si>
+    <t>Influenza Strain Unique Number</t>
+  </si>
+  <si>
+    <t>Influenza Vaccination Date</t>
+  </si>
+  <si>
+    <t>Influenza Vaccination Type</t>
+  </si>
+  <si>
+    <t>Influenza-like Illness at the Time of Sample Collection</t>
+  </si>
+  <si>
+    <t>Inoculation Dose</t>
+  </si>
+  <si>
+    <t>Inoculation Route</t>
+  </si>
+  <si>
+    <t>Inoculation Stock Availability</t>
+  </si>
+  <si>
+    <t>Lineage: SWL (Required for H1N1 Viruses)</t>
+  </si>
+  <si>
+    <t>Meaning of Cut Off Value</t>
+  </si>
+  <si>
+    <t>New Study Type</t>
+  </si>
+  <si>
+    <t>Number of Inoculated Individuals</t>
+  </si>
+  <si>
+    <t>Personal Protective Equipment</t>
+  </si>
+  <si>
+    <t>Sample Capture Status</t>
+  </si>
+  <si>
+    <t>Sample Storage Conditions</t>
+  </si>
+  <si>
+    <t>Sample Alias</t>
+  </si>
+  <si>
+    <t>Sample Description</t>
+  </si>
+  <si>
+    <t>Source of Vaccination Information</t>
+  </si>
+  <si>
+    <t>Study Abstract</t>
+  </si>
+  <si>
+    <t>Study Alias</t>
+  </si>
+  <si>
+    <t>Study Type</t>
+  </si>
+  <si>
+    <t>Subject Exposure</t>
+  </si>
+  <si>
+    <t>Subject Exposure Duration</t>
+  </si>
+  <si>
+    <t>Type Exposure</t>
+  </si>
+  <si>
+    <t>Vaccine Dosage</t>
+  </si>
+  <si>
+    <t>Vaccine Lot Number</t>
+  </si>
+  <si>
+    <t>Vaccine Manufacturer</t>
+  </si>
+  <si>
+    <t>WHO/OIE/FAO Clade (Required for HPAI H5N1 Viruses)</t>
+  </si>
+  <si>
+    <t>run_alias</t>
+  </si>
+  <si>
+    <t>Run Alias</t>
+  </si>
+  <si>
+    <t>study_title</t>
+  </si>
+  <si>
+    <t>experiment_title</t>
+  </si>
+  <si>
+    <t>sample_title</t>
+  </si>
+  <si>
+    <t>Study Title</t>
+  </si>
+  <si>
+    <t>Experiment Title</t>
+  </si>
+  <si>
+    <t>Sample Title</t>
+  </si>
+  <si>
+    <t>private</t>
   </si>
 </sst>
 </file>
@@ -3900,10 +4053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E033465-2455-477E-A700-6BF7A0771C26}">
-  <dimension ref="A1:AP109"/>
+  <dimension ref="A1:AQ157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AO6" sqref="AO6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.5703125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3911,7 +4064,7 @@
     <col min="21" max="21" width="100.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>666</v>
       </c>
@@ -3961,7 +4114,7 @@
         <v>9</v>
       </c>
       <c r="Q1" s="33" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="R1" s="22" t="s">
         <v>666</v>
@@ -4038,8 +4191,11 @@
       <c r="AP1" s="21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:42" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ1" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>11</v>
       </c>
@@ -4089,7 +4245,7 @@
         <v>18</v>
       </c>
       <c r="Q2" s="34" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="R2" s="22" t="s">
         <v>667</v>
@@ -4164,10 +4320,13 @@
         <v>968</v>
       </c>
       <c r="AP2" s="21" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>975</v>
+      </c>
+      <c r="AQ2" s="21" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="str">
         <f t="shared" ref="A3:AO3" si="0">_xlfn.TEXTJOIN(" ", TRUE, LOWER(A1), LOWER(A2))</f>
         <v>vjdbv0.3 field id</v>
@@ -4333,11 +4492,15 @@
         <v>ena submission requiredness</v>
       </c>
       <c r="AP3" s="19" t="str">
-        <f t="shared" ref="AP3" si="1">_xlfn.TEXTJOIN(" ", TRUE, LOWER(AP1), LOWER(AP2))</f>
+        <f t="shared" ref="AP3:AQ3" si="1">_xlfn.TEXTJOIN(" ", TRUE, LOWER(AP1), LOWER(AP2))</f>
         <v>ena submission fieldtype</v>
       </c>
-    </row>
-    <row r="4" spans="1:42" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ3" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>ena submission validation</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="str">
         <f t="shared" ref="A4:AO4" si="2">SUBSTITUTE(A3, " ", "_")</f>
         <v>vjdbv0.3_field_id</v>
@@ -4503,11 +4666,15 @@
         <v>ena_submission_requiredness</v>
       </c>
       <c r="AP4" s="19" t="str">
-        <f t="shared" ref="AP4" si="3">SUBSTITUTE(AP3, " ", "_")</f>
+        <f t="shared" ref="AP4:AQ4" si="3">SUBSTITUTE(AP3, " ", "_")</f>
         <v>ena_submission_fieldtype</v>
       </c>
-    </row>
-    <row r="5" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ4" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>ena_submission_validation</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -4521,7 +4688,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>978</v>
+        <v>671</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>
@@ -4598,8 +4765,11 @@
       <c r="AP5" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="6" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ5" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -4635,7 +4805,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="36" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>26</v>
@@ -4694,8 +4864,11 @@
       <c r="AP6" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="7" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ6" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -4733,7 +4906,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="36" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>26</v>
@@ -4783,8 +4956,11 @@
       <c r="AP7" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="8" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ7" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
@@ -4824,7 +5000,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="36" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>26</v>
@@ -4874,8 +5050,11 @@
       <c r="AP8" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="9" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ8" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>50</v>
       </c>
@@ -4921,7 +5100,7 @@
         <v>54</v>
       </c>
       <c r="Q9" s="36" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>49</v>
@@ -4981,8 +5160,11 @@
       <c r="AP9" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ9" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>59</v>
       </c>
@@ -5026,7 +5208,7 @@
         <v>63</v>
       </c>
       <c r="Q10" s="36" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>49</v>
@@ -5084,10 +5266,13 @@
         <v>965</v>
       </c>
       <c r="AP10" s="4" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>976</v>
+      </c>
+      <c r="AQ10" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -5171,8 +5356,11 @@
       <c r="AP11" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="12" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ11" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>73</v>
       </c>
@@ -5244,8 +5432,11 @@
       <c r="AP12" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="13" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ12" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>78</v>
       </c>
@@ -5317,7 +5508,7 @@
       <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
     </row>
-    <row r="14" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>83</v>
       </c>
@@ -5401,7 +5592,7 @@
       <c r="AN14" s="3"/>
       <c r="AO14" s="3"/>
     </row>
-    <row r="15" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>88</v>
       </c>
@@ -5477,8 +5668,11 @@
       <c r="AP15" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="16" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ15" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>94</v>
       </c>
@@ -5562,8 +5756,11 @@
       <c r="AP16" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="17" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ16" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>98</v>
       </c>
@@ -5641,8 +5838,11 @@
       <c r="AP17" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="18" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ17" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>103</v>
       </c>
@@ -5680,7 +5880,7 @@
         <v>101</v>
       </c>
       <c r="Q18" s="36" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>49</v>
@@ -5736,8 +5936,11 @@
       <c r="AP18" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="19" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ18" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>107</v>
       </c>
@@ -5777,7 +5980,7 @@
         <v>110</v>
       </c>
       <c r="Q19" s="36" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="R19" s="3" t="s">
         <v>49</v>
@@ -5833,10 +6036,13 @@
         <v>965</v>
       </c>
       <c r="AP19" s="4" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="20" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>977</v>
+      </c>
+      <c r="AQ19" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5892,7 +6098,7 @@
       <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
     </row>
-    <row r="21" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>113</v>
       </c>
@@ -5928,7 +6134,7 @@
         <v>116</v>
       </c>
       <c r="Q21" s="36" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>49</v>
@@ -5978,8 +6184,11 @@
       <c r="AP21" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="22" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ21" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>118</v>
       </c>
@@ -6063,8 +6272,11 @@
       <c r="AP22" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="23" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ22" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>123</v>
       </c>
@@ -6140,10 +6352,13 @@
         <v>967</v>
       </c>
       <c r="AP23" s="4" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="24" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>976</v>
+      </c>
+      <c r="AQ23" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>128</v>
       </c>
@@ -6215,10 +6430,13 @@
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
       <c r="AP24" s="4" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="25" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>976</v>
+      </c>
+      <c r="AQ24" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>133</v>
       </c>
@@ -6288,10 +6506,13 @@
       <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
       <c r="AP25" s="4" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="26" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>977</v>
+      </c>
+      <c r="AQ25" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>137</v>
       </c>
@@ -6367,8 +6588,11 @@
       <c r="AP26" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="27" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ26" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6428,7 +6652,7 @@
       <c r="AN27" s="3"/>
       <c r="AO27" s="3"/>
     </row>
-    <row r="28" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>144</v>
       </c>
@@ -6504,8 +6728,11 @@
       <c r="AP28" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ28" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6563,7 +6790,7 @@
       <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
     </row>
-    <row r="30" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>151</v>
       </c>
@@ -6639,8 +6866,11 @@
       <c r="AP30" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="31" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ30" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>156</v>
       </c>
@@ -6730,10 +6960,13 @@
         <v>965</v>
       </c>
       <c r="AP31" s="4" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="32" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>977</v>
+      </c>
+      <c r="AQ31" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>162</v>
       </c>
@@ -6815,8 +7048,11 @@
       <c r="AP32" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="33" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ32" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>168</v>
       </c>
@@ -6890,8 +7126,11 @@
       <c r="AP33" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="34" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ33" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>172</v>
       </c>
@@ -6935,7 +7174,7 @@
         <v>176</v>
       </c>
       <c r="Q34" s="36" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="R34" s="3" t="s">
         <v>49</v>
@@ -6987,10 +7226,13 @@
         <v>966</v>
       </c>
       <c r="AP34" s="4" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="35" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>976</v>
+      </c>
+      <c r="AQ34" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>180</v>
       </c>
@@ -7062,10 +7304,13 @@
       <c r="AN35" s="3"/>
       <c r="AO35" s="3"/>
       <c r="AP35" s="4" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="36" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>976</v>
+      </c>
+      <c r="AQ35" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>184</v>
       </c>
@@ -7097,7 +7342,7 @@
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="36" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="R36" s="3" t="s">
         <v>26</v>
@@ -7137,8 +7382,11 @@
       <c r="AP36" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="37" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ36" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>188</v>
       </c>
@@ -7170,7 +7418,7 @@
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="36" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="R37" s="3" t="s">
         <v>150</v>
@@ -7212,8 +7460,11 @@
       <c r="AP37" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="38" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ37" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>192</v>
       </c>
@@ -7247,7 +7498,7 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="36" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="R38" s="3" t="s">
         <v>150</v>
@@ -7287,10 +7538,13 @@
         <v>965</v>
       </c>
       <c r="AP38" s="4" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="39" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>976</v>
+      </c>
+      <c r="AQ38" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>196</v>
       </c>
@@ -7322,7 +7576,7 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="36" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="R39" s="3" t="s">
         <v>150</v>
@@ -7364,8 +7618,11 @@
       <c r="AP39" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="40" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ39" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>200</v>
       </c>
@@ -7403,7 +7660,7 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="36" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="R40" s="3" t="s">
         <v>150</v>
@@ -7455,8 +7712,11 @@
       <c r="AP40" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="41" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ40" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>207</v>
       </c>
@@ -7488,7 +7748,7 @@
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="36" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>150</v>
@@ -7528,10 +7788,13 @@
         <v>965</v>
       </c>
       <c r="AP41" s="4" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="42" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>976</v>
+      </c>
+      <c r="AQ41" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>210</v>
       </c>
@@ -7611,8 +7874,11 @@
       <c r="AP42" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="43" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ42" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="43" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>215</v>
       </c>
@@ -7648,7 +7914,7 @@
         <v>218</v>
       </c>
       <c r="Q43" s="36" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>49</v>
@@ -7696,8 +7962,11 @@
       <c r="AP43" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="44" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ43" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="44" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>219</v>
       </c>
@@ -7733,7 +8002,7 @@
         <v>222</v>
       </c>
       <c r="Q44" s="36" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>49</v>
@@ -7781,10 +8050,13 @@
         <v>965</v>
       </c>
       <c r="AP44" s="4" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="45" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>976</v>
+      </c>
+      <c r="AQ44" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>223</v>
       </c>
@@ -7822,7 +8094,7 @@
         <v>227</v>
       </c>
       <c r="Q45" s="36" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>49</v>
@@ -7870,8 +8142,11 @@
       <c r="AP45" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="46" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ45" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="46" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>229</v>
       </c>
@@ -7909,7 +8184,7 @@
         <v>232</v>
       </c>
       <c r="Q46" s="36" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>49</v>
@@ -7957,8 +8232,11 @@
       <c r="AP46" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="47" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ46" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="47" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>180</v>
       </c>
@@ -8026,8 +8304,11 @@
       <c r="AP47" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="48" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ47" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="48" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>234</v>
       </c>
@@ -8067,7 +8348,7 @@
         <v>237</v>
       </c>
       <c r="Q48" s="36" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>49</v>
@@ -8113,10 +8394,13 @@
         <v>966</v>
       </c>
       <c r="AP48" s="4" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="49" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>977</v>
+      </c>
+      <c r="AQ48" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="49" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>238</v>
       </c>
@@ -8152,7 +8436,7 @@
         <v>241</v>
       </c>
       <c r="Q49" s="36" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>49</v>
@@ -8200,8 +8484,11 @@
       <c r="AP49" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="50" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ49" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="50" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>242</v>
       </c>
@@ -8237,7 +8524,7 @@
         <v>246</v>
       </c>
       <c r="Q50" s="36" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="R50" s="3" t="s">
         <v>49</v>
@@ -8285,8 +8572,11 @@
       <c r="AP50" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="51" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ50" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="51" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>248</v>
       </c>
@@ -8356,8 +8646,11 @@
       <c r="AP51" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="52" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ51" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="52" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>252</v>
       </c>
@@ -8397,7 +8690,7 @@
         <v>255</v>
       </c>
       <c r="Q52" s="36" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>49</v>
@@ -8451,8 +8744,11 @@
       <c r="AP52" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="53" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ52" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="53" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>256</v>
       </c>
@@ -8522,10 +8818,13 @@
       <c r="AN53" s="3"/>
       <c r="AO53" s="3"/>
       <c r="AP53" s="4" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="54" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>976</v>
+      </c>
+      <c r="AQ53" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="54" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>259</v>
       </c>
@@ -8561,7 +8860,7 @@
         <v>262</v>
       </c>
       <c r="Q54" s="36" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>49</v>
@@ -8609,10 +8908,13 @@
         <v>966</v>
       </c>
       <c r="AP54" s="4" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="55" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>976</v>
+      </c>
+      <c r="AQ54" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="55" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>263</v>
       </c>
@@ -8684,8 +8986,11 @@
       <c r="AP55" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="56" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ55" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="56" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>267</v>
       </c>
@@ -8721,7 +9026,7 @@
         <v>270</v>
       </c>
       <c r="Q56" s="36" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="R56" s="3" t="s">
         <v>49</v>
@@ -8769,10 +9074,13 @@
         <v>966</v>
       </c>
       <c r="AP56" s="4" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="57" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>976</v>
+      </c>
+      <c r="AQ56" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="57" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>271</v>
       </c>
@@ -8844,10 +9152,13 @@
         <v>967</v>
       </c>
       <c r="AP57" s="4" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="58" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>977</v>
+      </c>
+      <c r="AQ57" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="58" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>275</v>
       </c>
@@ -8921,10 +9232,13 @@
       <c r="AN58" s="3"/>
       <c r="AO58" s="3"/>
       <c r="AP58" s="4" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="59" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>977</v>
+      </c>
+      <c r="AQ58" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="59" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>279</v>
       </c>
@@ -8960,7 +9274,7 @@
         <v>282</v>
       </c>
       <c r="Q59" s="36" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>49</v>
@@ -9006,10 +9320,13 @@
         <v>966</v>
       </c>
       <c r="AP59" s="4" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="60" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>976</v>
+      </c>
+      <c r="AQ59" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="60" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>283</v>
       </c>
@@ -9083,10 +9400,13 @@
       <c r="AN60" s="3"/>
       <c r="AO60" s="3"/>
       <c r="AP60" s="4" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="61" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>977</v>
+      </c>
+      <c r="AQ60" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="61" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>287</v>
       </c>
@@ -9156,8 +9476,11 @@
       <c r="AP61" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="62" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ61" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="62" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>291</v>
       </c>
@@ -9229,10 +9552,13 @@
         <v>967</v>
       </c>
       <c r="AP62" s="4" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="63" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>977</v>
+      </c>
+      <c r="AQ62" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="63" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>295</v>
       </c>
@@ -9274,7 +9600,7 @@
         <v>299</v>
       </c>
       <c r="Q63" s="36" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="R63" s="3" t="s">
         <v>49</v>
@@ -9326,10 +9652,13 @@
         <v>965</v>
       </c>
       <c r="AP63" s="4" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="64" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>977</v>
+      </c>
+      <c r="AQ63" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="64" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>301</v>
       </c>
@@ -9365,7 +9694,7 @@
         <v>294</v>
       </c>
       <c r="Q64" s="36" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="R64" s="3" t="s">
         <v>49</v>
@@ -9409,8 +9738,11 @@
       <c r="AP64" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="65" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ64" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="65" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>304</v>
       </c>
@@ -9450,7 +9782,7 @@
         <v>308</v>
       </c>
       <c r="Q65" s="36" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="R65" s="3" t="s">
         <v>49</v>
@@ -9502,10 +9834,13 @@
         <v>965</v>
       </c>
       <c r="AP65" s="4" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="66" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>976</v>
+      </c>
+      <c r="AQ65" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="66" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>310</v>
       </c>
@@ -9541,7 +9876,7 @@
         <v>313</v>
       </c>
       <c r="Q66" s="36" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>49</v>
@@ -9589,10 +9924,13 @@
         <v>965</v>
       </c>
       <c r="AP66" s="4" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="67" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>977</v>
+      </c>
+      <c r="AQ66" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="67" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>315</v>
       </c>
@@ -9626,7 +9964,7 @@
       </c>
       <c r="P67" s="3"/>
       <c r="Q67" s="36" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="R67" s="3" t="s">
         <v>49</v>
@@ -9670,10 +10008,13 @@
         <v>965</v>
       </c>
       <c r="AP67" s="4" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="68" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>977</v>
+      </c>
+      <c r="AQ67" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="68" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>319</v>
       </c>
@@ -9707,7 +10048,7 @@
       </c>
       <c r="P68" s="3"/>
       <c r="Q68" s="36" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="R68" s="3" t="s">
         <v>49</v>
@@ -9751,10 +10092,13 @@
         <v>965</v>
       </c>
       <c r="AP68" s="4" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="69" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>977</v>
+      </c>
+      <c r="AQ68" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="69" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>323</v>
       </c>
@@ -9790,7 +10134,7 @@
       </c>
       <c r="P69" s="3"/>
       <c r="Q69" s="36" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="R69" s="3" t="s">
         <v>49</v>
@@ -9834,10 +10178,13 @@
         <v>966</v>
       </c>
       <c r="AP69" s="4" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="70" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>976</v>
+      </c>
+      <c r="AQ69" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="70" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>327</v>
       </c>
@@ -9873,7 +10220,7 @@
       </c>
       <c r="T70" s="3"/>
       <c r="U70" s="3" t="str">
-        <f t="shared" ref="U70:U109" si="5">"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
+        <f t="shared" ref="U70:U133" si="5">"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
     IF(H70&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
     IF(I70&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
     IF(J70&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
@@ -9910,7 +10257,7 @@
       <c r="AN70" s="3"/>
       <c r="AO70" s="3"/>
     </row>
-    <row r="71" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>330</v>
       </c>
@@ -9944,7 +10291,7 @@
       </c>
       <c r="P71" s="3"/>
       <c r="Q71" s="36" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="R71" s="3" t="s">
         <v>49</v>
@@ -9988,10 +10335,13 @@
         <v>965</v>
       </c>
       <c r="AP71" s="4" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="72" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>977</v>
+      </c>
+      <c r="AQ71" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="72" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>334</v>
       </c>
@@ -10025,7 +10375,7 @@
       </c>
       <c r="P72" s="3"/>
       <c r="Q72" s="36" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>49</v>
@@ -10069,10 +10419,13 @@
         <v>965</v>
       </c>
       <c r="AP72" s="4" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="73" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>977</v>
+      </c>
+      <c r="AQ72" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="73" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>338</v>
       </c>
@@ -10148,10 +10501,13 @@
       <c r="AN73" s="3"/>
       <c r="AO73" s="3"/>
       <c r="AP73" s="4" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="74" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>977</v>
+      </c>
+      <c r="AQ73" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="74" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>343</v>
       </c>
@@ -10219,10 +10575,13 @@
       <c r="AN74" s="3"/>
       <c r="AO74" s="3"/>
       <c r="AP74" s="4" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="75" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>977</v>
+      </c>
+      <c r="AQ74" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="75" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>347</v>
       </c>
@@ -10258,7 +10617,7 @@
         <v>350</v>
       </c>
       <c r="Q75" s="36" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="R75" s="3" t="s">
         <v>49</v>
@@ -10304,8 +10663,11 @@
       <c r="AP75" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="76" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ75" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="76" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>351</v>
       </c>
@@ -10375,8 +10737,11 @@
       <c r="AP76" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="77" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ76" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="77" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>355</v>
       </c>
@@ -10448,8 +10813,11 @@
       <c r="AP77" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="78" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ77" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="78" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>359</v>
       </c>
@@ -10519,10 +10887,13 @@
       <c r="AN78" s="3"/>
       <c r="AO78" s="3"/>
       <c r="AP78" s="4" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="79" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>977</v>
+      </c>
+      <c r="AQ78" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="79" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>363</v>
       </c>
@@ -10564,7 +10935,7 @@
         <v>370</v>
       </c>
       <c r="Q79" s="36" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="R79" s="3" t="s">
         <v>49</v>
@@ -10618,10 +10989,13 @@
         <v>965</v>
       </c>
       <c r="AP79" s="4" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="80" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>977</v>
+      </c>
+      <c r="AQ79" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="80" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>372</v>
       </c>
@@ -10661,7 +11035,7 @@
         <v>376</v>
       </c>
       <c r="Q80" s="36" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="R80" s="3" t="s">
         <v>49</v>
@@ -10707,10 +11081,13 @@
         <v>966</v>
       </c>
       <c r="AP80" s="4" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="81" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>977</v>
+      </c>
+      <c r="AQ80" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="81" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>377</v>
       </c>
@@ -10778,10 +11155,13 @@
       <c r="AN81" s="3"/>
       <c r="AO81" s="3"/>
       <c r="AP81" s="4" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="82" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>977</v>
+      </c>
+      <c r="AQ81" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="82" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>381</v>
       </c>
@@ -10851,10 +11231,13 @@
       <c r="AN82" s="3"/>
       <c r="AO82" s="3"/>
       <c r="AP82" s="4" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="83" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>977</v>
+      </c>
+      <c r="AQ82" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="83" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>385</v>
       </c>
@@ -10936,8 +11319,11 @@
       <c r="AP83" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="84" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ83" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="84" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>390</v>
       </c>
@@ -11015,8 +11401,11 @@
       <c r="AP84" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="85" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ84" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="85" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>394</v>
       </c>
@@ -11086,8 +11475,11 @@
       <c r="AP85" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="86" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ85" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="86" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>398</v>
       </c>
@@ -11169,8 +11561,11 @@
       <c r="AP86" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="87" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ86" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="87" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>404</v>
       </c>
@@ -11242,8 +11637,11 @@
       <c r="AP87" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="88" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ87" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="88" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>409</v>
       </c>
@@ -11315,8 +11713,11 @@
       <c r="AP88" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="89" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ88" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="89" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>414</v>
       </c>
@@ -11396,8 +11797,11 @@
       <c r="AP89" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="90" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ89" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="90" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>419</v>
       </c>
@@ -11475,8 +11879,11 @@
       <c r="AP90" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="91" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ90" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="91" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>424</v>
       </c>
@@ -11548,8 +11955,11 @@
       <c r="AP91" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="92" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ91" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="92" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>429</v>
       </c>
@@ -11623,8 +12033,11 @@
       <c r="AP92" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="93" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ92" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="93" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>432</v>
       </c>
@@ -11658,7 +12071,7 @@
         <v>436</v>
       </c>
       <c r="Q93" s="36" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="R93" s="3" t="s">
         <v>150</v>
@@ -11706,8 +12119,11 @@
       <c r="AP93" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="94" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ93" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="94" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>438</v>
       </c>
@@ -11743,7 +12159,7 @@
         <v>443</v>
       </c>
       <c r="Q94" s="36" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>150</v>
@@ -11789,10 +12205,13 @@
         <v>965</v>
       </c>
       <c r="AP94" s="4" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="95" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>976</v>
+      </c>
+      <c r="AQ94" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="95" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>444</v>
       </c>
@@ -11826,7 +12245,7 @@
         <v>448</v>
       </c>
       <c r="Q95" s="36" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="R95" s="3" t="s">
         <v>150</v>
@@ -11874,8 +12293,11 @@
       <c r="AP95" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="96" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ95" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="96" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>449</v>
       </c>
@@ -11909,7 +12331,7 @@
         <v>452</v>
       </c>
       <c r="Q96" s="36" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="R96" s="3" t="s">
         <v>150</v>
@@ -11957,8 +12379,11 @@
       <c r="AP96" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="97" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ96" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="97" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>453</v>
       </c>
@@ -11994,7 +12419,7 @@
         <v>456</v>
       </c>
       <c r="Q97" s="36" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="R97" s="3" t="s">
         <v>150</v>
@@ -12040,10 +12465,13 @@
         <v>965</v>
       </c>
       <c r="AP97" s="4" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="98" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>976</v>
+      </c>
+      <c r="AQ97" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="98" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>458</v>
       </c>
@@ -12077,7 +12505,7 @@
         <v>462</v>
       </c>
       <c r="Q98" s="36" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="R98" s="3" t="s">
         <v>150</v>
@@ -12123,10 +12551,13 @@
         <v>965</v>
       </c>
       <c r="AP98" s="4" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="99" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>977</v>
+      </c>
+      <c r="AQ98" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="99" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>463</v>
       </c>
@@ -12162,7 +12593,7 @@
         <v>468</v>
       </c>
       <c r="Q99" s="36" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="R99" s="3" t="s">
         <v>150</v>
@@ -12208,10 +12639,13 @@
         <v>965</v>
       </c>
       <c r="AP99" s="4" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="100" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>976</v>
+      </c>
+      <c r="AQ99" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="100" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>469</v>
       </c>
@@ -12245,7 +12679,7 @@
         <v>473</v>
       </c>
       <c r="Q100" s="36" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>150</v>
@@ -12291,10 +12725,13 @@
         <v>965</v>
       </c>
       <c r="AP100" s="4" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="101" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>976</v>
+      </c>
+      <c r="AQ100" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="101" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>474</v>
       </c>
@@ -12330,7 +12767,7 @@
         <v>479</v>
       </c>
       <c r="Q101" s="36" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>150</v>
@@ -12376,10 +12813,13 @@
         <v>965</v>
       </c>
       <c r="AP101" s="4" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="102" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>976</v>
+      </c>
+      <c r="AQ101" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="102" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>480</v>
       </c>
@@ -12417,7 +12857,7 @@
         <v>485</v>
       </c>
       <c r="Q102" s="36" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="R102" s="3" t="s">
         <v>150</v>
@@ -12469,10 +12909,13 @@
         <v>965</v>
       </c>
       <c r="AP102" s="4" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="103" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>976</v>
+      </c>
+      <c r="AQ102" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="103" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>486</v>
       </c>
@@ -12544,10 +12987,13 @@
         <v>966</v>
       </c>
       <c r="AP103" s="4" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="104" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>976</v>
+      </c>
+      <c r="AQ103" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="104" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>491</v>
       </c>
@@ -12613,10 +13059,13 @@
       <c r="AN104" s="3"/>
       <c r="AO104" s="3"/>
       <c r="AP104" s="4" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="105" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>976</v>
+      </c>
+      <c r="AQ104" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="105" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>497</v>
       </c>
@@ -12680,10 +13129,13 @@
       <c r="AN105" s="3"/>
       <c r="AO105" s="3"/>
       <c r="AP105" s="4" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="106" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>976</v>
+      </c>
+      <c r="AQ105" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="106" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>501</v>
       </c>
@@ -12747,10 +13199,13 @@
       <c r="AN106" s="3"/>
       <c r="AO106" s="3"/>
       <c r="AP106" s="4" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="107" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>976</v>
+      </c>
+      <c r="AQ106" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="107" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>504</v>
       </c>
@@ -12826,8 +13281,11 @@
       <c r="AP107" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="108" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AQ107" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="108" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>507</v>
       </c>
@@ -12893,8 +13351,11 @@
       <c r="AP108" s="4" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="109" spans="1:42" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ108" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="109" spans="1:43" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>511</v>
       </c>
@@ -12932,7 +13393,7 @@
         <v>515</v>
       </c>
       <c r="Q109" s="36" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="R109" s="3" t="s">
         <v>26</v>
@@ -12979,6 +13440,2250 @@
       </c>
       <c r="AP109" s="4" t="s">
         <v>872</v>
+      </c>
+      <c r="AQ109" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="110" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="O110" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="P110" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q110" s="32" t="s">
+        <v>972</v>
+      </c>
+      <c r="U110" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>["ENA ERC32", "ENA ERC33", "ENA Study"]</v>
+      </c>
+      <c r="AI110" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="AJ110" s="3"/>
+      <c r="AK110" s="3"/>
+      <c r="AL110" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="AM110" s="3"/>
+      <c r="AN110" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="AO110" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="AP110" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ110" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="111" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B111" t="s">
+        <v>988</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="O111" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="P111" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q111" s="32" t="s">
+        <v>974</v>
+      </c>
+      <c r="U111" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>["ENA ERC32", "ENA ERC33", "ENA Experiment"]</v>
+      </c>
+      <c r="AI111" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="AJ111" s="3"/>
+      <c r="AK111" s="3"/>
+      <c r="AL111" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="AM111" s="3"/>
+      <c r="AN111" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="AO111" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="AP111" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ111" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="112" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="O112" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="P112" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q112" s="32" t="s">
+        <v>983</v>
+      </c>
+      <c r="U112" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>["ENA ERC32", "ENA ERC33", "ENA Run"]</v>
+      </c>
+      <c r="AI112" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="AJ112" s="3"/>
+      <c r="AK112" s="3"/>
+      <c r="AL112" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="AM112" s="3"/>
+      <c r="AN112" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="AO112" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="AP112" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ112" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="113" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="O113" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="P113" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q113" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U113" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>["ENA ERC32", "ENA ERC33", "ENA Sample"]</v>
+      </c>
+      <c r="AI113" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="AJ113" s="3"/>
+      <c r="AK113" s="3"/>
+      <c r="AL113" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="AM113" s="3"/>
+      <c r="AN113" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="AO113" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="AP113" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ113" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="114" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B114" t="s">
+        <v>984</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O114" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U114" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>["ENA ERC32", "ENA Sample"]</v>
+      </c>
+      <c r="AI114" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="AJ114" s="3"/>
+      <c r="AK114" s="3"/>
+      <c r="AL114" s="3"/>
+      <c r="AM114" s="3"/>
+      <c r="AN114" s="3"/>
+      <c r="AO114" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AP114" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ114" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="115" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B115" t="s">
+        <v>985</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O115" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="P115" s="3"/>
+      <c r="Q115" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U115" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>["ENA ERC32", "ENA Sample"]</v>
+      </c>
+      <c r="AI115" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="AJ115" s="3"/>
+      <c r="AK115" s="3"/>
+      <c r="AL115" s="3"/>
+      <c r="AM115" s="3"/>
+      <c r="AN115" s="3"/>
+      <c r="AO115" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AP115" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ115" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="116" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="B116" t="s">
+        <v>986</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O116" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U116" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>["ENA ERC32", "ENA Sample"]</v>
+      </c>
+      <c r="AI116" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="AJ116" s="3"/>
+      <c r="AK116" s="3"/>
+      <c r="AL116" s="3"/>
+      <c r="AM116" s="3"/>
+      <c r="AN116" s="3"/>
+      <c r="AO116" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AP116" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ116" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="117" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B117" t="s">
+        <v>987</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O117" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U117" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>["ENA ERC32", "ENA Sample"]</v>
+      </c>
+      <c r="AI117" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="AJ117" s="3"/>
+      <c r="AK117" s="3"/>
+      <c r="AL117" s="3"/>
+      <c r="AM117" s="3"/>
+      <c r="AN117" s="3"/>
+      <c r="AO117" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AP117" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ117" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="118" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B118" t="s">
+        <v>988</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O118" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="P118" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q118" s="32" t="s">
+        <v>983</v>
+      </c>
+      <c r="U118" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>["ENA ERC32", "ENA ERC33", "ENA Run"]</v>
+      </c>
+      <c r="AI118" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="AJ118" s="3"/>
+      <c r="AK118" s="3"/>
+      <c r="AL118" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="AM118" s="3"/>
+      <c r="AN118" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="AO118" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="AP118" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ118" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="119" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B119" t="s">
+        <v>989</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="O119" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="P119" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q119" s="32" t="s">
+        <v>983</v>
+      </c>
+      <c r="U119" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>["ENA ERC32", "ENA ERC33", "ENA Run"]</v>
+      </c>
+      <c r="AI119" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="AJ119" s="3"/>
+      <c r="AK119" s="3"/>
+      <c r="AL119" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="AM119" s="3"/>
+      <c r="AN119" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="AO119" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="AP119" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="AQ119" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="120" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B120" t="s">
+        <v>990</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="O120" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="P120" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q120" s="32" t="s">
+        <v>983</v>
+      </c>
+      <c r="U120" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>["ENA ERC32", "ENA ERC33", "ENA Run"]</v>
+      </c>
+      <c r="AI120" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="AJ120" s="3"/>
+      <c r="AK120" s="3"/>
+      <c r="AL120" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="AM120" s="3"/>
+      <c r="AN120" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="AO120" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="AP120" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ120" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="121" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B121" t="s">
+        <v>991</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O121" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="P121" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q121" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U121" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>["ENA ERC32", "ENA ERC33", "ENA Sample"]</v>
+      </c>
+      <c r="AI121" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="AJ121" s="3"/>
+      <c r="AK121" s="3"/>
+      <c r="AL121" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="AM121" s="3"/>
+      <c r="AN121" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="AO121" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AP121" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ121" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="122" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B122" t="s">
+        <v>992</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O122" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="P122" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q122" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U122" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>["ENA ERC32", "ENA ERC33", "ENA Sample"]</v>
+      </c>
+      <c r="AI122" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="AJ122" s="3"/>
+      <c r="AK122" s="3"/>
+      <c r="AL122" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="AM122" s="3"/>
+      <c r="AN122" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="AO122" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AP122" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="AQ122" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="123" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B123" t="s">
+        <v>993</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O123" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="P123" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q123" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U123" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>["ENA ERC32", "ENA ERC33", "ENA Sample"]</v>
+      </c>
+      <c r="AI123" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="AJ123" s="3"/>
+      <c r="AK123" s="3"/>
+      <c r="AL123" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="AM123" s="3"/>
+      <c r="AN123" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="AO123" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AP123" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="AQ123" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="124" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B124" t="s">
+        <v>994</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O124" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="P124" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q124" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U124" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>["ENA ERC32", "ENA ERC33", "ENA Sample"]</v>
+      </c>
+      <c r="AI124" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="AJ124" s="3"/>
+      <c r="AK124" s="3"/>
+      <c r="AL124" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="AM124" s="3"/>
+      <c r="AN124" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="AO124" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AP124" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ124" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="125" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B125" t="s">
+        <v>995</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O125" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="P125" s="3"/>
+      <c r="Q125" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U125" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>["ENA ERC32", "ENA Sample"]</v>
+      </c>
+      <c r="AI125" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="AJ125" s="3"/>
+      <c r="AK125" s="3"/>
+      <c r="AL125" s="3"/>
+      <c r="AM125" s="3"/>
+      <c r="AN125" s="3"/>
+      <c r="AO125" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AP125" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ125" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="126" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B126" t="s">
+        <v>996</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O126" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="P126" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q126" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U126" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>["ENA ERC32", "ENA ERC33", "ENA Sample"]</v>
+      </c>
+      <c r="AI126" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="AJ126" s="3"/>
+      <c r="AK126" s="3"/>
+      <c r="AL126" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="AM126" s="3"/>
+      <c r="AN126" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="AO126" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AP126" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ126" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="127" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B127" t="s">
+        <v>997</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O127" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="P127" s="3"/>
+      <c r="Q127" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U127" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>["ENA ERC32", "ENA Sample"]</v>
+      </c>
+      <c r="AI127" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="AJ127" s="3"/>
+      <c r="AK127" s="3"/>
+      <c r="AL127" s="3"/>
+      <c r="AM127" s="3"/>
+      <c r="AN127" s="3"/>
+      <c r="AO127" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AP127" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ127" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="128" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B128" t="s">
+        <v>998</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O128" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="P128" s="3"/>
+      <c r="Q128" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U128" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>["ENA ERC32", "ENA Sample"]</v>
+      </c>
+      <c r="AI128" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="AJ128" s="3"/>
+      <c r="AK128" s="3"/>
+      <c r="AL128" s="3"/>
+      <c r="AM128" s="3"/>
+      <c r="AN128" s="3"/>
+      <c r="AO128" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AP128" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ128" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="129" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B129" t="s">
+        <v>999</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O129" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="P129" s="3"/>
+      <c r="Q129" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U129" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>["ENA ERC32", "ENA Sample"]</v>
+      </c>
+      <c r="AI129" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="AJ129" s="3"/>
+      <c r="AK129" s="3"/>
+      <c r="AL129" s="3"/>
+      <c r="AM129" s="3"/>
+      <c r="AN129" s="3"/>
+      <c r="AO129" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AP129" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ129" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="130" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O130" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="P130" s="3"/>
+      <c r="Q130" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U130" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>["ENA ERC32", "ENA Sample"]</v>
+      </c>
+      <c r="AI130" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="AJ130" s="3"/>
+      <c r="AK130" s="3"/>
+      <c r="AL130" s="3"/>
+      <c r="AM130" s="3"/>
+      <c r="AN130" s="3"/>
+      <c r="AO130" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AP130" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ130" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="131" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O131" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="P131" s="3"/>
+      <c r="Q131" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U131" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>["ENA ERC32", "ENA Sample"]</v>
+      </c>
+      <c r="AI131" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="AJ131" s="3"/>
+      <c r="AK131" s="3"/>
+      <c r="AL131" s="3"/>
+      <c r="AM131" s="3"/>
+      <c r="AN131" s="3"/>
+      <c r="AO131" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AP131" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ131" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="132" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O132" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="P132" s="3"/>
+      <c r="Q132" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U132" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>["ENA ERC32", "ENA Sample"]</v>
+      </c>
+      <c r="AI132" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="AJ132" s="3"/>
+      <c r="AK132" s="3"/>
+      <c r="AL132" s="3"/>
+      <c r="AM132" s="3"/>
+      <c r="AN132" s="3"/>
+      <c r="AO132" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AP132" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ132" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="133" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O133" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="P133" s="3"/>
+      <c r="Q133" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U133" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>["ENA ERC32", "ENA Sample"]</v>
+      </c>
+      <c r="AI133" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="AJ133" s="3"/>
+      <c r="AK133" s="3"/>
+      <c r="AL133" s="3"/>
+      <c r="AM133" s="3"/>
+      <c r="AN133" s="3"/>
+      <c r="AO133" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AP133" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="AQ133" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="134" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O134" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="P134" s="3"/>
+      <c r="Q134" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U134" s="3" t="str">
+        <f t="shared" ref="U134:U157" si="6">"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
+    IF(H134&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
+    IF(I134&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
+    IF(J134&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
+    IF(K134&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
+    IF(L134&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M134&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N134&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O134&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P134&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
+    IF(R134&lt;&gt;"", """" &amp; R134 &amp; """", ""), IF(Q134&lt;&gt;"", """" &amp; Q134 &amp; """", ""),
+    IF(S134&lt;&gt;"", """" &amp; S134 &amp; """", ""),
+    IF(T134&lt;&gt;"", """" &amp; T134 &amp; """", "")
+) &amp; "]"</f>
+        <v>["ENA ERC32", "ENA Sample"]</v>
+      </c>
+      <c r="AI134" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="AJ134" s="3"/>
+      <c r="AK134" s="3"/>
+      <c r="AL134" s="3"/>
+      <c r="AM134" s="3"/>
+      <c r="AN134" s="3"/>
+      <c r="AO134" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AP134" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="AQ134" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="135" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O135" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="P135" s="3"/>
+      <c r="Q135" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U135" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>["ENA ERC32", "ENA Sample"]</v>
+      </c>
+      <c r="AI135" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="AJ135" s="3"/>
+      <c r="AK135" s="3"/>
+      <c r="AL135" s="3"/>
+      <c r="AM135" s="3"/>
+      <c r="AN135" s="3"/>
+      <c r="AO135" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AP135" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ135" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="136" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="O136" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="P136" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q136" s="32" t="s">
+        <v>972</v>
+      </c>
+      <c r="U136" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>["ENA ERC32", "ENA ERC33", "ENA Study"]</v>
+      </c>
+      <c r="AI136" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="AJ136" s="3"/>
+      <c r="AK136" s="3"/>
+      <c r="AL136" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="AM136" s="3"/>
+      <c r="AN136" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="AO136" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AP136" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ136" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="137" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O137" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="P137" s="3"/>
+      <c r="Q137" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U137" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>["ENA ERC32", "ENA Sample"]</v>
+      </c>
+      <c r="AI137" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="AJ137" s="3"/>
+      <c r="AK137" s="3"/>
+      <c r="AL137" s="3"/>
+      <c r="AM137" s="3"/>
+      <c r="AN137" s="3"/>
+      <c r="AO137" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AP137" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ137" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="138" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O138" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="P138" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q138" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U138" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>["ENA ERC32", "ENA ERC33", "ENA Sample"]</v>
+      </c>
+      <c r="AI138" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="AJ138" s="3"/>
+      <c r="AK138" s="3"/>
+      <c r="AL138" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="AM138" s="3"/>
+      <c r="AN138" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="AO138" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AP138" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ138" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="139" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O139" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="P139" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q139" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U139" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>["ENA ERC32", "ENA ERC33", "ENA Sample"]</v>
+      </c>
+      <c r="AI139" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="AJ139" s="3"/>
+      <c r="AK139" s="3"/>
+      <c r="AL139" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="AM139" s="3"/>
+      <c r="AN139" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="AO139" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="AP139" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="AQ139" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="140" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O140" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="P140" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q140" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U140" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>["ENA ERC32", "ENA ERC33", "ENA Sample"]</v>
+      </c>
+      <c r="AI140" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="AJ140" s="3"/>
+      <c r="AK140" s="3"/>
+      <c r="AL140" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="AM140" s="3"/>
+      <c r="AN140" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="AO140" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AP140" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ140" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="141" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O141" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="P141" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q141" s="32" t="s">
+        <v>974</v>
+      </c>
+      <c r="U141" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>["ENA ERC32", "ENA ERC33", "ENA Experiment"]</v>
+      </c>
+      <c r="AI141" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="AJ141" s="3"/>
+      <c r="AK141" s="3"/>
+      <c r="AL141" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="AM141" s="3"/>
+      <c r="AN141" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="AO141" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="AP141" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ141" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="142" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O142" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="P142" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q142" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U142" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>["ENA ERC32", "ENA ERC33", "ENA Sample"]</v>
+      </c>
+      <c r="AI142" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="AJ142" s="3"/>
+      <c r="AK142" s="3"/>
+      <c r="AL142" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="AM142" s="3"/>
+      <c r="AN142" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="AO142" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AP142" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="AQ142" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="143" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O143" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="P143" s="3"/>
+      <c r="Q143" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U143" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>["ENA ERC32", "ENA Sample"]</v>
+      </c>
+      <c r="AI143" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="AJ143" s="3"/>
+      <c r="AK143" s="3"/>
+      <c r="AL143" s="3"/>
+      <c r="AM143" s="3"/>
+      <c r="AN143" s="3"/>
+      <c r="AO143" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AP143" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="AQ143" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="144" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B144" t="s">
+        <v>657</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O144" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="P144" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="Q144" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U144" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>["ENA ERC32", "ENA ERC33", "ENA Sample"]</v>
+      </c>
+      <c r="AI144" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="AJ144" s="3"/>
+      <c r="AK144" s="3"/>
+      <c r="AL144" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="AM144" s="3"/>
+      <c r="AN144" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="AO144" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AP144" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ144" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="145" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O145" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="P145" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q145" s="32" t="s">
+        <v>972</v>
+      </c>
+      <c r="U145" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>["ENA ERC32", "ENA ERC33", "ENA Study"]</v>
+      </c>
+      <c r="AI145" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="AJ145" s="3"/>
+      <c r="AK145" s="3"/>
+      <c r="AL145" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="AM145" s="3"/>
+      <c r="AN145" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="AO145" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AP145" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="AQ145" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="146" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="O146" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="P146" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q146" s="32" t="s">
+        <v>974</v>
+      </c>
+      <c r="U146" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>["ENA ERC32", "ENA ERC33", "ENA Experiment"]</v>
+      </c>
+      <c r="AI146" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="AJ146" s="3"/>
+      <c r="AK146" s="3"/>
+      <c r="AL146" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="AM146" s="3"/>
+      <c r="AN146" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="AO146" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="AP146" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ146" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="147" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="O147" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="P147" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q147" s="32" t="s">
+        <v>972</v>
+      </c>
+      <c r="U147" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>["ENA ERC32", "ENA ERC33", "ENA Study"]</v>
+      </c>
+      <c r="AI147" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="AJ147" s="3"/>
+      <c r="AK147" s="3"/>
+      <c r="AL147" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="AM147" s="3"/>
+      <c r="AN147" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="AO147" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="AP147" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="AQ147" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="148" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O148" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="P148" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q148" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U148" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>["ENA ERC32", "ENA ERC33", "ENA Sample"]</v>
+      </c>
+      <c r="AI148" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="AJ148" s="3"/>
+      <c r="AK148" s="3"/>
+      <c r="AL148" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="AM148" s="3"/>
+      <c r="AN148" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="AO148" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AP148" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ148" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="149" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O149" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="P149" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="Q149" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U149" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>["ENA ERC32", "ENA ERC33", "ENA Sample"]</v>
+      </c>
+      <c r="AI149" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="AJ149" s="3"/>
+      <c r="AK149" s="3"/>
+      <c r="AL149" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="AM149" s="3"/>
+      <c r="AN149" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="AO149" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AP149" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ149" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="150" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O150" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="P150" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q150" s="32" t="s">
+        <v>972</v>
+      </c>
+      <c r="U150" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>["ENA ERC32", "ENA ERC33", "ENA Study"]</v>
+      </c>
+      <c r="AI150" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="AJ150" s="3"/>
+      <c r="AK150" s="3"/>
+      <c r="AL150" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="AM150" s="3"/>
+      <c r="AN150" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="AO150" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="AP150" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ150" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="151" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O151" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="P151" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q151" s="32" t="s">
+        <v>974</v>
+      </c>
+      <c r="U151" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>["ENA ERC32", "ENA ERC33", "ENA Experiment"]</v>
+      </c>
+      <c r="AI151" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="AJ151" s="3"/>
+      <c r="AK151" s="3"/>
+      <c r="AL151" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="AM151" s="3"/>
+      <c r="AN151" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="AO151" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="AP151" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ151" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="152" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O152" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="P152" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q152" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U152" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>["ENA ERC32", "ENA ERC33", "ENA Sample"]</v>
+      </c>
+      <c r="AI152" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="AJ152" s="3"/>
+      <c r="AK152" s="3"/>
+      <c r="AL152" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="AM152" s="3"/>
+      <c r="AN152" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="AO152" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="AP152" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ152" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="153" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O153" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="P153" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q153" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U153" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>["ENA ERC32", "ENA ERC33", "ENA Sample"]</v>
+      </c>
+      <c r="AI153" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="AJ153" s="3"/>
+      <c r="AK153" s="3"/>
+      <c r="AL153" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="AM153" s="3"/>
+      <c r="AN153" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="AO153" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AP153" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ153" s="3" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="154" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O154" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="P154" s="3"/>
+      <c r="Q154" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U154" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>["ENA ERC32", "ENA Sample"]</v>
+      </c>
+      <c r="AI154" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="AJ154" s="4"/>
+      <c r="AK154" s="4"/>
+      <c r="AL154" s="4"/>
+      <c r="AM154" s="4"/>
+      <c r="AN154" s="4"/>
+      <c r="AO154" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AP154" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ154" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="155" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O155" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="P155" s="3"/>
+      <c r="Q155" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U155" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>["ENA ERC32", "ENA Sample"]</v>
+      </c>
+      <c r="AI155" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="AJ155" s="4"/>
+      <c r="AK155" s="4"/>
+      <c r="AL155" s="4"/>
+      <c r="AM155" s="4"/>
+      <c r="AN155" s="4"/>
+      <c r="AO155" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AP155" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ155" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="156" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O156" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="P156" s="3"/>
+      <c r="Q156" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U156" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>["ENA ERC32", "ENA Sample"]</v>
+      </c>
+      <c r="AI156" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="AJ156" s="4"/>
+      <c r="AK156" s="4"/>
+      <c r="AL156" s="4"/>
+      <c r="AM156" s="4"/>
+      <c r="AN156" s="4"/>
+      <c r="AO156" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AP156" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ156" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="157" spans="1:43" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="O157" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="P157" s="3"/>
+      <c r="Q157" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="U157" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>["ENA ERC32", "ENA Sample"]</v>
+      </c>
+      <c r="AI157" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="AJ157" s="4"/>
+      <c r="AK157" s="4"/>
+      <c r="AL157" s="4"/>
+      <c r="AM157" s="4"/>
+      <c r="AN157" s="4"/>
+      <c r="AO157" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AP157" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="AQ157" s="4" t="s">
+        <v>980</v>
       </c>
     </row>
   </sheetData>
@@ -13002,8 +15707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765CDCC6-1CB9-4D09-8DD5-54FCC33BD049}">
   <dimension ref="A1:FP344"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q4"/>
+    <sheetView topLeftCell="W20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH49" sqref="AH49:AN52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13061,7 +15766,7 @@
         <v>9</v>
       </c>
       <c r="Q1" s="33" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="R1" s="22" t="s">
         <v>666</v>
@@ -13135,8 +15840,12 @@
       <c r="AO1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="31"/>
+      <c r="AP1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ1" s="21" t="s">
+        <v>1</v>
+      </c>
       <c r="AR1" s="31"/>
       <c r="AS1" s="31"/>
       <c r="AT1" s="31"/>
@@ -13317,7 +16026,7 @@
         <v>18</v>
       </c>
       <c r="Q2" s="34" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="R2" s="22" t="s">
         <v>667</v>
@@ -13391,8 +16100,12 @@
       <c r="AO2" s="26" t="s">
         <v>968</v>
       </c>
-      <c r="AP2" s="31"/>
-      <c r="AQ2" s="31"/>
+      <c r="AP2" s="21" t="s">
+        <v>975</v>
+      </c>
+      <c r="AQ2" s="21" t="s">
+        <v>978</v>
+      </c>
       <c r="AR2" s="31"/>
       <c r="AS2" s="31"/>
       <c r="AT2" s="31"/>
@@ -13525,7 +16238,7 @@
     </row>
     <row r="3" spans="1:172" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="str">
-        <f t="shared" ref="A3:AO3" si="0">_xlfn.TEXTJOIN(" ", TRUE, LOWER(A1), LOWER(A2))</f>
+        <f t="shared" ref="A3:AQ3" si="0">_xlfn.TEXTJOIN(" ", TRUE, LOWER(A1), LOWER(A2))</f>
         <v>vjdbv0.3 field id</v>
       </c>
       <c r="B3" s="19" t="str">
@@ -13688,8 +16401,14 @@
         <f t="shared" si="0"/>
         <v>ena submission requiredness</v>
       </c>
-      <c r="AP3" s="31"/>
-      <c r="AQ3" s="31"/>
+      <c r="AP3" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>ena submission fieldtype</v>
+      </c>
+      <c r="AQ3" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>ena submission validation</v>
+      </c>
       <c r="AR3" s="31"/>
       <c r="AS3" s="31"/>
       <c r="AT3" s="31"/>
@@ -13820,9 +16539,9 @@
       <c r="FO3" s="31"/>
       <c r="FP3" s="31"/>
     </row>
-    <row r="4" spans="1:172" s="24" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:172" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="str">
-        <f t="shared" ref="A4:AO4" si="1">SUBSTITUTE(A3, " ", "_")</f>
+        <f t="shared" ref="A4:AQ4" si="1">SUBSTITUTE(A3, " ", "_")</f>
         <v>vjdbv0.3_field_id</v>
       </c>
       <c r="B4" s="23" t="str">
@@ -13985,8 +16704,14 @@
         <f t="shared" si="1"/>
         <v>ena_submission_requiredness</v>
       </c>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="31"/>
+      <c r="AP4" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>ena_submission_fieldtype</v>
+      </c>
+      <c r="AQ4" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>ena_submission_validation</v>
+      </c>
       <c r="AR4" s="31"/>
       <c r="AS4" s="31"/>
       <c r="AT4" s="31"/>
@@ -14117,18 +16842,8 @@
       <c r="FO4" s="31"/>
       <c r="FP4" s="31"/>
     </row>
-    <row r="5" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -14138,15 +16853,6 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="Q5" s="32" t="s">
-        <v>969</v>
-      </c>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
@@ -14156,7 +16862,7 @@
     IF(I5&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J5&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K5&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L5&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M5&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N5&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O5&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O5&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P5&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L5&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M5&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N5&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O110&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O110&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P110&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R5&lt;&gt;"", """" &amp; R5 &amp; """", ""),
     IF(S5&lt;&gt;"", """" &amp; S5 &amp; """", ""),
     IF(T5&lt;&gt;"", """" &amp; T5 &amp; """", "")
@@ -14178,32 +16884,10 @@
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
-      <c r="AI5" s="3" t="s">
-        <v>919</v>
-      </c>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3" t="s">
-        <v>919</v>
-      </c>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3" t="s">
-        <v>924</v>
-      </c>
       <c r="AO5" s="3"/>
     </row>
-    <row r="6" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -14213,15 +16897,6 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="Q6" s="32" t="s">
-        <v>969</v>
-      </c>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
@@ -14231,7 +16906,7 @@
     IF(I6&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J6&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K6&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L6&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M6&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N6&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O6&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O6&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P6&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L6&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M6&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N6&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O111&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O111&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P111&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R6&lt;&gt;"", """" &amp; R6 &amp; """", ""),
     IF(S6&lt;&gt;"", """" &amp; S6 &amp; """", ""),
     IF(T6&lt;&gt;"", """" &amp; T6 &amp; """", "")
@@ -14253,32 +16928,10 @@
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
-      <c r="AI6" s="3" t="s">
-        <v>920</v>
-      </c>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3" t="s">
-        <v>920</v>
-      </c>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3" t="s">
-        <v>924</v>
-      </c>
       <c r="AO6" s="3"/>
     </row>
-    <row r="7" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -14288,15 +16941,6 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="Q7" s="32" t="s">
-        <v>969</v>
-      </c>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -14306,7 +16950,7 @@
     IF(I7&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J7&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K7&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L7&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M7&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N7&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O7&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O7&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P7&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L7&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M7&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N7&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O112&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O112&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P112&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R7&lt;&gt;"", """" &amp; R7 &amp; """", ""),
     IF(S7&lt;&gt;"", """" &amp; S7 &amp; """", ""),
     IF(T7&lt;&gt;"", """" &amp; T7 &amp; """", "")
@@ -14328,32 +16972,10 @@
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
-      <c r="AI7" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3" t="s">
-        <v>924</v>
-      </c>
       <c r="AO7" s="3"/>
     </row>
-    <row r="8" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -14363,15 +16985,6 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="Q8" s="32" t="s">
-        <v>969</v>
-      </c>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -14381,7 +16994,7 @@
     IF(I8&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J8&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K8&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L8&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M8&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N8&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O8&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O8&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P8&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L8&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M8&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N8&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O113&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O113&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P113&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R8&lt;&gt;"", """" &amp; R8 &amp; """", ""),
     IF(S8&lt;&gt;"", """" &amp; S8 &amp; """", ""),
     IF(T8&lt;&gt;"", """" &amp; T8 &amp; """", "")
@@ -14403,32 +17016,10 @@
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
-      <c r="AI8" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3" t="s">
-        <v>924</v>
-      </c>
       <c r="AO8" s="3"/>
     </row>
-    <row r="9" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -14438,13 +17029,6 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
@@ -14454,7 +17038,7 @@
     IF(I9&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J9&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K9&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L9&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M9&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N9&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O9&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O9&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P9&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L9&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M9&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N9&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O114&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O114&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P114&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R9&lt;&gt;"", """" &amp; R9 &amp; """", ""),
     IF(S9&lt;&gt;"", """" &amp; S9 &amp; """", ""),
     IF(T9&lt;&gt;"", """" &amp; T9 &amp; """", "")
@@ -14476,28 +17060,10 @@
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
-      <c r="AI9" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
       <c r="AO9" s="3"/>
     </row>
-    <row r="10" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -14507,13 +17073,6 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -14523,7 +17082,7 @@
     IF(I10&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J10&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K10&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L10&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M10&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N10&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O10&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O10&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P10&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L10&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M10&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N10&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O115&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O115&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P115&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R10&lt;&gt;"", """" &amp; R10 &amp; """", ""),
     IF(S10&lt;&gt;"", """" &amp; S10 &amp; """", ""),
     IF(T10&lt;&gt;"", """" &amp; T10 &amp; """", "")
@@ -14545,28 +17104,10 @@
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
-      <c r="AI10" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
       <c r="AO10" s="3"/>
     </row>
-    <row r="11" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -14576,13 +17117,6 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -14592,7 +17126,7 @@
     IF(I11&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J11&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K11&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L11&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M11&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N11&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O11&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O11&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P11&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L11&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M11&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N11&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O116&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O116&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P116&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R11&lt;&gt;"", """" &amp; R11 &amp; """", ""),
     IF(S11&lt;&gt;"", """" &amp; S11 &amp; """", ""),
     IF(T11&lt;&gt;"", """" &amp; T11 &amp; """", "")
@@ -14614,28 +17148,10 @@
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
-      <c r="AI11" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
       <c r="AO11" s="3"/>
     </row>
-    <row r="12" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -14645,13 +17161,6 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -14661,7 +17170,7 @@
     IF(I12&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J12&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K12&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L12&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M12&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N12&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O12&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O12&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P12&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L12&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M12&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N12&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O117&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O117&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P117&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R12&lt;&gt;"", """" &amp; R12 &amp; """", ""),
     IF(S12&lt;&gt;"", """" &amp; S12 &amp; """", ""),
     IF(T12&lt;&gt;"", """" &amp; T12 &amp; """", "")
@@ -14683,28 +17192,10 @@
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
-      <c r="AI12" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
     </row>
-    <row r="13" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -14714,15 +17205,6 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="Q13" s="32" t="s">
-        <v>971</v>
-      </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -14732,7 +17214,7 @@
     IF(I13&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J13&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K13&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L13&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M13&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N13&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O13&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O13&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P13&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L13&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M13&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N13&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O118&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O118&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P118&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R13&lt;&gt;"", """" &amp; R13 &amp; """", ""),
     IF(S13&lt;&gt;"", """" &amp; S13 &amp; """", ""),
     IF(T13&lt;&gt;"", """" &amp; T13 &amp; """", "")
@@ -14754,32 +17236,10 @@
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
-      <c r="AI13" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3" t="s">
-        <v>924</v>
-      </c>
       <c r="AO13" s="3"/>
     </row>
-    <row r="14" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -14789,15 +17249,6 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="Q14" s="32" t="s">
-        <v>971</v>
-      </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
@@ -14807,7 +17258,7 @@
     IF(I14&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J14&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K14&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L14&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M14&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N14&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O14&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O14&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P14&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L14&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M14&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N14&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O119&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O119&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P119&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R14&lt;&gt;"", """" &amp; R14 &amp; """", ""),
     IF(S14&lt;&gt;"", """" &amp; S14 &amp; """", ""),
     IF(T14&lt;&gt;"", """" &amp; T14 &amp; """", "")
@@ -14829,32 +17280,10 @@
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
-      <c r="AI14" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3" t="s">
-        <v>926</v>
-      </c>
       <c r="AO14" s="3"/>
     </row>
-    <row r="15" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -14864,15 +17293,6 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q15" s="32" t="s">
-        <v>971</v>
-      </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -14882,7 +17302,7 @@
     IF(I15&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J15&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K15&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L15&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M15&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N15&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O15&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O15&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P15&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L15&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M15&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N15&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O120&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O120&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P120&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R15&lt;&gt;"", """" &amp; R15 &amp; """", ""),
     IF(S15&lt;&gt;"", """" &amp; S15 &amp; """", ""),
     IF(T15&lt;&gt;"", """" &amp; T15 &amp; """", "")
@@ -14904,32 +17324,10 @@
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
-      <c r="AI15" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3" t="s">
-        <v>924</v>
-      </c>
       <c r="AO15" s="3"/>
     </row>
-    <row r="16" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -14939,15 +17337,6 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q16" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
@@ -14957,7 +17346,7 @@
     IF(I16&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J16&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K16&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L16&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M16&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N16&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O16&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O16&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P16&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L16&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M16&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N16&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O121&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O121&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P121&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R16&lt;&gt;"", """" &amp; R16 &amp; """", ""),
     IF(S16&lt;&gt;"", """" &amp; S16 &amp; """", ""),
     IF(T16&lt;&gt;"", """" &amp; T16 &amp; """", "")
@@ -14979,32 +17368,10 @@
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
-      <c r="AI16" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="AJ16" s="3"/>
-      <c r="AK16" s="3"/>
-      <c r="AL16" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="AM16" s="3"/>
-      <c r="AN16" s="3" t="s">
-        <v>924</v>
-      </c>
       <c r="AO16" s="3"/>
     </row>
-    <row r="17" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -15014,15 +17381,6 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q17" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
@@ -15032,7 +17390,7 @@
     IF(I17&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J17&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K17&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L17&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M17&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N17&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O17&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O17&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P17&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L17&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M17&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N17&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O122&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O122&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P122&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R17&lt;&gt;"", """" &amp; R17 &amp; """", ""),
     IF(S17&lt;&gt;"", """" &amp; S17 &amp; """", ""),
     IF(T17&lt;&gt;"", """" &amp; T17 &amp; """", "")
@@ -15054,32 +17412,10 @@
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
-      <c r="AI17" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3" t="s">
-        <v>926</v>
-      </c>
       <c r="AO17" s="3"/>
     </row>
-    <row r="18" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -15089,15 +17425,6 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="Q18" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
@@ -15107,7 +17434,7 @@
     IF(I18&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J18&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K18&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L18&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M18&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N18&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O18&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O18&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P18&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L18&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M18&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N18&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O123&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O123&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P123&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R18&lt;&gt;"", """" &amp; R18 &amp; """", ""),
     IF(S18&lt;&gt;"", """" &amp; S18 &amp; """", ""),
     IF(T18&lt;&gt;"", """" &amp; T18 &amp; """", "")
@@ -15129,32 +17456,10 @@
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
-      <c r="AI18" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3" t="s">
-        <v>924</v>
-      </c>
       <c r="AO18" s="3"/>
     </row>
-    <row r="19" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -15164,15 +17469,6 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q19" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
@@ -15182,7 +17478,7 @@
     IF(I19&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J19&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K19&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L19&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M19&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N19&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O19&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O19&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P19&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L19&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M19&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N19&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O124&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O124&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P124&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R19&lt;&gt;"", """" &amp; R19 &amp; """", ""),
     IF(S19&lt;&gt;"", """" &amp; S19 &amp; """", ""),
     IF(T19&lt;&gt;"", """" &amp; T19 &amp; """", "")
@@ -15204,32 +17500,10 @@
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
-      <c r="AI19" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="AM19" s="3"/>
-      <c r="AN19" s="3" t="s">
-        <v>924</v>
-      </c>
       <c r="AO19" s="3"/>
     </row>
-    <row r="20" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -15239,13 +17513,6 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -15255,7 +17522,7 @@
     IF(I20&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J20&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K20&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L20&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M20&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N20&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O20&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O20&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P20&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L20&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M20&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N20&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O125&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O125&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P125&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R20&lt;&gt;"", """" &amp; R20 &amp; """", ""),
     IF(S20&lt;&gt;"", """" &amp; S20 &amp; """", ""),
     IF(T20&lt;&gt;"", """" &amp; T20 &amp; """", "")
@@ -15277,28 +17544,10 @@
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
-      <c r="AI20" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="AJ20" s="3"/>
-      <c r="AK20" s="3"/>
-      <c r="AL20" s="3"/>
-      <c r="AM20" s="3"/>
-      <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
     </row>
-    <row r="21" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -15308,15 +17557,6 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q21" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -15326,7 +17566,7 @@
     IF(I21&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J21&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K21&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L21&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M21&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N21&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O21&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O21&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P21&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L21&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M21&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N21&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O126&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O126&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P126&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R21&lt;&gt;"", """" &amp; R21 &amp; """", ""),
     IF(S21&lt;&gt;"", """" &amp; S21 &amp; """", ""),
     IF(T21&lt;&gt;"", """" &amp; T21 &amp; """", "")
@@ -15348,32 +17588,10 @@
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
-      <c r="AI21" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="AJ21" s="3"/>
-      <c r="AK21" s="3"/>
-      <c r="AL21" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="AM21" s="3"/>
-      <c r="AN21" s="3" t="s">
-        <v>928</v>
-      </c>
       <c r="AO21" s="3"/>
     </row>
-    <row r="22" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -15383,13 +17601,6 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -15399,7 +17610,7 @@
     IF(I22&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J22&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K22&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L22&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M22&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N22&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O22&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O22&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P22&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L22&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M22&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N22&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O127&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O127&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P127&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R22&lt;&gt;"", """" &amp; R22 &amp; """", ""),
     IF(S22&lt;&gt;"", """" &amp; S22 &amp; """", ""),
     IF(T22&lt;&gt;"", """" &amp; T22 &amp; """", "")
@@ -15421,28 +17632,10 @@
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
-      <c r="AI22" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="3"/>
       <c r="AO22" s="3"/>
     </row>
-    <row r="23" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -15452,13 +17645,6 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -15468,7 +17654,7 @@
     IF(I23&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J23&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K23&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L23&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M23&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N23&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O23&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O23&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P23&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L23&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M23&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N23&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O128&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O128&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P128&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R23&lt;&gt;"", """" &amp; R23 &amp; """", ""),
     IF(S23&lt;&gt;"", """" &amp; S23 &amp; """", ""),
     IF(T23&lt;&gt;"", """" &amp; T23 &amp; """", "")
@@ -15490,28 +17676,10 @@
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
-      <c r="AI23" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="AJ23" s="3"/>
-      <c r="AK23" s="3"/>
-      <c r="AL23" s="3"/>
-      <c r="AM23" s="3"/>
-      <c r="AN23" s="3"/>
       <c r="AO23" s="3"/>
     </row>
-    <row r="24" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -15521,13 +17689,6 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
@@ -15537,7 +17698,7 @@
     IF(I24&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J24&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K24&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L24&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M24&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N24&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O24&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O24&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P24&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L24&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M24&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N24&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O129&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O129&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P129&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R24&lt;&gt;"", """" &amp; R24 &amp; """", ""),
     IF(S24&lt;&gt;"", """" &amp; S24 &amp; """", ""),
     IF(T24&lt;&gt;"", """" &amp; T24 &amp; """", "")
@@ -15559,28 +17720,10 @@
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
-      <c r="AI24" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="AJ24" s="3"/>
-      <c r="AK24" s="3"/>
-      <c r="AL24" s="3"/>
-      <c r="AM24" s="3"/>
-      <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
     </row>
-    <row r="25" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -15590,13 +17733,6 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
@@ -15606,7 +17742,7 @@
     IF(I25&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J25&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K25&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L25&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M25&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N25&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O25&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O25&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P25&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L25&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M25&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N25&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O130&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O130&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P130&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R25&lt;&gt;"", """" &amp; R25 &amp; """", ""),
     IF(S25&lt;&gt;"", """" &amp; S25 &amp; """", ""),
     IF(T25&lt;&gt;"", """" &amp; T25 &amp; """", "")
@@ -15628,28 +17764,10 @@
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
-      <c r="AI25" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="AJ25" s="3"/>
-      <c r="AK25" s="3"/>
-      <c r="AL25" s="3"/>
-      <c r="AM25" s="3"/>
-      <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
     </row>
-    <row r="26" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -15659,13 +17777,6 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
@@ -15675,7 +17786,7 @@
     IF(I26&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J26&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K26&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L26&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M26&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N26&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O26&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O26&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P26&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L26&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M26&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N26&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O131&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O131&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P131&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R26&lt;&gt;"", """" &amp; R26 &amp; """", ""),
     IF(S26&lt;&gt;"", """" &amp; S26 &amp; """", ""),
     IF(T26&lt;&gt;"", """" &amp; T26 &amp; """", "")
@@ -15697,28 +17808,10 @@
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
-      <c r="AI26" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="AJ26" s="3"/>
-      <c r="AK26" s="3"/>
-      <c r="AL26" s="3"/>
-      <c r="AM26" s="3"/>
-      <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
     </row>
-    <row r="27" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -15728,13 +17821,6 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
@@ -15744,7 +17830,7 @@
     IF(I27&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J27&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K27&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L27&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M27&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N27&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O27&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O27&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P27&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L27&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M27&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N27&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O132&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O132&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P132&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R27&lt;&gt;"", """" &amp; R27 &amp; """", ""),
     IF(S27&lt;&gt;"", """" &amp; S27 &amp; """", ""),
     IF(T27&lt;&gt;"", """" &amp; T27 &amp; """", "")
@@ -15766,28 +17852,10 @@
       <c r="AF27" s="3"/>
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
-      <c r="AI27" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="AJ27" s="3"/>
-      <c r="AK27" s="3"/>
-      <c r="AL27" s="3"/>
-      <c r="AM27" s="3"/>
-      <c r="AN27" s="3"/>
       <c r="AO27" s="3"/>
     </row>
-    <row r="28" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -15797,13 +17865,6 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
@@ -15813,7 +17874,7 @@
     IF(I28&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J28&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K28&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L28&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M28&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N28&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O28&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O28&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P28&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L28&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M28&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N28&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O133&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O133&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P133&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R28&lt;&gt;"", """" &amp; R28 &amp; """", ""),
     IF(S28&lt;&gt;"", """" &amp; S28 &amp; """", ""),
     IF(T28&lt;&gt;"", """" &amp; T28 &amp; """", "")
@@ -15835,28 +17896,10 @@
       <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
-      <c r="AI28" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="AJ28" s="3"/>
-      <c r="AK28" s="3"/>
-      <c r="AL28" s="3"/>
-      <c r="AM28" s="3"/>
-      <c r="AN28" s="3"/>
       <c r="AO28" s="3"/>
     </row>
-    <row r="29" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -15866,13 +17909,6 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
@@ -15882,7 +17918,7 @@
     IF(I29&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J29&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K29&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L29&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M29&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N29&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O29&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O29&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P29&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L29&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M29&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N29&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O134&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O134&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P134&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R29&lt;&gt;"", """" &amp; R29 &amp; """", ""),
     IF(S29&lt;&gt;"", """" &amp; S29 &amp; """", ""),
     IF(T29&lt;&gt;"", """" &amp; T29 &amp; """", "")
@@ -15904,28 +17940,10 @@
       <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
-      <c r="AI29" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="AJ29" s="3"/>
-      <c r="AK29" s="3"/>
-      <c r="AL29" s="3"/>
-      <c r="AM29" s="3"/>
-      <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
     </row>
-    <row r="30" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -15935,13 +17953,6 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
@@ -15951,7 +17962,7 @@
     IF(I30&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J30&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K30&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L30&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M30&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N30&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O30&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O30&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P30&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L30&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M30&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N30&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O135&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O135&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P135&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R30&lt;&gt;"", """" &amp; R30 &amp; """", ""),
     IF(S30&lt;&gt;"", """" &amp; S30 &amp; """", ""),
     IF(T30&lt;&gt;"", """" &amp; T30 &amp; """", "")
@@ -15973,28 +17984,10 @@
       <c r="AF30" s="3"/>
       <c r="AG30" s="3"/>
       <c r="AH30" s="3"/>
-      <c r="AI30" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="AJ30" s="3"/>
-      <c r="AK30" s="3"/>
-      <c r="AL30" s="3"/>
-      <c r="AM30" s="3"/>
-      <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
     </row>
-    <row r="31" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="B31" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -16004,15 +17997,6 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="Q31" s="32" t="s">
-        <v>969</v>
-      </c>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
@@ -16022,7 +18006,7 @@
     IF(I31&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J31&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K31&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L31&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M31&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N31&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O31&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O31&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P31&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L31&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M31&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N31&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O136&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O136&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P136&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R31&lt;&gt;"", """" &amp; R31 &amp; """", ""),
     IF(S31&lt;&gt;"", """" &amp; S31 &amp; """", ""),
     IF(T31&lt;&gt;"", """" &amp; T31 &amp; """", "")
@@ -16044,32 +18028,10 @@
       <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
-      <c r="AI31" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="AJ31" s="3"/>
-      <c r="AK31" s="3"/>
-      <c r="AL31" s="3" t="s">
-        <v>934</v>
-      </c>
-      <c r="AM31" s="3"/>
-      <c r="AN31" s="3" t="s">
-        <v>924</v>
-      </c>
       <c r="AO31" s="3"/>
     </row>
-    <row r="32" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -16079,13 +18041,6 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
@@ -16095,7 +18050,7 @@
     IF(I32&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J32&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K32&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L32&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M32&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N32&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O32&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O32&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P32&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L32&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M32&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N32&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O137&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O137&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P137&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R32&lt;&gt;"", """" &amp; R32 &amp; """", ""),
     IF(S32&lt;&gt;"", """" &amp; S32 &amp; """", ""),
     IF(T32&lt;&gt;"", """" &amp; T32 &amp; """", "")
@@ -16117,28 +18072,10 @@
       <c r="AF32" s="3"/>
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
-      <c r="AI32" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="AJ32" s="3"/>
-      <c r="AK32" s="3"/>
-      <c r="AL32" s="3"/>
-      <c r="AM32" s="3"/>
-      <c r="AN32" s="3"/>
       <c r="AO32" s="3"/>
     </row>
-    <row r="33" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
-      <c r="B33" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -16148,15 +18085,6 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="Q33" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
@@ -16166,7 +18094,7 @@
     IF(I33&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J33&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K33&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L33&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M33&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N33&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O33&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O33&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P33&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L33&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M33&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N33&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O138&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O138&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P138&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R33&lt;&gt;"", """" &amp; R33 &amp; """", ""),
     IF(S33&lt;&gt;"", """" &amp; S33 &amp; """", ""),
     IF(T33&lt;&gt;"", """" &amp; T33 &amp; """", "")
@@ -16188,32 +18116,10 @@
       <c r="AF33" s="3"/>
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
-      <c r="AI33" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="AJ33" s="3"/>
-      <c r="AK33" s="3"/>
-      <c r="AL33" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="AM33" s="3"/>
-      <c r="AN33" s="3" t="s">
-        <v>924</v>
-      </c>
       <c r="AO33" s="3"/>
     </row>
-    <row r="34" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
-      <c r="B34" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -16223,15 +18129,6 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="Q34" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
@@ -16241,7 +18138,7 @@
     IF(I34&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J34&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K34&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L34&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M34&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N34&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O34&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O34&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P34&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L34&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M34&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N34&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O139&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O139&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P139&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R34&lt;&gt;"", """" &amp; R34 &amp; """", ""),
     IF(S34&lt;&gt;"", """" &amp; S34 &amp; """", ""),
     IF(T34&lt;&gt;"", """" &amp; T34 &amp; """", "")
@@ -16263,32 +18160,10 @@
       <c r="AF34" s="3"/>
       <c r="AG34" s="3"/>
       <c r="AH34" s="3"/>
-      <c r="AI34" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="AJ34" s="3"/>
-      <c r="AK34" s="3"/>
-      <c r="AL34" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="AM34" s="3"/>
-      <c r="AN34" s="3" t="s">
-        <v>926</v>
-      </c>
       <c r="AO34" s="3"/>
     </row>
-    <row r="35" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
-      <c r="B35" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -16298,15 +18173,6 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="Q35" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
@@ -16316,7 +18182,7 @@
     IF(I35&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J35&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K35&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L35&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M35&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N35&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O35&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O35&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P35&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L35&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M35&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N35&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O140&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O140&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P140&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R35&lt;&gt;"", """" &amp; R35 &amp; """", ""),
     IF(S35&lt;&gt;"", """" &amp; S35 &amp; """", ""),
     IF(T35&lt;&gt;"", """" &amp; T35 &amp; """", "")
@@ -16338,32 +18204,10 @@
       <c r="AF35" s="3"/>
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
-      <c r="AI35" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="AJ35" s="3"/>
-      <c r="AK35" s="3"/>
-      <c r="AL35" s="3" t="s">
-        <v>935</v>
-      </c>
-      <c r="AM35" s="3"/>
-      <c r="AN35" s="3" t="s">
-        <v>924</v>
-      </c>
       <c r="AO35" s="3"/>
     </row>
-    <row r="36" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
-      <c r="B36" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -16373,15 +18217,6 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="Q36" s="32" t="s">
-        <v>970</v>
-      </c>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
@@ -16391,7 +18226,7 @@
     IF(I36&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J36&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K36&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L36&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M36&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N36&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O36&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O36&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P36&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L36&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M36&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N36&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O141&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O141&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P141&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R36&lt;&gt;"", """" &amp; R36 &amp; """", ""),
     IF(S36&lt;&gt;"", """" &amp; S36 &amp; """", ""),
     IF(T36&lt;&gt;"", """" &amp; T36 &amp; """", "")
@@ -16413,32 +18248,10 @@
       <c r="AF36" s="3"/>
       <c r="AG36" s="3"/>
       <c r="AH36" s="3"/>
-      <c r="AI36" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="AJ36" s="3"/>
-      <c r="AK36" s="3"/>
-      <c r="AL36" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="AM36" s="3"/>
-      <c r="AN36" s="3" t="s">
-        <v>924</v>
-      </c>
       <c r="AO36" s="3"/>
     </row>
-    <row r="37" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
-      <c r="B37" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -16448,15 +18261,6 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="P37" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="Q37" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
@@ -16466,7 +18270,7 @@
     IF(I37&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J37&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K37&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L37&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M37&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N37&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O37&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O37&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P37&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L37&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M37&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N37&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O142&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O142&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P142&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R37&lt;&gt;"", """" &amp; R37 &amp; """", ""),
     IF(S37&lt;&gt;"", """" &amp; S37 &amp; """", ""),
     IF(T37&lt;&gt;"", """" &amp; T37 &amp; """", "")
@@ -16488,32 +18292,10 @@
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
-      <c r="AI37" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="AJ37" s="3"/>
-      <c r="AK37" s="3"/>
-      <c r="AL37" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="AM37" s="3"/>
-      <c r="AN37" s="3" t="s">
-        <v>928</v>
-      </c>
       <c r="AO37" s="3"/>
     </row>
-    <row r="38" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
-      <c r="B38" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -16523,13 +18305,6 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
@@ -16539,7 +18314,7 @@
     IF(I38&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J38&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K38&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L38&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M38&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N38&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O38&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O38&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P38&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L38&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M38&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N38&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O143&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O143&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P143&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R38&lt;&gt;"", """" &amp; R38 &amp; """", ""),
     IF(S38&lt;&gt;"", """" &amp; S38 &amp; """", ""),
     IF(T38&lt;&gt;"", """" &amp; T38 &amp; """", "")
@@ -16561,28 +18336,10 @@
       <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
-      <c r="AI38" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="AJ38" s="3"/>
-      <c r="AK38" s="3"/>
-      <c r="AL38" s="3"/>
-      <c r="AM38" s="3"/>
-      <c r="AN38" s="3"/>
       <c r="AO38" s="3"/>
     </row>
-    <row r="39" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
-      <c r="B39" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -16592,15 +18349,6 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-      <c r="O39" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="P39" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="Q39" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
@@ -16610,7 +18358,7 @@
     IF(I39&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J39&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K39&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L39&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M39&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N39&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O39&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O39&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P39&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L39&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M39&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N39&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O144&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O144&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P144&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R39&lt;&gt;"", """" &amp; R39 &amp; """", ""),
     IF(S39&lt;&gt;"", """" &amp; S39 &amp; """", ""),
     IF(T39&lt;&gt;"", """" &amp; T39 &amp; """", "")
@@ -16632,32 +18380,10 @@
       <c r="AF39" s="3"/>
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
-      <c r="AI39" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="AJ39" s="3"/>
-      <c r="AK39" s="3"/>
-      <c r="AL39" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="AM39" s="3"/>
-      <c r="AN39" s="3" t="s">
-        <v>924</v>
-      </c>
       <c r="AO39" s="3"/>
     </row>
-    <row r="40" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
-      <c r="B40" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -16667,15 +18393,6 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-      <c r="O40" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="P40" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="Q40" s="32" t="s">
-        <v>969</v>
-      </c>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
@@ -16685,7 +18402,7 @@
     IF(I40&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J40&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K40&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L40&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M40&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N40&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O40&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O40&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P40&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L40&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M40&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N40&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O145&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O145&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P145&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R40&lt;&gt;"", """" &amp; R40 &amp; """", ""),
     IF(S40&lt;&gt;"", """" &amp; S40 &amp; """", ""),
     IF(T40&lt;&gt;"", """" &amp; T40 &amp; """", "")
@@ -16707,32 +18424,10 @@
       <c r="AF40" s="3"/>
       <c r="AG40" s="3"/>
       <c r="AH40" s="3"/>
-      <c r="AI40" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="AJ40" s="3"/>
-      <c r="AK40" s="3"/>
-      <c r="AL40" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="AM40" s="3"/>
-      <c r="AN40" s="3" t="s">
-        <v>928</v>
-      </c>
       <c r="AO40" s="3"/>
     </row>
-    <row r="41" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
-      <c r="B41" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -16742,15 +18437,6 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
-      <c r="O41" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="Q41" s="32" t="s">
-        <v>970</v>
-      </c>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
@@ -16760,7 +18446,7 @@
     IF(I41&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J41&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K41&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L41&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M41&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N41&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O41&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O41&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P41&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L41&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M41&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N41&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O146&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O146&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P146&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R41&lt;&gt;"", """" &amp; R41 &amp; """", ""),
     IF(S41&lt;&gt;"", """" &amp; S41 &amp; """", ""),
     IF(T41&lt;&gt;"", """" &amp; T41 &amp; """", "")
@@ -16782,32 +18468,10 @@
       <c r="AF41" s="3"/>
       <c r="AG41" s="3"/>
       <c r="AH41" s="3"/>
-      <c r="AI41" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="AJ41" s="3"/>
-      <c r="AK41" s="3"/>
-      <c r="AL41" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="AM41" s="3"/>
-      <c r="AN41" s="3" t="s">
-        <v>924</v>
-      </c>
       <c r="AO41" s="3"/>
     </row>
-    <row r="42" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
-      <c r="B42" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -16817,15 +18481,6 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
-      <c r="O42" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="Q42" s="32" t="s">
-        <v>969</v>
-      </c>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
@@ -16835,7 +18490,7 @@
     IF(I42&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J42&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K42&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L42&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M42&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N42&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O42&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O42&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P42&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L42&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M42&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N42&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O147&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O147&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P147&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R42&lt;&gt;"", """" &amp; R42 &amp; """", ""),
     IF(S42&lt;&gt;"", """" &amp; S42 &amp; """", ""),
     IF(T42&lt;&gt;"", """" &amp; T42 &amp; """", "")
@@ -16857,32 +18512,10 @@
       <c r="AF42" s="3"/>
       <c r="AG42" s="3"/>
       <c r="AH42" s="3"/>
-      <c r="AI42" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="AJ42" s="3"/>
-      <c r="AK42" s="3"/>
-      <c r="AL42" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="AM42" s="3"/>
-      <c r="AN42" s="3" t="s">
-        <v>926</v>
-      </c>
       <c r="AO42" s="3"/>
     </row>
-    <row r="43" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
-      <c r="B43" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -16892,15 +18525,6 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
-      <c r="O43" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="Q43" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
@@ -16910,7 +18534,7 @@
     IF(I43&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J43&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K43&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L43&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M43&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N43&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O43&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O43&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P43&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L43&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M43&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N43&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O148&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O148&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P148&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R43&lt;&gt;"", """" &amp; R43 &amp; """", ""),
     IF(S43&lt;&gt;"", """" &amp; S43 &amp; """", ""),
     IF(T43&lt;&gt;"", """" &amp; T43 &amp; """", "")
@@ -16932,32 +18556,10 @@
       <c r="AF43" s="3"/>
       <c r="AG43" s="3"/>
       <c r="AH43" s="3"/>
-      <c r="AI43" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="AJ43" s="3"/>
-      <c r="AK43" s="3"/>
-      <c r="AL43" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="AM43" s="3"/>
-      <c r="AN43" s="3" t="s">
-        <v>924</v>
-      </c>
       <c r="AO43" s="3"/>
     </row>
-    <row r="44" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
-      <c r="B44" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -16967,15 +18569,6 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
-      <c r="O44" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="Q44" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
@@ -16985,7 +18578,7 @@
     IF(I44&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J44&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K44&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L44&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M44&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N44&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O44&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O44&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P44&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L44&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M44&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N44&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O149&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O149&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P149&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R44&lt;&gt;"", """" &amp; R44 &amp; """", ""),
     IF(S44&lt;&gt;"", """" &amp; S44 &amp; """", ""),
     IF(T44&lt;&gt;"", """" &amp; T44 &amp; """", "")
@@ -17007,32 +18600,10 @@
       <c r="AF44" s="3"/>
       <c r="AG44" s="3"/>
       <c r="AH44" s="3"/>
-      <c r="AI44" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="AJ44" s="3"/>
-      <c r="AK44" s="3"/>
-      <c r="AL44" s="3" t="s">
-        <v>936</v>
-      </c>
-      <c r="AM44" s="3"/>
-      <c r="AN44" s="3" t="s">
-        <v>924</v>
-      </c>
       <c r="AO44" s="3"/>
     </row>
-    <row r="45" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
-      <c r="B45" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -17042,15 +18613,6 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
-      <c r="O45" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q45" s="32" t="s">
-        <v>969</v>
-      </c>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
@@ -17060,7 +18622,7 @@
     IF(I45&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J45&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K45&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L45&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M45&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N45&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O45&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O45&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P45&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L45&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M45&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N45&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O150&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O150&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P150&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R45&lt;&gt;"", """" &amp; R45 &amp; """", ""),
     IF(S45&lt;&gt;"", """" &amp; S45 &amp; """", ""),
     IF(T45&lt;&gt;"", """" &amp; T45 &amp; """", "")
@@ -17082,32 +18644,10 @@
       <c r="AF45" s="3"/>
       <c r="AG45" s="3"/>
       <c r="AH45" s="3"/>
-      <c r="AI45" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="AJ45" s="3"/>
-      <c r="AK45" s="3"/>
-      <c r="AL45" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="AM45" s="3"/>
-      <c r="AN45" s="3" t="s">
-        <v>924</v>
-      </c>
       <c r="AO45" s="3"/>
     </row>
-    <row r="46" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
-      <c r="B46" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -17117,15 +18657,6 @@
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
-      <c r="O46" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q46" s="32" t="s">
-        <v>970</v>
-      </c>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
@@ -17135,7 +18666,7 @@
     IF(I46&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J46&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K46&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L46&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M46&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N46&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O46&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O46&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P46&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L46&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M46&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N46&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O151&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O151&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P151&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R46&lt;&gt;"", """" &amp; R46 &amp; """", ""),
     IF(S46&lt;&gt;"", """" &amp; S46 &amp; """", ""),
     IF(T46&lt;&gt;"", """" &amp; T46 &amp; """", "")
@@ -17157,32 +18688,10 @@
       <c r="AF46" s="3"/>
       <c r="AG46" s="3"/>
       <c r="AH46" s="3"/>
-      <c r="AI46" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="AJ46" s="3"/>
-      <c r="AK46" s="3"/>
-      <c r="AL46" s="3" t="s">
-        <v>937</v>
-      </c>
-      <c r="AM46" s="3"/>
-      <c r="AN46" s="3" t="s">
-        <v>924</v>
-      </c>
       <c r="AO46" s="3"/>
     </row>
-    <row r="47" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
-      <c r="B47" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -17192,15 +18701,6 @@
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
-      <c r="O47" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q47" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
@@ -17210,7 +18710,7 @@
     IF(I47&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J47&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K47&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L47&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M47&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N47&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O47&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O47&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P47&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L47&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M47&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N47&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O152&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O152&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P152&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R47&lt;&gt;"", """" &amp; R47 &amp; """", ""),
     IF(S47&lt;&gt;"", """" &amp; S47 &amp; """", ""),
     IF(T47&lt;&gt;"", """" &amp; T47 &amp; """", "")
@@ -17232,32 +18732,10 @@
       <c r="AF47" s="3"/>
       <c r="AG47" s="3"/>
       <c r="AH47" s="3"/>
-      <c r="AI47" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="AJ47" s="3"/>
-      <c r="AK47" s="3"/>
-      <c r="AL47" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="AM47" s="3"/>
-      <c r="AN47" s="3" t="s">
-        <v>924</v>
-      </c>
       <c r="AO47" s="3"/>
     </row>
-    <row r="48" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
-      <c r="B48" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -17267,15 +18745,6 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
-      <c r="O48" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="Q48" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
@@ -17285,7 +18754,7 @@
     IF(I48&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J48&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K48&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L48&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M48&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N48&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O48&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O48&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P48&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L48&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M48&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N48&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O153&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O153&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P153&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(R48&lt;&gt;"", """" &amp; R48 &amp; """", ""),
     IF(S48&lt;&gt;"", """" &amp; S48 &amp; """", ""),
     IF(T48&lt;&gt;"", """" &amp; T48 &amp; """", "")
@@ -17307,32 +18776,10 @@
       <c r="AF48" s="3"/>
       <c r="AG48" s="3"/>
       <c r="AH48" s="3"/>
-      <c r="AI48" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="AJ48" s="3"/>
-      <c r="AK48" s="3"/>
-      <c r="AL48" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="AM48" s="3"/>
-      <c r="AN48" s="3" t="s">
-        <v>924</v>
-      </c>
       <c r="AO48" s="3"/>
     </row>
-    <row r="49" spans="1:40" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:40" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
-      <c r="B49" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -17342,13 +18789,6 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
-      <c r="O49" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3" t="str">
@@ -17357,7 +18797,7 @@
     IF(I49&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J49&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K49&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L49&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M49&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N49&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O49&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O49&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P49&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L49&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M49&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N49&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O154&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O154&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P154&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(Q53&lt;&gt;"", """" &amp; Q53 &amp; """", ""),
     IF(R49&lt;&gt;"", """" &amp; R49 &amp; """", ""),
     IF(S49&lt;&gt;"", """" &amp; S49 &amp; """", "")
@@ -17379,28 +18819,9 @@
       <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
       <c r="AG49" s="3"/>
-      <c r="AH49" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="AI49" s="3"/>
-      <c r="AJ49" s="3"/>
-      <c r="AK49" s="3"/>
-      <c r="AL49" s="3"/>
-      <c r="AM49" s="3"/>
-      <c r="AN49" s="3"/>
-    </row>
-    <row r="50" spans="1:40" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:40" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
-      <c r="B50" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -17410,13 +18831,6 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
-      <c r="O50" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3" t="str">
@@ -17425,7 +18839,7 @@
     IF(I50&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J50&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K50&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L50&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M50&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N50&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O50&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O50&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P50&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L50&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M50&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N50&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O155&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O155&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P155&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(Q54&lt;&gt;"", """" &amp; Q54 &amp; """", ""),
     IF(R50&lt;&gt;"", """" &amp; R50 &amp; """", ""),
     IF(S50&lt;&gt;"", """" &amp; S50 &amp; """", "")
@@ -17447,28 +18861,9 @@
       <c r="AE50" s="3"/>
       <c r="AF50" s="3"/>
       <c r="AG50" s="3"/>
-      <c r="AH50" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="AI50" s="3"/>
-      <c r="AJ50" s="3"/>
-      <c r="AK50" s="3"/>
-      <c r="AL50" s="3"/>
-      <c r="AM50" s="3"/>
-      <c r="AN50" s="3"/>
-    </row>
-    <row r="51" spans="1:40" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:40" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
-      <c r="B51" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -17478,13 +18873,6 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
-      <c r="O51" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3" t="str">
@@ -17493,7 +18881,7 @@
     IF(I51&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J51&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K51&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L51&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M51&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N51&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O51&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O51&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P51&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L51&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M51&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N51&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O156&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O156&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P156&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(Q55&lt;&gt;"", """" &amp; Q55 &amp; """", ""),
     IF(R51&lt;&gt;"", """" &amp; R51 &amp; """", ""),
     IF(S51&lt;&gt;"", """" &amp; S51 &amp; """", "")
@@ -17515,28 +18903,9 @@
       <c r="AE51" s="3"/>
       <c r="AF51" s="3"/>
       <c r="AG51" s="3"/>
-      <c r="AH51" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="AI51" s="3"/>
-      <c r="AJ51" s="3"/>
-      <c r="AK51" s="3"/>
-      <c r="AL51" s="3"/>
-      <c r="AM51" s="3"/>
-      <c r="AN51" s="3"/>
-    </row>
-    <row r="52" spans="1:40" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:40" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
-      <c r="B52" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3" t="s">
-        <v>672</v>
-      </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -17546,13 +18915,6 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
-      <c r="O52" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3" t="str">
@@ -17561,7 +18923,7 @@
     IF(I52&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
     IF(J52&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
     IF(K52&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(L52&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M52&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N52&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O52&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O52&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P52&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
+    IF(L52&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(M52&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N52&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(VJDBCore!O157&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!O157&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(VJDBCore!P157&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
     IF(Q56&lt;&gt;"", """" &amp; Q56 &amp; """", ""),
     IF(R52&lt;&gt;"", """" &amp; R52 &amp; """", ""),
     IF(S52&lt;&gt;"", """" &amp; S52 &amp; """", "")
@@ -17583,15 +18945,6 @@
       <c r="AE52" s="3"/>
       <c r="AF52" s="3"/>
       <c r="AG52" s="3"/>
-      <c r="AH52" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="AI52" s="3"/>
-      <c r="AJ52" s="3"/>
-      <c r="AK52" s="3"/>
-      <c r="AL52" s="3"/>
-      <c r="AM52" s="3"/>
-      <c r="AN52" s="3"/>
     </row>
     <row r="53" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6"/>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E590D8-9003-4CD4-97C6-8BCEA7155C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C18661E0-97F0-4042-99F0-5256449468FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="2" activeTab="2" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
   <sheets>
     <sheet name="VJDBCore" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6836" uniqueCount="1068">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6889" uniqueCount="1106">
   <si>
     <t>VJDBv0.3</t>
   </si>
@@ -3550,63 +3550,123 @@
     <t>Members (shared with)</t>
   </si>
   <si>
+    <t>green - naming</t>
+  </si>
+  <si>
+    <t>orange - revisit</t>
+  </si>
+  <si>
     <t>Bioproject Accession</t>
   </si>
   <si>
+    <t>purple - change due to curation</t>
+  </si>
+  <si>
     <t>Biosample Accession</t>
   </si>
   <si>
+    <t>Sampling Date</t>
+  </si>
+  <si>
+    <t>would be "Date" but to make distinction as there are multiple dates</t>
+  </si>
+  <si>
+    <t>Taxonomy Descision</t>
+  </si>
+  <si>
     <t>GenBank Sequence</t>
   </si>
   <si>
+    <t>Reference Sequence</t>
+  </si>
+  <si>
+    <t>Is sample needed at all? Do we relate everything to the sequence/the virus  -&gt; Variant, Taxonomy Decision: Variant or NCBI/ICTV Variant</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Is sequence in the name needed?</t>
+  </si>
+  <si>
+    <t>Should be curated into Baltimore classes; Is this a sequence attribute or sample or both? Represent in naming?</t>
+  </si>
+  <si>
+    <t>Completeness</t>
+  </si>
+  <si>
+    <t>technically sample species or below</t>
+  </si>
+  <si>
+    <t>move to additional metadata</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>Segment Name</t>
   </si>
   <si>
-    <t>Reference Sequence</t>
-  </si>
-  <si>
-    <t>green - naming</t>
-  </si>
-  <si>
-    <t>orange - revisit</t>
-  </si>
-  <si>
-    <t>purple - change due to curation</t>
-  </si>
-  <si>
-    <t>Is sequence in the name needed?</t>
-  </si>
-  <si>
-    <t>Should be curated into Baltimore classes; Is this a sequence attribute or sample or both? Represent in naming?</t>
-  </si>
-  <si>
-    <t>Is sample needed at all? Do we relate everything to the sequence/the virus  -&gt; Variant</t>
-  </si>
-  <si>
-    <t>technically sample species or below</t>
-  </si>
-  <si>
-    <t>?</t>
+    <t>NCBI Virus has only the virus species in this field, Taxonomy Descision</t>
+  </si>
+  <si>
+    <t>Plan about sources and vocabularies, RKI different from ENA, what about NCBI and environmental</t>
+  </si>
+  <si>
+    <t>This is defined different from the duplicate below. Meaning for submission Tool was to have a geographical level higher than countries (continents)</t>
   </si>
   <si>
     <t>Analysis Accession</t>
   </si>
   <si>
+    <t>might be duplicate with analysis description</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Min Gap Length</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>for submission this is always "clone or isolate"</t>
+  </si>
+  <si>
     <t>BVBRC Accession</t>
   </si>
   <si>
-    <t>Plan about sources and vocabularies, RKI different from ENA, what about NCBI and environmental</t>
+    <t>Collecting Organization</t>
+  </si>
+  <si>
+    <t>conform with submitter organization</t>
+  </si>
+  <si>
+    <t>Host Health State</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
   </si>
   <si>
     <t>Experiment Accession</t>
   </si>
   <si>
-    <t>duplicate</t>
-  </si>
-  <si>
     <t>Seperation of values good for submission, display should be in one, needs curation from ENA values, seperate Fields for submission?</t>
   </si>
   <si>
+    <t>remove?</t>
+  </si>
+  <si>
+    <t>Host Species</t>
+  </si>
+  <si>
     <t>BVBRC Sequence</t>
   </si>
   <si>
@@ -3616,26 +3676,80 @@
     <t>Run Accession</t>
   </si>
   <si>
+    <t>Common Abbreviation</t>
+  </si>
+  <si>
     <t>No mapping, seems to  be NCBI Tax ID</t>
   </si>
   <si>
     <t>Average Depth</t>
   </si>
   <si>
-    <t>What is that?</t>
+    <t>Length Coverage</t>
+  </si>
+  <si>
+    <t>Number of Contigs</t>
+  </si>
+  <si>
+    <t>Publication DOI</t>
+  </si>
+  <si>
+    <t>Pubmed Accession</t>
+  </si>
+  <si>
+    <t>Update Date</t>
+  </si>
+  <si>
+    <t>Insert Size</t>
+  </si>
+  <si>
+    <t>Instrument</t>
+  </si>
+  <si>
+    <t>Library Construction Protocol</t>
+  </si>
+  <si>
+    <t>Library Description</t>
+  </si>
+  <si>
+    <t>Library Layout</t>
+  </si>
+  <si>
+    <t>Library Name</t>
+  </si>
+  <si>
+    <t>Library Selection</t>
+  </si>
+  <si>
+    <t>Library Source</t>
+  </si>
+  <si>
+    <t>Library Strategy</t>
+  </si>
+  <si>
+    <t>Platform</t>
   </si>
   <si>
     <t>VirJenDB Accession</t>
   </si>
   <si>
+    <t>This is not needed as in ENA as there it functions as memorable orientation for objects for the user, for us a ID for each object would be more suitable</t>
+  </si>
+  <si>
+    <t>What is that? -&gt; remove, not visible in ENA Webin Portal Submission</t>
+  </si>
+  <si>
     <t>Study Description</t>
+  </si>
+  <si>
+    <t>What is that? -&gt; remove, not visible in ENA Webin Portal Submision</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3924,7 +4038,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4077,12 +4191,6 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4091,9 +4199,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4113,10 +4218,13 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -4479,12 +4587,12 @@
       <selection activeCell="AT1" sqref="AT1:AV1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="23.5703125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
     <col min="22" max="22" width="100.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" s="21" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -4621,7 +4729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" s="21" customFormat="1" ht="23.25" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>15</v>
       </c>
@@ -4758,7 +4866,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:45" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" s="21" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="19" t="str">
         <f t="shared" ref="A3:AP3" si="0">_xlfn.TEXTJOIN(" ", TRUE, LOWER(A1), LOWER(A2))</f>
         <v>vjdbv0.3 field id</v>
@@ -4940,7 +5048,7 @@
         <v>ena submission validation</v>
       </c>
     </row>
-    <row r="4" spans="1:45" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" s="21" customFormat="1" ht="23.25" customHeight="1">
       <c r="A4" s="19" t="str">
         <f t="shared" ref="A4:AP4" si="4">SUBSTITUTE(A3, " ", "_")</f>
         <v>vjdbv0.3_field_id</v>
@@ -5122,7 +5230,7 @@
         <v>ena_submission_validation</v>
       </c>
     </row>
-    <row r="5" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>48</v>
       </c>
@@ -5219,7 +5327,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>65</v>
       </c>
@@ -5322,7 +5430,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>76</v>
       </c>
@@ -5418,7 +5526,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>87</v>
       </c>
@@ -5518,7 +5626,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>98</v>
       </c>
@@ -5634,7 +5742,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>115</v>
       </c>
@@ -5748,7 +5856,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>131</v>
       </c>
@@ -5840,7 +5948,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>142</v>
       </c>
@@ -5920,7 +6028,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>149</v>
       </c>
@@ -5996,7 +6104,7 @@
       <c r="AP13" s="3"/>
       <c r="AQ13" s="3"/>
     </row>
-    <row r="14" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>157</v>
       </c>
@@ -6084,7 +6192,7 @@
       <c r="AP14" s="3"/>
       <c r="AQ14" s="3"/>
     </row>
-    <row r="15" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>165</v>
       </c>
@@ -6168,7 +6276,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>172</v>
       </c>
@@ -6260,7 +6368,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>178</v>
       </c>
@@ -6348,7 +6456,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>187</v>
       </c>
@@ -6450,7 +6558,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>193</v>
       </c>
@@ -6558,7 +6666,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6618,7 +6726,7 @@
       <c r="AP20" s="3"/>
       <c r="AQ20" s="3"/>
     </row>
-    <row r="21" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>208</v>
       </c>
@@ -6714,7 +6822,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>215</v>
       </c>
@@ -6806,7 +6914,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>224</v>
       </c>
@@ -6894,7 +7002,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>231</v>
       </c>
@@ -6976,7 +7084,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>238</v>
       </c>
@@ -7056,7 +7164,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>243</v>
       </c>
@@ -7142,7 +7250,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -7206,7 +7314,7 @@
       <c r="AP27" s="3"/>
       <c r="AQ27" s="3"/>
     </row>
-    <row r="28" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>255</v>
       </c>
@@ -7290,7 +7398,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -7352,7 +7460,7 @@
       <c r="AP29" s="3"/>
       <c r="AQ29" s="3"/>
     </row>
-    <row r="30" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>267</v>
       </c>
@@ -7436,7 +7544,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>273</v>
       </c>
@@ -7538,7 +7646,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>281</v>
       </c>
@@ -7628,7 +7736,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>289</v>
       </c>
@@ -7712,7 +7820,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>294</v>
       </c>
@@ -7820,7 +7928,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>307</v>
       </c>
@@ -7902,7 +8010,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>313</v>
       </c>
@@ -7982,7 +8090,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>318</v>
       </c>
@@ -8066,7 +8174,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>322</v>
       </c>
@@ -8152,7 +8260,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>327</v>
       </c>
@@ -8236,7 +8344,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>331</v>
       </c>
@@ -8336,7 +8444,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>342</v>
       </c>
@@ -8420,7 +8528,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>345</v>
       </c>
@@ -8508,7 +8616,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A43" s="3" t="s">
         <v>353</v>
       </c>
@@ -8602,7 +8710,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>359</v>
       </c>
@@ -8698,7 +8806,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>364</v>
       </c>
@@ -8794,7 +8902,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>372</v>
       </c>
@@ -8890,7 +8998,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>307</v>
       </c>
@@ -8966,7 +9074,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>381</v>
       </c>
@@ -9064,7 +9172,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>387</v>
       </c>
@@ -9158,7 +9266,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>392</v>
       </c>
@@ -9252,7 +9360,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>399</v>
       </c>
@@ -9330,7 +9438,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>403</v>
       </c>
@@ -9434,7 +9542,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>409</v>
       </c>
@@ -9514,7 +9622,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>412</v>
       </c>
@@ -9610,7 +9718,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>417</v>
       </c>
@@ -9690,7 +9798,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>421</v>
       </c>
@@ -9786,7 +9894,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>426</v>
       </c>
@@ -9870,7 +9978,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>430</v>
       </c>
@@ -9954,7 +10062,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>433</v>
       </c>
@@ -10048,7 +10156,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="60" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>438</v>
       </c>
@@ -10132,7 +10240,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>444</v>
       </c>
@@ -10210,7 +10318,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>448</v>
       </c>
@@ -10294,7 +10402,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>451</v>
       </c>
@@ -10400,7 +10508,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>460</v>
       </c>
@@ -10488,7 +10596,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>464</v>
       </c>
@@ -10592,7 +10700,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>471</v>
       </c>
@@ -10688,7 +10796,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>477</v>
       </c>
@@ -10778,7 +10886,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>482</v>
       </c>
@@ -10868,7 +10976,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>487</v>
       </c>
@@ -10960,7 +11068,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>492</v>
       </c>
@@ -11037,7 +11145,7 @@
       <c r="AP70" s="3"/>
       <c r="AQ70" s="3"/>
     </row>
-    <row r="71" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>497</v>
       </c>
@@ -11127,7 +11235,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>502</v>
       </c>
@@ -11217,7 +11325,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A73" s="3" t="s">
         <v>507</v>
       </c>
@@ -11303,7 +11411,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A74" s="3" t="s">
         <v>513</v>
       </c>
@@ -11381,7 +11489,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="75" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A75" s="3" t="s">
         <v>517</v>
       </c>
@@ -11473,7 +11581,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>522</v>
       </c>
@@ -11551,7 +11659,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="77" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A77" s="3" t="s">
         <v>526</v>
       </c>
@@ -11633,7 +11741,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="78" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A78" s="3" t="s">
         <v>530</v>
       </c>
@@ -11713,7 +11821,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="79" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A79" s="3" t="s">
         <v>536</v>
       </c>
@@ -11821,7 +11929,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="80" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A80" s="3" t="s">
         <v>546</v>
       </c>
@@ -11919,7 +12027,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>552</v>
       </c>
@@ -11997,7 +12105,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="82" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>556</v>
       </c>
@@ -12077,7 +12185,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="83" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A83" s="3" t="s">
         <v>560</v>
       </c>
@@ -12169,7 +12277,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="84" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>567</v>
       </c>
@@ -12255,7 +12363,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="85" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>572</v>
       </c>
@@ -12333,7 +12441,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="86" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A86" s="3" t="s">
         <v>577</v>
       </c>
@@ -12423,7 +12531,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A87" s="3" t="s">
         <v>586</v>
       </c>
@@ -12503,7 +12611,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="88" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>591</v>
       </c>
@@ -12583,7 +12691,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="89" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A89" s="3" t="s">
         <v>596</v>
       </c>
@@ -12671,7 +12779,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="90" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A90" s="3" t="s">
         <v>603</v>
       </c>
@@ -12757,7 +12865,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="91" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>612</v>
       </c>
@@ -12837,7 +12945,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A92" s="3" t="s">
         <v>617</v>
       </c>
@@ -12919,7 +13027,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="93" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A93" s="3" t="s">
         <v>621</v>
       </c>
@@ -13011,7 +13119,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="94" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A94" s="3" t="s">
         <v>630</v>
       </c>
@@ -13105,7 +13213,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A95" s="3" t="s">
         <v>637</v>
       </c>
@@ -13197,7 +13305,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="96" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A96" s="3" t="s">
         <v>643</v>
       </c>
@@ -13289,7 +13397,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="97" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A97" s="3" t="s">
         <v>649</v>
       </c>
@@ -13383,7 +13491,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="98" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A98" s="3" t="s">
         <v>655</v>
       </c>
@@ -13475,7 +13583,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="99" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A99" s="3" t="s">
         <v>661</v>
       </c>
@@ -13569,7 +13677,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A100" s="3" t="s">
         <v>668</v>
       </c>
@@ -13661,7 +13769,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="101" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A101" s="3" t="s">
         <v>674</v>
       </c>
@@ -13755,7 +13863,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="102" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A102" s="3" t="s">
         <v>681</v>
       </c>
@@ -13857,7 +13965,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="103" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A103" s="3" t="s">
         <v>688</v>
       </c>
@@ -13941,7 +14049,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="104" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A104" s="3" t="s">
         <v>693</v>
       </c>
@@ -14017,7 +14125,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="105" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A105" s="3" t="s">
         <v>700</v>
       </c>
@@ -14093,7 +14201,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="106" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A106" s="3" t="s">
         <v>704</v>
       </c>
@@ -14167,7 +14275,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="107" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A107" s="3" t="s">
         <v>708</v>
       </c>
@@ -14251,7 +14359,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="108" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A108" s="3" t="s">
         <v>713</v>
       </c>
@@ -14325,7 +14433,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="109" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:45" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A109" s="3" t="s">
         <v>717</v>
       </c>
@@ -14421,7 +14529,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="110" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:45" ht="23.25" customHeight="1">
       <c r="A110" s="3" t="s">
         <v>724</v>
       </c>
@@ -14476,7 +14584,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="111" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:45" ht="23.25" customHeight="1">
       <c r="A111" s="3" t="s">
         <v>730</v>
       </c>
@@ -14531,7 +14639,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="112" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:45" ht="23.25" customHeight="1">
       <c r="A112" s="3" t="s">
         <v>734</v>
       </c>
@@ -14586,7 +14694,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:45" ht="23.25" customHeight="1">
       <c r="A113" s="3" t="s">
         <v>740</v>
       </c>
@@ -14641,7 +14749,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="114" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:45" ht="23.25" customHeight="1">
       <c r="A114" s="3" t="s">
         <v>744</v>
       </c>
@@ -14690,7 +14798,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:45" ht="23.25" customHeight="1">
       <c r="A115" s="3" t="s">
         <v>747</v>
       </c>
@@ -14739,7 +14847,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:45" ht="23.25" customHeight="1">
       <c r="A116" s="3" t="s">
         <v>750</v>
       </c>
@@ -14788,7 +14896,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="117" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:45" ht="23.25" customHeight="1">
       <c r="A117" s="3" t="s">
         <v>753</v>
       </c>
@@ -14837,7 +14945,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="118" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:45" ht="23.25" customHeight="1">
       <c r="A118" s="3" t="s">
         <v>730</v>
       </c>
@@ -14892,7 +15000,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="119" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:45" ht="23.25" customHeight="1">
       <c r="A119" s="3" t="s">
         <v>757</v>
       </c>
@@ -14947,7 +15055,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="120" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:45" ht="23.25" customHeight="1">
       <c r="A120" s="3" t="s">
         <v>760</v>
       </c>
@@ -15002,7 +15110,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="121" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:45" ht="23.25" customHeight="1">
       <c r="A121" s="3" t="s">
         <v>763</v>
       </c>
@@ -15057,7 +15165,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="122" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:45" ht="23.25" customHeight="1">
       <c r="A122" s="3" t="s">
         <v>766</v>
       </c>
@@ -15112,7 +15220,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="123" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:45" ht="23.25" customHeight="1">
       <c r="A123" s="3" t="s">
         <v>769</v>
       </c>
@@ -15167,7 +15275,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="124" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:45" ht="23.25" customHeight="1">
       <c r="A124" s="3" t="s">
         <v>773</v>
       </c>
@@ -15222,7 +15330,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="125" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:45" ht="23.25" customHeight="1">
       <c r="A125" s="3" t="s">
         <v>776</v>
       </c>
@@ -15271,7 +15379,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="126" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:45" ht="23.25" customHeight="1">
       <c r="A126" s="3" t="s">
         <v>429</v>
       </c>
@@ -15326,7 +15434,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="127" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:45" ht="23.25" customHeight="1">
       <c r="A127" s="3" t="s">
         <v>781</v>
       </c>
@@ -15375,7 +15483,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="128" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:45" ht="23.25" customHeight="1">
       <c r="A128" s="3" t="s">
         <v>784</v>
       </c>
@@ -15424,7 +15532,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="129" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:45" ht="23.25" customHeight="1">
       <c r="A129" s="3" t="s">
         <v>787</v>
       </c>
@@ -15473,7 +15581,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="130" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:45" ht="23.25" customHeight="1">
       <c r="A130" s="3" t="s">
         <v>790</v>
       </c>
@@ -15522,7 +15630,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="131" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:45" ht="23.25" customHeight="1">
       <c r="A131" s="3" t="s">
         <v>793</v>
       </c>
@@ -15571,7 +15679,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="132" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:45" ht="23.25" customHeight="1">
       <c r="A132" s="3" t="s">
         <v>796</v>
       </c>
@@ -15620,7 +15728,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="133" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:45" ht="23.25" customHeight="1">
       <c r="A133" s="3" t="s">
         <v>799</v>
       </c>
@@ -15669,7 +15777,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="134" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:45" ht="23.25" customHeight="1">
       <c r="A134" s="3" t="s">
         <v>802</v>
       </c>
@@ -15727,7 +15835,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="135" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:45" ht="23.25" customHeight="1">
       <c r="A135" s="3" t="s">
         <v>805</v>
       </c>
@@ -15776,7 +15884,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="136" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:45" ht="23.25" customHeight="1">
       <c r="A136" s="3" t="s">
         <v>808</v>
       </c>
@@ -15831,7 +15939,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="137" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:45" ht="23.25" customHeight="1">
       <c r="A137" s="3" t="s">
         <v>812</v>
       </c>
@@ -15880,7 +15988,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="138" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:45" ht="23.25" customHeight="1">
       <c r="A138" s="3" t="s">
         <v>815</v>
       </c>
@@ -15935,7 +16043,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:45" ht="23.25" customHeight="1">
       <c r="A139" s="3" t="s">
         <v>691</v>
       </c>
@@ -15990,7 +16098,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="140" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:45" ht="23.25" customHeight="1">
       <c r="A140" s="3" t="s">
         <v>820</v>
       </c>
@@ -16045,7 +16153,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="141" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:45" ht="23.25" customHeight="1">
       <c r="A141" s="3" t="s">
         <v>740</v>
       </c>
@@ -16100,7 +16208,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="142" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:45" ht="23.25" customHeight="1">
       <c r="A142" s="3" t="s">
         <v>825</v>
       </c>
@@ -16155,7 +16263,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="143" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:45" ht="23.25" customHeight="1">
       <c r="A143" s="3" t="s">
         <v>828</v>
       </c>
@@ -16204,7 +16312,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="144" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:45" ht="23.25" customHeight="1">
       <c r="A144" s="3" t="s">
         <v>831</v>
       </c>
@@ -16259,7 +16367,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="145" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:45" ht="23.25" customHeight="1">
       <c r="A145" s="3" t="s">
         <v>834</v>
       </c>
@@ -16314,7 +16422,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="146" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:45" ht="23.25" customHeight="1">
       <c r="A146" s="3" t="s">
         <v>724</v>
       </c>
@@ -16369,7 +16477,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="147" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:45" ht="23.25" customHeight="1">
       <c r="A147" s="3" t="s">
         <v>839</v>
       </c>
@@ -16424,7 +16532,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="148" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:45" ht="23.25" customHeight="1">
       <c r="A148" s="3" t="s">
         <v>842</v>
       </c>
@@ -16479,7 +16587,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="149" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:45" ht="23.25" customHeight="1">
       <c r="A149" s="3" t="s">
         <v>845</v>
       </c>
@@ -16534,7 +16642,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="150" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:45" ht="23.25" customHeight="1">
       <c r="A150" s="3" t="s">
         <v>849</v>
       </c>
@@ -16589,7 +16697,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="151" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:45" ht="23.25" customHeight="1">
       <c r="A151" s="3" t="s">
         <v>853</v>
       </c>
@@ -16644,7 +16752,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="152" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:45" ht="23.25" customHeight="1">
       <c r="A152" s="3" t="s">
         <v>857</v>
       </c>
@@ -16699,7 +16807,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="153" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:45" ht="23.25" customHeight="1">
       <c r="A153" s="3" t="s">
         <v>860</v>
       </c>
@@ -16754,7 +16862,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="154" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:45" ht="23.25" customHeight="1">
       <c r="A154" s="3" t="s">
         <v>863</v>
       </c>
@@ -16803,7 +16911,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="155" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:45" ht="23.25" customHeight="1">
       <c r="A155" s="3" t="s">
         <v>866</v>
       </c>
@@ -16852,7 +16960,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="156" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:45" ht="23.25" customHeight="1">
       <c r="A156" s="3" t="s">
         <v>869</v>
       </c>
@@ -16901,7 +17009,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="157" spans="1:45" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:45" ht="23.25" customHeight="1">
       <c r="A157" s="3" t="s">
         <v>872</v>
       </c>
@@ -16975,12 +17083,12 @@
       <selection activeCell="AH49" sqref="AH49:AN52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="40" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:172" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:172" s="21" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -17240,7 +17348,7 @@
       <c r="FO1" s="31"/>
       <c r="FP1" s="31"/>
     </row>
-    <row r="2" spans="1:172" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:172" s="21" customFormat="1" ht="23.25" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>15</v>
       </c>
@@ -17500,7 +17608,7 @@
       <c r="FO2" s="31"/>
       <c r="FP2" s="31"/>
     </row>
-    <row r="3" spans="1:172" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:172" s="21" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="19" t="str">
         <f t="shared" ref="A3:AQ3" si="0">_xlfn.TEXTJOIN(" ", TRUE, LOWER(A1), LOWER(A2))</f>
         <v>vjdbv0.3 field id</v>
@@ -17803,7 +17911,7 @@
       <c r="FO3" s="31"/>
       <c r="FP3" s="31"/>
     </row>
-    <row r="4" spans="1:172" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:172" s="24" customFormat="1" ht="23.25" customHeight="1">
       <c r="A4" s="23" t="str">
         <f t="shared" ref="A4:AQ4" si="1">SUBSTITUTE(A3, " ", "_")</f>
         <v>vjdbv0.3_field_id</v>
@@ -18106,7 +18214,7 @@
       <c r="FO4" s="31"/>
       <c r="FP4" s="31"/>
     </row>
-    <row r="5" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -18150,7 +18258,7 @@
       <c r="AH5" s="3"/>
       <c r="AO5" s="3"/>
     </row>
-    <row r="6" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -18194,7 +18302,7 @@
       <c r="AH6" s="3"/>
       <c r="AO6" s="3"/>
     </row>
-    <row r="7" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -18238,7 +18346,7 @@
       <c r="AH7" s="3"/>
       <c r="AO7" s="3"/>
     </row>
-    <row r="8" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -18282,7 +18390,7 @@
       <c r="AH8" s="3"/>
       <c r="AO8" s="3"/>
     </row>
-    <row r="9" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -18326,7 +18434,7 @@
       <c r="AH9" s="3"/>
       <c r="AO9" s="3"/>
     </row>
-    <row r="10" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -18370,7 +18478,7 @@
       <c r="AH10" s="3"/>
       <c r="AO10" s="3"/>
     </row>
-    <row r="11" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -18414,7 +18522,7 @@
       <c r="AH11" s="3"/>
       <c r="AO11" s="3"/>
     </row>
-    <row r="12" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -18458,7 +18566,7 @@
       <c r="AH12" s="3"/>
       <c r="AO12" s="3"/>
     </row>
-    <row r="13" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -18502,7 +18610,7 @@
       <c r="AH13" s="3"/>
       <c r="AO13" s="3"/>
     </row>
-    <row r="14" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -18546,7 +18654,7 @@
       <c r="AH14" s="3"/>
       <c r="AO14" s="3"/>
     </row>
-    <row r="15" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -18590,7 +18698,7 @@
       <c r="AH15" s="3"/>
       <c r="AO15" s="3"/>
     </row>
-    <row r="16" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:172" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -18634,7 +18742,7 @@
       <c r="AH16" s="3"/>
       <c r="AO16" s="3"/>
     </row>
-    <row r="17" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -18678,7 +18786,7 @@
       <c r="AH17" s="3"/>
       <c r="AO17" s="3"/>
     </row>
-    <row r="18" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -18722,7 +18830,7 @@
       <c r="AH18" s="3"/>
       <c r="AO18" s="3"/>
     </row>
-    <row r="19" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -18766,7 +18874,7 @@
       <c r="AH19" s="3"/>
       <c r="AO19" s="3"/>
     </row>
-    <row r="20" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -18810,7 +18918,7 @@
       <c r="AH20" s="3"/>
       <c r="AO20" s="3"/>
     </row>
-    <row r="21" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -18854,7 +18962,7 @@
       <c r="AH21" s="3"/>
       <c r="AO21" s="3"/>
     </row>
-    <row r="22" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -18898,7 +19006,7 @@
       <c r="AH22" s="3"/>
       <c r="AO22" s="3"/>
     </row>
-    <row r="23" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -18942,7 +19050,7 @@
       <c r="AH23" s="3"/>
       <c r="AO23" s="3"/>
     </row>
-    <row r="24" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -18986,7 +19094,7 @@
       <c r="AH24" s="3"/>
       <c r="AO24" s="3"/>
     </row>
-    <row r="25" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -19030,7 +19138,7 @@
       <c r="AH25" s="3"/>
       <c r="AO25" s="3"/>
     </row>
-    <row r="26" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -19074,7 +19182,7 @@
       <c r="AH26" s="3"/>
       <c r="AO26" s="3"/>
     </row>
-    <row r="27" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -19118,7 +19226,7 @@
       <c r="AH27" s="3"/>
       <c r="AO27" s="3"/>
     </row>
-    <row r="28" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -19162,7 +19270,7 @@
       <c r="AH28" s="3"/>
       <c r="AO28" s="3"/>
     </row>
-    <row r="29" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -19206,7 +19314,7 @@
       <c r="AH29" s="3"/>
       <c r="AO29" s="3"/>
     </row>
-    <row r="30" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -19250,7 +19358,7 @@
       <c r="AH30" s="3"/>
       <c r="AO30" s="3"/>
     </row>
-    <row r="31" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -19294,7 +19402,7 @@
       <c r="AH31" s="3"/>
       <c r="AO31" s="3"/>
     </row>
-    <row r="32" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -19338,7 +19446,7 @@
       <c r="AH32" s="3"/>
       <c r="AO32" s="3"/>
     </row>
-    <row r="33" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -19382,7 +19490,7 @@
       <c r="AH33" s="3"/>
       <c r="AO33" s="3"/>
     </row>
-    <row r="34" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -19426,7 +19534,7 @@
       <c r="AH34" s="3"/>
       <c r="AO34" s="3"/>
     </row>
-    <row r="35" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -19470,7 +19578,7 @@
       <c r="AH35" s="3"/>
       <c r="AO35" s="3"/>
     </row>
-    <row r="36" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -19514,7 +19622,7 @@
       <c r="AH36" s="3"/>
       <c r="AO36" s="3"/>
     </row>
-    <row r="37" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -19558,7 +19666,7 @@
       <c r="AH37" s="3"/>
       <c r="AO37" s="3"/>
     </row>
-    <row r="38" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -19602,7 +19710,7 @@
       <c r="AH38" s="3"/>
       <c r="AO38" s="3"/>
     </row>
-    <row r="39" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -19646,7 +19754,7 @@
       <c r="AH39" s="3"/>
       <c r="AO39" s="3"/>
     </row>
-    <row r="40" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -19690,7 +19798,7 @@
       <c r="AH40" s="3"/>
       <c r="AO40" s="3"/>
     </row>
-    <row r="41" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -19734,7 +19842,7 @@
       <c r="AH41" s="3"/>
       <c r="AO41" s="3"/>
     </row>
-    <row r="42" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -19778,7 +19886,7 @@
       <c r="AH42" s="3"/>
       <c r="AO42" s="3"/>
     </row>
-    <row r="43" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -19822,7 +19930,7 @@
       <c r="AH43" s="3"/>
       <c r="AO43" s="3"/>
     </row>
-    <row r="44" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -19866,7 +19974,7 @@
       <c r="AH44" s="3"/>
       <c r="AO44" s="3"/>
     </row>
-    <row r="45" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -19910,7 +20018,7 @@
       <c r="AH45" s="3"/>
       <c r="AO45" s="3"/>
     </row>
-    <row r="46" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -19954,7 +20062,7 @@
       <c r="AH46" s="3"/>
       <c r="AO46" s="3"/>
     </row>
-    <row r="47" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -19998,7 +20106,7 @@
       <c r="AH47" s="3"/>
       <c r="AO47" s="3"/>
     </row>
-    <row r="48" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -20042,7 +20150,7 @@
       <c r="AH48" s="3"/>
       <c r="AO48" s="3"/>
     </row>
-    <row r="49" spans="1:40" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -20084,7 +20192,7 @@
       <c r="AF49" s="3"/>
       <c r="AG49" s="3"/>
     </row>
-    <row r="50" spans="1:40" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -20126,7 +20234,7 @@
       <c r="AF50" s="3"/>
       <c r="AG50" s="3"/>
     </row>
-    <row r="51" spans="1:40" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -20168,7 +20276,7 @@
       <c r="AF51" s="3"/>
       <c r="AG51" s="3"/>
     </row>
-    <row r="52" spans="1:40" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -20210,7 +20318,7 @@
       <c r="AF52" s="3"/>
       <c r="AG52" s="3"/>
     </row>
-    <row r="53" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -20276,7 +20384,7 @@
       <c r="AM53" s="10"/>
       <c r="AN53" s="29"/>
     </row>
-    <row r="54" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -20346,7 +20454,7 @@
       <c r="AM54" s="15"/>
       <c r="AN54" s="30"/>
     </row>
-    <row r="55" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -20414,7 +20522,7 @@
       <c r="AM55" s="15"/>
       <c r="AN55" s="30"/>
     </row>
-    <row r="56" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -20480,7 +20588,7 @@
       <c r="AM56" s="15"/>
       <c r="AN56" s="30"/>
     </row>
-    <row r="57" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -20546,7 +20654,7 @@
       <c r="AM57" s="15"/>
       <c r="AN57" s="30"/>
     </row>
-    <row r="58" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -20616,7 +20724,7 @@
       <c r="AM58" s="15"/>
       <c r="AN58" s="30"/>
     </row>
-    <row r="59" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -20686,7 +20794,7 @@
       <c r="AM59" s="15"/>
       <c r="AN59" s="30"/>
     </row>
-    <row r="60" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -20752,7 +20860,7 @@
       <c r="AM60" s="15"/>
       <c r="AN60" s="30"/>
     </row>
-    <row r="61" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -20818,7 +20926,7 @@
       <c r="AM61" s="15"/>
       <c r="AN61" s="30"/>
     </row>
-    <row r="62" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -20890,7 +20998,7 @@
       <c r="AM62" s="15"/>
       <c r="AN62" s="30"/>
     </row>
-    <row r="63" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -20958,7 +21066,7 @@
       <c r="AM63" s="15"/>
       <c r="AN63" s="30"/>
     </row>
-    <row r="64" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -21024,7 +21132,7 @@
       <c r="AM64" s="15"/>
       <c r="AN64" s="30"/>
     </row>
-    <row r="65" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -21096,7 +21204,7 @@
       <c r="AM65" s="15"/>
       <c r="AN65" s="30"/>
     </row>
-    <row r="66" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -21168,7 +21276,7 @@
       <c r="AM66" s="15"/>
       <c r="AN66" s="30"/>
     </row>
-    <row r="67" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -21240,7 +21348,7 @@
       <c r="AM67" s="15"/>
       <c r="AN67" s="30"/>
     </row>
-    <row r="68" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -21310,7 +21418,7 @@
       <c r="AM68" s="15"/>
       <c r="AN68" s="30"/>
     </row>
-    <row r="69" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -21382,7 +21490,7 @@
       <c r="AM69" s="15"/>
       <c r="AN69" s="30"/>
     </row>
-    <row r="70" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -21454,7 +21562,7 @@
       <c r="AM70" s="15"/>
       <c r="AN70" s="30"/>
     </row>
-    <row r="71" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -21526,7 +21634,7 @@
       <c r="AM71" s="15"/>
       <c r="AN71" s="30"/>
     </row>
-    <row r="72" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -21596,7 +21704,7 @@
       <c r="AM72" s="15"/>
       <c r="AN72" s="30"/>
     </row>
-    <row r="73" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -21662,7 +21770,7 @@
       <c r="AM73" s="15"/>
       <c r="AN73" s="30"/>
     </row>
-    <row r="74" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -21732,7 +21840,7 @@
       <c r="AM74" s="15"/>
       <c r="AN74" s="30"/>
     </row>
-    <row r="75" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -21804,7 +21912,7 @@
       <c r="AM75" s="15"/>
       <c r="AN75" s="30"/>
     </row>
-    <row r="76" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -21876,7 +21984,7 @@
       <c r="AM76" s="15"/>
       <c r="AN76" s="30"/>
     </row>
-    <row r="77" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -21948,7 +22056,7 @@
       <c r="AM77" s="15"/>
       <c r="AN77" s="30"/>
     </row>
-    <row r="78" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -22016,7 +22124,7 @@
       <c r="AM78" s="15"/>
       <c r="AN78" s="30"/>
     </row>
-    <row r="79" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -22084,7 +22192,7 @@
       <c r="AM79" s="15"/>
       <c r="AN79" s="30"/>
     </row>
-    <row r="80" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -22154,7 +22262,7 @@
       <c r="AM80" s="15"/>
       <c r="AN80" s="30"/>
     </row>
-    <row r="81" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -22220,7 +22328,7 @@
       <c r="AM81" s="15"/>
       <c r="AN81" s="30"/>
     </row>
-    <row r="82" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -22290,7 +22398,7 @@
       <c r="AM82" s="15"/>
       <c r="AN82" s="30"/>
     </row>
-    <row r="83" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -22358,7 +22466,7 @@
       <c r="AM83" s="15"/>
       <c r="AN83" s="30"/>
     </row>
-    <row r="84" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -22424,7 +22532,7 @@
       <c r="AM84" s="15"/>
       <c r="AN84" s="30"/>
     </row>
-    <row r="85" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -22496,7 +22604,7 @@
       <c r="AM85" s="15"/>
       <c r="AN85" s="30"/>
     </row>
-    <row r="86" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -22568,7 +22676,7 @@
       <c r="AM86" s="15"/>
       <c r="AN86" s="30"/>
     </row>
-    <row r="87" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -22640,7 +22748,7 @@
       <c r="AM87" s="15"/>
       <c r="AN87" s="30"/>
     </row>
-    <row r="88" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -22710,7 +22818,7 @@
       <c r="AM88" s="15"/>
       <c r="AN88" s="30"/>
     </row>
-    <row r="89" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -22782,7 +22890,7 @@
       <c r="AM89" s="15"/>
       <c r="AN89" s="30"/>
     </row>
-    <row r="90" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -22848,7 +22956,7 @@
       <c r="AM90" s="15"/>
       <c r="AN90" s="30"/>
     </row>
-    <row r="91" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -22918,7 +23026,7 @@
       <c r="AM91" s="15"/>
       <c r="AN91" s="30"/>
     </row>
-    <row r="92" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -22988,7 +23096,7 @@
       <c r="AM92" s="15"/>
       <c r="AN92" s="30"/>
     </row>
-    <row r="93" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -23058,7 +23166,7 @@
       <c r="AM93" s="15"/>
       <c r="AN93" s="30"/>
     </row>
-    <row r="94" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -23124,7 +23232,7 @@
       <c r="AM94" s="15"/>
       <c r="AN94" s="30"/>
     </row>
-    <row r="95" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -23194,7 +23302,7 @@
       <c r="AM95" s="15"/>
       <c r="AN95" s="30"/>
     </row>
-    <row r="96" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -23260,7 +23368,7 @@
       <c r="AM96" s="15"/>
       <c r="AN96" s="30"/>
     </row>
-    <row r="97" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -23330,7 +23438,7 @@
       <c r="AM97" s="15"/>
       <c r="AN97" s="30"/>
     </row>
-    <row r="98" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -23396,7 +23504,7 @@
       <c r="AM98" s="15"/>
       <c r="AN98" s="30"/>
     </row>
-    <row r="99" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -23464,7 +23572,7 @@
       <c r="AM99" s="15"/>
       <c r="AN99" s="30"/>
     </row>
-    <row r="100" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -23532,7 +23640,7 @@
       <c r="AM100" s="15"/>
       <c r="AN100" s="30"/>
     </row>
-    <row r="101" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -23604,7 +23712,7 @@
       <c r="AM101" s="15"/>
       <c r="AN101" s="30"/>
     </row>
-    <row r="102" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -23672,7 +23780,7 @@
       <c r="AM102" s="15"/>
       <c r="AN102" s="30"/>
     </row>
-    <row r="103" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -23744,7 +23852,7 @@
       <c r="AM103" s="15"/>
       <c r="AN103" s="30"/>
     </row>
-    <row r="104" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -23816,7 +23924,7 @@
       <c r="AM104" s="15"/>
       <c r="AN104" s="30"/>
     </row>
-    <row r="105" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -23884,7 +23992,7 @@
       <c r="AM105" s="15"/>
       <c r="AN105" s="30"/>
     </row>
-    <row r="106" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -23952,7 +24060,7 @@
       <c r="AM106" s="15"/>
       <c r="AN106" s="30"/>
     </row>
-    <row r="107" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -24024,7 +24132,7 @@
       <c r="AM107" s="15"/>
       <c r="AN107" s="30"/>
     </row>
-    <row r="108" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -24092,7 +24200,7 @@
       <c r="AM108" s="15"/>
       <c r="AN108" s="30"/>
     </row>
-    <row r="109" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -24162,7 +24270,7 @@
       <c r="AM109" s="15"/>
       <c r="AN109" s="30"/>
     </row>
-    <row r="110" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -24228,7 +24336,7 @@
       <c r="AM110" s="15"/>
       <c r="AN110" s="30"/>
     </row>
-    <row r="111" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -24298,7 +24406,7 @@
       <c r="AM111" s="15"/>
       <c r="AN111" s="30"/>
     </row>
-    <row r="112" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -24364,7 +24472,7 @@
       <c r="AM112" s="15"/>
       <c r="AN112" s="30"/>
     </row>
-    <row r="113" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -24432,7 +24540,7 @@
       <c r="AM113" s="15"/>
       <c r="AN113" s="30"/>
     </row>
-    <row r="114" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -24498,7 +24606,7 @@
       <c r="AM114" s="15"/>
       <c r="AN114" s="30"/>
     </row>
-    <row r="115" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -24570,7 +24678,7 @@
       <c r="AM115" s="15"/>
       <c r="AN115" s="30"/>
     </row>
-    <row r="116" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -24636,7 +24744,7 @@
       <c r="AM116" s="15"/>
       <c r="AN116" s="30"/>
     </row>
-    <row r="117" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -24706,7 +24814,7 @@
       <c r="AM117" s="15"/>
       <c r="AN117" s="30"/>
     </row>
-    <row r="118" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -24778,7 +24886,7 @@
       <c r="AM118" s="15"/>
       <c r="AN118" s="30"/>
     </row>
-    <row r="119" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -24848,7 +24956,7 @@
       <c r="AM119" s="15"/>
       <c r="AN119" s="30"/>
     </row>
-    <row r="120" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -24918,7 +25026,7 @@
       <c r="AM120" s="15"/>
       <c r="AN120" s="30"/>
     </row>
-    <row r="121" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
@@ -24986,7 +25094,7 @@
       <c r="AM121" s="15"/>
       <c r="AN121" s="30"/>
     </row>
-    <row r="122" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -25058,7 +25166,7 @@
       <c r="AM122" s="15"/>
       <c r="AN122" s="30"/>
     </row>
-    <row r="123" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -25124,7 +25232,7 @@
       <c r="AM123" s="15"/>
       <c r="AN123" s="30"/>
     </row>
-    <row r="124" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -25190,7 +25298,7 @@
       <c r="AM124" s="15"/>
       <c r="AN124" s="30"/>
     </row>
-    <row r="125" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
@@ -25258,7 +25366,7 @@
       <c r="AM125" s="15"/>
       <c r="AN125" s="30"/>
     </row>
-    <row r="126" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
@@ -25326,7 +25434,7 @@
       <c r="AM126" s="15"/>
       <c r="AN126" s="30"/>
     </row>
-    <row r="127" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
@@ -25396,7 +25504,7 @@
       <c r="AM127" s="15"/>
       <c r="AN127" s="30"/>
     </row>
-    <row r="128" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -25466,7 +25574,7 @@
       <c r="AM128" s="15"/>
       <c r="AN128" s="30"/>
     </row>
-    <row r="129" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
@@ -25534,7 +25642,7 @@
       <c r="AM129" s="15"/>
       <c r="AN129" s="30"/>
     </row>
-    <row r="130" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
@@ -25604,7 +25712,7 @@
       <c r="AM130" s="15"/>
       <c r="AN130" s="30"/>
     </row>
-    <row r="131" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
@@ -25670,7 +25778,7 @@
       <c r="AM131" s="15"/>
       <c r="AN131" s="30"/>
     </row>
-    <row r="132" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
@@ -25742,7 +25850,7 @@
       <c r="AM132" s="15"/>
       <c r="AN132" s="30"/>
     </row>
-    <row r="133" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
@@ -25814,7 +25922,7 @@
       <c r="AM133" s="15"/>
       <c r="AN133" s="30"/>
     </row>
-    <row r="134" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
@@ -25882,7 +25990,7 @@
       <c r="AM134" s="15"/>
       <c r="AN134" s="30"/>
     </row>
-    <row r="135" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -25950,7 +26058,7 @@
       <c r="AM135" s="15"/>
       <c r="AN135" s="30"/>
     </row>
-    <row r="136" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
@@ -26022,7 +26130,7 @@
       <c r="AM136" s="15"/>
       <c r="AN136" s="30"/>
     </row>
-    <row r="137" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
@@ -26088,7 +26196,7 @@
       <c r="AM137" s="15"/>
       <c r="AN137" s="30"/>
     </row>
-    <row r="138" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
@@ -26154,7 +26262,7 @@
       <c r="AM138" s="15"/>
       <c r="AN138" s="30"/>
     </row>
-    <row r="139" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -26222,7 +26330,7 @@
       <c r="AM139" s="15"/>
       <c r="AN139" s="30"/>
     </row>
-    <row r="140" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
@@ -26288,7 +26396,7 @@
       <c r="AM140" s="15"/>
       <c r="AN140" s="30"/>
     </row>
-    <row r="141" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
@@ -26360,7 +26468,7 @@
       <c r="AM141" s="15"/>
       <c r="AN141" s="30"/>
     </row>
-    <row r="142" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
@@ -26426,7 +26534,7 @@
       <c r="AM142" s="15"/>
       <c r="AN142" s="30"/>
     </row>
-    <row r="143" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
@@ -26498,7 +26606,7 @@
       <c r="AM143" s="15"/>
       <c r="AN143" s="30"/>
     </row>
-    <row r="144" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
@@ -26568,7 +26676,7 @@
       <c r="AM144" s="15"/>
       <c r="AN144" s="30"/>
     </row>
-    <row r="145" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
@@ -26636,7 +26744,7 @@
       <c r="AM145" s="15"/>
       <c r="AN145" s="30"/>
     </row>
-    <row r="146" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
@@ -26706,7 +26814,7 @@
       <c r="AM146" s="15"/>
       <c r="AN146" s="30"/>
     </row>
-    <row r="147" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
@@ -26776,7 +26884,7 @@
       <c r="AM147" s="15"/>
       <c r="AN147" s="30"/>
     </row>
-    <row r="148" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
@@ -26842,7 +26950,7 @@
       <c r="AM148" s="15"/>
       <c r="AN148" s="30"/>
     </row>
-    <row r="149" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
@@ -26914,7 +27022,7 @@
       <c r="AM149" s="15"/>
       <c r="AN149" s="30"/>
     </row>
-    <row r="150" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
@@ -26984,7 +27092,7 @@
       <c r="AM150" s="15"/>
       <c r="AN150" s="30"/>
     </row>
-    <row r="151" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
@@ -27054,7 +27162,7 @@
       <c r="AM151" s="15"/>
       <c r="AN151" s="30"/>
     </row>
-    <row r="152" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
@@ -27124,7 +27232,7 @@
       <c r="AM152" s="15"/>
       <c r="AN152" s="30"/>
     </row>
-    <row r="153" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
@@ -27196,7 +27304,7 @@
       <c r="AM153" s="15"/>
       <c r="AN153" s="30"/>
     </row>
-    <row r="154" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
@@ -27268,7 +27376,7 @@
       <c r="AM154" s="15"/>
       <c r="AN154" s="30"/>
     </row>
-    <row r="155" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
@@ -27334,7 +27442,7 @@
       <c r="AM155" s="15"/>
       <c r="AN155" s="30"/>
     </row>
-    <row r="156" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
@@ -27400,7 +27508,7 @@
       <c r="AM156" s="15"/>
       <c r="AN156" s="30"/>
     </row>
-    <row r="157" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
@@ -27472,7 +27580,7 @@
       <c r="AM157" s="15"/>
       <c r="AN157" s="30"/>
     </row>
-    <row r="158" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
@@ -27542,7 +27650,7 @@
       <c r="AM158" s="15"/>
       <c r="AN158" s="30"/>
     </row>
-    <row r="159" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
@@ -27608,7 +27716,7 @@
       <c r="AM159" s="15"/>
       <c r="AN159" s="30"/>
     </row>
-    <row r="160" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
@@ -27676,7 +27784,7 @@
       <c r="AM160" s="15"/>
       <c r="AN160" s="30"/>
     </row>
-    <row r="161" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
@@ -27744,7 +27852,7 @@
       <c r="AM161" s="15"/>
       <c r="AN161" s="30"/>
     </row>
-    <row r="162" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
@@ -27810,7 +27918,7 @@
       <c r="AM162" s="15"/>
       <c r="AN162" s="30"/>
     </row>
-    <row r="163" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
@@ -27864,7 +27972,7 @@
       <c r="AM163" s="15"/>
       <c r="AN163" s="30"/>
     </row>
-    <row r="164" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
@@ -27918,7 +28026,7 @@
       <c r="AM164" s="15"/>
       <c r="AN164" s="30"/>
     </row>
-    <row r="165" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
@@ -27972,7 +28080,7 @@
       <c r="AM165" s="15"/>
       <c r="AN165" s="30"/>
     </row>
-    <row r="166" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
@@ -28026,7 +28134,7 @@
       <c r="AM166" s="15"/>
       <c r="AN166" s="30"/>
     </row>
-    <row r="167" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
@@ -28080,7 +28188,7 @@
       <c r="AM167" s="15"/>
       <c r="AN167" s="30"/>
     </row>
-    <row r="168" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
@@ -28134,7 +28242,7 @@
       <c r="AM168" s="15"/>
       <c r="AN168" s="30"/>
     </row>
-    <row r="169" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -28188,7 +28296,7 @@
       <c r="AM169" s="15"/>
       <c r="AN169" s="30"/>
     </row>
-    <row r="170" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
@@ -28242,7 +28350,7 @@
       <c r="AM170" s="15"/>
       <c r="AN170" s="30"/>
     </row>
-    <row r="171" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -28296,7 +28404,7 @@
       <c r="AM171" s="15"/>
       <c r="AN171" s="30"/>
     </row>
-    <row r="172" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -28350,7 +28458,7 @@
       <c r="AM172" s="15"/>
       <c r="AN172" s="30"/>
     </row>
-    <row r="173" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
@@ -28404,7 +28512,7 @@
       <c r="AM173" s="15"/>
       <c r="AN173" s="30"/>
     </row>
-    <row r="174" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
@@ -28458,7 +28566,7 @@
       <c r="AM174" s="15"/>
       <c r="AN174" s="30"/>
     </row>
-    <row r="175" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -28512,7 +28620,7 @@
       <c r="AM175" s="15"/>
       <c r="AN175" s="30"/>
     </row>
-    <row r="176" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -28566,7 +28674,7 @@
       <c r="AM176" s="15"/>
       <c r="AN176" s="30"/>
     </row>
-    <row r="177" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
@@ -28620,7 +28728,7 @@
       <c r="AM177" s="15"/>
       <c r="AN177" s="30"/>
     </row>
-    <row r="178" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
@@ -28674,7 +28782,7 @@
       <c r="AM178" s="15"/>
       <c r="AN178" s="30"/>
     </row>
-    <row r="179" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
@@ -28728,7 +28836,7 @@
       <c r="AM179" s="15"/>
       <c r="AN179" s="30"/>
     </row>
-    <row r="180" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
@@ -28782,7 +28890,7 @@
       <c r="AM180" s="15"/>
       <c r="AN180" s="30"/>
     </row>
-    <row r="181" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
@@ -28836,7 +28944,7 @@
       <c r="AM181" s="15"/>
       <c r="AN181" s="30"/>
     </row>
-    <row r="182" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
@@ -28890,7 +28998,7 @@
       <c r="AM182" s="15"/>
       <c r="AN182" s="30"/>
     </row>
-    <row r="183" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
@@ -28944,7 +29052,7 @@
       <c r="AM183" s="15"/>
       <c r="AN183" s="30"/>
     </row>
-    <row r="184" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -28998,7 +29106,7 @@
       <c r="AM184" s="15"/>
       <c r="AN184" s="30"/>
     </row>
-    <row r="185" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
@@ -29052,7 +29160,7 @@
       <c r="AM185" s="15"/>
       <c r="AN185" s="30"/>
     </row>
-    <row r="186" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
@@ -29106,7 +29214,7 @@
       <c r="AM186" s="15"/>
       <c r="AN186" s="30"/>
     </row>
-    <row r="187" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
@@ -29160,7 +29268,7 @@
       <c r="AM187" s="15"/>
       <c r="AN187" s="30"/>
     </row>
-    <row r="188" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -29214,7 +29322,7 @@
       <c r="AM188" s="15"/>
       <c r="AN188" s="30"/>
     </row>
-    <row r="189" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
@@ -29268,7 +29376,7 @@
       <c r="AM189" s="15"/>
       <c r="AN189" s="30"/>
     </row>
-    <row r="190" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
@@ -29322,7 +29430,7 @@
       <c r="AM190" s="15"/>
       <c r="AN190" s="30"/>
     </row>
-    <row r="191" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -29376,7 +29484,7 @@
       <c r="AM191" s="15"/>
       <c r="AN191" s="30"/>
     </row>
-    <row r="192" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
@@ -29430,7 +29538,7 @@
       <c r="AM192" s="15"/>
       <c r="AN192" s="30"/>
     </row>
-    <row r="193" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
@@ -29484,7 +29592,7 @@
       <c r="AM193" s="15"/>
       <c r="AN193" s="30"/>
     </row>
-    <row r="194" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
@@ -29538,7 +29646,7 @@
       <c r="AM194" s="15"/>
       <c r="AN194" s="30"/>
     </row>
-    <row r="195" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
@@ -29592,7 +29700,7 @@
       <c r="AM195" s="15"/>
       <c r="AN195" s="30"/>
     </row>
-    <row r="196" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
@@ -29646,7 +29754,7 @@
       <c r="AM196" s="15"/>
       <c r="AN196" s="30"/>
     </row>
-    <row r="197" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
@@ -29700,7 +29808,7 @@
       <c r="AM197" s="15"/>
       <c r="AN197" s="30"/>
     </row>
-    <row r="198" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
@@ -29754,7 +29862,7 @@
       <c r="AM198" s="15"/>
       <c r="AN198" s="30"/>
     </row>
-    <row r="199" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
@@ -29808,7 +29916,7 @@
       <c r="AM199" s="15"/>
       <c r="AN199" s="30"/>
     </row>
-    <row r="200" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
@@ -29862,7 +29970,7 @@
       <c r="AM200" s="15"/>
       <c r="AN200" s="30"/>
     </row>
-    <row r="201" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
@@ -29916,7 +30024,7 @@
       <c r="AM201" s="15"/>
       <c r="AN201" s="30"/>
     </row>
-    <row r="202" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
@@ -29970,7 +30078,7 @@
       <c r="AM202" s="15"/>
       <c r="AN202" s="30"/>
     </row>
-    <row r="203" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
@@ -30024,7 +30132,7 @@
       <c r="AM203" s="15"/>
       <c r="AN203" s="30"/>
     </row>
-    <row r="204" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
@@ -30078,7 +30186,7 @@
       <c r="AM204" s="15"/>
       <c r="AN204" s="30"/>
     </row>
-    <row r="205" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
@@ -30132,7 +30240,7 @@
       <c r="AM205" s="15"/>
       <c r="AN205" s="30"/>
     </row>
-    <row r="206" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
@@ -30186,7 +30294,7 @@
       <c r="AM206" s="15"/>
       <c r="AN206" s="30"/>
     </row>
-    <row r="207" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
@@ -30240,7 +30348,7 @@
       <c r="AM207" s="15"/>
       <c r="AN207" s="30"/>
     </row>
-    <row r="208" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
@@ -30294,7 +30402,7 @@
       <c r="AM208" s="15"/>
       <c r="AN208" s="30"/>
     </row>
-    <row r="209" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
@@ -30348,7 +30456,7 @@
       <c r="AM209" s="15"/>
       <c r="AN209" s="30"/>
     </row>
-    <row r="210" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
@@ -30402,7 +30510,7 @@
       <c r="AM210" s="15"/>
       <c r="AN210" s="30"/>
     </row>
-    <row r="211" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
@@ -30456,7 +30564,7 @@
       <c r="AM211" s="15"/>
       <c r="AN211" s="30"/>
     </row>
-    <row r="212" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
@@ -30510,7 +30618,7 @@
       <c r="AM212" s="15"/>
       <c r="AN212" s="30"/>
     </row>
-    <row r="213" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
@@ -30564,7 +30672,7 @@
       <c r="AM213" s="15"/>
       <c r="AN213" s="30"/>
     </row>
-    <row r="214" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
@@ -30618,7 +30726,7 @@
       <c r="AM214" s="15"/>
       <c r="AN214" s="30"/>
     </row>
-    <row r="215" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
@@ -30672,7 +30780,7 @@
       <c r="AM215" s="15"/>
       <c r="AN215" s="30"/>
     </row>
-    <row r="216" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
@@ -30726,7 +30834,7 @@
       <c r="AM216" s="15"/>
       <c r="AN216" s="30"/>
     </row>
-    <row r="217" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
@@ -30780,7 +30888,7 @@
       <c r="AM217" s="15"/>
       <c r="AN217" s="30"/>
     </row>
-    <row r="218" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
@@ -30834,7 +30942,7 @@
       <c r="AM218" s="15"/>
       <c r="AN218" s="30"/>
     </row>
-    <row r="219" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
@@ -30888,7 +30996,7 @@
       <c r="AM219" s="15"/>
       <c r="AN219" s="30"/>
     </row>
-    <row r="220" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
@@ -30942,7 +31050,7 @@
       <c r="AM220" s="15"/>
       <c r="AN220" s="30"/>
     </row>
-    <row r="221" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
@@ -30996,7 +31104,7 @@
       <c r="AM221" s="15"/>
       <c r="AN221" s="30"/>
     </row>
-    <row r="222" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
@@ -31050,7 +31158,7 @@
       <c r="AM222" s="15"/>
       <c r="AN222" s="30"/>
     </row>
-    <row r="223" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
@@ -31104,7 +31212,7 @@
       <c r="AM223" s="15"/>
       <c r="AN223" s="30"/>
     </row>
-    <row r="224" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
@@ -31158,7 +31266,7 @@
       <c r="AM224" s="15"/>
       <c r="AN224" s="30"/>
     </row>
-    <row r="225" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
@@ -31212,7 +31320,7 @@
       <c r="AM225" s="15"/>
       <c r="AN225" s="30"/>
     </row>
-    <row r="226" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
@@ -31266,7 +31374,7 @@
       <c r="AM226" s="15"/>
       <c r="AN226" s="30"/>
     </row>
-    <row r="227" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
@@ -31320,7 +31428,7 @@
       <c r="AM227" s="15"/>
       <c r="AN227" s="30"/>
     </row>
-    <row r="228" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
@@ -31374,7 +31482,7 @@
       <c r="AM228" s="15"/>
       <c r="AN228" s="30"/>
     </row>
-    <row r="229" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
@@ -31428,7 +31536,7 @@
       <c r="AM229" s="15"/>
       <c r="AN229" s="30"/>
     </row>
-    <row r="230" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
@@ -31482,7 +31590,7 @@
       <c r="AM230" s="15"/>
       <c r="AN230" s="30"/>
     </row>
-    <row r="231" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
@@ -31536,7 +31644,7 @@
       <c r="AM231" s="15"/>
       <c r="AN231" s="30"/>
     </row>
-    <row r="232" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
@@ -31590,7 +31698,7 @@
       <c r="AM232" s="15"/>
       <c r="AN232" s="30"/>
     </row>
-    <row r="233" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
@@ -31644,7 +31752,7 @@
       <c r="AM233" s="15"/>
       <c r="AN233" s="30"/>
     </row>
-    <row r="234" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="C234" s="6"/>
@@ -31698,7 +31806,7 @@
       <c r="AM234" s="15"/>
       <c r="AN234" s="30"/>
     </row>
-    <row r="235" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
@@ -31752,7 +31860,7 @@
       <c r="AM235" s="15"/>
       <c r="AN235" s="30"/>
     </row>
-    <row r="236" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
@@ -31806,7 +31914,7 @@
       <c r="AM236" s="15"/>
       <c r="AN236" s="30"/>
     </row>
-    <row r="237" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
@@ -31860,7 +31968,7 @@
       <c r="AM237" s="15"/>
       <c r="AN237" s="30"/>
     </row>
-    <row r="238" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
@@ -31914,7 +32022,7 @@
       <c r="AM238" s="15"/>
       <c r="AN238" s="30"/>
     </row>
-    <row r="239" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
@@ -31968,7 +32076,7 @@
       <c r="AM239" s="15"/>
       <c r="AN239" s="30"/>
     </row>
-    <row r="240" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
@@ -32022,7 +32130,7 @@
       <c r="AM240" s="15"/>
       <c r="AN240" s="30"/>
     </row>
-    <row r="241" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
@@ -32076,7 +32184,7 @@
       <c r="AM241" s="15"/>
       <c r="AN241" s="30"/>
     </row>
-    <row r="242" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
@@ -32130,7 +32238,7 @@
       <c r="AM242" s="15"/>
       <c r="AN242" s="30"/>
     </row>
-    <row r="243" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A243" s="6"/>
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
@@ -32184,7 +32292,7 @@
       <c r="AM243" s="15"/>
       <c r="AN243" s="30"/>
     </row>
-    <row r="244" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
@@ -32238,7 +32346,7 @@
       <c r="AM244" s="15"/>
       <c r="AN244" s="30"/>
     </row>
-    <row r="245" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
@@ -32292,7 +32400,7 @@
       <c r="AM245" s="15"/>
       <c r="AN245" s="30"/>
     </row>
-    <row r="246" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
@@ -32346,7 +32454,7 @@
       <c r="AM246" s="15"/>
       <c r="AN246" s="30"/>
     </row>
-    <row r="247" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
@@ -32400,7 +32508,7 @@
       <c r="AM247" s="15"/>
       <c r="AN247" s="30"/>
     </row>
-    <row r="248" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
@@ -32454,7 +32562,7 @@
       <c r="AM248" s="15"/>
       <c r="AN248" s="30"/>
     </row>
-    <row r="249" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
@@ -32508,7 +32616,7 @@
       <c r="AM249" s="15"/>
       <c r="AN249" s="30"/>
     </row>
-    <row r="250" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
@@ -32562,7 +32670,7 @@
       <c r="AM250" s="15"/>
       <c r="AN250" s="30"/>
     </row>
-    <row r="251" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="C251" s="6"/>
@@ -32616,7 +32724,7 @@
       <c r="AM251" s="15"/>
       <c r="AN251" s="30"/>
     </row>
-    <row r="252" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
       <c r="C252" s="6"/>
@@ -32670,7 +32778,7 @@
       <c r="AM252" s="15"/>
       <c r="AN252" s="30"/>
     </row>
-    <row r="253" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
@@ -32724,7 +32832,7 @@
       <c r="AM253" s="15"/>
       <c r="AN253" s="30"/>
     </row>
-    <row r="254" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
       <c r="C254" s="6"/>
@@ -32778,7 +32886,7 @@
       <c r="AM254" s="15"/>
       <c r="AN254" s="30"/>
     </row>
-    <row r="255" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="C255" s="6"/>
@@ -32832,7 +32940,7 @@
       <c r="AM255" s="15"/>
       <c r="AN255" s="30"/>
     </row>
-    <row r="256" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
@@ -32886,7 +32994,7 @@
       <c r="AM256" s="15"/>
       <c r="AN256" s="30"/>
     </row>
-    <row r="257" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
       <c r="C257" s="6"/>
@@ -32940,7 +33048,7 @@
       <c r="AM257" s="15"/>
       <c r="AN257" s="30"/>
     </row>
-    <row r="258" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="C258" s="6"/>
@@ -32994,7 +33102,7 @@
       <c r="AM258" s="15"/>
       <c r="AN258" s="30"/>
     </row>
-    <row r="259" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A259" s="6"/>
       <c r="B259" s="6"/>
       <c r="C259" s="6"/>
@@ -33048,7 +33156,7 @@
       <c r="AM259" s="15"/>
       <c r="AN259" s="30"/>
     </row>
-    <row r="260" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="C260" s="6"/>
@@ -33102,7 +33210,7 @@
       <c r="AM260" s="15"/>
       <c r="AN260" s="30"/>
     </row>
-    <row r="261" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
       <c r="C261" s="6"/>
@@ -33156,7 +33264,7 @@
       <c r="AM261" s="15"/>
       <c r="AN261" s="30"/>
     </row>
-    <row r="262" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="C262" s="6"/>
@@ -33210,7 +33318,7 @@
       <c r="AM262" s="15"/>
       <c r="AN262" s="30"/>
     </row>
-    <row r="263" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="6"/>
@@ -33264,7 +33372,7 @@
       <c r="AM263" s="15"/>
       <c r="AN263" s="30"/>
     </row>
-    <row r="264" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="C264" s="6"/>
@@ -33318,7 +33426,7 @@
       <c r="AM264" s="15"/>
       <c r="AN264" s="30"/>
     </row>
-    <row r="265" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="6"/>
@@ -33372,7 +33480,7 @@
       <c r="AM265" s="15"/>
       <c r="AN265" s="30"/>
     </row>
-    <row r="266" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="C266" s="6"/>
@@ -33426,7 +33534,7 @@
       <c r="AM266" s="15"/>
       <c r="AN266" s="30"/>
     </row>
-    <row r="267" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
@@ -33480,7 +33588,7 @@
       <c r="AM267" s="15"/>
       <c r="AN267" s="30"/>
     </row>
-    <row r="268" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
@@ -33534,7 +33642,7 @@
       <c r="AM268" s="15"/>
       <c r="AN268" s="30"/>
     </row>
-    <row r="269" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="6"/>
@@ -33588,7 +33696,7 @@
       <c r="AM269" s="15"/>
       <c r="AN269" s="30"/>
     </row>
-    <row r="270" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="6"/>
@@ -33642,7 +33750,7 @@
       <c r="AM270" s="15"/>
       <c r="AN270" s="30"/>
     </row>
-    <row r="271" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
       <c r="C271" s="6"/>
@@ -33696,7 +33804,7 @@
       <c r="AM271" s="15"/>
       <c r="AN271" s="30"/>
     </row>
-    <row r="272" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
@@ -33750,7 +33858,7 @@
       <c r="AM272" s="15"/>
       <c r="AN272" s="30"/>
     </row>
-    <row r="273" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
       <c r="C273" s="6"/>
@@ -33804,7 +33912,7 @@
       <c r="AM273" s="15"/>
       <c r="AN273" s="30"/>
     </row>
-    <row r="274" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="C274" s="6"/>
@@ -33858,7 +33966,7 @@
       <c r="AM274" s="15"/>
       <c r="AN274" s="30"/>
     </row>
-    <row r="275" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
       <c r="C275" s="6"/>
@@ -33912,7 +34020,7 @@
       <c r="AM275" s="15"/>
       <c r="AN275" s="30"/>
     </row>
-    <row r="276" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="6"/>
@@ -33966,7 +34074,7 @@
       <c r="AM276" s="15"/>
       <c r="AN276" s="30"/>
     </row>
-    <row r="277" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="6"/>
@@ -34020,7 +34128,7 @@
       <c r="AM277" s="15"/>
       <c r="AN277" s="30"/>
     </row>
-    <row r="278" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
       <c r="C278" s="6"/>
@@ -34074,7 +34182,7 @@
       <c r="AM278" s="15"/>
       <c r="AN278" s="30"/>
     </row>
-    <row r="279" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="C279" s="6"/>
@@ -34128,7 +34236,7 @@
       <c r="AM279" s="15"/>
       <c r="AN279" s="30"/>
     </row>
-    <row r="280" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
       <c r="C280" s="6"/>
@@ -34182,7 +34290,7 @@
       <c r="AM280" s="15"/>
       <c r="AN280" s="30"/>
     </row>
-    <row r="281" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="C281" s="6"/>
@@ -34236,7 +34344,7 @@
       <c r="AM281" s="15"/>
       <c r="AN281" s="30"/>
     </row>
-    <row r="282" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
       <c r="C282" s="6"/>
@@ -34290,7 +34398,7 @@
       <c r="AM282" s="15"/>
       <c r="AN282" s="30"/>
     </row>
-    <row r="283" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="C283" s="6"/>
@@ -34344,7 +34452,7 @@
       <c r="AM283" s="15"/>
       <c r="AN283" s="30"/>
     </row>
-    <row r="284" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="C284" s="6"/>
@@ -34398,7 +34506,7 @@
       <c r="AM284" s="15"/>
       <c r="AN284" s="30"/>
     </row>
-    <row r="285" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
       <c r="C285" s="6"/>
@@ -34452,7 +34560,7 @@
       <c r="AM285" s="15"/>
       <c r="AN285" s="30"/>
     </row>
-    <row r="286" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="C286" s="6"/>
@@ -34506,7 +34614,7 @@
       <c r="AM286" s="15"/>
       <c r="AN286" s="30"/>
     </row>
-    <row r="287" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
       <c r="C287" s="6"/>
@@ -34560,7 +34668,7 @@
       <c r="AM287" s="15"/>
       <c r="AN287" s="30"/>
     </row>
-    <row r="288" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="C288" s="6"/>
@@ -34614,7 +34722,7 @@
       <c r="AM288" s="15"/>
       <c r="AN288" s="30"/>
     </row>
-    <row r="289" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
       <c r="C289" s="6"/>
@@ -34668,7 +34776,7 @@
       <c r="AM289" s="15"/>
       <c r="AN289" s="30"/>
     </row>
-    <row r="290" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="C290" s="6"/>
@@ -34722,7 +34830,7 @@
       <c r="AM290" s="15"/>
       <c r="AN290" s="30"/>
     </row>
-    <row r="291" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
       <c r="C291" s="6"/>
@@ -34776,7 +34884,7 @@
       <c r="AM291" s="15"/>
       <c r="AN291" s="30"/>
     </row>
-    <row r="292" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
       <c r="C292" s="6"/>
@@ -34830,7 +34938,7 @@
       <c r="AM292" s="15"/>
       <c r="AN292" s="30"/>
     </row>
-    <row r="293" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
@@ -34884,7 +34992,7 @@
       <c r="AM293" s="15"/>
       <c r="AN293" s="30"/>
     </row>
-    <row r="294" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
       <c r="C294" s="6"/>
@@ -34938,7 +35046,7 @@
       <c r="AM294" s="15"/>
       <c r="AN294" s="30"/>
     </row>
-    <row r="295" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
       <c r="C295" s="6"/>
@@ -34992,7 +35100,7 @@
       <c r="AM295" s="15"/>
       <c r="AN295" s="30"/>
     </row>
-    <row r="296" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
       <c r="C296" s="6"/>
@@ -35046,7 +35154,7 @@
       <c r="AM296" s="15"/>
       <c r="AN296" s="30"/>
     </row>
-    <row r="297" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
       <c r="C297" s="6"/>
@@ -35100,7 +35208,7 @@
       <c r="AM297" s="15"/>
       <c r="AN297" s="30"/>
     </row>
-    <row r="298" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
       <c r="C298" s="6"/>
@@ -35154,7 +35262,7 @@
       <c r="AM298" s="15"/>
       <c r="AN298" s="30"/>
     </row>
-    <row r="299" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
       <c r="C299" s="6"/>
@@ -35208,7 +35316,7 @@
       <c r="AM299" s="15"/>
       <c r="AN299" s="30"/>
     </row>
-    <row r="300" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
       <c r="C300" s="6"/>
@@ -35262,7 +35370,7 @@
       <c r="AM300" s="15"/>
       <c r="AN300" s="30"/>
     </row>
-    <row r="301" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
       <c r="C301" s="6"/>
@@ -35316,7 +35424,7 @@
       <c r="AM301" s="15"/>
       <c r="AN301" s="30"/>
     </row>
-    <row r="302" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
       <c r="C302" s="6"/>
@@ -35370,7 +35478,7 @@
       <c r="AM302" s="15"/>
       <c r="AN302" s="30"/>
     </row>
-    <row r="303" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
       <c r="C303" s="6"/>
@@ -35424,7 +35532,7 @@
       <c r="AM303" s="15"/>
       <c r="AN303" s="30"/>
     </row>
-    <row r="304" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
       <c r="C304" s="6"/>
@@ -35478,7 +35586,7 @@
       <c r="AM304" s="15"/>
       <c r="AN304" s="30"/>
     </row>
-    <row r="305" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
       <c r="C305" s="6"/>
@@ -35532,7 +35640,7 @@
       <c r="AM305" s="15"/>
       <c r="AN305" s="30"/>
     </row>
-    <row r="306" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
@@ -35586,7 +35694,7 @@
       <c r="AM306" s="15"/>
       <c r="AN306" s="30"/>
     </row>
-    <row r="307" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
@@ -35640,7 +35748,7 @@
       <c r="AM307" s="15"/>
       <c r="AN307" s="30"/>
     </row>
-    <row r="308" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
       <c r="C308" s="6"/>
@@ -35694,7 +35802,7 @@
       <c r="AM308" s="15"/>
       <c r="AN308" s="30"/>
     </row>
-    <row r="309" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
       <c r="C309" s="6"/>
@@ -35748,7 +35856,7 @@
       <c r="AM309" s="15"/>
       <c r="AN309" s="30"/>
     </row>
-    <row r="310" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:40" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
       <c r="C310" s="6"/>
@@ -35802,7 +35910,7 @@
       <c r="AM310" s="15"/>
       <c r="AN310" s="30"/>
     </row>
-    <row r="311" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A311" s="8"/>
       <c r="B311" s="8"/>
       <c r="C311" s="8"/>
@@ -35856,7 +35964,7 @@
       <c r="AM311" s="15"/>
       <c r="AN311" s="30"/>
     </row>
-    <row r="312" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A312" s="8"/>
       <c r="B312" s="8"/>
       <c r="C312" s="8"/>
@@ -35910,7 +36018,7 @@
       <c r="AM312" s="15"/>
       <c r="AN312" s="30"/>
     </row>
-    <row r="313" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A313" s="8"/>
       <c r="B313" s="8"/>
       <c r="C313" s="8"/>
@@ -35964,7 +36072,7 @@
       <c r="AM313" s="15"/>
       <c r="AN313" s="30"/>
     </row>
-    <row r="314" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A314" s="8"/>
       <c r="B314" s="8"/>
       <c r="C314" s="8"/>
@@ -36018,7 +36126,7 @@
       <c r="AM314" s="15"/>
       <c r="AN314" s="30"/>
     </row>
-    <row r="315" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A315" s="8"/>
       <c r="B315" s="8"/>
       <c r="C315" s="8"/>
@@ -36072,7 +36180,7 @@
       <c r="AM315" s="15"/>
       <c r="AN315" s="30"/>
     </row>
-    <row r="316" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A316" s="8"/>
       <c r="B316" s="8"/>
       <c r="C316" s="8"/>
@@ -36113,7 +36221,7 @@
       <c r="AM316" s="15"/>
       <c r="AN316" s="30"/>
     </row>
-    <row r="317" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A317" s="8"/>
       <c r="B317" s="8"/>
       <c r="C317" s="8"/>
@@ -36154,7 +36262,7 @@
       <c r="AM317" s="15"/>
       <c r="AN317" s="30"/>
     </row>
-    <row r="318" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A318" s="8"/>
       <c r="B318" s="8"/>
       <c r="C318" s="8"/>
@@ -36195,7 +36303,7 @@
       <c r="AM318" s="15"/>
       <c r="AN318" s="30"/>
     </row>
-    <row r="319" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A319" s="8"/>
       <c r="B319" s="8"/>
       <c r="C319" s="8"/>
@@ -36236,7 +36344,7 @@
       <c r="AM319" s="15"/>
       <c r="AN319" s="30"/>
     </row>
-    <row r="320" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A320" s="8"/>
       <c r="B320" s="8"/>
       <c r="C320" s="8"/>
@@ -36277,7 +36385,7 @@
       <c r="AM320" s="15"/>
       <c r="AN320" s="30"/>
     </row>
-    <row r="321" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A321" s="8"/>
       <c r="B321" s="8"/>
       <c r="C321" s="8"/>
@@ -36318,7 +36426,7 @@
       <c r="AM321" s="15"/>
       <c r="AN321" s="30"/>
     </row>
-    <row r="322" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A322" s="8"/>
       <c r="B322" s="8"/>
       <c r="C322" s="8"/>
@@ -36359,7 +36467,7 @@
       <c r="AM322" s="15"/>
       <c r="AN322" s="30"/>
     </row>
-    <row r="323" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A323" s="8"/>
       <c r="B323" s="8"/>
       <c r="C323" s="8"/>
@@ -36400,7 +36508,7 @@
       <c r="AM323" s="15"/>
       <c r="AN323" s="30"/>
     </row>
-    <row r="324" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A324" s="8"/>
       <c r="B324" s="8"/>
       <c r="C324" s="8"/>
@@ -36441,7 +36549,7 @@
       <c r="AM324" s="15"/>
       <c r="AN324" s="30"/>
     </row>
-    <row r="325" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A325" s="8"/>
       <c r="B325" s="8"/>
       <c r="C325" s="8"/>
@@ -36482,7 +36590,7 @@
       <c r="AM325" s="15"/>
       <c r="AN325" s="30"/>
     </row>
-    <row r="326" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A326" s="8"/>
       <c r="B326" s="8"/>
       <c r="C326" s="8"/>
@@ -36523,7 +36631,7 @@
       <c r="AM326" s="15"/>
       <c r="AN326" s="30"/>
     </row>
-    <row r="327" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A327" s="8"/>
       <c r="B327" s="8"/>
       <c r="C327" s="8"/>
@@ -36564,7 +36672,7 @@
       <c r="AM327" s="15"/>
       <c r="AN327" s="30"/>
     </row>
-    <row r="328" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A328" s="8"/>
       <c r="B328" s="8"/>
       <c r="C328" s="8"/>
@@ -36605,7 +36713,7 @@
       <c r="AM328" s="15"/>
       <c r="AN328" s="30"/>
     </row>
-    <row r="329" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A329" s="8"/>
       <c r="B329" s="8"/>
       <c r="C329" s="8"/>
@@ -36646,7 +36754,7 @@
       <c r="AM329" s="15"/>
       <c r="AN329" s="30"/>
     </row>
-    <row r="330" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A330" s="8"/>
       <c r="B330" s="8"/>
       <c r="C330" s="8"/>
@@ -36687,7 +36795,7 @@
       <c r="AM330" s="15"/>
       <c r="AN330" s="30"/>
     </row>
-    <row r="331" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A331" s="8"/>
       <c r="B331" s="8"/>
       <c r="C331" s="8"/>
@@ -36728,7 +36836,7 @@
       <c r="AM331" s="15"/>
       <c r="AN331" s="30"/>
     </row>
-    <row r="332" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A332" s="8"/>
       <c r="B332" s="8"/>
       <c r="C332" s="8"/>
@@ -36769,7 +36877,7 @@
       <c r="AM332" s="15"/>
       <c r="AN332" s="30"/>
     </row>
-    <row r="333" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A333" s="8"/>
       <c r="B333" s="8"/>
       <c r="C333" s="8"/>
@@ -36810,7 +36918,7 @@
       <c r="AM333" s="15"/>
       <c r="AN333" s="30"/>
     </row>
-    <row r="334" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A334" s="8"/>
       <c r="B334" s="8"/>
       <c r="C334" s="8"/>
@@ -36851,7 +36959,7 @@
       <c r="AM334" s="15"/>
       <c r="AN334" s="30"/>
     </row>
-    <row r="335" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A335" s="8"/>
       <c r="B335" s="8"/>
       <c r="C335" s="8"/>
@@ -36892,7 +37000,7 @@
       <c r="AM335" s="15"/>
       <c r="AN335" s="30"/>
     </row>
-    <row r="336" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A336" s="8"/>
       <c r="B336" s="8"/>
       <c r="C336" s="8"/>
@@ -36933,7 +37041,7 @@
       <c r="AM336" s="15"/>
       <c r="AN336" s="30"/>
     </row>
-    <row r="337" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A337" s="8"/>
       <c r="B337" s="8"/>
       <c r="C337" s="8"/>
@@ -36974,7 +37082,7 @@
       <c r="AM337" s="15"/>
       <c r="AN337" s="30"/>
     </row>
-    <row r="338" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A338" s="8"/>
       <c r="B338" s="8"/>
       <c r="C338" s="8"/>
@@ -37015,7 +37123,7 @@
       <c r="AM338" s="15"/>
       <c r="AN338" s="30"/>
     </row>
-    <row r="339" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A339" s="8"/>
       <c r="B339" s="8"/>
       <c r="C339" s="8"/>
@@ -37056,7 +37164,7 @@
       <c r="AM339" s="15"/>
       <c r="AN339" s="30"/>
     </row>
-    <row r="340" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
       <c r="A340" s="8"/>
       <c r="B340" s="8"/>
       <c r="C340" s="8"/>
@@ -37097,16 +37205,16 @@
       <c r="AM340" s="15"/>
       <c r="AN340" s="30"/>
     </row>
-    <row r="341" spans="1:40" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:40" ht="18.75">
       <c r="Q341" s="8"/>
     </row>
-    <row r="342" spans="1:40" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:40" ht="18.75">
       <c r="Q342" s="8"/>
     </row>
-    <row r="343" spans="1:40" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:40" ht="18.75">
       <c r="Q343" s="8"/>
     </row>
-    <row r="344" spans="1:40" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:40" ht="18.75">
       <c r="Q344" s="8"/>
     </row>
   </sheetData>
@@ -37127,16 +37235,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6CF321-9E04-432C-B74A-785CBBCC1526}">
   <dimension ref="A1:AW157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AW147" sqref="AW147"/>
+    <sheetView tabSelected="1" topLeftCell="AL94" workbookViewId="0">
+      <selection activeCell="AW118" sqref="AW118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="23.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="22" max="22" width="100.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" s="21" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -37279,7 +37387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:49" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" s="21" customFormat="1" ht="23.25" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>15</v>
       </c>
@@ -37422,7 +37530,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:49" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" s="21" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="19" t="str">
         <f t="shared" ref="A3:AU3" si="0">_xlfn.TEXTJOIN(" ", TRUE, LOWER(A1), LOWER(A2))</f>
         <v>vjdbv0.3 field id</v>
@@ -37612,7 +37720,7 @@
         <v>vjdbv0.3 name</v>
       </c>
     </row>
-    <row r="4" spans="1:49" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" s="21" customFormat="1" ht="23.25" customHeight="1">
       <c r="A4" s="19" t="str">
         <f t="shared" ref="A4:AU4" si="1">SUBSTITUTE(A3, " ", "_")</f>
         <v>vjdbv0.3_field_id</v>
@@ -37802,7 +37910,7 @@
         <v>vjdbv0.3_name</v>
       </c>
     </row>
-    <row r="5" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="41" t="s">
         <v>48</v>
       </c>
@@ -37908,10 +38016,10 @@
         <v>54</v>
       </c>
       <c r="AW5" s="43" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="6" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1">
       <c r="A6" s="41" t="s">
         <v>65</v>
       </c>
@@ -38023,10 +38131,10 @@
         <v>70</v>
       </c>
       <c r="AW6" s="43" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="7" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1">
       <c r="A7" s="41" t="s">
         <v>76</v>
       </c>
@@ -38128,13 +38236,13 @@
         <v>77</v>
       </c>
       <c r="AV7" s="43" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="AW7" s="43" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="8" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1">
       <c r="A8" s="41" t="s">
         <v>87</v>
       </c>
@@ -38240,10 +38348,10 @@
         <v>88</v>
       </c>
       <c r="AV8" s="43" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="9" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>98</v>
       </c>
@@ -38364,8 +38472,14 @@
       <c r="AU9" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="10" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV9" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AW9" s="4" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>115</v>
       </c>
@@ -38484,8 +38598,11 @@
       <c r="AU10" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="11" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AV10" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
       <c r="A11" s="38" t="s">
         <v>131</v>
       </c>
@@ -38582,8 +38699,11 @@
       <c r="AU11" s="38" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="12" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AW11" s="40" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>142</v>
       </c>
@@ -38669,7 +38789,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1">
       <c r="A13" s="41" t="s">
         <v>149</v>
       </c>
@@ -38751,10 +38871,10 @@
         <v>150</v>
       </c>
       <c r="AV13" s="41" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="14" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1">
       <c r="A14" s="41" t="s">
         <v>157</v>
       </c>
@@ -38848,10 +38968,10 @@
         <v>158</v>
       </c>
       <c r="AV14" s="41" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="15" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
       <c r="A15" s="38" t="s">
         <v>165</v>
       </c>
@@ -38944,7 +39064,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="16" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
       <c r="A16" s="38" t="s">
         <v>172</v>
       </c>
@@ -39041,8 +39161,11 @@
       <c r="AU16" s="38" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="17" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AW16" s="40" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="17" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>178</v>
       </c>
@@ -39135,8 +39258,11 @@
       <c r="AU17" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="18" spans="1:49" s="47" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV17" s="4" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="18" spans="1:49" s="47" customFormat="1" ht="23.25" customHeight="1">
       <c r="A18" s="45" t="s">
         <v>187</v>
       </c>
@@ -39244,7 +39370,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1">
       <c r="A19" s="41" t="s">
         <v>193</v>
       </c>
@@ -39361,7 +39487,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:49" s="51" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49" s="51" customFormat="1" ht="23.25" customHeight="1">
       <c r="A20" s="48"/>
       <c r="B20" s="48"/>
       <c r="C20" s="48"/>
@@ -39423,7 +39549,7 @@
       <c r="AT20" s="48"/>
       <c r="AU20" s="48"/>
     </row>
-    <row r="21" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
       <c r="A21" s="38" t="s">
         <v>208</v>
       </c>
@@ -39524,8 +39650,11 @@
       <c r="AU21" s="38" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="22" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AW21" s="40" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="22" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
       <c r="A22" s="38" t="s">
         <v>215</v>
       </c>
@@ -39622,11 +39751,14 @@
       <c r="AU22" s="38" t="s">
         <v>216</v>
       </c>
+      <c r="AV22" s="40" t="s">
+        <v>218</v>
+      </c>
       <c r="AW22" s="40" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="23" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="23" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
       <c r="A23" s="38" t="s">
         <v>224</v>
       </c>
@@ -39720,10 +39852,10 @@
         <v>225</v>
       </c>
       <c r="AW23" s="40" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="24" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="24" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
       <c r="A24" s="38" t="s">
         <v>231</v>
       </c>
@@ -39810,8 +39942,11 @@
       <c r="AU24" s="38" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="25" spans="1:49" s="47" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AV24" s="40" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="25" spans="1:49" s="47" customFormat="1" ht="23.25" customHeight="1">
       <c r="A25" s="45" t="s">
         <v>238</v>
       </c>
@@ -39897,10 +40032,10 @@
         <v>239</v>
       </c>
       <c r="AW25" s="47" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="26" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="26" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>243</v>
       </c>
@@ -39992,7 +40127,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="27" spans="1:49" s="51" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:49" s="51" customFormat="1" ht="23.25" customHeight="1">
       <c r="A27" s="48"/>
       <c r="B27" s="48"/>
       <c r="C27" s="48"/>
@@ -40057,8 +40192,11 @@
       <c r="AQ27" s="48"/>
       <c r="AT27" s="48"/>
       <c r="AU27" s="48"/>
-    </row>
-    <row r="28" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AW27" s="51" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="28" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1">
       <c r="A28" s="41" t="s">
         <v>255</v>
       </c>
@@ -40151,10 +40289,10 @@
         <v>262</v>
       </c>
       <c r="AW28" s="43" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="29" spans="1:49" s="51" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="29" spans="1:49" s="51" customFormat="1" ht="23.25" customHeight="1">
       <c r="A29" s="48"/>
       <c r="B29" s="48"/>
       <c r="C29" s="48"/>
@@ -40217,8 +40355,11 @@
       <c r="AQ29" s="48"/>
       <c r="AT29" s="48"/>
       <c r="AU29" s="48"/>
-    </row>
-    <row r="30" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AW29" s="51" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="30" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1">
       <c r="A30" s="41" t="s">
         <v>267</v>
       </c>
@@ -40308,10 +40449,10 @@
         <v>268</v>
       </c>
       <c r="AV30" s="43" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="31" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="31" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
       <c r="A31" s="38" t="s">
         <v>273</v>
       </c>
@@ -40418,8 +40559,11 @@
       <c r="AU31" s="38" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="32" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AW31" s="40" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="32" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
       <c r="A32" s="38" t="s">
         <v>281</v>
       </c>
@@ -40518,7 +40662,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="33" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>289</v>
       </c>
@@ -40608,7 +40752,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="34" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
       <c r="A34" s="38" t="s">
         <v>294</v>
       </c>
@@ -40722,101 +40866,101 @@
         <v>295</v>
       </c>
       <c r="AW34" s="40" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="35" spans="1:49" s="58" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="56" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="35" spans="1:49" s="56" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A35" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="C35" s="56" t="s">
+      <c r="C35" s="54" t="s">
         <v>309</v>
       </c>
-      <c r="D35" s="56" t="s">
+      <c r="D35" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="56" t="s">
+      <c r="E35" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56" t="s">
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54" t="s">
         <v>310</v>
       </c>
-      <c r="N35" s="56"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="57" t="s">
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="S35" s="56" t="s">
+      <c r="S35" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="T35" s="56" t="s">
+      <c r="T35" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="U35" s="56"/>
-      <c r="V35" s="56" t="str">
+      <c r="U35" s="54"/>
+      <c r="V35" s="54" t="str">
         <f t="shared" si="2"/>
         <v>["NCBI Virus", "Sample", "Collection"]</v>
       </c>
-      <c r="W35" s="56" t="s">
+      <c r="W35" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="X35" s="56" t="s">
+      <c r="X35" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="Y35" s="56"/>
-      <c r="Z35" s="56" t="s">
+      <c r="Y35" s="54"/>
+      <c r="Z35" s="54" t="s">
         <v>310</v>
       </c>
-      <c r="AA35" s="56" t="s">
+      <c r="AA35" s="54" t="s">
         <v>311</v>
       </c>
-      <c r="AB35" s="56"/>
-      <c r="AC35" s="56" t="s">
+      <c r="AB35" s="54"/>
+      <c r="AC35" s="54" t="s">
         <v>312</v>
       </c>
-      <c r="AD35" s="56"/>
-      <c r="AE35" s="56"/>
-      <c r="AF35" s="56"/>
-      <c r="AG35" s="56"/>
-      <c r="AH35" s="56"/>
-      <c r="AI35" s="56"/>
-      <c r="AJ35" s="56"/>
-      <c r="AK35" s="56"/>
-      <c r="AL35" s="56"/>
-      <c r="AM35" s="56"/>
-      <c r="AN35" s="56"/>
-      <c r="AO35" s="56"/>
-      <c r="AP35" s="56"/>
-      <c r="AQ35" s="56"/>
-      <c r="AR35" s="58" t="s">
+      <c r="AD35" s="54"/>
+      <c r="AE35" s="54"/>
+      <c r="AF35" s="54"/>
+      <c r="AG35" s="54"/>
+      <c r="AH35" s="54"/>
+      <c r="AI35" s="54"/>
+      <c r="AJ35" s="54"/>
+      <c r="AK35" s="54"/>
+      <c r="AL35" s="54"/>
+      <c r="AM35" s="54"/>
+      <c r="AN35" s="54"/>
+      <c r="AO35" s="54"/>
+      <c r="AP35" s="54"/>
+      <c r="AQ35" s="54"/>
+      <c r="AR35" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="AS35" s="58" t="s">
+      <c r="AS35" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="AT35" s="56" t="s">
+      <c r="AT35" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="AU35" s="56" t="s">
+      <c r="AU35" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="AW35" s="58" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="36" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AW35" s="56" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="36" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1">
       <c r="A36" s="41" t="s">
         <v>313</v>
       </c>
@@ -40902,100 +41046,76 @@
         <v>314</v>
       </c>
       <c r="AV36" s="43" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="37" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="37" spans="1:49" s="54" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A37" s="54" t="s">
         <v>318</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="54" t="s">
         <v>319</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="54" t="s">
         <v>320</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="54" t="s">
         <v>318</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="54" t="s">
         <v>321</v>
       </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="36" t="s">
+      <c r="Q37" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="R37" s="36" t="s">
+      <c r="R37" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="S37" s="3" t="s">
+      <c r="S37" s="54" t="s">
         <v>264</v>
       </c>
-      <c r="T37" s="3" t="s">
+      <c r="T37" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3" t="str">
+      <c r="V37" s="54" t="str">
         <f t="shared" si="2"/>
         <v>["ENA", "Analysis", "ENA Analysis", "VJDB Analysis", "Sequence"]</v>
       </c>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3" t="s">
+      <c r="X37" s="54" t="s">
         <v>317</v>
       </c>
-      <c r="Y37" s="3" t="s">
+      <c r="Y37" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="Z37" s="3"/>
-      <c r="AA37" s="3"/>
-      <c r="AB37" s="3"/>
-      <c r="AC37" s="3"/>
-      <c r="AD37" s="3"/>
-      <c r="AE37" s="3"/>
-      <c r="AF37" s="3"/>
-      <c r="AG37" s="3"/>
-      <c r="AH37" s="3"/>
-      <c r="AI37" s="3"/>
-      <c r="AJ37" s="3"/>
-      <c r="AK37" s="3"/>
-      <c r="AL37" s="3"/>
-      <c r="AM37" s="3"/>
-      <c r="AN37" s="3"/>
-      <c r="AO37" s="3"/>
-      <c r="AP37" s="3" t="s">
+      <c r="AP37" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="AQ37" s="3" t="s">
+      <c r="AQ37" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="AR37" s="4" t="s">
+      <c r="AR37" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="AS37" s="4" t="s">
+      <c r="AS37" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="AT37" s="3" t="s">
+      <c r="AT37" s="54" t="s">
         <v>318</v>
       </c>
-      <c r="AU37" s="3" t="s">
+      <c r="AU37" s="54" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="38" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AW37" s="54" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="38" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>322</v>
       </c>
@@ -41086,8 +41206,11 @@
       <c r="AU38" s="3" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="39" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV38" s="4" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="39" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>327</v>
       </c>
@@ -41176,8 +41299,11 @@
       <c r="AU39" s="3" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="40" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV39" s="4" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="40" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>331</v>
       </c>
@@ -41282,8 +41408,11 @@
       <c r="AU40" s="3" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="41" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV40" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="41" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>342</v>
       </c>
@@ -41372,8 +41501,14 @@
       <c r="AU41" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="42" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AV41" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AW41" s="4" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="42" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1">
       <c r="A42" s="41" t="s">
         <v>345</v>
       </c>
@@ -41467,10 +41602,10 @@
         <v>346</v>
       </c>
       <c r="AV42" s="43" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="43" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="43" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A43" s="3" t="s">
         <v>353</v>
       </c>
@@ -41569,8 +41704,14 @@
       <c r="AU43" s="3" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="44" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV43" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AW43" s="4" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="44" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>359</v>
       </c>
@@ -41671,8 +41812,11 @@
       <c r="AU44" s="3" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="45" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV44" s="4" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="45" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>364</v>
       </c>
@@ -41773,8 +41917,11 @@
       <c r="AU45" s="3" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="46" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV45" s="4" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="46" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>372</v>
       </c>
@@ -41875,90 +42022,93 @@
       <c r="AU46" s="3" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="47" spans="1:49" s="58" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="56" t="s">
+      <c r="AV46" s="4" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="47" spans="1:49" s="56" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A47" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="54" t="s">
         <v>378</v>
       </c>
-      <c r="D47" s="56" t="s">
+      <c r="D47" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="E47" s="56" t="s">
+      <c r="E47" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="F47" s="56" t="s">
+      <c r="F47" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="56"/>
-      <c r="N47" s="56"/>
-      <c r="O47" s="56"/>
-      <c r="P47" s="56"/>
-      <c r="Q47" s="57"/>
-      <c r="R47" s="57" t="s">
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="54"/>
+      <c r="Q47" s="55"/>
+      <c r="R47" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="S47" s="56" t="s">
+      <c r="S47" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="T47" s="56" t="s">
+      <c r="T47" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="U47" s="56"/>
-      <c r="V47" s="56" t="str">
+      <c r="U47" s="54"/>
+      <c r="V47" s="54" t="str">
         <f t="shared" si="2"/>
         <v>["Sample", "Collection"]</v>
       </c>
-      <c r="W47" s="56" t="s">
+      <c r="W47" s="54" t="s">
         <v>379</v>
       </c>
-      <c r="X47" s="56" t="s">
+      <c r="X47" s="54" t="s">
         <v>380</v>
       </c>
-      <c r="Y47" s="56"/>
-      <c r="Z47" s="56"/>
-      <c r="AA47" s="56"/>
-      <c r="AB47" s="56"/>
-      <c r="AC47" s="56"/>
-      <c r="AD47" s="56"/>
-      <c r="AE47" s="56"/>
-      <c r="AF47" s="56"/>
-      <c r="AG47" s="56"/>
-      <c r="AH47" s="56"/>
-      <c r="AI47" s="56"/>
-      <c r="AJ47" s="56"/>
-      <c r="AK47" s="56"/>
-      <c r="AL47" s="56"/>
-      <c r="AM47" s="56"/>
-      <c r="AN47" s="56"/>
-      <c r="AO47" s="56"/>
-      <c r="AP47" s="56"/>
-      <c r="AQ47" s="56"/>
-      <c r="AR47" s="58" t="s">
+      <c r="Y47" s="54"/>
+      <c r="Z47" s="54"/>
+      <c r="AA47" s="54"/>
+      <c r="AB47" s="54"/>
+      <c r="AC47" s="54"/>
+      <c r="AD47" s="54"/>
+      <c r="AE47" s="54"/>
+      <c r="AF47" s="54"/>
+      <c r="AG47" s="54"/>
+      <c r="AH47" s="54"/>
+      <c r="AI47" s="54"/>
+      <c r="AJ47" s="54"/>
+      <c r="AK47" s="54"/>
+      <c r="AL47" s="54"/>
+      <c r="AM47" s="54"/>
+      <c r="AN47" s="54"/>
+      <c r="AO47" s="54"/>
+      <c r="AP47" s="54"/>
+      <c r="AQ47" s="54"/>
+      <c r="AR47" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="AS47" s="58" t="s">
+      <c r="AS47" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="AT47" s="56" t="s">
+      <c r="AT47" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="AU47" s="56" t="s">
+      <c r="AU47" s="54" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="48" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
       <c r="A48" s="38" t="s">
         <v>381</v>
       </c>
@@ -42062,7 +42212,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="49" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>387</v>
       </c>
@@ -42162,107 +42312,107 @@
         <v>388</v>
       </c>
     </row>
-    <row r="50" spans="1:49" s="55" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="54" t="s">
+    <row r="50" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A50" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="B50" s="54" t="s">
+      <c r="B50" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="C50" s="54" t="s">
+      <c r="C50" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="D50" s="54" t="s">
+      <c r="D50" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="E50" s="54" t="s">
+      <c r="E50" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F50" s="54" t="s">
+      <c r="F50" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="G50" s="54"/>
-      <c r="H50" s="54" t="s">
+      <c r="G50" s="3"/>
+      <c r="H50" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
-      <c r="K50" s="54"/>
-      <c r="L50" s="54"/>
-      <c r="M50" s="54"/>
-      <c r="N50" s="54"/>
-      <c r="O50" s="54" t="s">
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="P50" s="54" t="s">
+      <c r="P50" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="Q50" s="59" t="s">
+      <c r="Q50" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="R50" s="59" t="s">
+      <c r="R50" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="S50" s="54" t="s">
+      <c r="S50" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="T50" s="54" t="s">
+      <c r="T50" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="U50" s="54"/>
-      <c r="V50" s="54" t="str">
+      <c r="U50" s="3"/>
+      <c r="V50" s="3" t="str">
         <f t="shared" si="2"/>
         <v>["ENA", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "VJDB Sample", "Clinical"]</v>
       </c>
-      <c r="W50" s="54"/>
-      <c r="X50" s="54" t="s">
+      <c r="W50" s="3"/>
+      <c r="X50" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="Y50" s="54" t="s">
+      <c r="Y50" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="Z50" s="54"/>
-      <c r="AA50" s="54"/>
-      <c r="AB50" s="54"/>
-      <c r="AC50" s="54"/>
-      <c r="AD50" s="54"/>
-      <c r="AE50" s="54"/>
-      <c r="AF50" s="54"/>
-      <c r="AG50" s="54"/>
-      <c r="AH50" s="54"/>
-      <c r="AI50" s="54"/>
-      <c r="AJ50" s="54" t="s">
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="3"/>
+      <c r="AD50" s="3"/>
+      <c r="AE50" s="3"/>
+      <c r="AF50" s="3"/>
+      <c r="AG50" s="3"/>
+      <c r="AH50" s="3"/>
+      <c r="AI50" s="3"/>
+      <c r="AJ50" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="AK50" s="54"/>
-      <c r="AL50" s="54"/>
-      <c r="AM50" s="54" t="s">
+      <c r="AK50" s="3"/>
+      <c r="AL50" s="3"/>
+      <c r="AM50" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="AN50" s="54"/>
-      <c r="AO50" s="54" t="s">
+      <c r="AN50" s="3"/>
+      <c r="AO50" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AP50" s="54" t="s">
+      <c r="AP50" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="AQ50" s="54" t="s">
+      <c r="AQ50" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="AR50" s="55" t="s">
+      <c r="AR50" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AS50" s="55" t="s">
+      <c r="AS50" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="AT50" s="54" t="s">
+      <c r="AT50" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="AU50" s="54" t="s">
+      <c r="AU50" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="51" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1">
       <c r="A51" s="41" t="s">
         <v>399</v>
       </c>
@@ -42346,10 +42496,10 @@
         <v>400</v>
       </c>
       <c r="AV51" s="43" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="52" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="52" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
       <c r="A52" s="38" t="s">
         <v>403</v>
       </c>
@@ -42459,10 +42609,10 @@
         <v>404</v>
       </c>
       <c r="AW52" s="40" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="53" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="53" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
       <c r="A53" s="38" t="s">
         <v>409</v>
       </c>
@@ -42548,7 +42698,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="54" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>412</v>
       </c>
@@ -42650,7 +42800,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="55" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>417</v>
       </c>
@@ -42736,7 +42886,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="56" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>421</v>
       </c>
@@ -42838,7 +42988,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="57" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>426</v>
       </c>
@@ -42928,7 +43078,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="58" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>430</v>
       </c>
@@ -43018,7 +43168,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="59" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>433</v>
       </c>
@@ -43118,7 +43268,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="60" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
       <c r="A60" s="38" t="s">
         <v>438</v>
       </c>
@@ -43207,8 +43357,11 @@
       <c r="AU60" s="38" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="61" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AW60" s="40" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="61" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
       <c r="A61" s="38" t="s">
         <v>444</v>
       </c>
@@ -43291,8 +43444,11 @@
       <c r="AU61" s="38" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="62" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AW61" s="40" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="62" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
       <c r="A62" s="38" t="s">
         <v>448</v>
       </c>
@@ -43381,8 +43537,11 @@
       <c r="AU62" s="38" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="63" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AW62" s="40" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="63" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
       <c r="A63" s="38" t="s">
         <v>451</v>
       </c>
@@ -43493,8 +43652,11 @@
       <c r="AU63" s="38" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="64" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV63" s="40" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="64" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
       <c r="A64" s="38" t="s">
         <v>460</v>
       </c>
@@ -43587,8 +43749,11 @@
       <c r="AU64" s="38" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="65" spans="1:48" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AW64" s="40" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="65" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>464</v>
       </c>
@@ -43698,7 +43863,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="66" spans="1:48" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>471</v>
       </c>
@@ -43800,7 +43965,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="67" spans="1:48" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>477</v>
       </c>
@@ -43896,7 +44061,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="68" spans="1:48" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>482</v>
       </c>
@@ -43992,7 +44157,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="69" spans="1:48" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>487</v>
       </c>
@@ -44090,7 +44255,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="70" spans="1:48" s="43" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1">
       <c r="A70" s="41" t="s">
         <v>492</v>
       </c>
@@ -44173,10 +44338,10 @@
         <v>493</v>
       </c>
       <c r="AV70" s="43" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="71" spans="1:48" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="71" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>497</v>
       </c>
@@ -44272,7 +44437,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="72" spans="1:48" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>502</v>
       </c>
@@ -44368,7 +44533,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="73" spans="1:48" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A73" s="3" t="s">
         <v>507</v>
       </c>
@@ -44460,7 +44625,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="74" spans="1:48" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A74" s="3" t="s">
         <v>513</v>
       </c>
@@ -44544,7 +44709,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="75" spans="1:48" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A75" s="3" t="s">
         <v>517</v>
       </c>
@@ -44642,7 +44807,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="76" spans="1:48" s="43" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1">
       <c r="A76" s="41" t="s">
         <v>522</v>
       </c>
@@ -44726,10 +44891,10 @@
         <v>523</v>
       </c>
       <c r="AV76" s="43" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="77" spans="1:48" s="43" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="77" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1">
       <c r="A77" s="41" t="s">
         <v>526</v>
       </c>
@@ -44817,10 +44982,10 @@
         <v>527</v>
       </c>
       <c r="AV77" s="43" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="78" spans="1:48" s="40" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="78" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
       <c r="A78" s="38" t="s">
         <v>530</v>
       </c>
@@ -44905,8 +45070,11 @@
       <c r="AU78" s="38" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="79" spans="1:48" s="40" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AW78" s="40" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="79" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
       <c r="A79" s="38" t="s">
         <v>536</v>
       </c>
@@ -45019,112 +45187,118 @@
       <c r="AU79" s="38" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="80" spans="1:48" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
+      <c r="AW79" s="40" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="80" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A80" s="38" t="s">
         <v>546</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="38" t="s">
         <v>547</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="38" t="s">
         <v>548</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F80" s="38" t="s">
         <v>546</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="G80" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="H80" s="38" t="s">
         <v>549</v>
       </c>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3" t="s">
+      <c r="I80" s="38"/>
+      <c r="J80" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
-      <c r="O80" s="3" t="s">
+      <c r="K80" s="38"/>
+      <c r="L80" s="38"/>
+      <c r="M80" s="38"/>
+      <c r="N80" s="38"/>
+      <c r="O80" s="38" t="s">
         <v>550</v>
       </c>
-      <c r="P80" s="3" t="s">
+      <c r="P80" s="38" t="s">
         <v>550</v>
       </c>
-      <c r="Q80" s="36" t="s">
+      <c r="Q80" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="R80" s="36" t="s">
+      <c r="R80" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="S80" s="3" t="s">
+      <c r="S80" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="T80" s="3" t="s">
+      <c r="T80" s="38" t="s">
         <v>397</v>
       </c>
-      <c r="U80" s="3"/>
-      <c r="V80" s="3" t="str">
+      <c r="U80" s="38"/>
+      <c r="V80" s="38" t="str">
         <f t="shared" si="3"/>
         <v>["ENA", "MIGS-VI", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "VJDB Sample", "Clinical"]</v>
       </c>
-      <c r="W80" s="3"/>
-      <c r="X80" s="3" t="s">
+      <c r="W80" s="38"/>
+      <c r="X80" s="38" t="s">
         <v>317</v>
       </c>
-      <c r="Y80" s="3" t="s">
+      <c r="Y80" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="Z80" s="3"/>
-      <c r="AA80" s="3"/>
-      <c r="AB80" s="3"/>
-      <c r="AC80" s="3"/>
-      <c r="AD80" s="3"/>
-      <c r="AE80" s="3"/>
-      <c r="AF80" s="3"/>
-      <c r="AG80" s="3"/>
-      <c r="AH80" s="3"/>
-      <c r="AI80" s="3"/>
-      <c r="AJ80" s="3" t="s">
+      <c r="Z80" s="38"/>
+      <c r="AA80" s="38"/>
+      <c r="AB80" s="38"/>
+      <c r="AC80" s="38"/>
+      <c r="AD80" s="38"/>
+      <c r="AE80" s="38"/>
+      <c r="AF80" s="38"/>
+      <c r="AG80" s="38"/>
+      <c r="AH80" s="38"/>
+      <c r="AI80" s="38"/>
+      <c r="AJ80" s="38" t="s">
         <v>551</v>
       </c>
-      <c r="AK80" s="3"/>
-      <c r="AL80" s="3"/>
-      <c r="AM80" s="3" t="s">
+      <c r="AK80" s="38"/>
+      <c r="AL80" s="38"/>
+      <c r="AM80" s="38" t="s">
         <v>551</v>
       </c>
-      <c r="AN80" s="3"/>
-      <c r="AO80" s="3" t="s">
+      <c r="AN80" s="38"/>
+      <c r="AO80" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="AP80" s="3" t="s">
+      <c r="AP80" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="AQ80" s="3" t="s">
+      <c r="AQ80" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="AR80" s="4" t="s">
+      <c r="AR80" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="AS80" s="4" t="s">
+      <c r="AS80" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="AT80" s="3" t="s">
+      <c r="AT80" s="38" t="s">
         <v>546</v>
       </c>
-      <c r="AU80" s="3" t="s">
+      <c r="AU80" s="38" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="81" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AW80" s="40" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="81" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
       <c r="A81" s="38" t="s">
         <v>552</v>
       </c>
@@ -45207,8 +45381,11 @@
       <c r="AU81" s="38" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="82" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AV81" s="40" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="82" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
       <c r="A82" s="38" t="s">
         <v>556</v>
       </c>
@@ -45294,10 +45471,10 @@
         <v>557</v>
       </c>
       <c r="AW82" s="40" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="83" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="83" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1">
       <c r="A83" s="41" t="s">
         <v>560</v>
       </c>
@@ -45395,10 +45572,10 @@
         <v>561</v>
       </c>
       <c r="AV83" s="43" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="84" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="84" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>567</v>
       </c>
@@ -45489,8 +45666,11 @@
       <c r="AU84" s="3" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="85" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AV84" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="85" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>572</v>
       </c>
@@ -45573,8 +45753,11 @@
       <c r="AU85" s="3" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="86" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AV85" s="4" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="86" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A86" s="3" t="s">
         <v>577</v>
       </c>
@@ -45670,7 +45853,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="87" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A87" s="3" t="s">
         <v>586</v>
       </c>
@@ -45755,8 +45938,11 @@
       <c r="AU87" s="3" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="88" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AV87" s="4" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="88" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>591</v>
       </c>
@@ -45841,8 +46027,11 @@
       <c r="AU88" s="3" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="89" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AV88" s="4" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="89" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A89" s="3" t="s">
         <v>596</v>
       </c>
@@ -45935,8 +46124,11 @@
       <c r="AU89" s="3" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="90" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AV89" s="4" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="90" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A90" s="3" t="s">
         <v>603</v>
       </c>
@@ -46027,8 +46219,11 @@
       <c r="AU90" s="3" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="91" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AV90" s="4" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="91" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>612</v>
       </c>
@@ -46114,7 +46309,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="92" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A92" s="3" t="s">
         <v>617</v>
       </c>
@@ -46202,7 +46397,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="93" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A93" s="3" t="s">
         <v>621</v>
       </c>
@@ -46299,8 +46494,11 @@
       <c r="AU93" s="3" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="94" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV93" s="4" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="94" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A94" s="3" t="s">
         <v>630</v>
       </c>
@@ -46399,8 +46597,11 @@
       <c r="AU94" s="3" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="95" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV94" s="4" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="95" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A95" s="3" t="s">
         <v>637</v>
       </c>
@@ -46497,8 +46698,11 @@
       <c r="AU95" s="3" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="96" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV95" s="4" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="96" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A96" s="3" t="s">
         <v>643</v>
       </c>
@@ -46595,8 +46799,11 @@
       <c r="AU96" s="3" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="97" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV96" s="4" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="97" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A97" s="3" t="s">
         <v>649</v>
       </c>
@@ -46695,8 +46902,11 @@
       <c r="AU97" s="3" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="98" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV97" s="4" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="98" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A98" s="3" t="s">
         <v>655</v>
       </c>
@@ -46793,8 +47003,11 @@
       <c r="AU98" s="3" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="99" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV98" s="4" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="99" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A99" s="3" t="s">
         <v>661</v>
       </c>
@@ -46893,8 +47106,11 @@
       <c r="AU99" s="3" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="100" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV99" s="4" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="100" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A100" s="3" t="s">
         <v>668</v>
       </c>
@@ -46991,8 +47207,11 @@
       <c r="AU100" s="3" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="101" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV100" s="4" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="101" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A101" s="3" t="s">
         <v>674</v>
       </c>
@@ -47091,8 +47310,11 @@
       <c r="AU101" s="3" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="102" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AV101" s="4" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="102" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A102" s="3" t="s">
         <v>681</v>
       </c>
@@ -47199,8 +47421,11 @@
       <c r="AU102" s="3" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="103" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AV102" s="4" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A103" s="3" t="s">
         <v>688</v>
       </c>
@@ -47290,7 +47515,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="104" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A104" s="3" t="s">
         <v>693</v>
       </c>
@@ -47372,7 +47597,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="105" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A105" s="3" t="s">
         <v>700</v>
       </c>
@@ -47454,7 +47679,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="106" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A106" s="3" t="s">
         <v>704</v>
       </c>
@@ -47534,7 +47759,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="107" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
       <c r="A107" s="38" t="s">
         <v>708</v>
       </c>
@@ -47623,11 +47848,8 @@
       <c r="AU107" s="38" t="s">
         <v>709</v>
       </c>
-      <c r="AW107" s="40" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="108" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A108" s="3" t="s">
         <v>713</v>
       </c>
@@ -47707,10 +47929,10 @@
         <v>714</v>
       </c>
       <c r="AV108" s="4" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="109" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A109" s="3" t="s">
         <v>717</v>
       </c>
@@ -47812,129 +48034,135 @@
         <v>718</v>
       </c>
     </row>
-    <row r="110" spans="1:49" s="61" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="60" t="s">
+    <row r="110" spans="1:49" s="58" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A110" s="57" t="s">
         <v>724</v>
       </c>
-      <c r="B110" s="61" t="s">
+      <c r="B110" s="58" t="s">
         <v>725</v>
       </c>
-      <c r="C110" s="60" t="s">
+      <c r="C110" s="57" t="s">
         <v>726</v>
       </c>
-      <c r="D110" s="60"/>
-      <c r="E110" s="60" t="s">
+      <c r="D110" s="57"/>
+      <c r="E110" s="57" t="s">
         <v>727</v>
       </c>
-      <c r="O110" s="60" t="s">
+      <c r="O110" s="57" t="s">
         <v>728</v>
       </c>
-      <c r="P110" s="60" t="s">
+      <c r="P110" s="57" t="s">
         <v>728</v>
       </c>
-      <c r="Q110" s="62" t="s">
+      <c r="Q110" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="R110" s="62" t="s">
+      <c r="R110" s="59" t="s">
         <v>248</v>
       </c>
-      <c r="V110" s="60" t="str">
+      <c r="V110" s="57" t="str">
         <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA ERC33", "ENA Study", "VJDB Study"]</v>
       </c>
-      <c r="AJ110" s="60" t="s">
+      <c r="AJ110" s="57" t="s">
         <v>729</v>
       </c>
-      <c r="AK110" s="60"/>
-      <c r="AL110" s="60"/>
-      <c r="AM110" s="60" t="s">
+      <c r="AK110" s="57"/>
+      <c r="AL110" s="57"/>
+      <c r="AM110" s="57" t="s">
         <v>729</v>
       </c>
-      <c r="AN110" s="60"/>
-      <c r="AO110" s="60" t="s">
+      <c r="AN110" s="57"/>
+      <c r="AO110" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="AP110" s="60" t="s">
+      <c r="AP110" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="AQ110" s="60" t="s">
+      <c r="AQ110" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="AR110" s="63" t="s">
+      <c r="AR110" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="AS110" s="63" t="s">
+      <c r="AS110" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="AT110" s="60" t="s">
+      <c r="AT110" s="57" t="s">
         <v>724</v>
       </c>
-      <c r="AU110" s="61" t="s">
+      <c r="AU110" s="58" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="111" spans="1:49" s="61" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="60" t="s">
+      <c r="AW110" s="58" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="111" spans="1:49" s="58" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A111" s="57" t="s">
         <v>730</v>
       </c>
-      <c r="B111" s="61" t="s">
+      <c r="B111" s="58" t="s">
         <v>731</v>
       </c>
-      <c r="C111" s="60" t="s">
+      <c r="C111" s="57" t="s">
         <v>732</v>
       </c>
-      <c r="D111" s="60"/>
-      <c r="E111" s="60" t="s">
+      <c r="D111" s="57"/>
+      <c r="E111" s="57" t="s">
         <v>727</v>
       </c>
-      <c r="O111" s="60" t="s">
+      <c r="O111" s="57" t="s">
         <v>728</v>
       </c>
-      <c r="P111" s="60" t="s">
+      <c r="P111" s="57" t="s">
         <v>728</v>
       </c>
-      <c r="Q111" s="62" t="s">
+      <c r="Q111" s="59" t="s">
         <v>626</v>
       </c>
-      <c r="R111" s="62" t="s">
+      <c r="R111" s="59" t="s">
         <v>627</v>
       </c>
-      <c r="V111" s="60" t="str">
+      <c r="V111" s="57" t="str">
         <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA ERC33", "ENA Experiment", "VJDB Experiment"]</v>
       </c>
-      <c r="AJ111" s="60" t="s">
+      <c r="AJ111" s="57" t="s">
         <v>733</v>
       </c>
-      <c r="AK111" s="60"/>
-      <c r="AL111" s="60"/>
-      <c r="AM111" s="60" t="s">
+      <c r="AK111" s="57"/>
+      <c r="AL111" s="57"/>
+      <c r="AM111" s="57" t="s">
         <v>733</v>
       </c>
-      <c r="AN111" s="60"/>
-      <c r="AO111" s="60" t="s">
+      <c r="AN111" s="57"/>
+      <c r="AO111" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="AP111" s="60" t="s">
+      <c r="AP111" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="AQ111" s="60" t="s">
+      <c r="AQ111" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="AR111" s="63" t="s">
+      <c r="AR111" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="AS111" s="63" t="s">
+      <c r="AS111" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="AT111" s="60" t="s">
+      <c r="AT111" s="57" t="s">
         <v>730</v>
       </c>
-      <c r="AU111" s="61" t="s">
+      <c r="AU111" s="58" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="112" spans="1:49" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AW111" s="58" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="112" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A112" s="3" t="s">
         <v>734</v>
       </c>
@@ -47995,68 +48223,71 @@
         <v>735</v>
       </c>
     </row>
-    <row r="113" spans="1:47" s="61" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="60" t="s">
+    <row r="113" spans="1:49" s="58" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A113" s="57" t="s">
         <v>740</v>
       </c>
-      <c r="B113" s="61" t="s">
+      <c r="B113" s="58" t="s">
         <v>741</v>
       </c>
-      <c r="C113" s="60" t="s">
+      <c r="C113" s="57" t="s">
         <v>742</v>
       </c>
-      <c r="D113" s="60"/>
-      <c r="E113" s="60" t="s">
+      <c r="D113" s="57"/>
+      <c r="E113" s="57" t="s">
         <v>727</v>
       </c>
-      <c r="O113" s="60" t="s">
+      <c r="O113" s="57" t="s">
         <v>728</v>
       </c>
-      <c r="P113" s="60" t="s">
+      <c r="P113" s="57" t="s">
         <v>728</v>
       </c>
-      <c r="Q113" s="62" t="s">
+      <c r="Q113" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="R113" s="62" t="s">
+      <c r="R113" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="V113" s="60" t="str">
+      <c r="V113" s="57" t="str">
         <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA ERC33", "ENA Sample", "VJDB Sample"]</v>
       </c>
-      <c r="AJ113" s="60" t="s">
+      <c r="AJ113" s="57" t="s">
         <v>743</v>
       </c>
-      <c r="AK113" s="60"/>
-      <c r="AL113" s="60"/>
-      <c r="AM113" s="60" t="s">
+      <c r="AK113" s="57"/>
+      <c r="AL113" s="57"/>
+      <c r="AM113" s="57" t="s">
         <v>739</v>
       </c>
-      <c r="AN113" s="60"/>
-      <c r="AO113" s="60" t="s">
+      <c r="AN113" s="57"/>
+      <c r="AO113" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="AP113" s="60" t="s">
+      <c r="AP113" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="AQ113" s="60" t="s">
+      <c r="AQ113" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="AR113" s="63" t="s">
+      <c r="AR113" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="AS113" s="63" t="s">
+      <c r="AS113" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="AT113" s="60" t="s">
+      <c r="AT113" s="57" t="s">
         <v>740</v>
       </c>
-      <c r="AU113" s="61" t="s">
+      <c r="AU113" s="58" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="114" spans="1:47" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AW113" s="58" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="114" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A114" s="3" t="s">
         <v>744</v>
       </c>
@@ -48111,7 +48342,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="115" spans="1:47" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A115" s="3" t="s">
         <v>747</v>
       </c>
@@ -48166,7 +48397,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="116" spans="1:47" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A116" s="3" t="s">
         <v>750</v>
       </c>
@@ -48221,7 +48452,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="117" spans="1:47" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A117" s="3" t="s">
         <v>753</v>
       </c>
@@ -48276,68 +48507,71 @@
         <v>754</v>
       </c>
     </row>
-    <row r="118" spans="1:47" s="61" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="60" t="s">
+    <row r="118" spans="1:49" s="58" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A118" s="57" t="s">
         <v>730</v>
       </c>
-      <c r="B118" s="61" t="s">
+      <c r="B118" s="58" t="s">
         <v>731</v>
       </c>
-      <c r="C118" s="60" t="s">
+      <c r="C118" s="57" t="s">
         <v>756</v>
       </c>
-      <c r="D118" s="60"/>
-      <c r="E118" s="60" t="s">
+      <c r="D118" s="57"/>
+      <c r="E118" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="O118" s="60" t="s">
+      <c r="O118" s="57" t="s">
         <v>730</v>
       </c>
-      <c r="P118" s="60" t="s">
+      <c r="P118" s="57" t="s">
         <v>730</v>
       </c>
-      <c r="Q118" s="62" t="s">
+      <c r="Q118" s="59" t="s">
         <v>737</v>
       </c>
-      <c r="R118" s="62" t="s">
+      <c r="R118" s="59" t="s">
         <v>738</v>
       </c>
-      <c r="V118" s="60" t="str">
+      <c r="V118" s="57" t="str">
         <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA ERC33", "ENA Run", "VJDB Run"]</v>
       </c>
-      <c r="AJ118" s="60" t="s">
+      <c r="AJ118" s="57" t="s">
         <v>756</v>
       </c>
-      <c r="AK118" s="60"/>
-      <c r="AL118" s="60"/>
-      <c r="AM118" s="60" t="s">
+      <c r="AK118" s="57"/>
+      <c r="AL118" s="57"/>
+      <c r="AM118" s="57" t="s">
         <v>756</v>
       </c>
-      <c r="AN118" s="60"/>
-      <c r="AO118" s="60" t="s">
+      <c r="AN118" s="57"/>
+      <c r="AO118" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="AP118" s="60" t="s">
+      <c r="AP118" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="AQ118" s="60" t="s">
+      <c r="AQ118" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="AR118" s="63" t="s">
+      <c r="AR118" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="AS118" s="63" t="s">
+      <c r="AS118" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="AT118" s="60" t="s">
+      <c r="AT118" s="57" t="s">
         <v>730</v>
       </c>
-      <c r="AU118" s="61" t="s">
+      <c r="AU118" s="58" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="119" spans="1:47" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AW118" s="58" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="119" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A119" s="3" t="s">
         <v>757</v>
       </c>
@@ -48398,7 +48632,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="120" spans="1:47" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A120" s="3" t="s">
         <v>760</v>
       </c>
@@ -48459,7 +48693,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="121" spans="1:47" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A121" s="3" t="s">
         <v>763</v>
       </c>
@@ -48520,7 +48754,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="122" spans="1:47" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A122" s="3" t="s">
         <v>766</v>
       </c>
@@ -48581,7 +48815,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="123" spans="1:47" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A123" s="3" t="s">
         <v>769</v>
       </c>
@@ -48642,7 +48876,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="124" spans="1:47" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A124" s="3" t="s">
         <v>773</v>
       </c>
@@ -48703,7 +48937,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="125" spans="1:47" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A125" s="3" t="s">
         <v>776</v>
       </c>
@@ -48758,7 +48992,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="126" spans="1:47" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A126" s="3" t="s">
         <v>429</v>
       </c>
@@ -48819,7 +49053,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="127" spans="1:47" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A127" s="3" t="s">
         <v>781</v>
       </c>
@@ -48874,7 +49108,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="128" spans="1:47" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A128" s="3" t="s">
         <v>784</v>
       </c>
@@ -48929,7 +49163,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="129" spans="1:49" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A129" s="3" t="s">
         <v>787</v>
       </c>
@@ -48984,7 +49218,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="130" spans="1:49" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A130" s="3" t="s">
         <v>790</v>
       </c>
@@ -49039,7 +49273,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="131" spans="1:49" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A131" s="3" t="s">
         <v>793</v>
       </c>
@@ -49094,7 +49328,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="132" spans="1:49" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A132" s="3" t="s">
         <v>796</v>
       </c>
@@ -49149,7 +49383,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="133" spans="1:49" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A133" s="3" t="s">
         <v>799</v>
       </c>
@@ -49204,7 +49438,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="134" spans="1:49" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A134" s="3" t="s">
         <v>802</v>
       </c>
@@ -49268,7 +49502,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="135" spans="1:49" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A135" s="3" t="s">
         <v>805</v>
       </c>
@@ -49323,11 +49557,11 @@
         <v>806</v>
       </c>
     </row>
-    <row r="136" spans="1:49" s="66" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:49" s="63" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A136" s="38" t="s">
         <v>808</v>
       </c>
-      <c r="B136" s="66" t="s">
+      <c r="B136" s="63" t="s">
         <v>809</v>
       </c>
       <c r="C136" s="38" t="s">
@@ -49343,10 +49577,10 @@
       <c r="P136" s="38" t="s">
         <v>808</v>
       </c>
-      <c r="Q136" s="67" t="s">
+      <c r="Q136" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="R136" s="67" t="s">
+      <c r="R136" s="64" t="s">
         <v>248</v>
       </c>
       <c r="V136" s="38" t="str">
@@ -49380,14 +49614,14 @@
       <c r="AT136" s="38" t="s">
         <v>808</v>
       </c>
-      <c r="AU136" s="66" t="s">
+      <c r="AU136" s="63" t="s">
         <v>809</v>
       </c>
-      <c r="AW136" s="66" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="137" spans="1:49" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AW136" s="63" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="137" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A137" s="3" t="s">
         <v>812</v>
       </c>
@@ -49442,7 +49676,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="138" spans="1:49" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A138" s="3" t="s">
         <v>815</v>
       </c>
@@ -49503,7 +49737,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="139" spans="1:49" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A139" s="3" t="s">
         <v>691</v>
       </c>
@@ -49564,7 +49798,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="140" spans="1:49" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A140" s="3" t="s">
         <v>820</v>
       </c>
@@ -49625,68 +49859,71 @@
         <v>821</v>
       </c>
     </row>
-    <row r="141" spans="1:49" s="61" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="60" t="s">
+    <row r="141" spans="1:49" s="58" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A141" s="57" t="s">
         <v>740</v>
       </c>
-      <c r="B141" s="61" t="s">
+      <c r="B141" s="58" t="s">
         <v>741</v>
       </c>
-      <c r="C141" s="60" t="s">
+      <c r="C141" s="57" t="s">
         <v>824</v>
       </c>
-      <c r="D141" s="60"/>
-      <c r="E141" s="60" t="s">
+      <c r="D141" s="57"/>
+      <c r="E141" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="O141" s="60" t="s">
+      <c r="O141" s="57" t="s">
         <v>740</v>
       </c>
-      <c r="P141" s="60" t="s">
+      <c r="P141" s="57" t="s">
         <v>740</v>
       </c>
-      <c r="Q141" s="62" t="s">
+      <c r="Q141" s="59" t="s">
         <v>626</v>
       </c>
-      <c r="R141" s="62" t="s">
+      <c r="R141" s="59" t="s">
         <v>627</v>
       </c>
-      <c r="V141" s="60" t="str">
+      <c r="V141" s="57" t="str">
         <f t="shared" si="4"/>
         <v>["ENA ERC32", "ENA ERC33", "ENA Experiment", "VJDB Experiment"]</v>
       </c>
-      <c r="AJ141" s="60" t="s">
+      <c r="AJ141" s="57" t="s">
         <v>824</v>
       </c>
-      <c r="AK141" s="60"/>
-      <c r="AL141" s="60"/>
-      <c r="AM141" s="60" t="s">
+      <c r="AK141" s="57"/>
+      <c r="AL141" s="57"/>
+      <c r="AM141" s="57" t="s">
         <v>824</v>
       </c>
-      <c r="AN141" s="60"/>
-      <c r="AO141" s="60" t="s">
+      <c r="AN141" s="57"/>
+      <c r="AO141" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="AP141" s="60" t="s">
+      <c r="AP141" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="AQ141" s="60" t="s">
+      <c r="AQ141" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="AR141" s="63" t="s">
+      <c r="AR141" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="AS141" s="63" t="s">
+      <c r="AS141" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="AT141" s="60" t="s">
+      <c r="AT141" s="57" t="s">
         <v>740</v>
       </c>
-      <c r="AU141" s="61" t="s">
+      <c r="AU141" s="58" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="142" spans="1:49" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AW141" s="58" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="142" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A142" s="3" t="s">
         <v>825</v>
       </c>
@@ -49747,7 +49984,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="143" spans="1:49" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A143" s="3" t="s">
         <v>828</v>
       </c>
@@ -49802,7 +50039,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="144" spans="1:49" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A144" s="3" t="s">
         <v>831</v>
       </c>
@@ -49863,11 +50100,11 @@
         <v>832</v>
       </c>
     </row>
-    <row r="145" spans="1:49" s="64" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:49" s="61" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A145" s="41" t="s">
         <v>834</v>
       </c>
-      <c r="B145" s="64" t="s">
+      <c r="B145" s="61" t="s">
         <v>835</v>
       </c>
       <c r="C145" s="41" t="s">
@@ -49883,10 +50120,10 @@
       <c r="P145" s="41" t="s">
         <v>834</v>
       </c>
-      <c r="Q145" s="65" t="s">
+      <c r="Q145" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="R145" s="65" t="s">
+      <c r="R145" s="62" t="s">
         <v>248</v>
       </c>
       <c r="V145" s="41" t="str">
@@ -49920,79 +50157,82 @@
       <c r="AT145" s="41" t="s">
         <v>834</v>
       </c>
-      <c r="AU145" s="64" t="s">
+      <c r="AU145" s="61" t="s">
         <v>835</v>
       </c>
-      <c r="AV145" s="64" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="146" spans="1:49" s="61" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="60" t="s">
+      <c r="AV145" s="61" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="146" spans="1:49" s="58" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A146" s="57" t="s">
         <v>724</v>
       </c>
-      <c r="B146" s="61" t="s">
+      <c r="B146" s="58" t="s">
         <v>725</v>
       </c>
-      <c r="C146" s="60" t="s">
+      <c r="C146" s="57" t="s">
         <v>838</v>
       </c>
-      <c r="D146" s="60"/>
-      <c r="E146" s="60" t="s">
+      <c r="D146" s="57"/>
+      <c r="E146" s="57" t="s">
         <v>727</v>
       </c>
-      <c r="O146" s="60" t="s">
+      <c r="O146" s="57" t="s">
         <v>724</v>
       </c>
-      <c r="P146" s="60" t="s">
+      <c r="P146" s="57" t="s">
         <v>724</v>
       </c>
-      <c r="Q146" s="62" t="s">
+      <c r="Q146" s="59" t="s">
         <v>626</v>
       </c>
-      <c r="R146" s="62" t="s">
+      <c r="R146" s="59" t="s">
         <v>627</v>
       </c>
-      <c r="V146" s="60" t="str">
+      <c r="V146" s="57" t="str">
         <f t="shared" si="4"/>
         <v>["ENA ERC32", "ENA ERC33", "ENA Experiment", "VJDB Experiment"]</v>
       </c>
-      <c r="AJ146" s="60" t="s">
+      <c r="AJ146" s="57" t="s">
         <v>838</v>
       </c>
-      <c r="AK146" s="60"/>
-      <c r="AL146" s="60"/>
-      <c r="AM146" s="60" t="s">
+      <c r="AK146" s="57"/>
+      <c r="AL146" s="57"/>
+      <c r="AM146" s="57" t="s">
         <v>838</v>
       </c>
-      <c r="AN146" s="60"/>
-      <c r="AO146" s="60" t="s">
+      <c r="AN146" s="57"/>
+      <c r="AO146" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="AP146" s="60" t="s">
+      <c r="AP146" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="AQ146" s="60" t="s">
+      <c r="AQ146" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="AR146" s="63" t="s">
+      <c r="AR146" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="AS146" s="63" t="s">
+      <c r="AS146" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="AT146" s="60" t="s">
+      <c r="AT146" s="57" t="s">
         <v>724</v>
       </c>
-      <c r="AU146" s="61" t="s">
+      <c r="AU146" s="58" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="147" spans="1:49" s="66" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AW146" s="58" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="147" spans="1:49" s="63" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A147" s="38" t="s">
         <v>839</v>
       </c>
-      <c r="B147" s="66" t="s">
+      <c r="B147" s="63" t="s">
         <v>840</v>
       </c>
       <c r="C147" s="38" t="s">
@@ -50008,10 +50248,10 @@
       <c r="P147" s="38" t="s">
         <v>839</v>
       </c>
-      <c r="Q147" s="67" t="s">
+      <c r="Q147" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="R147" s="67" t="s">
+      <c r="R147" s="64" t="s">
         <v>248</v>
       </c>
       <c r="V147" s="38" t="str">
@@ -50045,14 +50285,14 @@
       <c r="AT147" s="38" t="s">
         <v>839</v>
       </c>
-      <c r="AU147" s="66" t="s">
+      <c r="AU147" s="63" t="s">
         <v>840</v>
       </c>
-      <c r="AW147" s="66" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="148" spans="1:49" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AW147" s="63" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="148" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A148" s="3" t="s">
         <v>842</v>
       </c>
@@ -50113,7 +50353,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="149" spans="1:49" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A149" s="3" t="s">
         <v>845</v>
       </c>
@@ -50174,7 +50414,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="150" spans="1:49" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A150" s="3" t="s">
         <v>849</v>
       </c>
@@ -50235,7 +50475,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="151" spans="1:49" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A151" s="3" t="s">
         <v>853</v>
       </c>
@@ -50296,7 +50536,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="152" spans="1:49" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A152" s="3" t="s">
         <v>857</v>
       </c>
@@ -50357,7 +50597,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="153" spans="1:49" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A153" s="3" t="s">
         <v>860</v>
       </c>
@@ -50418,7 +50658,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="154" spans="1:49" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A154" s="3" t="s">
         <v>863</v>
       </c>
@@ -50473,7 +50713,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="155" spans="1:49" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A155" s="3" t="s">
         <v>866</v>
       </c>
@@ -50528,7 +50768,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="156" spans="1:49" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A156" s="3" t="s">
         <v>869</v>
       </c>
@@ -50583,7 +50823,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="157" spans="1:49" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
       <c r="A157" s="3" t="s">
         <v>872</v>
       </c>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28914"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C18661E0-97F0-4042-99F0-5256449468FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD2D23E1-E27F-44F9-B6B4-B2A9F9717BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="2" activeTab="2" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6889" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6907" uniqueCount="1118">
   <si>
     <t>VJDBv0.3</t>
   </si>
@@ -3565,9 +3565,6 @@
     <t>Biosample Accession</t>
   </si>
   <si>
-    <t>Sampling Date</t>
-  </si>
-  <si>
     <t>would be "Date" but to make distinction as there are multiple dates</t>
   </si>
   <si>
@@ -3592,7 +3589,7 @@
     <t>Should be curated into Baltimore classes; Is this a sequence attribute or sample or both? Represent in naming?</t>
   </si>
   <si>
-    <t>Completeness</t>
+    <t>Genome Completeness</t>
   </si>
   <si>
     <t>technically sample species or below</t>
@@ -3607,13 +3604,22 @@
     <t>Segment Name</t>
   </si>
   <si>
+    <t>NCBI Species</t>
+  </si>
+  <si>
     <t>NCBI Virus has only the virus species in this field, Taxonomy Descision</t>
   </si>
   <si>
-    <t>Plan about sources and vocabularies, RKI different from ENA, what about NCBI and environmental</t>
-  </si>
-  <si>
-    <t>This is defined different from the duplicate below. Meaning for submission Tool was to have a geographical level higher than countries (continents)</t>
+    <t>Plan about sources and vocabularies, RKI different from ENA, what about NCBI and environmental, leave it like that for now with NCBi input</t>
+  </si>
+  <si>
+    <t>ncbi_usa</t>
+  </si>
+  <si>
+    <t>NCBI USA</t>
+  </si>
+  <si>
+    <t>This is defined different from the duplicate below. Meaning for submission Tool was to have a geographical level higher than countries (continents). We keep it (mostly redundant), might be useful for later curation</t>
   </si>
   <si>
     <t>Analysis Accession</t>
@@ -3622,18 +3628,12 @@
     <t>might be duplicate with analysis description</t>
   </si>
   <si>
-    <t>Level</t>
+    <t>apply customization to vjdb , e.g. chromosome to genome or something</t>
   </si>
   <si>
     <t>Min Gap Length</t>
   </si>
   <si>
-    <t>Program</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>for submission this is always "clone or isolate"</t>
   </si>
   <si>
@@ -3655,12 +3655,27 @@
     <t>Longitude</t>
   </si>
   <si>
+    <t>Region unclear -&gt; Check again where it came from, recheck naming and vocabulary</t>
+  </si>
+  <si>
+    <t>as it is, for revision with data</t>
+  </si>
+  <si>
     <t>Experiment Accession</t>
   </si>
   <si>
     <t>Seperation of values good for submission, display should be in one, needs curation from ENA values, seperate Fields for submission?</t>
   </si>
   <si>
+    <t>These two private for submission, one field for public where it is combined and one for normalized values (also for filtering)</t>
+  </si>
+  <si>
+    <t>Lab Host Common Name</t>
+  </si>
+  <si>
+    <t>remove? Lab Passage 1 to 1 in public and rest in private for submission</t>
+  </si>
+  <si>
     <t>remove?</t>
   </si>
   <si>
@@ -3676,7 +3691,10 @@
     <t>Run Accession</t>
   </si>
   <si>
-    <t>Common Abbreviation</t>
+    <t>Serotype</t>
+  </si>
+  <si>
+    <t>Abbreviation</t>
   </si>
   <si>
     <t>No mapping, seems to  be NCBI Tax ID</t>
@@ -3694,6 +3712,9 @@
     <t>Publication DOI</t>
   </si>
   <si>
+    <t>needs curation before public</t>
+  </si>
+  <si>
     <t>Pubmed Accession</t>
   </si>
   <si>
@@ -3736,13 +3757,28 @@
     <t>This is not needed as in ENA as there it functions as memorable orientation for objects for the user, for us a ID for each object would be more suitable</t>
   </si>
   <si>
-    <t>What is that? -&gt; remove, not visible in ENA Webin Portal Submission</t>
+    <t>move all to additional metadata and remove here</t>
+  </si>
+  <si>
+    <t>What is that? -&gt; remove, not visible in ENA Webin Portal Submission, remove for now</t>
   </si>
   <si>
     <t>Study Description</t>
   </si>
   <si>
     <t>What is that? -&gt; remove, not visible in ENA Webin Portal Submision</t>
+  </si>
+  <si>
+    <t>virus_old_names</t>
+  </si>
+  <si>
+    <t>sequence_byte_range</t>
+  </si>
+  <si>
+    <t>sequence_path</t>
+  </si>
+  <si>
+    <t>insertion_date</t>
   </si>
 </sst>
 </file>
@@ -4038,7 +4074,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4192,12 +4228,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -17079,7 +17109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765CDCC6-1CB9-4D09-8DD5-54FCC33BD049}">
   <dimension ref="A1:FP344"/>
   <sheetViews>
-    <sheetView topLeftCell="W20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AH49" sqref="AH49:AN52"/>
     </sheetView>
   </sheetViews>
@@ -37233,10 +37263,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6CF321-9E04-432C-B74A-785CBBCC1526}">
-  <dimension ref="A1:AW157"/>
+  <dimension ref="A1:AW161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL94" workbookViewId="0">
-      <selection activeCell="AW118" sqref="AW118"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="E160" sqref="E160:E161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15"/>
@@ -38473,10 +38503,10 @@
         <v>99</v>
       </c>
       <c r="AV9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW9" s="4" t="s">
         <v>1046</v>
-      </c>
-      <c r="AW9" s="4" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="10" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
@@ -38700,7 +38730,7 @@
         <v>132</v>
       </c>
       <c r="AW11" s="40" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="12" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
@@ -38871,7 +38901,7 @@
         <v>150</v>
       </c>
       <c r="AV13" s="41" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="14" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1">
@@ -38968,7 +38998,7 @@
         <v>158</v>
       </c>
       <c r="AV14" s="41" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="15" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
@@ -39061,7 +39091,7 @@
         <v>166</v>
       </c>
       <c r="AW15" s="40" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="16" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
@@ -39162,7 +39192,7 @@
         <v>173</v>
       </c>
       <c r="AW16" s="40" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="17" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
@@ -39259,7 +39289,7 @@
         <v>179</v>
       </c>
       <c r="AV17" s="4" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="18" spans="1:49" s="47" customFormat="1" ht="23.25" customHeight="1">
@@ -39651,7 +39681,7 @@
         <v>209</v>
       </c>
       <c r="AW21" s="40" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="22" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
@@ -39751,11 +39781,11 @@
       <c r="AU22" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AV22" s="40" t="s">
-        <v>218</v>
+      <c r="AV22" s="38" t="s">
+        <v>216</v>
       </c>
       <c r="AW22" s="40" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="23" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
@@ -39852,7 +39882,7 @@
         <v>225</v>
       </c>
       <c r="AW23" s="40" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="24" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
@@ -39943,7 +39973,7 @@
         <v>232</v>
       </c>
       <c r="AV24" s="40" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="25" spans="1:49" s="47" customFormat="1" ht="23.25" customHeight="1">
@@ -40032,7 +40062,7 @@
         <v>239</v>
       </c>
       <c r="AW25" s="47" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="26" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
@@ -40193,7 +40223,7 @@
       <c r="AT27" s="48"/>
       <c r="AU27" s="48"/>
       <c r="AW27" s="51" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="28" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1">
@@ -40289,7 +40319,7 @@
         <v>262</v>
       </c>
       <c r="AW28" s="43" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="29" spans="1:49" s="51" customFormat="1" ht="23.25" customHeight="1">
@@ -40356,7 +40386,7 @@
       <c r="AT29" s="48"/>
       <c r="AU29" s="48"/>
       <c r="AW29" s="51" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="30" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1">
@@ -40449,7 +40479,7 @@
         <v>268</v>
       </c>
       <c r="AV30" s="43" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="31" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
@@ -40558,6 +40588,9 @@
       </c>
       <c r="AU31" s="38" t="s">
         <v>274</v>
+      </c>
+      <c r="AV31" s="40" t="s">
+        <v>1059</v>
       </c>
       <c r="AW31" s="40" t="s">
         <v>1060</v>
@@ -40869,95 +40902,95 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="35" spans="1:49" s="56" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A35" s="54" t="s">
-        <v>307</v>
-      </c>
-      <c r="B35" s="54" t="s">
-        <v>308</v>
-      </c>
-      <c r="C35" s="54" t="s">
+    <row r="35" spans="1:49" s="47" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A35" s="45" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C35" s="45" t="s">
         <v>309</v>
       </c>
-      <c r="D35" s="54" t="s">
+      <c r="D35" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54" t="s">
+      <c r="E35" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45" t="s">
         <v>310</v>
       </c>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="55" t="s">
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="S35" s="54" t="s">
+      <c r="S35" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="T35" s="54" t="s">
+      <c r="T35" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="U35" s="54"/>
-      <c r="V35" s="54" t="str">
+      <c r="U35" s="45"/>
+      <c r="V35" s="45" t="str">
         <f t="shared" si="2"/>
         <v>["NCBI Virus", "Sample", "Collection"]</v>
       </c>
-      <c r="W35" s="54" t="s">
+      <c r="W35" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="X35" s="54" t="s">
+      <c r="X35" s="45" t="s">
         <v>307</v>
       </c>
-      <c r="Y35" s="54"/>
-      <c r="Z35" s="54" t="s">
+      <c r="Y35" s="45"/>
+      <c r="Z35" s="45" t="s">
         <v>310</v>
       </c>
-      <c r="AA35" s="54" t="s">
+      <c r="AA35" s="45" t="s">
         <v>311</v>
       </c>
-      <c r="AB35" s="54"/>
-      <c r="AC35" s="54" t="s">
+      <c r="AB35" s="45"/>
+      <c r="AC35" s="45" t="s">
         <v>312</v>
       </c>
-      <c r="AD35" s="54"/>
-      <c r="AE35" s="54"/>
-      <c r="AF35" s="54"/>
-      <c r="AG35" s="54"/>
-      <c r="AH35" s="54"/>
-      <c r="AI35" s="54"/>
-      <c r="AJ35" s="54"/>
-      <c r="AK35" s="54"/>
-      <c r="AL35" s="54"/>
-      <c r="AM35" s="54"/>
-      <c r="AN35" s="54"/>
-      <c r="AO35" s="54"/>
-      <c r="AP35" s="54"/>
-      <c r="AQ35" s="54"/>
-      <c r="AR35" s="56" t="s">
+      <c r="AD35" s="45"/>
+      <c r="AE35" s="45"/>
+      <c r="AF35" s="45"/>
+      <c r="AG35" s="45"/>
+      <c r="AH35" s="45"/>
+      <c r="AI35" s="45"/>
+      <c r="AJ35" s="45"/>
+      <c r="AK35" s="45"/>
+      <c r="AL35" s="45"/>
+      <c r="AM35" s="45"/>
+      <c r="AN35" s="45"/>
+      <c r="AO35" s="45"/>
+      <c r="AP35" s="45"/>
+      <c r="AQ35" s="45"/>
+      <c r="AR35" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="AS35" s="56" t="s">
+      <c r="AS35" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="AT35" s="54" t="s">
+      <c r="AT35" s="45" t="s">
         <v>307</v>
       </c>
-      <c r="AU35" s="54" t="s">
+      <c r="AU35" s="45" t="s">
         <v>308</v>
       </c>
-      <c r="AW35" s="56" t="s">
-        <v>1062</v>
+      <c r="AW35" s="47" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="36" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1">
@@ -41046,7 +41079,7 @@
         <v>314</v>
       </c>
       <c r="AV36" s="43" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="37" spans="1:49" s="54" customFormat="1" ht="23.25" customHeight="1">
@@ -41071,10 +41104,10 @@
       <c r="H37" s="54" t="s">
         <v>321</v>
       </c>
-      <c r="Q37" s="65" t="s">
+      <c r="Q37" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="R37" s="65" t="s">
+      <c r="R37" s="63" t="s">
         <v>72</v>
       </c>
       <c r="S37" s="54" t="s">
@@ -41112,7 +41145,7 @@
         <v>319</v>
       </c>
       <c r="AW37" s="54" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="38" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
@@ -41207,7 +41240,10 @@
         <v>323</v>
       </c>
       <c r="AV38" s="4" t="s">
-        <v>1065</v>
+        <v>323</v>
+      </c>
+      <c r="AW38" s="4" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="39" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
@@ -41300,7 +41336,7 @@
         <v>328</v>
       </c>
       <c r="AV39" s="4" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="40" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
@@ -41408,8 +41444,8 @@
       <c r="AU40" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="AV40" s="4" t="s">
-        <v>1067</v>
+      <c r="AV40" s="3" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="41" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
@@ -41501,8 +41537,8 @@
       <c r="AU41" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="AV41" s="4" t="s">
-        <v>1068</v>
+      <c r="AV41" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="AW41" s="4" t="s">
         <v>1069</v>
@@ -42026,86 +42062,89 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="47" spans="1:49" s="56" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A47" s="54" t="s">
+    <row r="47" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A47" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C47" s="54" t="s">
+      <c r="C47" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="D47" s="54" t="s">
+      <c r="D47" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E47" s="54" t="s">
+      <c r="E47" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F47" s="54" t="s">
+      <c r="F47" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="54"/>
-      <c r="Q47" s="55"/>
-      <c r="R47" s="55" t="s">
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="S47" s="54" t="s">
+      <c r="S47" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="T47" s="54" t="s">
+      <c r="T47" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="U47" s="54"/>
-      <c r="V47" s="54" t="str">
+      <c r="U47" s="3"/>
+      <c r="V47" s="3" t="str">
         <f t="shared" si="2"/>
         <v>["Sample", "Collection"]</v>
       </c>
-      <c r="W47" s="54" t="s">
+      <c r="W47" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="X47" s="54" t="s">
+      <c r="X47" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="Y47" s="54"/>
-      <c r="Z47" s="54"/>
-      <c r="AA47" s="54"/>
-      <c r="AB47" s="54"/>
-      <c r="AC47" s="54"/>
-      <c r="AD47" s="54"/>
-      <c r="AE47" s="54"/>
-      <c r="AF47" s="54"/>
-      <c r="AG47" s="54"/>
-      <c r="AH47" s="54"/>
-      <c r="AI47" s="54"/>
-      <c r="AJ47" s="54"/>
-      <c r="AK47" s="54"/>
-      <c r="AL47" s="54"/>
-      <c r="AM47" s="54"/>
-      <c r="AN47" s="54"/>
-      <c r="AO47" s="54"/>
-      <c r="AP47" s="54"/>
-      <c r="AQ47" s="54"/>
-      <c r="AR47" s="56" t="s">
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3"/>
+      <c r="AF47" s="3"/>
+      <c r="AG47" s="3"/>
+      <c r="AH47" s="3"/>
+      <c r="AI47" s="3"/>
+      <c r="AJ47" s="3"/>
+      <c r="AK47" s="3"/>
+      <c r="AL47" s="3"/>
+      <c r="AM47" s="3"/>
+      <c r="AN47" s="3"/>
+      <c r="AO47" s="3"/>
+      <c r="AP47" s="3"/>
+      <c r="AQ47" s="3"/>
+      <c r="AR47" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AS47" s="56" t="s">
+      <c r="AS47" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="AT47" s="54" t="s">
+      <c r="AT47" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="AU47" s="54" t="s">
+      <c r="AU47" s="3" t="s">
         <v>308</v>
+      </c>
+      <c r="AW47" s="4" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="48" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
@@ -42210,6 +42249,9 @@
       </c>
       <c r="AU48" s="38" t="s">
         <v>382</v>
+      </c>
+      <c r="AW48" s="40" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="49" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
@@ -42496,7 +42538,7 @@
         <v>400</v>
       </c>
       <c r="AV51" s="43" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="52" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
@@ -42609,7 +42651,7 @@
         <v>404</v>
       </c>
       <c r="AW52" s="40" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="53" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
@@ -42697,6 +42739,9 @@
       <c r="AU53" s="38" t="s">
         <v>410</v>
       </c>
+      <c r="AW53" s="40" t="s">
+        <v>1080</v>
+      </c>
     </row>
     <row r="54" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A54" s="3" t="s">
@@ -43357,8 +43402,11 @@
       <c r="AU60" s="38" t="s">
         <v>439</v>
       </c>
+      <c r="AV60" s="40" t="s">
+        <v>1081</v>
+      </c>
       <c r="AW60" s="40" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="61" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
@@ -43445,7 +43493,7 @@
         <v>445</v>
       </c>
       <c r="AW61" s="40" t="s">
-        <v>1078</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="62" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
@@ -43538,7 +43586,7 @@
         <v>449</v>
       </c>
       <c r="AW62" s="40" t="s">
-        <v>1078</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="63" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
@@ -43653,7 +43701,7 @@
         <v>452</v>
       </c>
       <c r="AV63" s="40" t="s">
-        <v>1079</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="64" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
@@ -43750,7 +43798,7 @@
         <v>461</v>
       </c>
       <c r="AW64" s="40" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="65" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
@@ -44338,7 +44386,7 @@
         <v>493</v>
       </c>
       <c r="AV70" s="43" t="s">
-        <v>1080</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="71" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
@@ -44891,7 +44939,7 @@
         <v>523</v>
       </c>
       <c r="AV76" s="43" t="s">
-        <v>1081</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="77" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1">
@@ -44982,7 +45030,7 @@
         <v>527</v>
       </c>
       <c r="AV77" s="43" t="s">
-        <v>1082</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="78" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
@@ -45071,7 +45119,7 @@
         <v>531</v>
       </c>
       <c r="AW78" s="40" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="79" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
@@ -45188,7 +45236,7 @@
         <v>537</v>
       </c>
       <c r="AW79" s="40" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="80" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
@@ -45205,7 +45253,7 @@
         <v>51</v>
       </c>
       <c r="E80" s="38" t="s">
-        <v>145</v>
+        <v>727</v>
       </c>
       <c r="F80" s="38" t="s">
         <v>546</v>
@@ -45294,8 +45342,11 @@
       <c r="AU80" s="38" t="s">
         <v>547</v>
       </c>
+      <c r="AV80" s="40" t="s">
+        <v>1088</v>
+      </c>
       <c r="AW80" s="40" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="81" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
@@ -45382,7 +45433,7 @@
         <v>553</v>
       </c>
       <c r="AV81" s="40" t="s">
-        <v>1083</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="82" spans="1:49" s="40" customFormat="1" ht="23.25" customHeight="1">
@@ -45471,7 +45522,7 @@
         <v>557</v>
       </c>
       <c r="AW82" s="40" t="s">
-        <v>1084</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="83" spans="1:49" s="43" customFormat="1" ht="23.25" customHeight="1">
@@ -45572,7 +45623,7 @@
         <v>561</v>
       </c>
       <c r="AV83" s="43" t="s">
-        <v>1085</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="84" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
@@ -45754,7 +45805,7 @@
         <v>573</v>
       </c>
       <c r="AV85" s="4" t="s">
-        <v>1086</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="86" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
@@ -45939,7 +45990,7 @@
         <v>587</v>
       </c>
       <c r="AV87" s="4" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="88" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
@@ -45956,7 +46007,7 @@
         <v>51</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>591</v>
@@ -46028,7 +46079,10 @@
         <v>592</v>
       </c>
       <c r="AV88" s="4" t="s">
-        <v>1088</v>
+        <v>1094</v>
+      </c>
+      <c r="AW88" s="4" t="s">
+        <v>1095</v>
       </c>
     </row>
     <row r="89" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
@@ -46045,7 +46099,7 @@
         <v>51</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>596</v>
@@ -46125,7 +46179,10 @@
         <v>597</v>
       </c>
       <c r="AV89" s="4" t="s">
-        <v>1089</v>
+        <v>1096</v>
+      </c>
+      <c r="AW89" s="4" t="s">
+        <v>1095</v>
       </c>
     </row>
     <row r="90" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
@@ -46220,7 +46277,7 @@
         <v>604</v>
       </c>
       <c r="AV90" s="4" t="s">
-        <v>1090</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="91" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
@@ -46495,7 +46552,7 @@
         <v>622</v>
       </c>
       <c r="AV93" s="4" t="s">
-        <v>1091</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="94" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
@@ -46598,7 +46655,7 @@
         <v>631</v>
       </c>
       <c r="AV94" s="4" t="s">
-        <v>1092</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="95" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
@@ -46699,7 +46756,7 @@
         <v>638</v>
       </c>
       <c r="AV95" s="4" t="s">
-        <v>1093</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="96" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
@@ -46800,7 +46857,7 @@
         <v>644</v>
       </c>
       <c r="AV96" s="4" t="s">
-        <v>1094</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="97" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
@@ -46903,7 +46960,7 @@
         <v>650</v>
       </c>
       <c r="AV97" s="4" t="s">
-        <v>1095</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="98" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
@@ -47004,7 +47061,7 @@
         <v>656</v>
       </c>
       <c r="AV98" s="4" t="s">
-        <v>1096</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="99" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
@@ -47107,7 +47164,7 @@
         <v>662</v>
       </c>
       <c r="AV99" s="4" t="s">
-        <v>1097</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="100" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
@@ -47208,7 +47265,7 @@
         <v>669</v>
       </c>
       <c r="AV100" s="4" t="s">
-        <v>1098</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="101" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
@@ -47311,7 +47368,7 @@
         <v>675</v>
       </c>
       <c r="AV101" s="4" t="s">
-        <v>1099</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="102" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
@@ -47422,7 +47479,7 @@
         <v>682</v>
       </c>
       <c r="AV102" s="4" t="s">
-        <v>1100</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="103" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1">
@@ -47929,7 +47986,7 @@
         <v>714</v>
       </c>
       <c r="AV108" s="4" t="s">
-        <v>1101</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="109" spans="1:49" s="4" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
@@ -48034,257 +48091,260 @@
         <v>718</v>
       </c>
     </row>
-    <row r="110" spans="1:49" s="58" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A110" s="57" t="s">
+    <row r="110" spans="1:49" s="56" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A110" s="55" t="s">
         <v>724</v>
       </c>
-      <c r="B110" s="58" t="s">
+      <c r="B110" s="56" t="s">
         <v>725</v>
       </c>
-      <c r="C110" s="57" t="s">
+      <c r="C110" s="55" t="s">
         <v>726</v>
       </c>
-      <c r="D110" s="57"/>
-      <c r="E110" s="57" t="s">
+      <c r="D110" s="55"/>
+      <c r="E110" s="55" t="s">
         <v>727</v>
       </c>
-      <c r="O110" s="57" t="s">
+      <c r="O110" s="55" t="s">
         <v>728</v>
       </c>
-      <c r="P110" s="57" t="s">
+      <c r="P110" s="55" t="s">
         <v>728</v>
       </c>
-      <c r="Q110" s="59" t="s">
+      <c r="Q110" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="R110" s="59" t="s">
+      <c r="R110" s="57" t="s">
         <v>248</v>
       </c>
-      <c r="V110" s="57" t="str">
+      <c r="V110" s="55" t="str">
         <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA ERC33", "ENA Study", "VJDB Study"]</v>
       </c>
-      <c r="AJ110" s="57" t="s">
+      <c r="AJ110" s="55" t="s">
         <v>729</v>
       </c>
-      <c r="AK110" s="57"/>
-      <c r="AL110" s="57"/>
-      <c r="AM110" s="57" t="s">
+      <c r="AK110" s="55"/>
+      <c r="AL110" s="55"/>
+      <c r="AM110" s="55" t="s">
         <v>729</v>
       </c>
-      <c r="AN110" s="57"/>
-      <c r="AO110" s="57" t="s">
+      <c r="AN110" s="55"/>
+      <c r="AO110" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="AP110" s="57" t="s">
+      <c r="AP110" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="AQ110" s="57" t="s">
+      <c r="AQ110" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="AR110" s="60" t="s">
+      <c r="AR110" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="AS110" s="60" t="s">
+      <c r="AS110" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="AT110" s="57" t="s">
+      <c r="AT110" s="55" t="s">
         <v>724</v>
       </c>
-      <c r="AU110" s="58" t="s">
+      <c r="AU110" s="56" t="s">
         <v>725</v>
       </c>
-      <c r="AW110" s="58" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="111" spans="1:49" s="58" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A111" s="57" t="s">
+      <c r="AW110" s="56" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:49" s="56" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A111" s="55" t="s">
         <v>730</v>
       </c>
-      <c r="B111" s="58" t="s">
+      <c r="B111" s="56" t="s">
         <v>731</v>
       </c>
-      <c r="C111" s="57" t="s">
+      <c r="C111" s="55" t="s">
         <v>732</v>
       </c>
-      <c r="D111" s="57"/>
-      <c r="E111" s="57" t="s">
+      <c r="D111" s="55"/>
+      <c r="E111" s="55" t="s">
         <v>727</v>
       </c>
-      <c r="O111" s="57" t="s">
+      <c r="O111" s="55" t="s">
         <v>728</v>
       </c>
-      <c r="P111" s="57" t="s">
+      <c r="P111" s="55" t="s">
         <v>728</v>
       </c>
-      <c r="Q111" s="59" t="s">
+      <c r="Q111" s="57" t="s">
         <v>626</v>
       </c>
-      <c r="R111" s="59" t="s">
+      <c r="R111" s="57" t="s">
         <v>627</v>
       </c>
-      <c r="V111" s="57" t="str">
+      <c r="V111" s="55" t="str">
         <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA ERC33", "ENA Experiment", "VJDB Experiment"]</v>
       </c>
-      <c r="AJ111" s="57" t="s">
+      <c r="AJ111" s="55" t="s">
         <v>733</v>
       </c>
-      <c r="AK111" s="57"/>
-      <c r="AL111" s="57"/>
-      <c r="AM111" s="57" t="s">
+      <c r="AK111" s="55"/>
+      <c r="AL111" s="55"/>
+      <c r="AM111" s="55" t="s">
         <v>733</v>
       </c>
-      <c r="AN111" s="57"/>
-      <c r="AO111" s="57" t="s">
+      <c r="AN111" s="55"/>
+      <c r="AO111" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="AP111" s="57" t="s">
+      <c r="AP111" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="AQ111" s="57" t="s">
+      <c r="AQ111" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="AR111" s="60" t="s">
+      <c r="AR111" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="AS111" s="60" t="s">
+      <c r="AS111" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="AT111" s="57" t="s">
+      <c r="AT111" s="55" t="s">
         <v>730</v>
       </c>
-      <c r="AU111" s="58" t="s">
+      <c r="AU111" s="56" t="s">
         <v>731</v>
       </c>
-      <c r="AW111" s="58" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="112" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A112" s="3" t="s">
+      <c r="AW111" s="56" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:49" s="56" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A112" s="55" t="s">
         <v>734</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="56" t="s">
         <v>735</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="55" t="s">
         <v>736</v>
       </c>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3" t="s">
+      <c r="D112" s="55"/>
+      <c r="E112" s="55" t="s">
         <v>727</v>
       </c>
-      <c r="O112" s="3" t="s">
+      <c r="O112" s="55" t="s">
         <v>728</v>
       </c>
-      <c r="P112" s="3" t="s">
+      <c r="P112" s="55" t="s">
         <v>728</v>
       </c>
-      <c r="Q112" s="32" t="s">
+      <c r="Q112" s="57" t="s">
         <v>737</v>
       </c>
-      <c r="R112" s="32" t="s">
+      <c r="R112" s="57" t="s">
         <v>738</v>
       </c>
-      <c r="V112" s="3" t="str">
+      <c r="V112" s="55" t="str">
         <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA ERC33", "ENA Run", "VJDB Run"]</v>
       </c>
-      <c r="AJ112" s="3" t="s">
+      <c r="AJ112" s="55" t="s">
         <v>739</v>
       </c>
-      <c r="AK112" s="3"/>
-      <c r="AL112" s="3"/>
-      <c r="AM112" s="3" t="s">
+      <c r="AK112" s="55"/>
+      <c r="AL112" s="55"/>
+      <c r="AM112" s="55" t="s">
         <v>739</v>
       </c>
-      <c r="AN112" s="3"/>
-      <c r="AO112" s="3" t="s">
+      <c r="AN112" s="55"/>
+      <c r="AO112" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="AP112" s="3" t="s">
+      <c r="AP112" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="AQ112" s="3" t="s">
+      <c r="AQ112" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="AR112" s="4" t="s">
+      <c r="AR112" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="AS112" s="4" t="s">
+      <c r="AS112" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="AT112" s="3" t="s">
+      <c r="AT112" s="55" t="s">
         <v>734</v>
       </c>
-      <c r="AU112" t="s">
+      <c r="AU112" s="56" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="113" spans="1:49" s="58" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A113" s="57" t="s">
+      <c r="AW112" s="56" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:49" s="56" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A113" s="55" t="s">
         <v>740</v>
       </c>
-      <c r="B113" s="58" t="s">
+      <c r="B113" s="56" t="s">
         <v>741</v>
       </c>
-      <c r="C113" s="57" t="s">
+      <c r="C113" s="55" t="s">
         <v>742</v>
       </c>
-      <c r="D113" s="57"/>
-      <c r="E113" s="57" t="s">
+      <c r="D113" s="55"/>
+      <c r="E113" s="55" t="s">
         <v>727</v>
       </c>
-      <c r="O113" s="57" t="s">
+      <c r="O113" s="55" t="s">
         <v>728</v>
       </c>
-      <c r="P113" s="57" t="s">
+      <c r="P113" s="55" t="s">
         <v>728</v>
       </c>
-      <c r="Q113" s="59" t="s">
+      <c r="Q113" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="R113" s="59" t="s">
+      <c r="R113" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="V113" s="57" t="str">
+      <c r="V113" s="55" t="str">
         <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA ERC33", "ENA Sample", "VJDB Sample"]</v>
       </c>
-      <c r="AJ113" s="57" t="s">
+      <c r="AJ113" s="55" t="s">
         <v>743</v>
       </c>
-      <c r="AK113" s="57"/>
-      <c r="AL113" s="57"/>
-      <c r="AM113" s="57" t="s">
+      <c r="AK113" s="55"/>
+      <c r="AL113" s="55"/>
+      <c r="AM113" s="55" t="s">
         <v>739</v>
       </c>
-      <c r="AN113" s="57"/>
-      <c r="AO113" s="57" t="s">
+      <c r="AN113" s="55"/>
+      <c r="AO113" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="AP113" s="57" t="s">
+      <c r="AP113" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="AQ113" s="57" t="s">
+      <c r="AQ113" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="AR113" s="60" t="s">
+      <c r="AR113" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="AS113" s="60" t="s">
+      <c r="AS113" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="AT113" s="57" t="s">
+      <c r="AT113" s="55" t="s">
         <v>740</v>
       </c>
-      <c r="AU113" s="58" t="s">
+      <c r="AU113" s="56" t="s">
         <v>741</v>
       </c>
-      <c r="AW113" s="58" t="s">
-        <v>1102</v>
+      <c r="AW113" s="56" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="114" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
@@ -48507,68 +48567,68 @@
         <v>754</v>
       </c>
     </row>
-    <row r="118" spans="1:49" s="58" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A118" s="57" t="s">
+    <row r="118" spans="1:49" s="56" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A118" s="55" t="s">
         <v>730</v>
       </c>
-      <c r="B118" s="58" t="s">
+      <c r="B118" s="56" t="s">
         <v>731</v>
       </c>
-      <c r="C118" s="57" t="s">
+      <c r="C118" s="55" t="s">
         <v>756</v>
       </c>
-      <c r="D118" s="57"/>
-      <c r="E118" s="57" t="s">
+      <c r="D118" s="55"/>
+      <c r="E118" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="O118" s="57" t="s">
+      <c r="O118" s="55" t="s">
         <v>730</v>
       </c>
-      <c r="P118" s="57" t="s">
+      <c r="P118" s="55" t="s">
         <v>730</v>
       </c>
-      <c r="Q118" s="59" t="s">
+      <c r="Q118" s="57" t="s">
         <v>737</v>
       </c>
-      <c r="R118" s="59" t="s">
+      <c r="R118" s="57" t="s">
         <v>738</v>
       </c>
-      <c r="V118" s="57" t="str">
+      <c r="V118" s="55" t="str">
         <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA ERC33", "ENA Run", "VJDB Run"]</v>
       </c>
-      <c r="AJ118" s="57" t="s">
+      <c r="AJ118" s="55" t="s">
         <v>756</v>
       </c>
-      <c r="AK118" s="57"/>
-      <c r="AL118" s="57"/>
-      <c r="AM118" s="57" t="s">
+      <c r="AK118" s="55"/>
+      <c r="AL118" s="55"/>
+      <c r="AM118" s="55" t="s">
         <v>756</v>
       </c>
-      <c r="AN118" s="57"/>
-      <c r="AO118" s="57" t="s">
+      <c r="AN118" s="55"/>
+      <c r="AO118" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="AP118" s="57" t="s">
+      <c r="AP118" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="AQ118" s="57" t="s">
+      <c r="AQ118" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="AR118" s="60" t="s">
+      <c r="AR118" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="AS118" s="60" t="s">
+      <c r="AS118" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="AT118" s="57" t="s">
+      <c r="AT118" s="55" t="s">
         <v>730</v>
       </c>
-      <c r="AU118" s="58" t="s">
+      <c r="AU118" s="56" t="s">
         <v>731</v>
       </c>
-      <c r="AW118" s="58" t="s">
-        <v>1102</v>
+      <c r="AW118" s="56" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="119" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
@@ -49557,11 +49617,11 @@
         <v>806</v>
       </c>
     </row>
-    <row r="136" spans="1:49" s="63" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="136" spans="1:49" s="61" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A136" s="38" t="s">
         <v>808</v>
       </c>
-      <c r="B136" s="63" t="s">
+      <c r="B136" s="61" t="s">
         <v>809</v>
       </c>
       <c r="C136" s="38" t="s">
@@ -49577,10 +49637,10 @@
       <c r="P136" s="38" t="s">
         <v>808</v>
       </c>
-      <c r="Q136" s="64" t="s">
+      <c r="Q136" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="R136" s="64" t="s">
+      <c r="R136" s="62" t="s">
         <v>248</v>
       </c>
       <c r="V136" s="38" t="str">
@@ -49614,11 +49674,11 @@
       <c r="AT136" s="38" t="s">
         <v>808</v>
       </c>
-      <c r="AU136" s="63" t="s">
+      <c r="AU136" s="61" t="s">
         <v>809</v>
       </c>
-      <c r="AW136" s="63" t="s">
-        <v>1103</v>
+      <c r="AW136" s="61" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="137" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
@@ -49859,67 +49919,67 @@
         <v>821</v>
       </c>
     </row>
-    <row r="141" spans="1:49" s="58" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A141" s="57" t="s">
+    <row r="141" spans="1:49" s="56" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A141" s="55" t="s">
         <v>740</v>
       </c>
-      <c r="B141" s="58" t="s">
+      <c r="B141" s="56" t="s">
         <v>741</v>
       </c>
-      <c r="C141" s="57" t="s">
+      <c r="C141" s="55" t="s">
         <v>824</v>
       </c>
-      <c r="D141" s="57"/>
-      <c r="E141" s="57" t="s">
+      <c r="D141" s="55"/>
+      <c r="E141" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="O141" s="57" t="s">
+      <c r="O141" s="55" t="s">
         <v>740</v>
       </c>
-      <c r="P141" s="57" t="s">
+      <c r="P141" s="55" t="s">
         <v>740</v>
       </c>
-      <c r="Q141" s="59" t="s">
+      <c r="Q141" s="57" t="s">
         <v>626</v>
       </c>
-      <c r="R141" s="59" t="s">
+      <c r="R141" s="57" t="s">
         <v>627</v>
       </c>
-      <c r="V141" s="57" t="str">
+      <c r="V141" s="55" t="str">
         <f t="shared" si="4"/>
         <v>["ENA ERC32", "ENA ERC33", "ENA Experiment", "VJDB Experiment"]</v>
       </c>
-      <c r="AJ141" s="57" t="s">
+      <c r="AJ141" s="55" t="s">
         <v>824</v>
       </c>
-      <c r="AK141" s="57"/>
-      <c r="AL141" s="57"/>
-      <c r="AM141" s="57" t="s">
+      <c r="AK141" s="55"/>
+      <c r="AL141" s="55"/>
+      <c r="AM141" s="55" t="s">
         <v>824</v>
       </c>
-      <c r="AN141" s="57"/>
-      <c r="AO141" s="57" t="s">
+      <c r="AN141" s="55"/>
+      <c r="AO141" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="AP141" s="57" t="s">
+      <c r="AP141" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="AQ141" s="57" t="s">
+      <c r="AQ141" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="AR141" s="60" t="s">
+      <c r="AR141" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="AS141" s="60" t="s">
+      <c r="AS141" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="AT141" s="57" t="s">
+      <c r="AT141" s="55" t="s">
         <v>740</v>
       </c>
-      <c r="AU141" s="58" t="s">
+      <c r="AU141" s="56" t="s">
         <v>741</v>
       </c>
-      <c r="AW141" s="58" t="s">
+      <c r="AW141" s="56" t="s">
         <v>380</v>
       </c>
     </row>
@@ -50100,11 +50160,11 @@
         <v>832</v>
       </c>
     </row>
-    <row r="145" spans="1:49" s="61" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="145" spans="1:49" s="59" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A145" s="41" t="s">
         <v>834</v>
       </c>
-      <c r="B145" s="61" t="s">
+      <c r="B145" s="59" t="s">
         <v>835</v>
       </c>
       <c r="C145" s="41" t="s">
@@ -50120,10 +50180,10 @@
       <c r="P145" s="41" t="s">
         <v>834</v>
       </c>
-      <c r="Q145" s="62" t="s">
+      <c r="Q145" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="R145" s="62" t="s">
+      <c r="R145" s="60" t="s">
         <v>248</v>
       </c>
       <c r="V145" s="41" t="str">
@@ -50157,82 +50217,82 @@
       <c r="AT145" s="41" t="s">
         <v>834</v>
       </c>
-      <c r="AU145" s="61" t="s">
+      <c r="AU145" s="59" t="s">
         <v>835</v>
       </c>
-      <c r="AV145" s="61" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="146" spans="1:49" s="58" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A146" s="57" t="s">
+      <c r="AV145" s="59" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="146" spans="1:49" s="56" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A146" s="55" t="s">
         <v>724</v>
       </c>
-      <c r="B146" s="58" t="s">
+      <c r="B146" s="56" t="s">
         <v>725</v>
       </c>
-      <c r="C146" s="57" t="s">
+      <c r="C146" s="55" t="s">
         <v>838</v>
       </c>
-      <c r="D146" s="57"/>
-      <c r="E146" s="57" t="s">
+      <c r="D146" s="55"/>
+      <c r="E146" s="55" t="s">
         <v>727</v>
       </c>
-      <c r="O146" s="57" t="s">
+      <c r="O146" s="55" t="s">
         <v>724</v>
       </c>
-      <c r="P146" s="57" t="s">
+      <c r="P146" s="55" t="s">
         <v>724</v>
       </c>
-      <c r="Q146" s="59" t="s">
+      <c r="Q146" s="57" t="s">
         <v>626</v>
       </c>
-      <c r="R146" s="59" t="s">
+      <c r="R146" s="57" t="s">
         <v>627</v>
       </c>
-      <c r="V146" s="57" t="str">
+      <c r="V146" s="55" t="str">
         <f t="shared" si="4"/>
         <v>["ENA ERC32", "ENA ERC33", "ENA Experiment", "VJDB Experiment"]</v>
       </c>
-      <c r="AJ146" s="57" t="s">
+      <c r="AJ146" s="55" t="s">
         <v>838</v>
       </c>
-      <c r="AK146" s="57"/>
-      <c r="AL146" s="57"/>
-      <c r="AM146" s="57" t="s">
+      <c r="AK146" s="55"/>
+      <c r="AL146" s="55"/>
+      <c r="AM146" s="55" t="s">
         <v>838</v>
       </c>
-      <c r="AN146" s="57"/>
-      <c r="AO146" s="57" t="s">
+      <c r="AN146" s="55"/>
+      <c r="AO146" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="AP146" s="57" t="s">
+      <c r="AP146" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="AQ146" s="57" t="s">
+      <c r="AQ146" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="AR146" s="60" t="s">
+      <c r="AR146" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="AS146" s="60" t="s">
+      <c r="AS146" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="AT146" s="57" t="s">
+      <c r="AT146" s="55" t="s">
         <v>724</v>
       </c>
-      <c r="AU146" s="58" t="s">
+      <c r="AU146" s="56" t="s">
         <v>725</v>
       </c>
-      <c r="AW146" s="58" t="s">
+      <c r="AW146" s="56" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="147" spans="1:49" s="63" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="147" spans="1:49" s="61" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A147" s="38" t="s">
         <v>839</v>
       </c>
-      <c r="B147" s="63" t="s">
+      <c r="B147" s="61" t="s">
         <v>840</v>
       </c>
       <c r="C147" s="38" t="s">
@@ -50248,10 +50308,10 @@
       <c r="P147" s="38" t="s">
         <v>839</v>
       </c>
-      <c r="Q147" s="64" t="s">
+      <c r="Q147" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="R147" s="64" t="s">
+      <c r="R147" s="62" t="s">
         <v>248</v>
       </c>
       <c r="V147" s="38" t="str">
@@ -50285,11 +50345,11 @@
       <c r="AT147" s="38" t="s">
         <v>839</v>
       </c>
-      <c r="AU147" s="63" t="s">
+      <c r="AU147" s="61" t="s">
         <v>840</v>
       </c>
-      <c r="AW147" s="63" t="s">
-        <v>1105</v>
+      <c r="AW147" s="61" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="148" spans="1:49" ht="23.25" customHeight="1" thickBot="1">
@@ -50876,6 +50936,38 @@
       </c>
       <c r="AU157" t="s">
         <v>873</v>
+      </c>
+    </row>
+    <row r="158" spans="1:49">
+      <c r="A158" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E158" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="159" spans="1:49">
+      <c r="A159" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E159" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="160" spans="1:49">
+      <c r="A160" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E160" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E161" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC69E107-A3E1-4F78-8E94-EB380D9A2889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6CC74F6-A452-4B42-8D5C-4DE887D28C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4278" uniqueCount="1419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4288" uniqueCount="1422">
   <si>
     <t>VJDBv0.3</t>
   </si>
@@ -3911,6 +3911,15 @@
   </si>
   <si>
     <t>Virus name(s)</t>
+  </si>
+  <si>
+    <t>bvbrc_host_age</t>
+  </si>
+  <si>
+    <t>BVBRC Host Age</t>
+  </si>
+  <si>
+    <t>0hb</t>
   </si>
   <si>
     <t>do not add</t>
@@ -4968,7 +4977,15 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -5315,10 +5332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E033465-2455-477E-A700-6BF7A0771C26}">
-  <dimension ref="A1:FY187"/>
+  <dimension ref="A1:FY188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T178" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U180" sqref="U180:U187"/>
+    <sheetView tabSelected="1" topLeftCell="AS176" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AX188" sqref="AX188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="23.25" customHeight="1"/>
@@ -19817,6 +19834,12 @@
 ) &amp; "]"</f>
         <v>["ENA ERC32", "ENA ERC33", "ENA Sample", "VJDB Sample"]</v>
       </c>
+      <c r="W126" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="AG126" s="49" t="s">
+        <v>913</v>
+      </c>
       <c r="AK126" s="44" t="s">
         <v>914</v>
       </c>
@@ -23469,9 +23492,7 @@
       <c r="K178" s="44"/>
       <c r="L178" s="44"/>
       <c r="M178" s="44"/>
-      <c r="N178" s="44" t="s">
-        <v>1159</v>
-      </c>
+      <c r="N178" s="44"/>
       <c r="O178" s="44" t="s">
         <v>1175</v>
       </c>
@@ -23504,11 +23525,9 @@
     IF(T178&lt;&gt;"", """" &amp; T178 &amp; """", ""),
     IF(U178&lt;&gt;"", """" &amp; U178 &amp; """", "")
 ) &amp; "]"</f>
-        <v>["ENA", "BV-BRC", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "VJDB Sample", "Clinical", "Host"]</v>
-      </c>
-      <c r="W178" s="44" t="s">
-        <v>321</v>
-      </c>
+        <v>["ENA", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "VJDB Sample", "Clinical", "Host"]</v>
+      </c>
+      <c r="W178" s="44"/>
       <c r="X178" s="45" t="s">
         <v>1176</v>
       </c>
@@ -23518,16 +23537,10 @@
       <c r="AB178" s="44"/>
       <c r="AC178" s="44"/>
       <c r="AD178" s="44"/>
-      <c r="AE178" s="44" t="s">
-        <v>188</v>
-      </c>
+      <c r="AE178" s="44"/>
       <c r="AF178" s="44"/>
-      <c r="AG178" s="44" t="s">
-        <v>1173</v>
-      </c>
-      <c r="AH178" s="44" t="s">
-        <v>67</v>
-      </c>
+      <c r="AG178" s="44"/>
+      <c r="AH178" s="44"/>
       <c r="AI178" s="44"/>
       <c r="AJ178" s="44"/>
       <c r="AK178" s="44" t="s">
@@ -23936,9 +23949,6 @@
       <c r="E183" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="U183" s="49" t="s">
-        <v>580</v>
-      </c>
       <c r="V183" s="44" t="str">
         <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
     IF(H183&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
@@ -23950,7 +23960,7 @@
     IF(T183&lt;&gt;"", """" &amp; T183 &amp; """", ""),
     IF(U183&lt;&gt;"", """" &amp; U183 &amp; """", "")
 ) &amp; "]"</f>
-        <v>["ICTV"]</v>
+        <v>[]</v>
       </c>
       <c r="W183" s="49" t="s">
         <v>580</v>
@@ -23974,9 +23984,6 @@
       </c>
       <c r="E184" s="49" t="s">
         <v>143</v>
-      </c>
-      <c r="U184" t="s">
-        <v>1209</v>
       </c>
       <c r="V184" s="44" t="str">
         <f t="shared" ref="V184:V187" si="5">"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
@@ -23989,7 +23996,7 @@
     IF(T184&lt;&gt;"", """" &amp; T184 &amp; """", ""),
     IF(U184&lt;&gt;"", """" &amp; U184 &amp; """", "")
 ) &amp; "]"</f>
-        <v>["ViralZone"]</v>
+        <v>[]</v>
       </c>
       <c r="W184" t="s">
         <v>1209</v>
@@ -24097,11 +24104,109 @@
         <v>1225</v>
       </c>
     </row>
+    <row r="188" spans="1:170" ht="23.25" customHeight="1">
+      <c r="A188" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C188" s="55" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D188" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E188" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="F188" s="44"/>
+      <c r="G188" s="44"/>
+      <c r="H188" s="44"/>
+      <c r="I188" s="44"/>
+      <c r="J188" s="44"/>
+      <c r="K188" s="44"/>
+      <c r="L188" s="44"/>
+      <c r="M188" s="44"/>
+      <c r="N188" s="44" t="s">
+        <v>1159</v>
+      </c>
+      <c r="O188" s="44"/>
+      <c r="P188" s="44"/>
+      <c r="Q188" s="47"/>
+      <c r="R188" s="47"/>
+      <c r="S188" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="T188" s="44" t="s">
+        <v>394</v>
+      </c>
+      <c r="U188" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="V188" s="44" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
+    IF(H188&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
+    IF(I188&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
+    IF(J188&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
+    IF(K188&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
+    IF(L188&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M188&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N188&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O188&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P188&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
+    IF(S188&lt;&gt;"", """" &amp; S188 &amp; """", ""), IF(Q188&lt;&gt;"", """" &amp; Q188 &amp; """", ""), IF(R188&lt;&gt;"", """" &amp; R188 &amp; """", ""),
+    IF(T188&lt;&gt;"", """" &amp; T188 &amp; """", ""),
+    IF(U188&lt;&gt;"", """" &amp; U188 &amp; """", "")
+) &amp; "]"</f>
+        <v>["BV-BRC", "Sample", "Clinical", "BVBRC"]</v>
+      </c>
+      <c r="W188" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="X188" s="45" t="s">
+        <v>1176</v>
+      </c>
+      <c r="Y188" s="44"/>
+      <c r="Z188" s="44"/>
+      <c r="AA188" s="44"/>
+      <c r="AB188" s="44"/>
+      <c r="AC188" s="44"/>
+      <c r="AD188" s="44"/>
+      <c r="AE188" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF188" s="44"/>
+      <c r="AG188" s="44" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AH188" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI188" s="44"/>
+      <c r="AJ188" s="44"/>
+      <c r="AK188" s="44"/>
+      <c r="AL188" s="44"/>
+      <c r="AM188" s="44"/>
+      <c r="AN188" s="44"/>
+      <c r="AO188" s="44"/>
+      <c r="AP188" s="44"/>
+      <c r="AQ188" s="44"/>
+      <c r="AR188" s="44"/>
+      <c r="AS188" s="44"/>
+      <c r="AT188" s="44"/>
+      <c r="AU188" s="45"/>
+      <c r="AV188" s="45"/>
+      <c r="AW188" t="s">
+        <v>1228</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="F2 F170 F168 F157 F172:F174 F176 F178 F5:F98">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>COUNTIF(F:F, F2) &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F188">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>COUNTIF(F:F, F2) &gt; 1</formula>
+      <formula>COUNTIF(F:F, F188) &gt; 1</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -25293,7 +25398,7 @@
         <v>321</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
@@ -25303,14 +25408,14 @@
       <c r="AC5" s="8"/>
       <c r="AD5" s="8"/>
       <c r="AE5" s="2" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="AG5" s="8"/>
       <c r="AH5" s="9" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI5" s="8"/>
       <c r="AJ5" s="8"/>
@@ -25337,7 +25442,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -25362,7 +25467,7 @@
         <v>321</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X6" s="13"/>
       <c r="Y6" s="13"/>
@@ -25374,14 +25479,14 @@
       </c>
       <c r="AD6" s="13"/>
       <c r="AE6" s="1" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG6" s="13"/>
       <c r="AH6" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI6" s="13"/>
       <c r="AJ6" s="13"/>
@@ -25431,7 +25536,7 @@
         <v>321</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X7" s="13"/>
       <c r="Y7" s="13"/>
@@ -25443,14 +25548,14 @@
         <v>119</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="AF7" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG7" s="13"/>
       <c r="AH7" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI7" s="13"/>
       <c r="AJ7" s="13"/>
@@ -25500,7 +25605,7 @@
         <v>321</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X8" s="13"/>
       <c r="Y8" s="13"/>
@@ -25510,14 +25615,14 @@
       <c r="AC8" s="13"/>
       <c r="AD8" s="13"/>
       <c r="AE8" s="1" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG8" s="13"/>
       <c r="AH8" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI8" s="13"/>
       <c r="AJ8" s="13"/>
@@ -25567,7 +25672,7 @@
         <v>321</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
@@ -25577,14 +25682,14 @@
       <c r="AC9" s="13"/>
       <c r="AD9" s="13"/>
       <c r="AE9" s="1" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="AF9" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG9" s="13"/>
       <c r="AH9" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI9" s="13"/>
       <c r="AJ9" s="13"/>
@@ -25611,7 +25716,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -25636,7 +25741,7 @@
         <v>321</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
@@ -25648,14 +25753,14 @@
       </c>
       <c r="AD10" s="13"/>
       <c r="AE10" s="1" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="AF10" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG10" s="13"/>
       <c r="AH10" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI10" s="13"/>
       <c r="AJ10" s="13"/>
@@ -25682,7 +25787,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -25707,7 +25812,7 @@
         <v>321</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
@@ -25719,14 +25824,14 @@
       </c>
       <c r="AD11" s="13"/>
       <c r="AE11" s="1" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="AF11" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG11" s="13"/>
       <c r="AH11" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI11" s="13"/>
       <c r="AJ11" s="13"/>
@@ -25776,7 +25881,7 @@
         <v>321</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
@@ -25786,14 +25891,14 @@
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
       <c r="AE12" s="1" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
       <c r="AF12" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG12" s="13"/>
       <c r="AH12" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI12" s="13"/>
       <c r="AJ12" s="13"/>
@@ -25843,7 +25948,7 @@
         <v>321</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
@@ -25853,14 +25958,14 @@
       <c r="AC13" s="13"/>
       <c r="AD13" s="13"/>
       <c r="AE13" s="1" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="AF13" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG13" s="13"/>
       <c r="AH13" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI13" s="13"/>
       <c r="AJ13" s="13"/>
@@ -25887,7 +25992,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -25912,7 +26017,7 @@
         <v>321</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
@@ -25920,20 +26025,20 @@
       <c r="AA14" s="13"/>
       <c r="AB14" s="13"/>
       <c r="AC14" s="1" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="AF14" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AG14" s="13"/>
       <c r="AH14" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI14" s="13"/>
       <c r="AJ14" s="13"/>
@@ -25983,7 +26088,7 @@
         <v>321</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
@@ -25992,17 +26097,17 @@
       <c r="AB15" s="13"/>
       <c r="AC15" s="13"/>
       <c r="AD15" s="1" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="AF15" s="1" t="s">
         <v>225</v>
       </c>
       <c r="AG15" s="13"/>
       <c r="AH15" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI15" s="13"/>
       <c r="AJ15" s="13"/>
@@ -26052,7 +26157,7 @@
         <v>321</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
@@ -26062,14 +26167,14 @@
       <c r="AC16" s="13"/>
       <c r="AD16" s="13"/>
       <c r="AE16" s="1" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="AF16" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG16" s="13"/>
       <c r="AH16" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI16" s="13"/>
       <c r="AJ16" s="13"/>
@@ -26096,7 +26201,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
@@ -26121,7 +26226,7 @@
         <v>321</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
@@ -26129,20 +26234,20 @@
       <c r="AA17" s="13"/>
       <c r="AB17" s="13"/>
       <c r="AC17" s="1" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="AF17" s="1" t="s">
         <v>225</v>
       </c>
       <c r="AG17" s="13"/>
       <c r="AH17" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI17" s="13"/>
       <c r="AJ17" s="13"/>
@@ -26169,7 +26274,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
@@ -26194,7 +26299,7 @@
         <v>321</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
@@ -26202,20 +26307,20 @@
       <c r="AA18" s="13"/>
       <c r="AB18" s="13"/>
       <c r="AC18" s="1" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
       <c r="AF18" s="1" t="s">
         <v>225</v>
       </c>
       <c r="AG18" s="13"/>
       <c r="AH18" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI18" s="13"/>
       <c r="AJ18" s="13"/>
@@ -26242,7 +26347,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -26267,7 +26372,7 @@
         <v>321</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
@@ -26281,14 +26386,14 @@
         <v>201</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="AF19" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AG19" s="13"/>
       <c r="AH19" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI19" s="13"/>
       <c r="AJ19" s="13"/>
@@ -26315,7 +26420,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -26340,7 +26445,7 @@
         <v>321</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
@@ -26352,14 +26457,14 @@
       </c>
       <c r="AD20" s="13"/>
       <c r="AE20" s="1" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="AF20" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AG20" s="13"/>
       <c r="AH20" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI20" s="13"/>
       <c r="AJ20" s="13"/>
@@ -26431,7 +26536,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -26456,7 +26561,7 @@
         <v>321</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
@@ -26464,20 +26569,20 @@
       <c r="AA22" s="13"/>
       <c r="AB22" s="13"/>
       <c r="AC22" s="1" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="AF22" s="1" t="s">
         <v>225</v>
       </c>
       <c r="AG22" s="13"/>
       <c r="AH22" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI22" s="13"/>
       <c r="AJ22" s="13"/>
@@ -26504,7 +26609,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
@@ -26529,7 +26634,7 @@
         <v>321</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
@@ -26543,14 +26648,14 @@
         <v>119</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="AF23" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AG23" s="13"/>
       <c r="AH23" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI23" s="13"/>
       <c r="AJ23" s="13"/>
@@ -26577,7 +26682,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
@@ -26602,7 +26707,7 @@
         <v>321</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
@@ -26614,14 +26719,14 @@
       </c>
       <c r="AD24" s="13"/>
       <c r="AE24" s="1" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
       <c r="AF24" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG24" s="13"/>
       <c r="AH24" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI24" s="13"/>
       <c r="AJ24" s="13"/>
@@ -26671,7 +26776,7 @@
         <v>321</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
@@ -26681,14 +26786,14 @@
       <c r="AC25" s="13"/>
       <c r="AD25" s="13"/>
       <c r="AE25" s="1" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="AF25" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AG25" s="13"/>
       <c r="AH25" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI25" s="13"/>
       <c r="AJ25" s="13"/>
@@ -26715,7 +26820,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
@@ -26740,7 +26845,7 @@
         <v>321</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
@@ -26752,14 +26857,14 @@
       </c>
       <c r="AD26" s="13"/>
       <c r="AE26" s="1" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="AF26" s="1" t="s">
         <v>648</v>
       </c>
       <c r="AG26" s="13"/>
       <c r="AH26" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI26" s="13"/>
       <c r="AJ26" s="13"/>
@@ -26786,7 +26891,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
@@ -26811,7 +26916,7 @@
         <v>321</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
@@ -26825,14 +26930,14 @@
         <v>201</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="AF27" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AG27" s="13"/>
       <c r="AH27" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI27" s="13"/>
       <c r="AJ27" s="13"/>
@@ -26859,7 +26964,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
@@ -26884,7 +26989,7 @@
         <v>321</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X28" s="13"/>
       <c r="Y28" s="13"/>
@@ -26898,14 +27003,14 @@
         <v>201</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="AF28" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AG28" s="13"/>
       <c r="AH28" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI28" s="13"/>
       <c r="AJ28" s="13"/>
@@ -26932,7 +27037,7 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
@@ -26957,7 +27062,7 @@
         <v>321</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
@@ -26971,14 +27076,14 @@
         <v>201</v>
       </c>
       <c r="AE29" s="1" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
       <c r="AF29" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AG29" s="13"/>
       <c r="AH29" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI29" s="13"/>
       <c r="AJ29" s="13"/>
@@ -27028,7 +27133,7 @@
         <v>321</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
@@ -27037,17 +27142,17 @@
       <c r="AB30" s="13"/>
       <c r="AC30" s="13"/>
       <c r="AD30" s="1" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="AF30" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AG30" s="13"/>
       <c r="AH30" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI30" s="13"/>
       <c r="AJ30" s="13"/>
@@ -27097,7 +27202,7 @@
         <v>321</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X31" s="13"/>
       <c r="Y31" s="13"/>
@@ -27106,17 +27211,17 @@
       <c r="AB31" s="13"/>
       <c r="AC31" s="13"/>
       <c r="AD31" s="1" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="AF31" s="1" t="s">
         <v>225</v>
       </c>
       <c r="AG31" s="13"/>
       <c r="AH31" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI31" s="13"/>
       <c r="AJ31" s="13"/>
@@ -27143,7 +27248,7 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
@@ -27168,7 +27273,7 @@
         <v>321</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X32" s="13"/>
       <c r="Y32" s="13"/>
@@ -27180,14 +27285,14 @@
       </c>
       <c r="AD32" s="13"/>
       <c r="AE32" s="1" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="AF32" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG32" s="13"/>
       <c r="AH32" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI32" s="13"/>
       <c r="AJ32" s="13"/>
@@ -27237,7 +27342,7 @@
         <v>321</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X33" s="13"/>
       <c r="Y33" s="13"/>
@@ -27247,14 +27352,14 @@
       <c r="AC33" s="13"/>
       <c r="AD33" s="13"/>
       <c r="AE33" s="1" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="AF33" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG33" s="13"/>
       <c r="AH33" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI33" s="13"/>
       <c r="AJ33" s="13"/>
@@ -27281,7 +27386,7 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
@@ -27306,7 +27411,7 @@
         <v>321</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X34" s="13"/>
       <c r="Y34" s="13"/>
@@ -27318,14 +27423,14 @@
       </c>
       <c r="AD34" s="13"/>
       <c r="AE34" s="1" t="s">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="AF34" s="1" t="s">
         <v>648</v>
       </c>
       <c r="AG34" s="13"/>
       <c r="AH34" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI34" s="13"/>
       <c r="AJ34" s="13"/>
@@ -27375,7 +27480,7 @@
         <v>321</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X35" s="13"/>
       <c r="Y35" s="13"/>
@@ -27387,14 +27492,14 @@
         <v>119</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>1276</v>
+        <v>1279</v>
       </c>
       <c r="AF35" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG35" s="13"/>
       <c r="AH35" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI35" s="13"/>
       <c r="AJ35" s="13"/>
@@ -27444,7 +27549,7 @@
         <v>321</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X36" s="13"/>
       <c r="Y36" s="13"/>
@@ -27461,7 +27566,7 @@
       </c>
       <c r="AG36" s="13"/>
       <c r="AH36" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI36" s="13"/>
       <c r="AJ36" s="13"/>
@@ -27488,7 +27593,7 @@
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4" t="s">
-        <v>1277</v>
+        <v>1280</v>
       </c>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
@@ -27513,7 +27618,7 @@
         <v>321</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X37" s="13"/>
       <c r="Y37" s="13"/>
@@ -27521,20 +27626,20 @@
       <c r="AA37" s="13"/>
       <c r="AB37" s="13"/>
       <c r="AC37" s="1" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>1278</v>
+        <v>1281</v>
       </c>
       <c r="AF37" s="1" t="s">
         <v>225</v>
       </c>
       <c r="AG37" s="13"/>
       <c r="AH37" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI37" s="13"/>
       <c r="AJ37" s="13"/>
@@ -27561,7 +27666,7 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
@@ -27586,7 +27691,7 @@
         <v>321</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X38" s="13"/>
       <c r="Y38" s="13"/>
@@ -27594,20 +27699,20 @@
       <c r="AA38" s="13"/>
       <c r="AB38" s="13"/>
       <c r="AC38" s="1" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="AE38" s="1" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
       <c r="AF38" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AG38" s="13"/>
       <c r="AH38" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI38" s="13"/>
       <c r="AJ38" s="13"/>
@@ -27634,7 +27739,7 @@
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
@@ -27659,7 +27764,7 @@
         <v>321</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X39" s="13"/>
       <c r="Y39" s="13"/>
@@ -27667,20 +27772,20 @@
       <c r="AA39" s="13"/>
       <c r="AB39" s="13"/>
       <c r="AC39" s="1" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>1281</v>
+        <v>1284</v>
       </c>
       <c r="AF39" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AG39" s="13"/>
       <c r="AH39" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI39" s="13"/>
       <c r="AJ39" s="13"/>
@@ -27707,7 +27812,7 @@
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4" t="s">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -27732,7 +27837,7 @@
         <v>321</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X40" s="13"/>
       <c r="Y40" s="13"/>
@@ -27740,18 +27845,18 @@
       <c r="AA40" s="13"/>
       <c r="AB40" s="13"/>
       <c r="AC40" s="1" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="AD40" s="13"/>
       <c r="AE40" s="1" t="s">
-        <v>1284</v>
+        <v>1287</v>
       </c>
       <c r="AF40" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG40" s="13"/>
       <c r="AH40" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI40" s="13"/>
       <c r="AJ40" s="13"/>
@@ -27778,7 +27883,7 @@
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4" t="s">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
@@ -27803,7 +27908,7 @@
         <v>321</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X41" s="13"/>
       <c r="Y41" s="13"/>
@@ -27817,14 +27922,14 @@
         <v>119</v>
       </c>
       <c r="AE41" s="1" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="AF41" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG41" s="13"/>
       <c r="AH41" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI41" s="13"/>
       <c r="AJ41" s="13"/>
@@ -27874,7 +27979,7 @@
         <v>321</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X42" s="13"/>
       <c r="Y42" s="13"/>
@@ -27884,14 +27989,14 @@
       <c r="AC42" s="13"/>
       <c r="AD42" s="13"/>
       <c r="AE42" s="1" t="s">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="AF42" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG42" s="13"/>
       <c r="AH42" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI42" s="13"/>
       <c r="AJ42" s="13"/>
@@ -27918,7 +28023,7 @@
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
@@ -27943,7 +28048,7 @@
         <v>321</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X43" s="13"/>
       <c r="Y43" s="13"/>
@@ -27955,14 +28060,14 @@
       </c>
       <c r="AD43" s="13"/>
       <c r="AE43" s="1" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="AF43" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AG43" s="13"/>
       <c r="AH43" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI43" s="13"/>
       <c r="AJ43" s="13"/>
@@ -27989,7 +28094,7 @@
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
@@ -28014,7 +28119,7 @@
         <v>321</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X44" s="13"/>
       <c r="Y44" s="13"/>
@@ -28026,14 +28131,14 @@
       </c>
       <c r="AD44" s="13"/>
       <c r="AE44" s="1" t="s">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="AF44" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AG44" s="13"/>
       <c r="AH44" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI44" s="13"/>
       <c r="AJ44" s="13"/>
@@ -28060,7 +28165,7 @@
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
@@ -28085,7 +28190,7 @@
         <v>321</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X45" s="13"/>
       <c r="Y45" s="13"/>
@@ -28097,14 +28202,14 @@
       </c>
       <c r="AD45" s="13"/>
       <c r="AE45" s="1" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
       <c r="AF45" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AG45" s="13"/>
       <c r="AH45" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI45" s="13"/>
       <c r="AJ45" s="13"/>
@@ -28154,7 +28259,7 @@
         <v>321</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X46" s="13"/>
       <c r="Y46" s="13"/>
@@ -28164,14 +28269,14 @@
       <c r="AC46" s="13"/>
       <c r="AD46" s="13"/>
       <c r="AE46" s="1" t="s">
-        <v>1294</v>
+        <v>1297</v>
       </c>
       <c r="AF46" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AG46" s="13"/>
       <c r="AH46" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI46" s="13"/>
       <c r="AJ46" s="13"/>
@@ -28198,7 +28303,7 @@
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4" t="s">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
@@ -28223,7 +28328,7 @@
         <v>321</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X47" s="13"/>
       <c r="Y47" s="13"/>
@@ -28235,14 +28340,14 @@
       </c>
       <c r="AD47" s="13"/>
       <c r="AE47" s="1" t="s">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="AF47" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AG47" s="13"/>
       <c r="AH47" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI47" s="13"/>
       <c r="AJ47" s="13"/>
@@ -28292,7 +28397,7 @@
         <v>321</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X48" s="13"/>
       <c r="Y48" s="13"/>
@@ -28302,14 +28407,14 @@
       <c r="AC48" s="13"/>
       <c r="AD48" s="13"/>
       <c r="AE48" s="1" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="AF48" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG48" s="13"/>
       <c r="AH48" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI48" s="13"/>
       <c r="AJ48" s="13"/>
@@ -28336,7 +28441,7 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
@@ -28361,7 +28466,7 @@
         <v>321</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X49" s="13"/>
       <c r="Y49" s="13"/>
@@ -28373,14 +28478,14 @@
       </c>
       <c r="AD49" s="13"/>
       <c r="AE49" s="1" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="AF49" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG49" s="13"/>
       <c r="AH49" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI49" s="13"/>
       <c r="AJ49" s="13"/>
@@ -28430,7 +28535,7 @@
         <v>321</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X50" s="13"/>
       <c r="Y50" s="13"/>
@@ -28440,14 +28545,14 @@
       <c r="AC50" s="13"/>
       <c r="AD50" s="13"/>
       <c r="AE50" s="1" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="AF50" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG50" s="13"/>
       <c r="AH50" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI50" s="13"/>
       <c r="AJ50" s="13"/>
@@ -28497,7 +28602,7 @@
         <v>321</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X51" s="13"/>
       <c r="Y51" s="13"/>
@@ -28506,17 +28611,17 @@
       <c r="AB51" s="13"/>
       <c r="AC51" s="13"/>
       <c r="AD51" s="1" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="AE51" s="1" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="AF51" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AG51" s="13"/>
       <c r="AH51" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI51" s="13"/>
       <c r="AJ51" s="13"/>
@@ -28566,7 +28671,7 @@
         <v>321</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X52" s="13"/>
       <c r="Y52" s="13"/>
@@ -28575,17 +28680,17 @@
       <c r="AB52" s="13"/>
       <c r="AC52" s="13"/>
       <c r="AD52" s="1" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="AE52" s="1" t="s">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="AF52" s="1" t="s">
         <v>225</v>
       </c>
       <c r="AG52" s="13"/>
       <c r="AH52" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI52" s="13"/>
       <c r="AJ52" s="13"/>
@@ -28612,7 +28717,7 @@
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
@@ -28637,7 +28742,7 @@
         <v>321</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X53" s="13"/>
       <c r="Y53" s="13"/>
@@ -28651,14 +28756,14 @@
         <v>119</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="AF53" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG53" s="13"/>
       <c r="AH53" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI53" s="13"/>
       <c r="AJ53" s="13"/>
@@ -28708,7 +28813,7 @@
         <v>321</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X54" s="13"/>
       <c r="Y54" s="13"/>
@@ -28720,14 +28825,14 @@
         <v>119</v>
       </c>
       <c r="AE54" s="1" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="AF54" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG54" s="13"/>
       <c r="AH54" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI54" s="13"/>
       <c r="AJ54" s="13"/>
@@ -28754,7 +28859,7 @@
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
@@ -28779,7 +28884,7 @@
         <v>321</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X55" s="13"/>
       <c r="Y55" s="13"/>
@@ -28793,14 +28898,14 @@
         <v>119</v>
       </c>
       <c r="AE55" s="1" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="AF55" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG55" s="13"/>
       <c r="AH55" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI55" s="13"/>
       <c r="AJ55" s="13"/>
@@ -28874,7 +28979,7 @@
         <v>321</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X57" s="13"/>
       <c r="Y57" s="13"/>
@@ -28886,14 +28991,14 @@
         <v>119</v>
       </c>
       <c r="AE57" s="1" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="AF57" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG57" s="13"/>
       <c r="AH57" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI57" s="13"/>
       <c r="AJ57" s="13"/>
@@ -28943,7 +29048,7 @@
         <v>321</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X58" s="13"/>
       <c r="Y58" s="13"/>
@@ -28955,14 +29060,14 @@
         <v>119</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="AF58" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG58" s="13"/>
       <c r="AH58" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI58" s="13"/>
       <c r="AJ58" s="13"/>
@@ -28989,7 +29094,7 @@
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
@@ -29014,7 +29119,7 @@
         <v>321</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X59" s="13"/>
       <c r="Y59" s="13"/>
@@ -29022,20 +29127,20 @@
       <c r="AA59" s="13"/>
       <c r="AB59" s="13"/>
       <c r="AC59" s="1" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="AD59" s="1" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="AE59" s="1" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="AF59" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AG59" s="13"/>
       <c r="AH59" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI59" s="13"/>
       <c r="AJ59" s="13"/>
@@ -29085,7 +29190,7 @@
         <v>321</v>
       </c>
       <c r="W60" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X60" s="13"/>
       <c r="Y60" s="13"/>
@@ -29094,17 +29199,17 @@
       <c r="AB60" s="13"/>
       <c r="AC60" s="13"/>
       <c r="AD60" s="1" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="AE60" s="1" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="AF60" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AG60" s="13"/>
       <c r="AH60" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI60" s="13"/>
       <c r="AJ60" s="13"/>
@@ -29131,7 +29236,7 @@
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4" t="s">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
@@ -29156,7 +29261,7 @@
         <v>321</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X61" s="13"/>
       <c r="Y61" s="13"/>
@@ -29168,14 +29273,14 @@
       </c>
       <c r="AD61" s="13"/>
       <c r="AE61" s="1" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="AF61" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG61" s="13"/>
       <c r="AH61" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI61" s="13"/>
       <c r="AJ61" s="13"/>
@@ -29225,7 +29330,7 @@
         <v>321</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X62" s="13"/>
       <c r="Y62" s="13"/>
@@ -29235,14 +29340,14 @@
       <c r="AC62" s="13"/>
       <c r="AD62" s="13"/>
       <c r="AE62" s="1" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="AF62" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG62" s="13"/>
       <c r="AH62" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI62" s="13"/>
       <c r="AJ62" s="13"/>
@@ -29269,7 +29374,7 @@
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
@@ -29294,7 +29399,7 @@
         <v>321</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X63" s="13"/>
       <c r="Y63" s="13"/>
@@ -29306,14 +29411,14 @@
       </c>
       <c r="AD63" s="13"/>
       <c r="AE63" s="1" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="AF63" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AG63" s="13"/>
       <c r="AH63" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI63" s="13"/>
       <c r="AJ63" s="13"/>
@@ -29363,7 +29468,7 @@
         <v>321</v>
       </c>
       <c r="W64" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X64" s="13"/>
       <c r="Y64" s="13"/>
@@ -29373,14 +29478,14 @@
       <c r="AC64" s="13"/>
       <c r="AD64" s="13"/>
       <c r="AE64" s="1" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="AF64" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AG64" s="13"/>
       <c r="AH64" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI64" s="13"/>
       <c r="AJ64" s="13"/>
@@ -29430,7 +29535,7 @@
         <v>321</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X65" s="13"/>
       <c r="Y65" s="13"/>
@@ -29439,17 +29544,17 @@
       <c r="AB65" s="13"/>
       <c r="AC65" s="13"/>
       <c r="AD65" s="1" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="AE65" s="1" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="AF65" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AG65" s="13"/>
       <c r="AH65" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI65" s="13"/>
       <c r="AJ65" s="13"/>
@@ -29499,7 +29604,7 @@
         <v>321</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X66" s="13"/>
       <c r="Y66" s="13"/>
@@ -29509,14 +29614,14 @@
       <c r="AC66" s="13"/>
       <c r="AD66" s="13"/>
       <c r="AE66" s="1" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="AF66" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG66" s="13"/>
       <c r="AH66" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI66" s="13"/>
       <c r="AJ66" s="13"/>
@@ -29590,7 +29695,7 @@
         <v>321</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X68" s="13"/>
       <c r="Y68" s="13"/>
@@ -29607,7 +29712,7 @@
       </c>
       <c r="AG68" s="13"/>
       <c r="AH68" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI68" s="13"/>
       <c r="AJ68" s="13"/>
@@ -29634,7 +29739,7 @@
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
@@ -29659,7 +29764,7 @@
         <v>321</v>
       </c>
       <c r="W69" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X69" s="13"/>
       <c r="Y69" s="13"/>
@@ -29671,14 +29776,14 @@
       </c>
       <c r="AD69" s="13"/>
       <c r="AE69" s="1" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="AF69" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG69" s="13"/>
       <c r="AH69" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI69" s="13"/>
       <c r="AJ69" s="13"/>
@@ -29705,7 +29810,7 @@
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
@@ -29730,7 +29835,7 @@
         <v>321</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X70" s="13"/>
       <c r="Y70" s="13"/>
@@ -29744,14 +29849,14 @@
         <v>119</v>
       </c>
       <c r="AE70" s="1" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="AF70" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG70" s="13"/>
       <c r="AH70" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI70" s="13"/>
       <c r="AJ70" s="13"/>
@@ -29778,7 +29883,7 @@
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
@@ -29803,7 +29908,7 @@
         <v>321</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X71" s="13"/>
       <c r="Y71" s="13"/>
@@ -29815,14 +29920,14 @@
       </c>
       <c r="AD71" s="13"/>
       <c r="AE71" s="1" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="AF71" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG71" s="13"/>
       <c r="AH71" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI71" s="13"/>
       <c r="AJ71" s="13"/>
@@ -29849,7 +29954,7 @@
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
@@ -29874,7 +29979,7 @@
         <v>321</v>
       </c>
       <c r="W72" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X72" s="13"/>
       <c r="Y72" s="13"/>
@@ -29886,14 +29991,14 @@
       </c>
       <c r="AD72" s="13"/>
       <c r="AE72" s="1" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="AF72" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG72" s="13"/>
       <c r="AH72" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI72" s="13"/>
       <c r="AJ72" s="13"/>
@@ -29943,7 +30048,7 @@
         <v>321</v>
       </c>
       <c r="W73" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X73" s="13"/>
       <c r="Y73" s="13"/>
@@ -29952,17 +30057,17 @@
       <c r="AB73" s="13"/>
       <c r="AC73" s="13"/>
       <c r="AD73" s="1" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="AE73" s="1" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="AF73" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AG73" s="13"/>
       <c r="AH73" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI73" s="13"/>
       <c r="AJ73" s="13"/>
@@ -29989,7 +30094,7 @@
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
@@ -30014,7 +30119,7 @@
         <v>321</v>
       </c>
       <c r="W74" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X74" s="13"/>
       <c r="Y74" s="13"/>
@@ -30025,17 +30130,17 @@
         <v>646</v>
       </c>
       <c r="AD74" s="1" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="AE74" s="1" t="s">
-        <v>1332</v>
+        <v>1335</v>
       </c>
       <c r="AF74" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AG74" s="13"/>
       <c r="AH74" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI74" s="13"/>
       <c r="AJ74" s="13"/>
@@ -30085,7 +30190,7 @@
         <v>321</v>
       </c>
       <c r="W75" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X75" s="13"/>
       <c r="Y75" s="13"/>
@@ -30095,14 +30200,14 @@
       <c r="AC75" s="13"/>
       <c r="AD75" s="13"/>
       <c r="AE75" s="1" t="s">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="AF75" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG75" s="13"/>
       <c r="AH75" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI75" s="13"/>
       <c r="AJ75" s="13"/>
@@ -30152,7 +30257,7 @@
         <v>321</v>
       </c>
       <c r="W76" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X76" s="13"/>
       <c r="Y76" s="13"/>
@@ -30162,14 +30267,14 @@
       <c r="AC76" s="13"/>
       <c r="AD76" s="13"/>
       <c r="AE76" s="1" t="s">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="AF76" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AG76" s="13"/>
       <c r="AH76" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI76" s="13"/>
       <c r="AJ76" s="13"/>
@@ -30219,7 +30324,7 @@
         <v>321</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X77" s="13"/>
       <c r="Y77" s="13"/>
@@ -30228,17 +30333,17 @@
       <c r="AB77" s="13"/>
       <c r="AC77" s="13"/>
       <c r="AD77" s="1" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="AE77" s="1" t="s">
-        <v>1335</v>
+        <v>1338</v>
       </c>
       <c r="AF77" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AG77" s="13"/>
       <c r="AH77" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI77" s="13"/>
       <c r="AJ77" s="13"/>
@@ -30288,7 +30393,7 @@
         <v>321</v>
       </c>
       <c r="W78" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X78" s="13"/>
       <c r="Y78" s="13"/>
@@ -30297,17 +30402,17 @@
       <c r="AB78" s="13"/>
       <c r="AC78" s="13"/>
       <c r="AD78" s="1" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="AE78" s="1" t="s">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="AF78" s="1" t="s">
         <v>225</v>
       </c>
       <c r="AG78" s="13"/>
       <c r="AH78" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI78" s="13"/>
       <c r="AJ78" s="13"/>
@@ -30334,7 +30439,7 @@
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4" t="s">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
@@ -30359,7 +30464,7 @@
         <v>321</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X79" s="13"/>
       <c r="Y79" s="13"/>
@@ -30371,14 +30476,14 @@
       </c>
       <c r="AD79" s="13"/>
       <c r="AE79" s="1" t="s">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="AF79" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG79" s="13"/>
       <c r="AH79" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI79" s="13"/>
       <c r="AJ79" s="13"/>
@@ -30405,7 +30510,7 @@
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4" t="s">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
@@ -30430,7 +30535,7 @@
         <v>321</v>
       </c>
       <c r="W80" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X80" s="13"/>
       <c r="Y80" s="13"/>
@@ -30442,14 +30547,14 @@
       </c>
       <c r="AD80" s="13"/>
       <c r="AE80" s="1" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="AF80" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG80" s="13"/>
       <c r="AH80" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI80" s="13"/>
       <c r="AJ80" s="13"/>
@@ -30499,7 +30604,7 @@
         <v>321</v>
       </c>
       <c r="W81" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X81" s="13"/>
       <c r="Y81" s="13"/>
@@ -30508,17 +30613,17 @@
       <c r="AB81" s="13"/>
       <c r="AC81" s="13"/>
       <c r="AD81" s="1" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="AE81" s="1" t="s">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="AF81" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AG81" s="13"/>
       <c r="AH81" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI81" s="13"/>
       <c r="AJ81" s="13"/>
@@ -30545,7 +30650,7 @@
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
@@ -30570,7 +30675,7 @@
         <v>321</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X82" s="13"/>
       <c r="Y82" s="13"/>
@@ -30582,14 +30687,14 @@
       </c>
       <c r="AD82" s="13"/>
       <c r="AE82" s="1" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="AF82" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AG82" s="13"/>
       <c r="AH82" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI82" s="13"/>
       <c r="AJ82" s="13"/>
@@ -30639,7 +30744,7 @@
         <v>321</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X83" s="13"/>
       <c r="Y83" s="13"/>
@@ -30649,14 +30754,14 @@
       <c r="AC83" s="13"/>
       <c r="AD83" s="13"/>
       <c r="AE83" s="1" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="AF83" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG83" s="13"/>
       <c r="AH83" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI83" s="13"/>
       <c r="AJ83" s="13"/>
@@ -30728,7 +30833,7 @@
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
       <c r="N85" s="4" t="s">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="O85" s="6"/>
       <c r="P85" s="6"/>
@@ -30753,7 +30858,7 @@
         <v>321</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X85" s="13"/>
       <c r="Y85" s="13"/>
@@ -30767,14 +30872,14 @@
         <v>201</v>
       </c>
       <c r="AE85" s="1" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="AF85" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AG85" s="13"/>
       <c r="AH85" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI85" s="13"/>
       <c r="AJ85" s="13"/>
@@ -30824,7 +30929,7 @@
         <v>321</v>
       </c>
       <c r="W86" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X86" s="13"/>
       <c r="Y86" s="13"/>
@@ -30833,17 +30938,17 @@
       <c r="AB86" s="13"/>
       <c r="AC86" s="13"/>
       <c r="AD86" s="1" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="AE86" s="1" t="s">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="AF86" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AG86" s="13"/>
       <c r="AH86" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI86" s="13"/>
       <c r="AJ86" s="13"/>
@@ -30893,7 +30998,7 @@
         <v>321</v>
       </c>
       <c r="W87" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X87" s="13"/>
       <c r="Y87" s="13"/>
@@ -30902,17 +31007,17 @@
       <c r="AB87" s="13"/>
       <c r="AC87" s="13"/>
       <c r="AD87" s="1" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="AE87" s="1" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="AF87" s="1" t="s">
         <v>225</v>
       </c>
       <c r="AG87" s="13"/>
       <c r="AH87" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI87" s="13"/>
       <c r="AJ87" s="13"/>
@@ -30939,7 +31044,7 @@
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="O88" s="6"/>
       <c r="P88" s="6"/>
@@ -30964,7 +31069,7 @@
         <v>321</v>
       </c>
       <c r="W88" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X88" s="13"/>
       <c r="Y88" s="13"/>
@@ -30975,7 +31080,7 @@
         <v>646</v>
       </c>
       <c r="AD88" s="1" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="AE88" s="1" t="s">
         <v>58</v>
@@ -30985,7 +31090,7 @@
       </c>
       <c r="AG88" s="13"/>
       <c r="AH88" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI88" s="13"/>
       <c r="AJ88" s="13"/>
@@ -31035,7 +31140,7 @@
         <v>321</v>
       </c>
       <c r="W89" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X89" s="13"/>
       <c r="Y89" s="13"/>
@@ -31052,7 +31157,7 @@
       </c>
       <c r="AG89" s="13"/>
       <c r="AH89" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI89" s="13"/>
       <c r="AJ89" s="13"/>
@@ -31102,7 +31207,7 @@
         <v>321</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X90" s="13"/>
       <c r="Y90" s="13"/>
@@ -31112,14 +31217,14 @@
       <c r="AC90" s="13"/>
       <c r="AD90" s="13"/>
       <c r="AE90" s="1" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="AF90" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG90" s="13"/>
       <c r="AH90" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI90" s="13"/>
       <c r="AJ90" s="13"/>
@@ -31169,7 +31274,7 @@
         <v>321</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X91" s="13"/>
       <c r="Y91" s="13"/>
@@ -31178,17 +31283,17 @@
       <c r="AB91" s="13"/>
       <c r="AC91" s="13"/>
       <c r="AD91" s="1" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="AE91" s="1" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="AF91" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AG91" s="13"/>
       <c r="AH91" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI91" s="13"/>
       <c r="AJ91" s="13"/>
@@ -31238,7 +31343,7 @@
         <v>321</v>
       </c>
       <c r="W92" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X92" s="13"/>
       <c r="Y92" s="13"/>
@@ -31248,14 +31353,14 @@
       <c r="AC92" s="13"/>
       <c r="AD92" s="13"/>
       <c r="AE92" s="1" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="AF92" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AG92" s="13"/>
       <c r="AH92" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI92" s="13"/>
       <c r="AJ92" s="13"/>
@@ -31282,7 +31387,7 @@
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
@@ -31307,7 +31412,7 @@
         <v>321</v>
       </c>
       <c r="W93" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X93" s="13"/>
       <c r="Y93" s="13"/>
@@ -31315,20 +31420,20 @@
       <c r="AA93" s="13"/>
       <c r="AB93" s="13"/>
       <c r="AC93" s="1" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="AD93" s="1" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="AE93" s="1" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="AF93" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AG93" s="13"/>
       <c r="AH93" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI93" s="13"/>
       <c r="AJ93" s="13"/>
@@ -31378,7 +31483,7 @@
         <v>321</v>
       </c>
       <c r="W94" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X94" s="13"/>
       <c r="Y94" s="13"/>
@@ -31388,14 +31493,14 @@
       <c r="AC94" s="13"/>
       <c r="AD94" s="13"/>
       <c r="AE94" s="1" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="AF94" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG94" s="13"/>
       <c r="AH94" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI94" s="13"/>
       <c r="AJ94" s="13"/>
@@ -31422,7 +31527,7 @@
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
       <c r="N95" s="4" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="O95" s="6"/>
       <c r="P95" s="6"/>
@@ -31447,7 +31552,7 @@
         <v>321</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X95" s="13"/>
       <c r="Y95" s="13"/>
@@ -31461,14 +31566,14 @@
         <v>119</v>
       </c>
       <c r="AE95" s="1" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="AF95" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AG95" s="13"/>
       <c r="AH95" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI95" s="13"/>
       <c r="AJ95" s="13"/>
@@ -31520,7 +31625,7 @@
         <v>321</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X96" s="13"/>
       <c r="Y96" s="13"/>
@@ -31532,14 +31637,14 @@
       </c>
       <c r="AD96" s="13"/>
       <c r="AE96" s="1" t="s">
-        <v>1358</v>
+        <v>1361</v>
       </c>
       <c r="AF96" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AG96" s="13"/>
       <c r="AH96" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI96" s="13"/>
       <c r="AJ96" s="13"/>
@@ -31589,7 +31694,7 @@
         <v>321</v>
       </c>
       <c r="W97" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X97" s="13"/>
       <c r="Y97" s="13"/>
@@ -31601,14 +31706,14 @@
         <v>201</v>
       </c>
       <c r="AE97" s="1" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="AF97" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AG97" s="13"/>
       <c r="AH97" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI97" s="13"/>
       <c r="AJ97" s="13"/>
@@ -31635,7 +31740,7 @@
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
       <c r="N98" s="4" t="s">
-        <v>1360</v>
+        <v>1363</v>
       </c>
       <c r="O98" s="6"/>
       <c r="P98" s="6"/>
@@ -31660,7 +31765,7 @@
         <v>321</v>
       </c>
       <c r="W98" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X98" s="13"/>
       <c r="Y98" s="13"/>
@@ -31672,14 +31777,14 @@
       </c>
       <c r="AD98" s="13"/>
       <c r="AE98" s="1" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="AF98" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG98" s="13"/>
       <c r="AH98" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI98" s="13"/>
       <c r="AJ98" s="13"/>
@@ -31706,7 +31811,7 @@
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
       <c r="N99" s="4" t="s">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="O99" s="6"/>
       <c r="P99" s="6"/>
@@ -31731,7 +31836,7 @@
         <v>321</v>
       </c>
       <c r="W99" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X99" s="13"/>
       <c r="Y99" s="13"/>
@@ -31743,14 +31848,14 @@
       </c>
       <c r="AD99" s="13"/>
       <c r="AE99" s="1" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="AF99" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG99" s="13"/>
       <c r="AH99" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI99" s="13"/>
       <c r="AJ99" s="13"/>
@@ -31800,7 +31905,7 @@
         <v>321</v>
       </c>
       <c r="W100" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X100" s="13"/>
       <c r="Y100" s="13"/>
@@ -31810,14 +31915,14 @@
       <c r="AC100" s="13"/>
       <c r="AD100" s="13"/>
       <c r="AE100" s="1" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="AF100" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG100" s="13"/>
       <c r="AH100" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI100" s="13"/>
       <c r="AJ100" s="13"/>
@@ -31844,7 +31949,7 @@
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="O101" s="6"/>
       <c r="P101" s="6"/>
@@ -31869,7 +31974,7 @@
         <v>321</v>
       </c>
       <c r="W101" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X101" s="13"/>
       <c r="Y101" s="13"/>
@@ -31883,14 +31988,14 @@
         <v>119</v>
       </c>
       <c r="AE101" s="1" t="s">
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="AF101" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG101" s="13"/>
       <c r="AH101" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI101" s="13"/>
       <c r="AJ101" s="13"/>
@@ -31942,7 +32047,7 @@
         <v>321</v>
       </c>
       <c r="W102" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X102" s="13"/>
       <c r="Y102" s="13"/>
@@ -31961,7 +32066,7 @@
       </c>
       <c r="AG102" s="13"/>
       <c r="AH102" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI102" s="13"/>
       <c r="AJ102" s="13"/>
@@ -31988,7 +32093,7 @@
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4" t="s">
-        <v>1367</v>
+        <v>1370</v>
       </c>
       <c r="O103" s="6"/>
       <c r="P103" s="6"/>
@@ -32013,7 +32118,7 @@
         <v>321</v>
       </c>
       <c r="W103" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X103" s="13"/>
       <c r="Y103" s="13"/>
@@ -32025,14 +32130,14 @@
       </c>
       <c r="AD103" s="13"/>
       <c r="AE103" s="1" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="AF103" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AG103" s="13"/>
       <c r="AH103" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI103" s="13"/>
       <c r="AJ103" s="13"/>
@@ -32059,7 +32164,7 @@
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
       <c r="O104" s="6"/>
       <c r="P104" s="6"/>
@@ -32084,7 +32189,7 @@
         <v>321</v>
       </c>
       <c r="W104" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X104" s="13"/>
       <c r="Y104" s="13"/>
@@ -32096,14 +32201,14 @@
       </c>
       <c r="AD104" s="13"/>
       <c r="AE104" s="1" t="s">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="AF104" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AG104" s="13"/>
       <c r="AH104" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI104" s="13"/>
       <c r="AJ104" s="13"/>
@@ -32130,7 +32235,7 @@
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4" t="s">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="O105" s="6"/>
       <c r="P105" s="6"/>
@@ -32155,7 +32260,7 @@
         <v>321</v>
       </c>
       <c r="W105" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X105" s="13"/>
       <c r="Y105" s="13"/>
@@ -32169,14 +32274,14 @@
         <v>563</v>
       </c>
       <c r="AE105" s="1" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
       <c r="AF105" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG105" s="13"/>
       <c r="AH105" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI105" s="13"/>
       <c r="AJ105" s="13"/>
@@ -32204,7 +32309,7 @@
       <c r="M106" s="4"/>
       <c r="AG106" s="13"/>
       <c r="AH106" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI106" s="13"/>
       <c r="AJ106" s="13"/>
@@ -32254,7 +32359,7 @@
         <v>321</v>
       </c>
       <c r="W107" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X107" s="13"/>
       <c r="Y107" s="13"/>
@@ -32264,14 +32369,14 @@
       <c r="AC107" s="13"/>
       <c r="AD107" s="13"/>
       <c r="AE107" s="1" t="s">
-        <v>1373</v>
+        <v>1376</v>
       </c>
       <c r="AF107" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG107" s="13"/>
       <c r="AH107" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI107" s="13"/>
       <c r="AJ107" s="13"/>
@@ -32321,7 +32426,7 @@
         <v>321</v>
       </c>
       <c r="W108" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X108" s="13"/>
       <c r="Y108" s="13"/>
@@ -32334,11 +32439,11 @@
         <v>68</v>
       </c>
       <c r="AF108" s="1" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="AG108" s="13"/>
       <c r="AH108" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI108" s="13"/>
       <c r="AJ108" s="13"/>
@@ -32365,7 +32470,7 @@
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="O109" s="6"/>
       <c r="P109" s="6"/>
@@ -32390,7 +32495,7 @@
         <v>321</v>
       </c>
       <c r="W109" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X109" s="13"/>
       <c r="Y109" s="13"/>
@@ -32398,20 +32503,20 @@
       <c r="AA109" s="13"/>
       <c r="AB109" s="13"/>
       <c r="AC109" s="1" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="AD109" s="1" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="AE109" s="1" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="AF109" s="1" t="s">
         <v>203</v>
       </c>
       <c r="AG109" s="13"/>
       <c r="AH109" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI109" s="13"/>
       <c r="AJ109" s="13"/>
@@ -32438,7 +32543,7 @@
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="O110" s="6"/>
       <c r="P110" s="6"/>
@@ -32463,7 +32568,7 @@
         <v>321</v>
       </c>
       <c r="W110" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X110" s="13"/>
       <c r="Y110" s="13"/>
@@ -32475,14 +32580,14 @@
       </c>
       <c r="AD110" s="13"/>
       <c r="AE110" s="1" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="AF110" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG110" s="13"/>
       <c r="AH110" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI110" s="13"/>
       <c r="AJ110" s="13"/>
@@ -32532,7 +32637,7 @@
         <v>321</v>
       </c>
       <c r="W111" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X111" s="13"/>
       <c r="Y111" s="13"/>
@@ -32542,14 +32647,14 @@
       <c r="AC111" s="13"/>
       <c r="AD111" s="13"/>
       <c r="AE111" s="1" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="AF111" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG111" s="13"/>
       <c r="AH111" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI111" s="13"/>
       <c r="AJ111" s="13"/>
@@ -32599,7 +32704,7 @@
         <v>321</v>
       </c>
       <c r="W112" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X112" s="13"/>
       <c r="Y112" s="13"/>
@@ -32608,17 +32713,17 @@
       <c r="AB112" s="13"/>
       <c r="AC112" s="13"/>
       <c r="AD112" s="1" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="AE112" s="1" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="AF112" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AG112" s="13"/>
       <c r="AH112" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI112" s="13"/>
       <c r="AJ112" s="13"/>
@@ -32668,7 +32773,7 @@
         <v>321</v>
       </c>
       <c r="W113" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X113" s="13"/>
       <c r="Y113" s="13"/>
@@ -32677,17 +32782,17 @@
       <c r="AB113" s="13"/>
       <c r="AC113" s="13"/>
       <c r="AD113" s="1" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="AE113" s="1" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="AF113" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AG113" s="13"/>
       <c r="AH113" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI113" s="13"/>
       <c r="AJ113" s="13"/>
@@ -32714,7 +32819,7 @@
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
       <c r="N114" s="4" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="O114" s="6"/>
       <c r="P114" s="6"/>
@@ -32739,7 +32844,7 @@
         <v>321</v>
       </c>
       <c r="W114" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="X114" s="13"/>
       <c r="Y114" s="13"/>
@@ -32754,7 +32859,7 @@
       <c r="AF114" s="13"/>
       <c r="AG114" s="13"/>
       <c r="AH114" s="14" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AI114" s="13"/>
       <c r="AJ114" s="13"/>
@@ -32809,14 +32914,14 @@
       <c r="X115" s="34"/>
       <c r="Y115" s="34"/>
       <c r="Z115" s="36" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
       <c r="AA115" s="36" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="AB115" s="34"/>
       <c r="AC115" s="34" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AD115" s="34"/>
       <c r="AE115" s="34"/>
@@ -32979,7 +33084,7 @@
       <c r="K116" s="34"/>
       <c r="L116" s="34"/>
       <c r="M116" s="36" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="N116" s="34"/>
       <c r="O116" s="34"/>
@@ -33012,14 +33117,14 @@
       <c r="X116" s="34"/>
       <c r="Y116" s="34"/>
       <c r="Z116" s="36" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="AA116" s="36" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="AB116" s="34"/>
       <c r="AC116" s="34" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="AD116" s="34"/>
       <c r="AE116" s="34"/>
@@ -33041,7 +33146,7 @@
       <c r="AU116" s="34"/>
       <c r="AV116" s="37"/>
       <c r="AW116" s="37" t="s">
-        <v>1387</v>
+        <v>1390</v>
       </c>
       <c r="AX116" s="37"/>
       <c r="AY116" s="37"/>
@@ -33215,14 +33320,14 @@
       <c r="X117" s="34"/>
       <c r="Y117" s="34"/>
       <c r="Z117" s="36" t="s">
-        <v>1388</v>
+        <v>1391</v>
       </c>
       <c r="AA117" s="36" t="s">
-        <v>1389</v>
+        <v>1392</v>
       </c>
       <c r="AB117" s="34"/>
       <c r="AC117" s="34" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="AD117" s="34"/>
       <c r="AE117" s="34"/>
@@ -33244,7 +33349,7 @@
       <c r="AU117" s="34"/>
       <c r="AV117" s="37"/>
       <c r="AW117" s="37" t="s">
-        <v>1387</v>
+        <v>1390</v>
       </c>
       <c r="AX117" s="37"/>
       <c r="AY117" s="37"/>
@@ -33373,13 +33478,13 @@
     </row>
     <row r="118" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A118" s="38" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
       <c r="B118" s="39" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="C118" s="38" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="D118" s="38"/>
       <c r="E118" s="38" t="s">
@@ -33395,10 +33500,10 @@
       <c r="M118" s="39"/>
       <c r="N118" s="39"/>
       <c r="O118" s="38" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="P118" s="38" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="Q118" s="40" t="s">
         <v>89</v>
@@ -33436,12 +33541,12 @@
       <c r="AH118" s="39"/>
       <c r="AI118" s="39"/>
       <c r="AJ118" s="38" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="AK118" s="38"/>
       <c r="AL118" s="38"/>
       <c r="AM118" s="38" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="AN118" s="38"/>
       <c r="AO118" s="38" t="s">
@@ -33460,14 +33565,14 @@
         <v>122</v>
       </c>
       <c r="AT118" s="38" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
       <c r="AU118" s="39" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="AV118" s="39"/>
       <c r="AW118" s="39" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
       <c r="AX118" s="39"/>
       <c r="AY118" s="39"/>
@@ -33596,13 +33701,13 @@
     </row>
     <row r="119" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A119" s="38" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
       <c r="B119" s="39" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="C119" s="38" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="D119" s="38"/>
       <c r="E119" s="38" t="s">
@@ -33618,10 +33723,10 @@
       <c r="M119" s="39"/>
       <c r="N119" s="39"/>
       <c r="O119" s="38" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="P119" s="38" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="Q119" s="40" t="s">
         <v>666</v>
@@ -33659,12 +33764,12 @@
       <c r="AH119" s="39"/>
       <c r="AI119" s="39"/>
       <c r="AJ119" s="38" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="AK119" s="38"/>
       <c r="AL119" s="38"/>
       <c r="AM119" s="38" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="AN119" s="38"/>
       <c r="AO119" s="38" t="s">
@@ -33683,14 +33788,14 @@
         <v>122</v>
       </c>
       <c r="AT119" s="38" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
       <c r="AU119" s="39" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="AV119" s="39"/>
       <c r="AW119" s="39" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
       <c r="AX119" s="39"/>
       <c r="AY119" s="39"/>
@@ -33819,13 +33924,13 @@
     </row>
     <row r="120" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A120" s="38" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="B120" s="39" t="s">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="C120" s="38" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
       <c r="D120" s="38"/>
       <c r="E120" s="38" t="s">
@@ -33841,10 +33946,10 @@
       <c r="M120" s="39"/>
       <c r="N120" s="39"/>
       <c r="O120" s="38" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="P120" s="38" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="Q120" s="40" t="s">
         <v>803</v>
@@ -33882,12 +33987,12 @@
       <c r="AH120" s="39"/>
       <c r="AI120" s="39"/>
       <c r="AJ120" s="38" t="s">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="AK120" s="38"/>
       <c r="AL120" s="38"/>
       <c r="AM120" s="38" t="s">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="AN120" s="38"/>
       <c r="AO120" s="38" t="s">
@@ -33906,14 +34011,14 @@
         <v>122</v>
       </c>
       <c r="AT120" s="38" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="AU120" s="39" t="s">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="AV120" s="39"/>
       <c r="AW120" s="39" t="s">
-        <v>1404</v>
+        <v>1407</v>
       </c>
       <c r="AX120" s="39"/>
       <c r="AY120" s="39"/>
@@ -34042,13 +34147,13 @@
     </row>
     <row r="121" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A121" s="38" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="B121" s="39" t="s">
-        <v>1406</v>
+        <v>1409</v>
       </c>
       <c r="C121" s="38" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="D121" s="38"/>
       <c r="E121" s="38" t="s">
@@ -34064,10 +34169,10 @@
       <c r="M121" s="39"/>
       <c r="N121" s="39"/>
       <c r="O121" s="38" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="P121" s="38" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="Q121" s="40" t="s">
         <v>102</v>
@@ -34105,12 +34210,12 @@
       <c r="AH121" s="39"/>
       <c r="AI121" s="39"/>
       <c r="AJ121" s="38" t="s">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="AK121" s="38"/>
       <c r="AL121" s="38"/>
       <c r="AM121" s="38" t="s">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="AN121" s="38"/>
       <c r="AO121" s="38" t="s">
@@ -34129,14 +34234,14 @@
         <v>122</v>
       </c>
       <c r="AT121" s="38" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="AU121" s="39" t="s">
-        <v>1406</v>
+        <v>1409</v>
       </c>
       <c r="AV121" s="39"/>
       <c r="AW121" s="39" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
       <c r="AX121" s="39"/>
       <c r="AY121" s="39"/>
@@ -34265,13 +34370,13 @@
     </row>
     <row r="122" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A122" s="38" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
       <c r="B122" s="39" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="C122" s="38" t="s">
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="D122" s="38"/>
       <c r="E122" s="38" t="s">
@@ -34287,10 +34392,10 @@
       <c r="M122" s="39"/>
       <c r="N122" s="39"/>
       <c r="O122" s="38" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
       <c r="P122" s="38" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
       <c r="Q122" s="40" t="s">
         <v>803</v>
@@ -34328,12 +34433,12 @@
       <c r="AH122" s="39"/>
       <c r="AI122" s="39"/>
       <c r="AJ122" s="38" t="s">
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="AK122" s="38"/>
       <c r="AL122" s="38"/>
       <c r="AM122" s="38" t="s">
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="AN122" s="38"/>
       <c r="AO122" s="38" t="s">
@@ -34352,14 +34457,14 @@
         <v>122</v>
       </c>
       <c r="AT122" s="38" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
       <c r="AU122" s="39" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="AV122" s="39"/>
       <c r="AW122" s="39" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
       <c r="AX122" s="39"/>
       <c r="AY122" s="39"/>
@@ -34488,13 +34593,13 @@
     </row>
     <row r="123" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A123" s="32" t="s">
-        <v>1410</v>
+        <v>1413</v>
       </c>
       <c r="B123" s="42" t="s">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="D123" s="32"/>
       <c r="E123" s="32" t="s">
@@ -34510,10 +34615,10 @@
       <c r="M123" s="42"/>
       <c r="N123" s="42"/>
       <c r="O123" s="32" t="s">
-        <v>1410</v>
+        <v>1413</v>
       </c>
       <c r="P123" s="32" t="s">
-        <v>1410</v>
+        <v>1413</v>
       </c>
       <c r="Q123" s="43" t="s">
         <v>89</v>
@@ -34551,12 +34656,12 @@
       <c r="AH123" s="42"/>
       <c r="AI123" s="42"/>
       <c r="AJ123" s="32" t="s">
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="AK123" s="32"/>
       <c r="AL123" s="32"/>
       <c r="AM123" s="32" t="s">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="AN123" s="32"/>
       <c r="AO123" s="32" t="s">
@@ -34575,14 +34680,14 @@
         <v>122</v>
       </c>
       <c r="AT123" s="32" t="s">
-        <v>1410</v>
+        <v>1413</v>
       </c>
       <c r="AU123" s="42" t="s">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="AV123" s="42"/>
       <c r="AW123" s="42" t="s">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="AX123" s="42"/>
       <c r="AY123" s="42"/>
@@ -34711,13 +34816,13 @@
     </row>
     <row r="124" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A124" s="32" t="s">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="B124" s="42" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="D124" s="32"/>
       <c r="E124" s="32" t="s">
@@ -34733,10 +34838,10 @@
       <c r="M124" s="42"/>
       <c r="N124" s="42"/>
       <c r="O124" s="32" t="s">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="P124" s="32" t="s">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="Q124" s="43" t="s">
         <v>89</v>
@@ -34774,12 +34879,12 @@
       <c r="AH124" s="42"/>
       <c r="AI124" s="42"/>
       <c r="AJ124" s="32" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="AK124" s="32"/>
       <c r="AL124" s="32"/>
       <c r="AM124" s="32" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="AN124" s="32"/>
       <c r="AO124" s="32" t="s">
@@ -34798,14 +34903,14 @@
         <v>138</v>
       </c>
       <c r="AT124" s="32" t="s">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="AU124" s="42" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="AV124" s="42"/>
       <c r="AW124" s="42" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="AX124" s="42"/>
       <c r="AY124" s="42"/>
